--- a/earlywarning-pom/Document/test/SME RETAIL/test_BR_SME_Retail.xlsx
+++ b/earlywarning-pom/Document/test/SME RETAIL/test_BR_SME_Retail.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="LOGICA BR" sheetId="1" r:id="rId1"/>
+    <sheet name="COLORE MODULO" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="309">
   <si>
     <t>SNDG</t>
   </si>
@@ -871,13 +872,88 @@
   </si>
   <si>
     <t>0000000000000556'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALORE </t>
+  </si>
+  <si>
+    <t>ESITO</t>
+  </si>
+  <si>
+    <t>MODULO</t>
+  </si>
+  <si>
+    <t>High Priority</t>
+  </si>
+  <si>
+    <t>S50</t>
+  </si>
+  <si>
+    <t>S40</t>
+  </si>
+  <si>
+    <t>S30</t>
+  </si>
+  <si>
+    <t>S20</t>
+  </si>
+  <si>
+    <t>S00</t>
+  </si>
+  <si>
+    <t>Qualitativo</t>
+  </si>
+  <si>
+    <t>S01</t>
+  </si>
+  <si>
+    <t>SEMAFORO_SEGNALI_GRAVI_RISK</t>
+  </si>
+  <si>
+    <t>SEMAFORO_RATE_IMPAGATE</t>
+  </si>
+  <si>
+    <t>SEMAFORO_SCONFINO_CC</t>
+  </si>
+  <si>
+    <t>SEMAFORO_FORBORNE</t>
+  </si>
+  <si>
+    <t>SEMAFORO_INSOLUTI</t>
+  </si>
+  <si>
+    <t>SEMAFORO_SGR_GARNEG</t>
+  </si>
+  <si>
+    <t>SEMAFORO_SGR_GARSOFF</t>
+  </si>
+  <si>
+    <t>SEMAFORO_SGR_SOC</t>
+  </si>
+  <si>
+    <t>SEMAFORO_RATE_CC</t>
+  </si>
+  <si>
+    <t>SEMAFORO_NOPG</t>
+  </si>
+  <si>
+    <t>S10</t>
+  </si>
+  <si>
+    <t>Covenant</t>
+  </si>
+  <si>
+    <t>Carta Commerciale</t>
+  </si>
+  <si>
+    <t>Preammortamenti</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -892,8 +968,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -903,6 +986,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -934,7 +1023,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -959,6 +1048,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -1239,13 +1338,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:BF163"/>
+  <dimension ref="B2:BH163"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="2" topLeftCell="AO128" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E155" sqref="E155"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3:C163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1261,9 +1360,11 @@
     <col min="41" max="52" width="8.88671875" style="3"/>
     <col min="55" max="55" width="8.88671875" style="3"/>
     <col min="58" max="58" width="8.88671875" style="3"/>
+    <col min="59" max="59" width="10.33203125" customWidth="1"/>
+    <col min="60" max="60" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:58" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1435,8 +1536,14 @@
       <c r="BF2" s="2" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="3" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="BG2" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="BH2" s="10" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="3" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
@@ -1504,8 +1611,10 @@
       <c r="BD3" s="8"/>
       <c r="BE3" s="8"/>
       <c r="BF3" s="5"/>
-    </row>
-    <row r="4" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="BG3" s="8"/>
+      <c r="BH3" s="8"/>
+    </row>
+    <row r="4" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
         <v>17</v>
       </c>
@@ -1573,8 +1682,10 @@
       <c r="BD4" s="8"/>
       <c r="BE4" s="8"/>
       <c r="BF4" s="5"/>
-    </row>
-    <row r="5" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="BG4" s="8"/>
+      <c r="BH4" s="8"/>
+    </row>
+    <row r="5" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
         <v>18</v>
       </c>
@@ -1642,8 +1753,10 @@
       <c r="BD5" s="8"/>
       <c r="BE5" s="8"/>
       <c r="BF5" s="5"/>
-    </row>
-    <row r="6" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="BG5" s="8"/>
+      <c r="BH5" s="8"/>
+    </row>
+    <row r="6" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
         <v>19</v>
       </c>
@@ -1709,8 +1822,10 @@
       <c r="BD6" s="8"/>
       <c r="BE6" s="8"/>
       <c r="BF6" s="5"/>
-    </row>
-    <row r="7" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="BG6" s="8"/>
+      <c r="BH6" s="8"/>
+    </row>
+    <row r="7" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B7" s="4" t="s">
         <v>20</v>
       </c>
@@ -1776,8 +1891,10 @@
       <c r="BD7" s="8"/>
       <c r="BE7" s="8"/>
       <c r="BF7" s="5"/>
-    </row>
-    <row r="8" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="BG7" s="8"/>
+      <c r="BH7" s="8"/>
+    </row>
+    <row r="8" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1843,8 +1960,10 @@
       <c r="BD8" s="8"/>
       <c r="BE8" s="8"/>
       <c r="BF8" s="5"/>
-    </row>
-    <row r="9" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="BG8" s="8"/>
+      <c r="BH8" s="8"/>
+    </row>
+    <row r="9" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
         <v>22</v>
       </c>
@@ -1910,8 +2029,10 @@
       <c r="BD9" s="8"/>
       <c r="BE9" s="8"/>
       <c r="BF9" s="5"/>
-    </row>
-    <row r="10" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="BG9" s="8"/>
+      <c r="BH9" s="8"/>
+    </row>
+    <row r="10" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B10" s="4" t="s">
         <v>23</v>
       </c>
@@ -1977,8 +2098,10 @@
       <c r="BD10" s="8"/>
       <c r="BE10" s="8"/>
       <c r="BF10" s="5"/>
-    </row>
-    <row r="11" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="BG10" s="8"/>
+      <c r="BH10" s="8"/>
+    </row>
+    <row r="11" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B11" s="4" t="s">
         <v>30</v>
       </c>
@@ -2044,8 +2167,10 @@
       <c r="BD11" s="8"/>
       <c r="BE11" s="8"/>
       <c r="BF11" s="5"/>
-    </row>
-    <row r="12" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="BG11" s="8"/>
+      <c r="BH11" s="8"/>
+    </row>
+    <row r="12" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B12" s="4" t="s">
         <v>31</v>
       </c>
@@ -2111,8 +2236,10 @@
       <c r="BD12" s="8"/>
       <c r="BE12" s="8"/>
       <c r="BF12" s="5"/>
-    </row>
-    <row r="13" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="BG12" s="8"/>
+      <c r="BH12" s="8"/>
+    </row>
+    <row r="13" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B13" s="4" t="s">
         <v>32</v>
       </c>
@@ -2178,8 +2305,10 @@
       <c r="BD13" s="8"/>
       <c r="BE13" s="8"/>
       <c r="BF13" s="5"/>
-    </row>
-    <row r="14" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="BG13" s="8"/>
+      <c r="BH13" s="8"/>
+    </row>
+    <row r="14" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B14" s="4" t="s">
         <v>34</v>
       </c>
@@ -2245,8 +2374,10 @@
       <c r="BD14" s="8"/>
       <c r="BE14" s="8"/>
       <c r="BF14" s="5"/>
-    </row>
-    <row r="15" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="BG14" s="8"/>
+      <c r="BH14" s="8"/>
+    </row>
+    <row r="15" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B15" s="4" t="s">
         <v>35</v>
       </c>
@@ -2312,8 +2443,10 @@
       <c r="BD15" s="8"/>
       <c r="BE15" s="8"/>
       <c r="BF15" s="5"/>
-    </row>
-    <row r="16" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="BG15" s="8"/>
+      <c r="BH15" s="8"/>
+    </row>
+    <row r="16" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B16" s="4" t="s">
         <v>36</v>
       </c>
@@ -2379,8 +2512,10 @@
       <c r="BD16" s="8"/>
       <c r="BE16" s="8"/>
       <c r="BF16" s="5"/>
-    </row>
-    <row r="17" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="BG16" s="8"/>
+      <c r="BH16" s="8"/>
+    </row>
+    <row r="17" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B17" s="4" t="s">
         <v>37</v>
       </c>
@@ -2446,8 +2581,10 @@
       <c r="BD17" s="8"/>
       <c r="BE17" s="8"/>
       <c r="BF17" s="5"/>
-    </row>
-    <row r="18" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="BG17" s="8"/>
+      <c r="BH17" s="8"/>
+    </row>
+    <row r="18" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B18" s="4" t="s">
         <v>38</v>
       </c>
@@ -2513,8 +2650,10 @@
       <c r="BD18" s="8"/>
       <c r="BE18" s="8"/>
       <c r="BF18" s="5"/>
-    </row>
-    <row r="19" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="BG18" s="8"/>
+      <c r="BH18" s="8"/>
+    </row>
+    <row r="19" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B19" s="4" t="s">
         <v>39</v>
       </c>
@@ -2580,8 +2719,10 @@
       <c r="BD19" s="8"/>
       <c r="BE19" s="8"/>
       <c r="BF19" s="5"/>
-    </row>
-    <row r="20" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="BG19" s="8"/>
+      <c r="BH19" s="8"/>
+    </row>
+    <row r="20" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B20" s="4" t="s">
         <v>40</v>
       </c>
@@ -2647,8 +2788,10 @@
       <c r="BD20" s="8"/>
       <c r="BE20" s="8"/>
       <c r="BF20" s="5"/>
-    </row>
-    <row r="21" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="BG20" s="8"/>
+      <c r="BH20" s="8"/>
+    </row>
+    <row r="21" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B21" s="4" t="s">
         <v>53</v>
       </c>
@@ -2714,8 +2857,10 @@
       <c r="BD21" s="8"/>
       <c r="BE21" s="8"/>
       <c r="BF21" s="5"/>
-    </row>
-    <row r="22" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="BG21" s="8"/>
+      <c r="BH21" s="8"/>
+    </row>
+    <row r="22" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B22" s="4" t="s">
         <v>54</v>
       </c>
@@ -2781,8 +2926,10 @@
       <c r="BD22" s="8"/>
       <c r="BE22" s="8"/>
       <c r="BF22" s="5"/>
-    </row>
-    <row r="23" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="BG22" s="8"/>
+      <c r="BH22" s="8"/>
+    </row>
+    <row r="23" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B23" s="4" t="s">
         <v>55</v>
       </c>
@@ -2848,8 +2995,10 @@
       <c r="BD23" s="8"/>
       <c r="BE23" s="8"/>
       <c r="BF23" s="5"/>
-    </row>
-    <row r="24" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="BG23" s="8"/>
+      <c r="BH23" s="8"/>
+    </row>
+    <row r="24" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B24" s="4" t="s">
         <v>57</v>
       </c>
@@ -2915,8 +3064,10 @@
       <c r="BD24" s="8"/>
       <c r="BE24" s="8"/>
       <c r="BF24" s="5"/>
-    </row>
-    <row r="25" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="BG24" s="8"/>
+      <c r="BH24" s="8"/>
+    </row>
+    <row r="25" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B25" s="4" t="s">
         <v>58</v>
       </c>
@@ -2982,8 +3133,10 @@
       <c r="BD25" s="8"/>
       <c r="BE25" s="8"/>
       <c r="BF25" s="5"/>
-    </row>
-    <row r="26" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="BG25" s="8"/>
+      <c r="BH25" s="8"/>
+    </row>
+    <row r="26" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B26" s="4" t="s">
         <v>60</v>
       </c>
@@ -3049,8 +3202,10 @@
       <c r="BD26" s="8"/>
       <c r="BE26" s="8"/>
       <c r="BF26" s="5"/>
-    </row>
-    <row r="27" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="BG26" s="8"/>
+      <c r="BH26" s="8"/>
+    </row>
+    <row r="27" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B27" s="4" t="s">
         <v>61</v>
       </c>
@@ -3116,8 +3271,10 @@
       <c r="BD27" s="8"/>
       <c r="BE27" s="8"/>
       <c r="BF27" s="5"/>
-    </row>
-    <row r="28" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="BG27" s="8"/>
+      <c r="BH27" s="8"/>
+    </row>
+    <row r="28" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B28" s="4" t="s">
         <v>63</v>
       </c>
@@ -3183,8 +3340,10 @@
       <c r="BD28" s="8"/>
       <c r="BE28" s="8"/>
       <c r="BF28" s="5"/>
-    </row>
-    <row r="29" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="BG28" s="8"/>
+      <c r="BH28" s="8"/>
+    </row>
+    <row r="29" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B29" s="4" t="s">
         <v>64</v>
       </c>
@@ -3250,8 +3409,10 @@
       <c r="BD29" s="8"/>
       <c r="BE29" s="8"/>
       <c r="BF29" s="5"/>
-    </row>
-    <row r="30" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="BG29" s="8"/>
+      <c r="BH29" s="8"/>
+    </row>
+    <row r="30" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B30" s="4" t="s">
         <v>65</v>
       </c>
@@ -3317,8 +3478,10 @@
       <c r="BD30" s="8"/>
       <c r="BE30" s="8"/>
       <c r="BF30" s="5"/>
-    </row>
-    <row r="31" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="BG30" s="8"/>
+      <c r="BH30" s="8"/>
+    </row>
+    <row r="31" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B31" s="4" t="s">
         <v>67</v>
       </c>
@@ -3384,8 +3547,10 @@
       <c r="BD31" s="8"/>
       <c r="BE31" s="8"/>
       <c r="BF31" s="5"/>
-    </row>
-    <row r="32" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="BG31" s="8"/>
+      <c r="BH31" s="8"/>
+    </row>
+    <row r="32" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B32" s="4" t="s">
         <v>68</v>
       </c>
@@ -3451,8 +3616,10 @@
       <c r="BD32" s="8"/>
       <c r="BE32" s="8"/>
       <c r="BF32" s="5"/>
-    </row>
-    <row r="33" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="BG32" s="8"/>
+      <c r="BH32" s="8"/>
+    </row>
+    <row r="33" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B33" s="4" t="s">
         <v>69</v>
       </c>
@@ -3518,8 +3685,10 @@
       <c r="BD33" s="8"/>
       <c r="BE33" s="8"/>
       <c r="BF33" s="5"/>
-    </row>
-    <row r="34" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="BG33" s="8"/>
+      <c r="BH33" s="8"/>
+    </row>
+    <row r="34" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B34" s="4" t="s">
         <v>70</v>
       </c>
@@ -3585,8 +3754,10 @@
       <c r="BD34" s="8"/>
       <c r="BE34" s="8"/>
       <c r="BF34" s="5"/>
-    </row>
-    <row r="35" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="BG34" s="8"/>
+      <c r="BH34" s="8"/>
+    </row>
+    <row r="35" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B35" s="4" t="s">
         <v>73</v>
       </c>
@@ -3652,8 +3823,10 @@
       <c r="BD35" s="8"/>
       <c r="BE35" s="8"/>
       <c r="BF35" s="5"/>
-    </row>
-    <row r="36" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="BG35" s="8"/>
+      <c r="BH35" s="8"/>
+    </row>
+    <row r="36" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B36" s="4" t="s">
         <v>74</v>
       </c>
@@ -3719,8 +3892,10 @@
       <c r="BD36" s="8"/>
       <c r="BE36" s="8"/>
       <c r="BF36" s="5"/>
-    </row>
-    <row r="37" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="BG36" s="8"/>
+      <c r="BH36" s="8"/>
+    </row>
+    <row r="37" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B37" s="4" t="s">
         <v>76</v>
       </c>
@@ -3786,8 +3961,10 @@
       <c r="BD37" s="8"/>
       <c r="BE37" s="8"/>
       <c r="BF37" s="5"/>
-    </row>
-    <row r="38" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="BG37" s="8"/>
+      <c r="BH37" s="8"/>
+    </row>
+    <row r="38" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B38" s="4" t="s">
         <v>77</v>
       </c>
@@ -3853,8 +4030,10 @@
       <c r="BD38" s="8"/>
       <c r="BE38" s="8"/>
       <c r="BF38" s="5"/>
-    </row>
-    <row r="39" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="BG38" s="8"/>
+      <c r="BH38" s="8"/>
+    </row>
+    <row r="39" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B39" s="4" t="s">
         <v>79</v>
       </c>
@@ -3920,8 +4099,10 @@
       <c r="BD39" s="8"/>
       <c r="BE39" s="8"/>
       <c r="BF39" s="5"/>
-    </row>
-    <row r="40" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="BG39" s="8"/>
+      <c r="BH39" s="8"/>
+    </row>
+    <row r="40" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B40" s="4" t="s">
         <v>80</v>
       </c>
@@ -3987,8 +4168,10 @@
       <c r="BD40" s="8"/>
       <c r="BE40" s="8"/>
       <c r="BF40" s="5"/>
-    </row>
-    <row r="41" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="BG40" s="8"/>
+      <c r="BH40" s="8"/>
+    </row>
+    <row r="41" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B41" s="4" t="s">
         <v>86</v>
       </c>
@@ -4054,8 +4237,10 @@
       <c r="BD41" s="8"/>
       <c r="BE41" s="8"/>
       <c r="BF41" s="5"/>
-    </row>
-    <row r="42" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="BG41" s="8"/>
+      <c r="BH41" s="8"/>
+    </row>
+    <row r="42" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B42" s="4" t="s">
         <v>87</v>
       </c>
@@ -4121,8 +4306,10 @@
       <c r="BD42" s="8"/>
       <c r="BE42" s="8"/>
       <c r="BF42" s="5"/>
-    </row>
-    <row r="43" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="BG42" s="8"/>
+      <c r="BH42" s="8"/>
+    </row>
+    <row r="43" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B43" s="4" t="s">
         <v>88</v>
       </c>
@@ -4188,8 +4375,10 @@
       <c r="BD43" s="8"/>
       <c r="BE43" s="8"/>
       <c r="BF43" s="5"/>
-    </row>
-    <row r="44" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="BG43" s="8"/>
+      <c r="BH43" s="8"/>
+    </row>
+    <row r="44" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B44" s="4" t="s">
         <v>89</v>
       </c>
@@ -4255,8 +4444,10 @@
       <c r="BD44" s="8"/>
       <c r="BE44" s="8"/>
       <c r="BF44" s="5"/>
-    </row>
-    <row r="45" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="BG44" s="8"/>
+      <c r="BH44" s="8"/>
+    </row>
+    <row r="45" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B45" s="4" t="s">
         <v>90</v>
       </c>
@@ -4322,8 +4513,10 @@
       <c r="BD45" s="8"/>
       <c r="BE45" s="8"/>
       <c r="BF45" s="5"/>
-    </row>
-    <row r="46" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="BG45" s="8"/>
+      <c r="BH45" s="8"/>
+    </row>
+    <row r="46" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B46" s="4" t="s">
         <v>91</v>
       </c>
@@ -4389,8 +4582,10 @@
       <c r="BD46" s="8"/>
       <c r="BE46" s="8"/>
       <c r="BF46" s="5"/>
-    </row>
-    <row r="47" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="BG46" s="8"/>
+      <c r="BH46" s="8"/>
+    </row>
+    <row r="47" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B47" s="4" t="s">
         <v>92</v>
       </c>
@@ -4456,8 +4651,10 @@
       <c r="BD47" s="8"/>
       <c r="BE47" s="8"/>
       <c r="BF47" s="5"/>
-    </row>
-    <row r="48" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="BG47" s="8"/>
+      <c r="BH47" s="8"/>
+    </row>
+    <row r="48" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B48" s="4" t="s">
         <v>93</v>
       </c>
@@ -4523,8 +4720,10 @@
       <c r="BD48" s="8"/>
       <c r="BE48" s="8"/>
       <c r="BF48" s="5"/>
-    </row>
-    <row r="49" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="BG48" s="8"/>
+      <c r="BH48" s="8"/>
+    </row>
+    <row r="49" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B49" s="4" t="s">
         <v>94</v>
       </c>
@@ -4590,8 +4789,10 @@
       <c r="BD49" s="8"/>
       <c r="BE49" s="8"/>
       <c r="BF49" s="5"/>
-    </row>
-    <row r="50" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="BG49" s="8"/>
+      <c r="BH49" s="8"/>
+    </row>
+    <row r="50" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B50" s="4" t="s">
         <v>95</v>
       </c>
@@ -4657,8 +4858,10 @@
       <c r="BD50" s="8"/>
       <c r="BE50" s="8"/>
       <c r="BF50" s="5"/>
-    </row>
-    <row r="51" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="BG50" s="8"/>
+      <c r="BH50" s="8"/>
+    </row>
+    <row r="51" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B51" s="4" t="s">
         <v>111</v>
       </c>
@@ -4724,8 +4927,10 @@
       <c r="BD51" s="8"/>
       <c r="BE51" s="8"/>
       <c r="BF51" s="5"/>
-    </row>
-    <row r="52" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="BG51" s="8"/>
+      <c r="BH51" s="8"/>
+    </row>
+    <row r="52" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B52" s="4" t="s">
         <v>112</v>
       </c>
@@ -4791,8 +4996,10 @@
       <c r="BD52" s="8"/>
       <c r="BE52" s="8"/>
       <c r="BF52" s="5"/>
-    </row>
-    <row r="53" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="BG52" s="8"/>
+      <c r="BH52" s="8"/>
+    </row>
+    <row r="53" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B53" s="4" t="s">
         <v>113</v>
       </c>
@@ -4858,8 +5065,10 @@
       <c r="BD53" s="8"/>
       <c r="BE53" s="8"/>
       <c r="BF53" s="5"/>
-    </row>
-    <row r="54" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="BG53" s="8"/>
+      <c r="BH53" s="8"/>
+    </row>
+    <row r="54" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B54" s="4" t="s">
         <v>114</v>
       </c>
@@ -4925,8 +5134,10 @@
       <c r="BD54" s="8"/>
       <c r="BE54" s="8"/>
       <c r="BF54" s="5"/>
-    </row>
-    <row r="55" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="BG54" s="8"/>
+      <c r="BH54" s="8"/>
+    </row>
+    <row r="55" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B55" s="4" t="s">
         <v>115</v>
       </c>
@@ -4992,8 +5203,10 @@
       <c r="BD55" s="8"/>
       <c r="BE55" s="8"/>
       <c r="BF55" s="5"/>
-    </row>
-    <row r="56" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="BG55" s="8"/>
+      <c r="BH55" s="8"/>
+    </row>
+    <row r="56" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B56" s="4" t="s">
         <v>116</v>
       </c>
@@ -5059,8 +5272,10 @@
       <c r="BD56" s="8"/>
       <c r="BE56" s="8"/>
       <c r="BF56" s="5"/>
-    </row>
-    <row r="57" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="BG56" s="8"/>
+      <c r="BH56" s="8"/>
+    </row>
+    <row r="57" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B57" s="4" t="s">
         <v>117</v>
       </c>
@@ -5126,8 +5341,10 @@
       <c r="BD57" s="8"/>
       <c r="BE57" s="8"/>
       <c r="BF57" s="5"/>
-    </row>
-    <row r="58" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="BG57" s="8"/>
+      <c r="BH57" s="8"/>
+    </row>
+    <row r="58" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B58" s="4" t="s">
         <v>118</v>
       </c>
@@ -5193,8 +5410,10 @@
       <c r="BD58" s="8"/>
       <c r="BE58" s="8"/>
       <c r="BF58" s="5"/>
-    </row>
-    <row r="59" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="BG58" s="8"/>
+      <c r="BH58" s="8"/>
+    </row>
+    <row r="59" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B59" s="4" t="s">
         <v>119</v>
       </c>
@@ -5260,8 +5479,10 @@
       <c r="BD59" s="8"/>
       <c r="BE59" s="8"/>
       <c r="BF59" s="5"/>
-    </row>
-    <row r="60" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="BG59" s="8"/>
+      <c r="BH59" s="8"/>
+    </row>
+    <row r="60" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B60" s="4" t="s">
         <v>120</v>
       </c>
@@ -5327,8 +5548,10 @@
       <c r="BD60" s="8"/>
       <c r="BE60" s="8"/>
       <c r="BF60" s="5"/>
-    </row>
-    <row r="61" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="BG60" s="8"/>
+      <c r="BH60" s="8"/>
+    </row>
+    <row r="61" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B61" s="4" t="s">
         <v>121</v>
       </c>
@@ -5394,8 +5617,10 @@
       <c r="BD61" s="8"/>
       <c r="BE61" s="8"/>
       <c r="BF61" s="5"/>
-    </row>
-    <row r="62" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="BG61" s="8"/>
+      <c r="BH61" s="8"/>
+    </row>
+    <row r="62" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B62" s="4" t="s">
         <v>122</v>
       </c>
@@ -5461,8 +5686,10 @@
       <c r="BD62" s="8"/>
       <c r="BE62" s="8"/>
       <c r="BF62" s="5"/>
-    </row>
-    <row r="63" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="BG62" s="8"/>
+      <c r="BH62" s="8"/>
+    </row>
+    <row r="63" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B63" s="4" t="s">
         <v>123</v>
       </c>
@@ -5528,8 +5755,10 @@
       <c r="BD63" s="8"/>
       <c r="BE63" s="8"/>
       <c r="BF63" s="5"/>
-    </row>
-    <row r="64" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="BG63" s="8"/>
+      <c r="BH63" s="8"/>
+    </row>
+    <row r="64" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B64" s="4" t="s">
         <v>124</v>
       </c>
@@ -5595,8 +5824,10 @@
       <c r="BD64" s="8"/>
       <c r="BE64" s="8"/>
       <c r="BF64" s="5"/>
-    </row>
-    <row r="65" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="BG64" s="8"/>
+      <c r="BH64" s="8"/>
+    </row>
+    <row r="65" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B65" s="4" t="s">
         <v>126</v>
       </c>
@@ -5662,8 +5893,10 @@
       <c r="BD65" s="8"/>
       <c r="BE65" s="8"/>
       <c r="BF65" s="5"/>
-    </row>
-    <row r="66" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="BG65" s="8"/>
+      <c r="BH65" s="8"/>
+    </row>
+    <row r="66" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B66" s="4" t="s">
         <v>127</v>
       </c>
@@ -5729,8 +5962,10 @@
       <c r="BD66" s="8"/>
       <c r="BE66" s="8"/>
       <c r="BF66" s="5"/>
-    </row>
-    <row r="67" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="BG66" s="8"/>
+      <c r="BH66" s="8"/>
+    </row>
+    <row r="67" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B67" s="4" t="s">
         <v>128</v>
       </c>
@@ -5796,8 +6031,10 @@
       <c r="BD67" s="8"/>
       <c r="BE67" s="8"/>
       <c r="BF67" s="5"/>
-    </row>
-    <row r="68" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="BG67" s="8"/>
+      <c r="BH67" s="8"/>
+    </row>
+    <row r="68" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B68" s="4" t="s">
         <v>133</v>
       </c>
@@ -5863,8 +6100,10 @@
       <c r="BD68" s="8"/>
       <c r="BE68" s="8"/>
       <c r="BF68" s="5"/>
-    </row>
-    <row r="69" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="BG68" s="8"/>
+      <c r="BH68" s="8"/>
+    </row>
+    <row r="69" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B69" s="4" t="s">
         <v>134</v>
       </c>
@@ -5930,8 +6169,10 @@
       <c r="BD69" s="8"/>
       <c r="BE69" s="8"/>
       <c r="BF69" s="5"/>
-    </row>
-    <row r="70" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="BG69" s="8"/>
+      <c r="BH69" s="8"/>
+    </row>
+    <row r="70" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B70" s="4" t="s">
         <v>135</v>
       </c>
@@ -5997,8 +6238,10 @@
       <c r="BD70" s="8"/>
       <c r="BE70" s="8"/>
       <c r="BF70" s="5"/>
-    </row>
-    <row r="71" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="BG70" s="8"/>
+      <c r="BH70" s="8"/>
+    </row>
+    <row r="71" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B71" s="4" t="s">
         <v>136</v>
       </c>
@@ -6064,8 +6307,10 @@
       <c r="BD71" s="8"/>
       <c r="BE71" s="8"/>
       <c r="BF71" s="5"/>
-    </row>
-    <row r="72" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="BG71" s="8"/>
+      <c r="BH71" s="8"/>
+    </row>
+    <row r="72" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B72" s="4" t="s">
         <v>137</v>
       </c>
@@ -6131,8 +6376,10 @@
       <c r="BD72" s="8"/>
       <c r="BE72" s="8"/>
       <c r="BF72" s="5"/>
-    </row>
-    <row r="73" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="BG72" s="8"/>
+      <c r="BH72" s="8"/>
+    </row>
+    <row r="73" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B73" s="4" t="s">
         <v>138</v>
       </c>
@@ -6198,8 +6445,10 @@
       <c r="BD73" s="8"/>
       <c r="BE73" s="8"/>
       <c r="BF73" s="5"/>
-    </row>
-    <row r="74" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="BG73" s="8"/>
+      <c r="BH73" s="8"/>
+    </row>
+    <row r="74" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B74" s="4" t="s">
         <v>139</v>
       </c>
@@ -6265,8 +6514,10 @@
       <c r="BD74" s="8"/>
       <c r="BE74" s="8"/>
       <c r="BF74" s="5"/>
-    </row>
-    <row r="75" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="BG74" s="8"/>
+      <c r="BH74" s="8"/>
+    </row>
+    <row r="75" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B75" s="4" t="s">
         <v>141</v>
       </c>
@@ -6332,8 +6583,10 @@
       <c r="BD75" s="8"/>
       <c r="BE75" s="8"/>
       <c r="BF75" s="5"/>
-    </row>
-    <row r="76" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="BG75" s="8"/>
+      <c r="BH75" s="8"/>
+    </row>
+    <row r="76" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B76" s="4" t="s">
         <v>142</v>
       </c>
@@ -6399,8 +6652,10 @@
       <c r="BD76" s="8"/>
       <c r="BE76" s="8"/>
       <c r="BF76" s="5"/>
-    </row>
-    <row r="77" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="BG76" s="8"/>
+      <c r="BH76" s="8"/>
+    </row>
+    <row r="77" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B77" s="4" t="s">
         <v>143</v>
       </c>
@@ -6466,8 +6721,10 @@
       <c r="BD77" s="8"/>
       <c r="BE77" s="8"/>
       <c r="BF77" s="5"/>
-    </row>
-    <row r="78" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="BG77" s="8"/>
+      <c r="BH77" s="8"/>
+    </row>
+    <row r="78" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B78" s="4" t="s">
         <v>145</v>
       </c>
@@ -6533,8 +6790,10 @@
       <c r="BD78" s="8"/>
       <c r="BE78" s="8"/>
       <c r="BF78" s="5"/>
-    </row>
-    <row r="79" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="BG78" s="8"/>
+      <c r="BH78" s="8"/>
+    </row>
+    <row r="79" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B79" s="4" t="s">
         <v>146</v>
       </c>
@@ -6600,8 +6859,10 @@
       <c r="BD79" s="8"/>
       <c r="BE79" s="8"/>
       <c r="BF79" s="5"/>
-    </row>
-    <row r="80" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="BG79" s="8"/>
+      <c r="BH79" s="8"/>
+    </row>
+    <row r="80" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B80" s="4" t="s">
         <v>147</v>
       </c>
@@ -6667,8 +6928,10 @@
       <c r="BD80" s="8"/>
       <c r="BE80" s="8"/>
       <c r="BF80" s="5"/>
-    </row>
-    <row r="81" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="BG80" s="8"/>
+      <c r="BH80" s="8"/>
+    </row>
+    <row r="81" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B81" s="4" t="s">
         <v>148</v>
       </c>
@@ -6734,8 +6997,10 @@
       <c r="BD81" s="8"/>
       <c r="BE81" s="8"/>
       <c r="BF81" s="5"/>
-    </row>
-    <row r="82" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="BG81" s="8"/>
+      <c r="BH81" s="8"/>
+    </row>
+    <row r="82" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B82" s="4" t="s">
         <v>155</v>
       </c>
@@ -6801,8 +7066,10 @@
       <c r="BD82" s="8"/>
       <c r="BE82" s="8"/>
       <c r="BF82" s="5"/>
-    </row>
-    <row r="83" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="BG82" s="8"/>
+      <c r="BH82" s="8"/>
+    </row>
+    <row r="83" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B83" s="4" t="s">
         <v>156</v>
       </c>
@@ -6868,8 +7135,10 @@
       <c r="BD83" s="8"/>
       <c r="BE83" s="8"/>
       <c r="BF83" s="5"/>
-    </row>
-    <row r="84" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="BG83" s="8"/>
+      <c r="BH83" s="8"/>
+    </row>
+    <row r="84" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B84" s="4" t="s">
         <v>157</v>
       </c>
@@ -6935,8 +7204,10 @@
       <c r="BD84" s="8"/>
       <c r="BE84" s="8"/>
       <c r="BF84" s="5"/>
-    </row>
-    <row r="85" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="BG84" s="8"/>
+      <c r="BH84" s="8"/>
+    </row>
+    <row r="85" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B85" s="4" t="s">
         <v>158</v>
       </c>
@@ -7002,8 +7273,10 @@
       <c r="BD85" s="8"/>
       <c r="BE85" s="8"/>
       <c r="BF85" s="5"/>
-    </row>
-    <row r="86" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="BG85" s="8"/>
+      <c r="BH85" s="8"/>
+    </row>
+    <row r="86" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B86" s="4" t="s">
         <v>159</v>
       </c>
@@ -7069,8 +7342,10 @@
       <c r="BD86" s="8"/>
       <c r="BE86" s="8"/>
       <c r="BF86" s="5"/>
-    </row>
-    <row r="87" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="BG86" s="8"/>
+      <c r="BH86" s="8"/>
+    </row>
+    <row r="87" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B87" s="4" t="s">
         <v>160</v>
       </c>
@@ -7136,8 +7411,10 @@
       <c r="BD87" s="8"/>
       <c r="BE87" s="8"/>
       <c r="BF87" s="5"/>
-    </row>
-    <row r="88" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="BG87" s="8"/>
+      <c r="BH87" s="8"/>
+    </row>
+    <row r="88" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B88" s="4" t="s">
         <v>161</v>
       </c>
@@ -7203,8 +7480,10 @@
       <c r="BD88" s="8"/>
       <c r="BE88" s="8"/>
       <c r="BF88" s="5"/>
-    </row>
-    <row r="89" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="BG88" s="8"/>
+      <c r="BH88" s="8"/>
+    </row>
+    <row r="89" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B89" s="4" t="s">
         <v>162</v>
       </c>
@@ -7270,8 +7549,10 @@
       <c r="BD89" s="8"/>
       <c r="BE89" s="8"/>
       <c r="BF89" s="5"/>
-    </row>
-    <row r="90" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="BG89" s="8"/>
+      <c r="BH89" s="8"/>
+    </row>
+    <row r="90" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B90" s="4" t="s">
         <v>163</v>
       </c>
@@ -7337,8 +7618,10 @@
       <c r="BD90" s="8"/>
       <c r="BE90" s="8"/>
       <c r="BF90" s="5"/>
-    </row>
-    <row r="91" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="BG90" s="8"/>
+      <c r="BH90" s="8"/>
+    </row>
+    <row r="91" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B91" s="4" t="s">
         <v>166</v>
       </c>
@@ -7404,8 +7687,10 @@
       <c r="BD91" s="8"/>
       <c r="BE91" s="8"/>
       <c r="BF91" s="5"/>
-    </row>
-    <row r="92" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="BG91" s="8"/>
+      <c r="BH91" s="8"/>
+    </row>
+    <row r="92" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B92" s="4" t="s">
         <v>167</v>
       </c>
@@ -7471,8 +7756,10 @@
       <c r="BD92" s="8"/>
       <c r="BE92" s="8"/>
       <c r="BF92" s="5"/>
-    </row>
-    <row r="93" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="BG92" s="8"/>
+      <c r="BH92" s="8"/>
+    </row>
+    <row r="93" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B93" s="4" t="s">
         <v>173</v>
       </c>
@@ -7540,8 +7827,10 @@
       <c r="BD93" s="8"/>
       <c r="BE93" s="8"/>
       <c r="BF93" s="5"/>
-    </row>
-    <row r="94" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="BG93" s="8"/>
+      <c r="BH93" s="8"/>
+    </row>
+    <row r="94" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B94" s="4" t="s">
         <v>174</v>
       </c>
@@ -7609,8 +7898,10 @@
       <c r="BD94" s="8"/>
       <c r="BE94" s="8"/>
       <c r="BF94" s="5"/>
-    </row>
-    <row r="95" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="BG94" s="8"/>
+      <c r="BH94" s="8"/>
+    </row>
+    <row r="95" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B95" s="4" t="s">
         <v>176</v>
       </c>
@@ -7676,8 +7967,10 @@
       <c r="BD95" s="8"/>
       <c r="BE95" s="8"/>
       <c r="BF95" s="5"/>
-    </row>
-    <row r="96" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="BG95" s="8"/>
+      <c r="BH95" s="8"/>
+    </row>
+    <row r="96" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B96" s="4" t="s">
         <v>177</v>
       </c>
@@ -7743,8 +8036,10 @@
       <c r="BD96" s="8"/>
       <c r="BE96" s="8"/>
       <c r="BF96" s="5"/>
-    </row>
-    <row r="97" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="BG96" s="8"/>
+      <c r="BH96" s="8"/>
+    </row>
+    <row r="97" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B97" s="4" t="s">
         <v>183</v>
       </c>
@@ -7816,8 +8111,10 @@
       <c r="BD97" s="8"/>
       <c r="BE97" s="8"/>
       <c r="BF97" s="5"/>
-    </row>
-    <row r="98" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="BG97" s="8"/>
+      <c r="BH97" s="8"/>
+    </row>
+    <row r="98" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B98" s="4" t="s">
         <v>184</v>
       </c>
@@ -7889,8 +8186,10 @@
       <c r="BD98" s="8"/>
       <c r="BE98" s="8"/>
       <c r="BF98" s="5"/>
-    </row>
-    <row r="99" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="BG98" s="8"/>
+      <c r="BH98" s="8"/>
+    </row>
+    <row r="99" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B99" s="4" t="s">
         <v>185</v>
       </c>
@@ -7962,8 +8261,10 @@
       <c r="BD99" s="8"/>
       <c r="BE99" s="8"/>
       <c r="BF99" s="5"/>
-    </row>
-    <row r="100" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="BG99" s="8"/>
+      <c r="BH99" s="8"/>
+    </row>
+    <row r="100" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B100" s="4" t="s">
         <v>191</v>
       </c>
@@ -8031,8 +8332,10 @@
       <c r="BD100" s="8"/>
       <c r="BE100" s="8"/>
       <c r="BF100" s="5"/>
-    </row>
-    <row r="101" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="BG100" s="8"/>
+      <c r="BH100" s="8"/>
+    </row>
+    <row r="101" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B101" s="4" t="s">
         <v>192</v>
       </c>
@@ -8100,8 +8403,10 @@
       <c r="BD101" s="8"/>
       <c r="BE101" s="8"/>
       <c r="BF101" s="5"/>
-    </row>
-    <row r="102" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="BG101" s="8"/>
+      <c r="BH101" s="8"/>
+    </row>
+    <row r="102" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B102" s="4" t="s">
         <v>193</v>
       </c>
@@ -8169,8 +8474,10 @@
       <c r="BD102" s="8"/>
       <c r="BE102" s="8"/>
       <c r="BF102" s="5"/>
-    </row>
-    <row r="103" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="BG102" s="8"/>
+      <c r="BH102" s="8"/>
+    </row>
+    <row r="103" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B103" s="4" t="s">
         <v>195</v>
       </c>
@@ -8238,8 +8545,10 @@
       <c r="BD103" s="8"/>
       <c r="BE103" s="8"/>
       <c r="BF103" s="5"/>
-    </row>
-    <row r="104" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="BG103" s="8"/>
+      <c r="BH103" s="8"/>
+    </row>
+    <row r="104" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B104" s="4" t="s">
         <v>196</v>
       </c>
@@ -8307,8 +8616,10 @@
       <c r="BD104" s="8"/>
       <c r="BE104" s="8"/>
       <c r="BF104" s="5"/>
-    </row>
-    <row r="105" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="BG104" s="8"/>
+      <c r="BH104" s="8"/>
+    </row>
+    <row r="105" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B105" s="4" t="s">
         <v>197</v>
       </c>
@@ -8376,8 +8687,10 @@
       <c r="BD105" s="8"/>
       <c r="BE105" s="8"/>
       <c r="BF105" s="5"/>
-    </row>
-    <row r="106" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="BG105" s="8"/>
+      <c r="BH105" s="8"/>
+    </row>
+    <row r="106" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B106" s="4" t="s">
         <v>209</v>
       </c>
@@ -8445,8 +8758,10 @@
       <c r="BD106" s="8"/>
       <c r="BE106" s="8"/>
       <c r="BF106" s="5"/>
-    </row>
-    <row r="107" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="BG106" s="8"/>
+      <c r="BH106" s="8"/>
+    </row>
+    <row r="107" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B107" s="4" t="s">
         <v>210</v>
       </c>
@@ -8514,8 +8829,10 @@
       <c r="BD107" s="8"/>
       <c r="BE107" s="8"/>
       <c r="BF107" s="5"/>
-    </row>
-    <row r="108" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="BG107" s="8"/>
+      <c r="BH107" s="8"/>
+    </row>
+    <row r="108" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B108" s="4" t="s">
         <v>211</v>
       </c>
@@ -8583,8 +8900,10 @@
       <c r="BD108" s="8"/>
       <c r="BE108" s="8"/>
       <c r="BF108" s="5"/>
-    </row>
-    <row r="109" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="BG108" s="8"/>
+      <c r="BH108" s="8"/>
+    </row>
+    <row r="109" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B109" s="4" t="s">
         <v>212</v>
       </c>
@@ -8652,8 +8971,10 @@
       <c r="BD109" s="8"/>
       <c r="BE109" s="8"/>
       <c r="BF109" s="5"/>
-    </row>
-    <row r="110" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="BG109" s="8"/>
+      <c r="BH109" s="8"/>
+    </row>
+    <row r="110" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B110" s="4" t="s">
         <v>214</v>
       </c>
@@ -8721,8 +9042,10 @@
       <c r="BD110" s="8"/>
       <c r="BE110" s="8"/>
       <c r="BF110" s="5"/>
-    </row>
-    <row r="111" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="BG110" s="8"/>
+      <c r="BH110" s="8"/>
+    </row>
+    <row r="111" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B111" s="4" t="s">
         <v>215</v>
       </c>
@@ -8790,8 +9113,10 @@
       <c r="BD111" s="8"/>
       <c r="BE111" s="8"/>
       <c r="BF111" s="5"/>
-    </row>
-    <row r="112" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="BG111" s="8"/>
+      <c r="BH111" s="8"/>
+    </row>
+    <row r="112" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B112" s="4" t="s">
         <v>216</v>
       </c>
@@ -8859,8 +9184,10 @@
       <c r="BD112" s="8"/>
       <c r="BE112" s="8"/>
       <c r="BF112" s="5"/>
-    </row>
-    <row r="113" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="BG112" s="8"/>
+      <c r="BH112" s="8"/>
+    </row>
+    <row r="113" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B113" s="4" t="s">
         <v>217</v>
       </c>
@@ -8928,8 +9255,10 @@
       <c r="BD113" s="8"/>
       <c r="BE113" s="8"/>
       <c r="BF113" s="5"/>
-    </row>
-    <row r="114" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="BG113" s="8"/>
+      <c r="BH113" s="8"/>
+    </row>
+    <row r="114" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B114" s="4" t="s">
         <v>219</v>
       </c>
@@ -8997,8 +9326,10 @@
       <c r="BD114" s="8"/>
       <c r="BE114" s="8"/>
       <c r="BF114" s="5"/>
-    </row>
-    <row r="115" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="BG114" s="8"/>
+      <c r="BH114" s="8"/>
+    </row>
+    <row r="115" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B115" s="4" t="s">
         <v>220</v>
       </c>
@@ -9066,8 +9397,10 @@
       <c r="BD115" s="8"/>
       <c r="BE115" s="8"/>
       <c r="BF115" s="5"/>
-    </row>
-    <row r="116" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="BG115" s="8"/>
+      <c r="BH115" s="8"/>
+    </row>
+    <row r="116" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B116" s="4" t="s">
         <v>221</v>
       </c>
@@ -9135,8 +9468,10 @@
       <c r="BD116" s="8"/>
       <c r="BE116" s="8"/>
       <c r="BF116" s="5"/>
-    </row>
-    <row r="117" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="BG116" s="8"/>
+      <c r="BH116" s="8"/>
+    </row>
+    <row r="117" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B117" s="4" t="s">
         <v>222</v>
       </c>
@@ -9204,8 +9539,10 @@
       <c r="BD117" s="8"/>
       <c r="BE117" s="8"/>
       <c r="BF117" s="5"/>
-    </row>
-    <row r="118" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="BG117" s="8"/>
+      <c r="BH117" s="8"/>
+    </row>
+    <row r="118" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B118" s="4" t="s">
         <v>223</v>
       </c>
@@ -9273,8 +9610,10 @@
       <c r="BD118" s="8"/>
       <c r="BE118" s="8"/>
       <c r="BF118" s="5"/>
-    </row>
-    <row r="119" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="BG118" s="8"/>
+      <c r="BH118" s="8"/>
+    </row>
+    <row r="119" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B119" s="4" t="s">
         <v>225</v>
       </c>
@@ -9342,8 +9681,10 @@
       <c r="BD119" s="8"/>
       <c r="BE119" s="8"/>
       <c r="BF119" s="5"/>
-    </row>
-    <row r="120" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="BG119" s="8"/>
+      <c r="BH119" s="8"/>
+    </row>
+    <row r="120" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B120" s="4" t="s">
         <v>226</v>
       </c>
@@ -9411,8 +9752,10 @@
       <c r="BD120" s="8"/>
       <c r="BE120" s="8"/>
       <c r="BF120" s="5"/>
-    </row>
-    <row r="121" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="BG120" s="8"/>
+      <c r="BH120" s="8"/>
+    </row>
+    <row r="121" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B121" s="4" t="s">
         <v>227</v>
       </c>
@@ -9480,8 +9823,10 @@
       <c r="BD121" s="8"/>
       <c r="BE121" s="8"/>
       <c r="BF121" s="5"/>
-    </row>
-    <row r="122" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="BG121" s="8"/>
+      <c r="BH121" s="8"/>
+    </row>
+    <row r="122" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B122" s="4" t="s">
         <v>230</v>
       </c>
@@ -9547,8 +9892,10 @@
       <c r="BD122" s="8"/>
       <c r="BE122" s="8"/>
       <c r="BF122" s="5"/>
-    </row>
-    <row r="123" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="BG122" s="8"/>
+      <c r="BH122" s="8"/>
+    </row>
+    <row r="123" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B123" s="4" t="s">
         <v>231</v>
       </c>
@@ -9614,8 +9961,10 @@
       <c r="BD123" s="8"/>
       <c r="BE123" s="8"/>
       <c r="BF123" s="5"/>
-    </row>
-    <row r="124" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="BG123" s="8"/>
+      <c r="BH123" s="8"/>
+    </row>
+    <row r="124" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B124" s="4" t="s">
         <v>232</v>
       </c>
@@ -9681,8 +10030,10 @@
       <c r="BD124" s="8"/>
       <c r="BE124" s="8"/>
       <c r="BF124" s="5"/>
-    </row>
-    <row r="125" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="BG124" s="8"/>
+      <c r="BH124" s="8"/>
+    </row>
+    <row r="125" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B125" s="4" t="s">
         <v>233</v>
       </c>
@@ -9748,8 +10099,10 @@
       <c r="BD125" s="8"/>
       <c r="BE125" s="8"/>
       <c r="BF125" s="5"/>
-    </row>
-    <row r="126" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="BG125" s="8"/>
+      <c r="BH125" s="8"/>
+    </row>
+    <row r="126" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B126" s="4" t="s">
         <v>234</v>
       </c>
@@ -9815,8 +10168,10 @@
       <c r="BD126" s="8"/>
       <c r="BE126" s="8"/>
       <c r="BF126" s="5"/>
-    </row>
-    <row r="127" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="BG126" s="8"/>
+      <c r="BH126" s="8"/>
+    </row>
+    <row r="127" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B127" s="4" t="s">
         <v>239</v>
       </c>
@@ -9884,8 +10239,10 @@
       <c r="BD127" s="8"/>
       <c r="BE127" s="8"/>
       <c r="BF127" s="5"/>
-    </row>
-    <row r="128" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="BG127" s="8"/>
+      <c r="BH127" s="8"/>
+    </row>
+    <row r="128" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B128" s="4" t="s">
         <v>240</v>
       </c>
@@ -9953,8 +10310,10 @@
       <c r="BD128" s="8"/>
       <c r="BE128" s="8"/>
       <c r="BF128" s="5"/>
-    </row>
-    <row r="129" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="BG128" s="8"/>
+      <c r="BH128" s="8"/>
+    </row>
+    <row r="129" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B129" s="4" t="s">
         <v>241</v>
       </c>
@@ -10022,8 +10381,10 @@
       <c r="BD129" s="8"/>
       <c r="BE129" s="8"/>
       <c r="BF129" s="5"/>
-    </row>
-    <row r="130" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="BG129" s="8"/>
+      <c r="BH129" s="8"/>
+    </row>
+    <row r="130" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B130" s="4" t="s">
         <v>242</v>
       </c>
@@ -10091,8 +10452,10 @@
       <c r="BD130" s="8"/>
       <c r="BE130" s="8"/>
       <c r="BF130" s="5"/>
-    </row>
-    <row r="131" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="BG130" s="8"/>
+      <c r="BH130" s="8"/>
+    </row>
+    <row r="131" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B131" s="4" t="s">
         <v>243</v>
       </c>
@@ -10160,8 +10523,10 @@
       <c r="BD131" s="8"/>
       <c r="BE131" s="8"/>
       <c r="BF131" s="5"/>
-    </row>
-    <row r="132" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="BG131" s="8"/>
+      <c r="BH131" s="8"/>
+    </row>
+    <row r="132" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B132" s="4" t="s">
         <v>244</v>
       </c>
@@ -10229,8 +10594,10 @@
       <c r="BD132" s="8"/>
       <c r="BE132" s="8"/>
       <c r="BF132" s="5"/>
-    </row>
-    <row r="133" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="BG132" s="8"/>
+      <c r="BH132" s="8"/>
+    </row>
+    <row r="133" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B133" s="4" t="s">
         <v>245</v>
       </c>
@@ -10298,8 +10665,10 @@
       <c r="BD133" s="8"/>
       <c r="BE133" s="8"/>
       <c r="BF133" s="5"/>
-    </row>
-    <row r="134" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="BG133" s="8"/>
+      <c r="BH133" s="8"/>
+    </row>
+    <row r="134" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B134" s="4" t="s">
         <v>246</v>
       </c>
@@ -10367,8 +10736,10 @@
       <c r="BD134" s="8"/>
       <c r="BE134" s="8"/>
       <c r="BF134" s="5"/>
-    </row>
-    <row r="135" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="BG134" s="8"/>
+      <c r="BH134" s="8"/>
+    </row>
+    <row r="135" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B135" s="4" t="s">
         <v>247</v>
       </c>
@@ -10434,8 +10805,10 @@
       <c r="BD135" s="8"/>
       <c r="BE135" s="8"/>
       <c r="BF135" s="5"/>
-    </row>
-    <row r="136" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="BG135" s="8"/>
+      <c r="BH135" s="8"/>
+    </row>
+    <row r="136" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B136" s="4" t="s">
         <v>248</v>
       </c>
@@ -10501,8 +10874,10 @@
       <c r="BD136" s="8"/>
       <c r="BE136" s="8"/>
       <c r="BF136" s="5"/>
-    </row>
-    <row r="137" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="BG136" s="8"/>
+      <c r="BH136" s="8"/>
+    </row>
+    <row r="137" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B137" s="4" t="s">
         <v>249</v>
       </c>
@@ -10568,8 +10943,10 @@
       <c r="BD137" s="8"/>
       <c r="BE137" s="8"/>
       <c r="BF137" s="5"/>
-    </row>
-    <row r="138" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="BG137" s="8"/>
+      <c r="BH137" s="8"/>
+    </row>
+    <row r="138" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B138" s="4" t="s">
         <v>250</v>
       </c>
@@ -10635,8 +11012,10 @@
       <c r="BD138" s="8"/>
       <c r="BE138" s="8"/>
       <c r="BF138" s="5"/>
-    </row>
-    <row r="139" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="BG138" s="8"/>
+      <c r="BH138" s="8"/>
+    </row>
+    <row r="139" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B139" s="4" t="s">
         <v>251</v>
       </c>
@@ -10702,8 +11081,10 @@
       <c r="BD139" s="8"/>
       <c r="BE139" s="8"/>
       <c r="BF139" s="5"/>
-    </row>
-    <row r="140" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="BG139" s="8"/>
+      <c r="BH139" s="8"/>
+    </row>
+    <row r="140" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B140" s="4" t="s">
         <v>254</v>
       </c>
@@ -10769,8 +11150,10 @@
       <c r="BD140" s="8"/>
       <c r="BE140" s="8"/>
       <c r="BF140" s="5"/>
-    </row>
-    <row r="141" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="BG140" s="8"/>
+      <c r="BH140" s="8"/>
+    </row>
+    <row r="141" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B141" s="4" t="s">
         <v>255</v>
       </c>
@@ -10836,8 +11219,10 @@
       <c r="BD141" s="8"/>
       <c r="BE141" s="8"/>
       <c r="BF141" s="5"/>
-    </row>
-    <row r="142" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="BG141" s="8"/>
+      <c r="BH141" s="8"/>
+    </row>
+    <row r="142" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B142" s="4" t="s">
         <v>256</v>
       </c>
@@ -10903,8 +11288,10 @@
       <c r="BD142" s="8"/>
       <c r="BE142" s="8"/>
       <c r="BF142" s="5"/>
-    </row>
-    <row r="143" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="BG142" s="8"/>
+      <c r="BH142" s="8"/>
+    </row>
+    <row r="143" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B143" s="4" t="s">
         <v>257</v>
       </c>
@@ -10970,8 +11357,10 @@
       <c r="BD143" s="8"/>
       <c r="BE143" s="8"/>
       <c r="BF143" s="5"/>
-    </row>
-    <row r="144" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="BG143" s="8"/>
+      <c r="BH143" s="8"/>
+    </row>
+    <row r="144" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B144" s="4" t="s">
         <v>258</v>
       </c>
@@ -11037,8 +11426,10 @@
       <c r="BD144" s="8"/>
       <c r="BE144" s="8"/>
       <c r="BF144" s="5"/>
-    </row>
-    <row r="145" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="BG144" s="8"/>
+      <c r="BH144" s="8"/>
+    </row>
+    <row r="145" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B145" s="4" t="s">
         <v>259</v>
       </c>
@@ -11104,8 +11495,10 @@
       <c r="BD145" s="8"/>
       <c r="BE145" s="8"/>
       <c r="BF145" s="5"/>
-    </row>
-    <row r="146" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="BG145" s="8"/>
+      <c r="BH145" s="8"/>
+    </row>
+    <row r="146" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B146" s="4" t="s">
         <v>261</v>
       </c>
@@ -11171,8 +11564,10 @@
       <c r="BD146" s="8"/>
       <c r="BE146" s="8"/>
       <c r="BF146" s="5"/>
-    </row>
-    <row r="147" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="BG146" s="8"/>
+      <c r="BH146" s="8"/>
+    </row>
+    <row r="147" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B147" s="4" t="s">
         <v>262</v>
       </c>
@@ -11238,8 +11633,10 @@
       <c r="BD147" s="8"/>
       <c r="BE147" s="8"/>
       <c r="BF147" s="5"/>
-    </row>
-    <row r="148" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="BG147" s="8"/>
+      <c r="BH147" s="8"/>
+    </row>
+    <row r="148" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B148" s="4" t="s">
         <v>265</v>
       </c>
@@ -11307,8 +11704,10 @@
         <v>65</v>
       </c>
       <c r="BF148" s="5"/>
-    </row>
-    <row r="149" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="BG148" s="8"/>
+      <c r="BH148" s="8"/>
+    </row>
+    <row r="149" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B149" s="4" t="s">
         <v>266</v>
       </c>
@@ -11376,8 +11775,10 @@
         <v>61</v>
       </c>
       <c r="BF149" s="5"/>
-    </row>
-    <row r="150" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="BG149" s="8"/>
+      <c r="BH149" s="8"/>
+    </row>
+    <row r="150" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B150" s="4" t="s">
         <v>267</v>
       </c>
@@ -11445,8 +11846,10 @@
         <v>50</v>
       </c>
       <c r="BF150" s="5"/>
-    </row>
-    <row r="151" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="BG150" s="8"/>
+      <c r="BH150" s="8"/>
+    </row>
+    <row r="151" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B151" s="4" t="s">
         <v>268</v>
       </c>
@@ -11514,8 +11917,10 @@
         <v>70</v>
       </c>
       <c r="BF151" s="5"/>
-    </row>
-    <row r="152" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="BG151" s="8"/>
+      <c r="BH151" s="8"/>
+    </row>
+    <row r="152" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B152" s="4" t="s">
         <v>269</v>
       </c>
@@ -11583,8 +11988,10 @@
         <v>60</v>
       </c>
       <c r="BF152" s="5"/>
-    </row>
-    <row r="153" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="BG152" s="8"/>
+      <c r="BH152" s="8"/>
+    </row>
+    <row r="153" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B153" s="4" t="s">
         <v>270</v>
       </c>
@@ -11652,8 +12059,10 @@
         <v>45</v>
       </c>
       <c r="BF153" s="5"/>
-    </row>
-    <row r="154" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="BG153" s="8"/>
+      <c r="BH153" s="8"/>
+    </row>
+    <row r="154" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B154" s="4" t="s">
         <v>271</v>
       </c>
@@ -11721,8 +12130,10 @@
         <v>60</v>
       </c>
       <c r="BF154" s="5"/>
-    </row>
-    <row r="155" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="BG154" s="8"/>
+      <c r="BH154" s="8"/>
+    </row>
+    <row r="155" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B155" s="4" t="s">
         <v>272</v>
       </c>
@@ -11790,8 +12201,10 @@
         <v>70</v>
       </c>
       <c r="BF155" s="5"/>
-    </row>
-    <row r="156" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="BG155" s="8"/>
+      <c r="BH155" s="8"/>
+    </row>
+    <row r="156" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B156" s="4" t="s">
         <v>273</v>
       </c>
@@ -11859,8 +12272,10 @@
         <v>55</v>
       </c>
       <c r="BF156" s="5"/>
-    </row>
-    <row r="157" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="BG156" s="8"/>
+      <c r="BH156" s="8"/>
+    </row>
+    <row r="157" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B157" s="4" t="s">
         <v>275</v>
       </c>
@@ -11928,8 +12343,10 @@
         <v>65</v>
       </c>
       <c r="BF157" s="5"/>
-    </row>
-    <row r="158" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="BG157" s="8"/>
+      <c r="BH157" s="8"/>
+    </row>
+    <row r="158" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B158" s="4" t="s">
         <v>276</v>
       </c>
@@ -11997,8 +12414,10 @@
         <v>55</v>
       </c>
       <c r="BF158" s="5"/>
-    </row>
-    <row r="159" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="BG158" s="8"/>
+      <c r="BH158" s="8"/>
+    </row>
+    <row r="159" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B159" s="4" t="s">
         <v>277</v>
       </c>
@@ -12066,8 +12485,10 @@
         <v>63</v>
       </c>
       <c r="BF159" s="5"/>
-    </row>
-    <row r="160" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="BG159" s="8"/>
+      <c r="BH159" s="8"/>
+    </row>
+    <row r="160" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B160" s="4" t="s">
         <v>280</v>
       </c>
@@ -12133,8 +12554,10 @@
       <c r="BF160" s="5">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="161" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="BG160" s="8"/>
+      <c r="BH160" s="8"/>
+    </row>
+    <row r="161" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B161" s="4" t="s">
         <v>281</v>
       </c>
@@ -12200,8 +12623,10 @@
       <c r="BF161" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="162" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="BG161" s="8"/>
+      <c r="BH161" s="8"/>
+    </row>
+    <row r="162" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B162" s="4" t="s">
         <v>282</v>
       </c>
@@ -12267,8 +12692,10 @@
       <c r="BF162" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="163" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="BG162" s="8"/>
+      <c r="BH162" s="8"/>
+    </row>
+    <row r="163" spans="2:60" x14ac:dyDescent="0.3">
       <c r="B163" s="4" t="s">
         <v>283</v>
       </c>
@@ -12334,9 +12761,4609 @@
       <c r="BF163" s="5">
         <v>0</v>
       </c>
+      <c r="BG163" s="8"/>
+      <c r="BH163" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:BJ55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="A39" sqref="A39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="29.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AG2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH2" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="AI2" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="AK2" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="AL2" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="AM2" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="AN2" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="AO2" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="AP2" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="AQ2" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="AR2" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="AS2" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="AT2" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="AU2" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="AV2" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="AW2" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="AX2" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="AY2" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="AZ2" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="BA2" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="BB2" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="BC2" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="BD2" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="BE2" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="BF2" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="BG2" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="BH2" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="BI2" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="BJ2" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="3" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="C3" s="8">
+        <v>1</v>
+      </c>
+      <c r="D3" s="8">
+        <v>1</v>
+      </c>
+      <c r="E3" s="8">
+        <v>1</v>
+      </c>
+      <c r="F3" s="8">
+        <v>1</v>
+      </c>
+      <c r="G3" s="8">
+        <v>1</v>
+      </c>
+      <c r="H3" s="8">
+        <v>1</v>
+      </c>
+      <c r="I3" s="8">
+        <v>1</v>
+      </c>
+      <c r="J3" s="8">
+        <v>1</v>
+      </c>
+      <c r="K3" s="8">
+        <v>1</v>
+      </c>
+      <c r="L3" s="8">
+        <v>1</v>
+      </c>
+      <c r="M3" s="8">
+        <v>1</v>
+      </c>
+      <c r="N3" s="8">
+        <v>1</v>
+      </c>
+      <c r="O3" s="8">
+        <v>1</v>
+      </c>
+      <c r="P3" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="8">
+        <v>1</v>
+      </c>
+      <c r="R3" s="8">
+        <v>1</v>
+      </c>
+      <c r="S3" s="8">
+        <v>1</v>
+      </c>
+      <c r="T3" s="8">
+        <v>1</v>
+      </c>
+      <c r="U3" s="8">
+        <v>1</v>
+      </c>
+      <c r="V3" s="8">
+        <v>1</v>
+      </c>
+      <c r="W3" s="8">
+        <v>1</v>
+      </c>
+      <c r="X3" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="8">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="8">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="11"/>
+      <c r="AC3" s="11"/>
+      <c r="AD3" s="8">
+        <v>1</v>
+      </c>
+      <c r="AE3" s="8">
+        <v>1</v>
+      </c>
+      <c r="AF3" s="8">
+        <v>1</v>
+      </c>
+      <c r="AG3" s="8">
+        <v>1</v>
+      </c>
+      <c r="AH3" s="8">
+        <v>1</v>
+      </c>
+      <c r="AI3" s="8">
+        <v>1</v>
+      </c>
+      <c r="AJ3" s="8"/>
+      <c r="AK3" s="8"/>
+      <c r="AL3" s="8"/>
+      <c r="AM3" s="8"/>
+      <c r="AN3" s="8"/>
+      <c r="AO3" s="8"/>
+      <c r="AP3" s="8"/>
+      <c r="AQ3" s="8"/>
+      <c r="AR3" s="8"/>
+      <c r="AS3" s="8"/>
+      <c r="AT3" s="8"/>
+      <c r="AU3" s="8"/>
+      <c r="AV3" s="8"/>
+      <c r="AW3" s="8"/>
+      <c r="AX3" s="8"/>
+      <c r="AY3" s="8"/>
+      <c r="AZ3" s="8"/>
+      <c r="BA3" s="8"/>
+      <c r="BB3" s="8"/>
+      <c r="BC3" s="8"/>
+      <c r="BD3" s="8"/>
+      <c r="BE3" s="8"/>
+      <c r="BF3" s="8"/>
+      <c r="BG3" s="8"/>
+      <c r="BH3" s="8"/>
+      <c r="BI3" s="8"/>
+      <c r="BJ3" s="8"/>
+    </row>
+    <row r="4" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="C4" s="8">
+        <v>1</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0</v>
+      </c>
+      <c r="E4" s="8">
+        <v>1</v>
+      </c>
+      <c r="F4" s="8">
+        <v>1</v>
+      </c>
+      <c r="G4" s="8">
+        <v>1</v>
+      </c>
+      <c r="H4" s="8">
+        <v>0</v>
+      </c>
+      <c r="I4" s="8">
+        <v>0</v>
+      </c>
+      <c r="J4" s="8">
+        <v>1</v>
+      </c>
+      <c r="K4" s="8">
+        <v>1</v>
+      </c>
+      <c r="L4" s="8">
+        <v>0</v>
+      </c>
+      <c r="M4" s="8">
+        <v>1</v>
+      </c>
+      <c r="N4" s="8">
+        <v>0</v>
+      </c>
+      <c r="O4" s="8">
+        <v>1</v>
+      </c>
+      <c r="P4" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="8">
+        <v>1</v>
+      </c>
+      <c r="R4" s="8">
+        <v>1</v>
+      </c>
+      <c r="S4" s="8">
+        <v>1</v>
+      </c>
+      <c r="T4" s="8">
+        <v>1</v>
+      </c>
+      <c r="U4" s="8">
+        <v>1</v>
+      </c>
+      <c r="V4" s="8">
+        <v>1</v>
+      </c>
+      <c r="W4" s="8">
+        <v>1</v>
+      </c>
+      <c r="X4" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="8">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="8">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="11"/>
+      <c r="AC4" s="11"/>
+      <c r="AD4" s="8">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="8">
+        <v>1</v>
+      </c>
+      <c r="AF4" s="8">
+        <v>1</v>
+      </c>
+      <c r="AG4" s="8">
+        <v>1</v>
+      </c>
+      <c r="AH4" s="8">
+        <v>1</v>
+      </c>
+      <c r="AI4" s="8">
+        <v>1</v>
+      </c>
+      <c r="AJ4" s="8"/>
+      <c r="AK4" s="8"/>
+      <c r="AL4" s="8"/>
+      <c r="AM4" s="8"/>
+      <c r="AN4" s="8"/>
+      <c r="AO4" s="8"/>
+      <c r="AP4" s="8"/>
+      <c r="AQ4" s="8"/>
+      <c r="AR4" s="8"/>
+      <c r="AS4" s="8"/>
+      <c r="AT4" s="8"/>
+      <c r="AU4" s="8"/>
+      <c r="AV4" s="8"/>
+      <c r="AW4" s="8"/>
+      <c r="AX4" s="8"/>
+      <c r="AY4" s="8"/>
+      <c r="AZ4" s="8"/>
+      <c r="BA4" s="8"/>
+      <c r="BB4" s="8"/>
+      <c r="BC4" s="8"/>
+      <c r="BD4" s="8"/>
+      <c r="BE4" s="8"/>
+      <c r="BF4" s="8"/>
+      <c r="BG4" s="8"/>
+      <c r="BH4" s="8"/>
+      <c r="BI4" s="8"/>
+      <c r="BJ4" s="8"/>
+    </row>
+    <row r="5" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="C5" s="8">
+        <v>0</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0</v>
+      </c>
+      <c r="E5" s="8">
+        <v>0</v>
+      </c>
+      <c r="F5" s="8">
+        <v>0</v>
+      </c>
+      <c r="G5" s="8">
+        <v>0</v>
+      </c>
+      <c r="H5" s="8">
+        <v>0</v>
+      </c>
+      <c r="I5" s="8">
+        <v>0</v>
+      </c>
+      <c r="J5" s="8">
+        <v>0</v>
+      </c>
+      <c r="K5" s="8">
+        <v>0</v>
+      </c>
+      <c r="L5" s="8">
+        <v>0</v>
+      </c>
+      <c r="M5" s="8">
+        <v>0</v>
+      </c>
+      <c r="N5" s="8">
+        <v>1</v>
+      </c>
+      <c r="O5" s="8">
+        <v>0</v>
+      </c>
+      <c r="P5" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="8">
+        <v>0</v>
+      </c>
+      <c r="R5" s="8">
+        <v>0</v>
+      </c>
+      <c r="S5" s="8">
+        <v>0</v>
+      </c>
+      <c r="T5" s="8">
+        <v>0</v>
+      </c>
+      <c r="U5" s="8">
+        <v>0</v>
+      </c>
+      <c r="V5" s="8">
+        <v>0</v>
+      </c>
+      <c r="W5" s="8">
+        <v>0</v>
+      </c>
+      <c r="X5" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="8"/>
+      <c r="AC5" s="8"/>
+      <c r="AD5" s="8">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="8">
+        <v>1</v>
+      </c>
+      <c r="AG5" s="8">
+        <v>1</v>
+      </c>
+      <c r="AH5" s="8">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="8">
+        <v>1</v>
+      </c>
+      <c r="AJ5" s="8"/>
+      <c r="AK5" s="8"/>
+      <c r="AL5" s="8"/>
+      <c r="AM5" s="8"/>
+      <c r="AN5" s="8"/>
+      <c r="AO5" s="8"/>
+      <c r="AP5" s="8"/>
+      <c r="AQ5" s="8"/>
+      <c r="AR5" s="8"/>
+      <c r="AS5" s="8"/>
+      <c r="AT5" s="8"/>
+      <c r="AU5" s="8"/>
+      <c r="AV5" s="8"/>
+      <c r="AW5" s="8"/>
+      <c r="AX5" s="8"/>
+      <c r="AY5" s="8"/>
+      <c r="AZ5" s="8"/>
+      <c r="BA5" s="8"/>
+      <c r="BB5" s="8"/>
+      <c r="BC5" s="8"/>
+      <c r="BD5" s="8"/>
+      <c r="BE5" s="8"/>
+      <c r="BF5" s="8"/>
+      <c r="BG5" s="8"/>
+      <c r="BH5" s="8"/>
+      <c r="BI5" s="8"/>
+      <c r="BJ5" s="8"/>
+    </row>
+    <row r="6" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="C6" s="8">
+        <v>1</v>
+      </c>
+      <c r="D6" s="8">
+        <v>1</v>
+      </c>
+      <c r="E6" s="8">
+        <v>1</v>
+      </c>
+      <c r="F6" s="8">
+        <v>1</v>
+      </c>
+      <c r="G6" s="8">
+        <v>1</v>
+      </c>
+      <c r="H6" s="8">
+        <v>0</v>
+      </c>
+      <c r="I6" s="8">
+        <v>0</v>
+      </c>
+      <c r="J6" s="8">
+        <v>1</v>
+      </c>
+      <c r="K6" s="8">
+        <v>1</v>
+      </c>
+      <c r="L6" s="8">
+        <v>0</v>
+      </c>
+      <c r="M6" s="8">
+        <v>1</v>
+      </c>
+      <c r="N6" s="8">
+        <v>0</v>
+      </c>
+      <c r="O6" s="8">
+        <v>1</v>
+      </c>
+      <c r="P6" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="8">
+        <v>1</v>
+      </c>
+      <c r="R6" s="8">
+        <v>1</v>
+      </c>
+      <c r="S6" s="8">
+        <v>1</v>
+      </c>
+      <c r="T6" s="8">
+        <v>1</v>
+      </c>
+      <c r="U6" s="8">
+        <v>1</v>
+      </c>
+      <c r="V6" s="8">
+        <v>1</v>
+      </c>
+      <c r="W6" s="8">
+        <v>1</v>
+      </c>
+      <c r="X6" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="8">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="8">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="8"/>
+      <c r="AC6" s="8"/>
+      <c r="AD6" s="8"/>
+      <c r="AE6" s="8"/>
+      <c r="AF6" s="8"/>
+      <c r="AG6" s="8"/>
+      <c r="AH6" s="8"/>
+      <c r="AI6" s="8"/>
+      <c r="AJ6" s="8"/>
+      <c r="AK6" s="8"/>
+      <c r="AL6" s="8"/>
+      <c r="AM6" s="8"/>
+      <c r="AN6" s="8"/>
+      <c r="AO6" s="8"/>
+      <c r="AP6" s="8"/>
+      <c r="AQ6" s="8"/>
+      <c r="AR6" s="8"/>
+      <c r="AS6" s="8"/>
+      <c r="AT6" s="8"/>
+      <c r="AU6" s="8"/>
+      <c r="AV6" s="8"/>
+      <c r="AW6" s="8"/>
+      <c r="AX6" s="8"/>
+      <c r="AY6" s="8"/>
+      <c r="AZ6" s="8"/>
+      <c r="BA6" s="8"/>
+      <c r="BB6" s="8"/>
+      <c r="BC6" s="8"/>
+      <c r="BD6" s="8"/>
+      <c r="BE6" s="8"/>
+      <c r="BF6" s="8"/>
+      <c r="BG6" s="8"/>
+      <c r="BH6" s="8"/>
+      <c r="BI6" s="8"/>
+      <c r="BJ6" s="8"/>
+    </row>
+    <row r="7" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="C7" s="8">
+        <v>0</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0</v>
+      </c>
+      <c r="E7" s="8">
+        <v>0</v>
+      </c>
+      <c r="F7" s="8">
+        <v>0</v>
+      </c>
+      <c r="G7" s="8">
+        <v>0</v>
+      </c>
+      <c r="H7" s="8">
+        <v>0</v>
+      </c>
+      <c r="I7" s="8">
+        <v>0</v>
+      </c>
+      <c r="J7" s="8">
+        <v>0</v>
+      </c>
+      <c r="K7" s="8">
+        <v>0</v>
+      </c>
+      <c r="L7" s="8">
+        <v>0</v>
+      </c>
+      <c r="M7" s="8">
+        <v>0</v>
+      </c>
+      <c r="N7" s="8">
+        <v>0</v>
+      </c>
+      <c r="O7" s="8">
+        <v>0</v>
+      </c>
+      <c r="P7" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="8">
+        <v>0</v>
+      </c>
+      <c r="R7" s="8">
+        <v>0</v>
+      </c>
+      <c r="S7" s="8">
+        <v>0</v>
+      </c>
+      <c r="T7" s="8">
+        <v>0</v>
+      </c>
+      <c r="U7" s="8">
+        <v>0</v>
+      </c>
+      <c r="V7" s="8">
+        <v>0</v>
+      </c>
+      <c r="W7" s="8">
+        <v>0</v>
+      </c>
+      <c r="X7" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="8"/>
+      <c r="AC7" s="8"/>
+      <c r="AD7" s="8">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="8">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="8">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="8">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="8"/>
+      <c r="AK7" s="8"/>
+      <c r="AL7" s="8"/>
+      <c r="AM7" s="8"/>
+      <c r="AN7" s="8"/>
+      <c r="AO7" s="8"/>
+      <c r="AP7" s="8"/>
+      <c r="AQ7" s="8"/>
+      <c r="AR7" s="8"/>
+      <c r="AS7" s="8"/>
+      <c r="AT7" s="8"/>
+      <c r="AU7" s="8"/>
+      <c r="AV7" s="8"/>
+      <c r="AW7" s="8"/>
+      <c r="AX7" s="8"/>
+      <c r="AY7" s="8"/>
+      <c r="AZ7" s="8"/>
+      <c r="BA7" s="8"/>
+      <c r="BB7" s="8"/>
+      <c r="BC7" s="8"/>
+      <c r="BD7" s="8"/>
+      <c r="BE7" s="8"/>
+      <c r="BF7" s="8"/>
+      <c r="BG7" s="8"/>
+      <c r="BH7" s="8"/>
+      <c r="BI7" s="8"/>
+      <c r="BJ7" s="8"/>
+    </row>
+    <row r="8" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="8"/>
+      <c r="W8" s="8"/>
+      <c r="X8" s="8"/>
+      <c r="Y8" s="8"/>
+      <c r="Z8" s="8"/>
+      <c r="AA8" s="8"/>
+      <c r="AB8" s="8">
+        <v>1</v>
+      </c>
+      <c r="AC8" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="8"/>
+      <c r="AE8" s="8"/>
+      <c r="AF8" s="8"/>
+      <c r="AG8" s="8"/>
+      <c r="AH8" s="8"/>
+      <c r="AI8" s="8"/>
+      <c r="AJ8" s="8"/>
+      <c r="AK8" s="8"/>
+      <c r="AL8" s="8"/>
+      <c r="AM8" s="8"/>
+      <c r="AN8" s="8"/>
+      <c r="AO8" s="8"/>
+      <c r="AP8" s="8"/>
+      <c r="AQ8" s="8"/>
+      <c r="AR8" s="8"/>
+      <c r="AS8" s="8"/>
+      <c r="AT8" s="8"/>
+      <c r="AU8" s="8"/>
+      <c r="AV8" s="8"/>
+      <c r="AW8" s="8"/>
+      <c r="AX8" s="8"/>
+      <c r="AY8" s="8"/>
+      <c r="AZ8" s="8"/>
+      <c r="BA8" s="8"/>
+      <c r="BB8" s="8"/>
+      <c r="BC8" s="8"/>
+      <c r="BD8" s="8"/>
+      <c r="BE8" s="8"/>
+      <c r="BF8" s="8"/>
+      <c r="BG8" s="8"/>
+      <c r="BH8" s="8"/>
+      <c r="BI8" s="8"/>
+      <c r="BJ8" s="8"/>
+    </row>
+    <row r="9" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="8"/>
+      <c r="X9" s="8"/>
+      <c r="Y9" s="8"/>
+      <c r="Z9" s="8"/>
+      <c r="AA9" s="8"/>
+      <c r="AB9" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="8">
+        <v>1</v>
+      </c>
+      <c r="AD9" s="8"/>
+      <c r="AE9" s="8"/>
+      <c r="AF9" s="8"/>
+      <c r="AG9" s="8"/>
+      <c r="AH9" s="8"/>
+      <c r="AI9" s="8"/>
+      <c r="AJ9" s="8"/>
+      <c r="AK9" s="8"/>
+      <c r="AL9" s="8"/>
+      <c r="AM9" s="8"/>
+      <c r="AN9" s="8"/>
+      <c r="AO9" s="8"/>
+      <c r="AP9" s="8"/>
+      <c r="AQ9" s="8"/>
+      <c r="AR9" s="8"/>
+      <c r="AS9" s="8"/>
+      <c r="AT9" s="8"/>
+      <c r="AU9" s="8"/>
+      <c r="AV9" s="8"/>
+      <c r="AW9" s="8"/>
+      <c r="AX9" s="8"/>
+      <c r="AY9" s="8"/>
+      <c r="AZ9" s="8"/>
+      <c r="BA9" s="8"/>
+      <c r="BB9" s="8"/>
+      <c r="BC9" s="8"/>
+      <c r="BD9" s="8"/>
+      <c r="BE9" s="8"/>
+      <c r="BF9" s="8"/>
+      <c r="BG9" s="8"/>
+      <c r="BH9" s="8"/>
+      <c r="BI9" s="8"/>
+      <c r="BJ9" s="8"/>
+    </row>
+    <row r="10" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="8"/>
+      <c r="X10" s="8"/>
+      <c r="Y10" s="8"/>
+      <c r="Z10" s="8"/>
+      <c r="AA10" s="8"/>
+      <c r="AB10" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="8"/>
+      <c r="AE10" s="8"/>
+      <c r="AF10" s="8"/>
+      <c r="AG10" s="8"/>
+      <c r="AH10" s="8"/>
+      <c r="AI10" s="8"/>
+      <c r="AJ10" s="8"/>
+      <c r="AK10" s="8"/>
+      <c r="AL10" s="8"/>
+      <c r="AM10" s="8"/>
+      <c r="AN10" s="8"/>
+      <c r="AO10" s="8"/>
+      <c r="AP10" s="8"/>
+      <c r="AQ10" s="8"/>
+      <c r="AR10" s="8"/>
+      <c r="AS10" s="8"/>
+      <c r="AT10" s="8"/>
+      <c r="AU10" s="8"/>
+      <c r="AV10" s="8"/>
+      <c r="AW10" s="8"/>
+      <c r="AX10" s="8"/>
+      <c r="AY10" s="8"/>
+      <c r="AZ10" s="8"/>
+      <c r="BA10" s="8"/>
+      <c r="BB10" s="8"/>
+      <c r="BC10" s="8"/>
+      <c r="BD10" s="8"/>
+      <c r="BE10" s="8"/>
+      <c r="BF10" s="8"/>
+      <c r="BG10" s="8"/>
+      <c r="BH10" s="8"/>
+      <c r="BI10" s="8"/>
+      <c r="BJ10" s="8"/>
+    </row>
+    <row r="11" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="8"/>
+      <c r="X11" s="8"/>
+      <c r="Y11" s="8"/>
+      <c r="Z11" s="8"/>
+      <c r="AA11" s="8"/>
+      <c r="AB11" s="8"/>
+      <c r="AC11" s="8"/>
+      <c r="AD11" s="8"/>
+      <c r="AE11" s="8"/>
+      <c r="AF11" s="8"/>
+      <c r="AG11" s="8"/>
+      <c r="AH11" s="8"/>
+      <c r="AI11" s="8"/>
+      <c r="AJ11" s="8"/>
+      <c r="AK11" s="8"/>
+      <c r="AL11" s="8"/>
+      <c r="AM11" s="8"/>
+      <c r="AN11" s="8"/>
+      <c r="AO11" s="8"/>
+      <c r="AP11" s="8"/>
+      <c r="AQ11" s="8"/>
+      <c r="AR11" s="8"/>
+      <c r="AS11" s="8">
+        <v>0</v>
+      </c>
+      <c r="AT11" s="8">
+        <v>1</v>
+      </c>
+      <c r="AU11" s="8">
+        <v>0</v>
+      </c>
+      <c r="AV11" s="8">
+        <v>1</v>
+      </c>
+      <c r="AW11" s="8">
+        <v>0</v>
+      </c>
+      <c r="AX11" s="8">
+        <v>0</v>
+      </c>
+      <c r="AY11" s="8">
+        <v>0</v>
+      </c>
+      <c r="AZ11" s="8">
+        <v>1</v>
+      </c>
+      <c r="BA11" s="8">
+        <v>0</v>
+      </c>
+      <c r="BB11" s="8">
+        <v>0</v>
+      </c>
+      <c r="BC11" s="8">
+        <v>1</v>
+      </c>
+      <c r="BD11" s="8">
+        <v>0</v>
+      </c>
+      <c r="BE11" s="8">
+        <v>0</v>
+      </c>
+      <c r="BF11" s="8">
+        <v>0</v>
+      </c>
+      <c r="BG11" s="8">
+        <v>0</v>
+      </c>
+      <c r="BH11" s="8">
+        <v>1</v>
+      </c>
+      <c r="BI11" s="8"/>
+      <c r="BJ11" s="8"/>
+    </row>
+    <row r="12" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="A12" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="8"/>
+      <c r="X12" s="8"/>
+      <c r="Y12" s="8"/>
+      <c r="Z12" s="8"/>
+      <c r="AA12" s="8"/>
+      <c r="AB12" s="8"/>
+      <c r="AC12" s="8"/>
+      <c r="AD12" s="8"/>
+      <c r="AE12" s="8"/>
+      <c r="AF12" s="8"/>
+      <c r="AG12" s="8"/>
+      <c r="AH12" s="8"/>
+      <c r="AI12" s="8"/>
+      <c r="AJ12" s="8"/>
+      <c r="AK12" s="8"/>
+      <c r="AL12" s="8"/>
+      <c r="AM12" s="8"/>
+      <c r="AN12" s="8"/>
+      <c r="AO12" s="8"/>
+      <c r="AP12" s="8"/>
+      <c r="AQ12" s="8"/>
+      <c r="AR12" s="8"/>
+      <c r="AS12" s="8">
+        <v>1</v>
+      </c>
+      <c r="AT12" s="8">
+        <v>0</v>
+      </c>
+      <c r="AU12" s="8">
+        <v>1</v>
+      </c>
+      <c r="AV12" s="8">
+        <v>0</v>
+      </c>
+      <c r="AW12" s="8">
+        <v>0</v>
+      </c>
+      <c r="AX12" s="8">
+        <v>0</v>
+      </c>
+      <c r="AY12" s="8">
+        <v>1</v>
+      </c>
+      <c r="AZ12" s="8">
+        <v>0</v>
+      </c>
+      <c r="BA12" s="8">
+        <v>0</v>
+      </c>
+      <c r="BB12" s="8">
+        <v>0</v>
+      </c>
+      <c r="BC12" s="8">
+        <v>1</v>
+      </c>
+      <c r="BD12" s="8">
+        <v>0</v>
+      </c>
+      <c r="BE12" s="8">
+        <v>0</v>
+      </c>
+      <c r="BF12" s="8">
+        <v>1</v>
+      </c>
+      <c r="BG12" s="8">
+        <v>0</v>
+      </c>
+      <c r="BH12" s="8">
+        <v>0</v>
+      </c>
+      <c r="BI12" s="8"/>
+      <c r="BJ12" s="8"/>
+    </row>
+    <row r="13" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="A13" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="8"/>
+      <c r="X13" s="8"/>
+      <c r="Y13" s="8"/>
+      <c r="Z13" s="8"/>
+      <c r="AA13" s="8"/>
+      <c r="AB13" s="8"/>
+      <c r="AC13" s="8"/>
+      <c r="AD13" s="8"/>
+      <c r="AE13" s="8"/>
+      <c r="AF13" s="8"/>
+      <c r="AG13" s="8"/>
+      <c r="AH13" s="8"/>
+      <c r="AI13" s="8"/>
+      <c r="AJ13" s="8"/>
+      <c r="AK13" s="8"/>
+      <c r="AL13" s="8"/>
+      <c r="AM13" s="8"/>
+      <c r="AN13" s="8"/>
+      <c r="AO13" s="8"/>
+      <c r="AP13" s="8"/>
+      <c r="AQ13" s="8"/>
+      <c r="AR13" s="8"/>
+      <c r="AS13" s="8">
+        <v>0</v>
+      </c>
+      <c r="AT13" s="8">
+        <v>0</v>
+      </c>
+      <c r="AU13" s="8">
+        <v>0</v>
+      </c>
+      <c r="AV13" s="8">
+        <v>0</v>
+      </c>
+      <c r="AW13" s="8">
+        <v>1</v>
+      </c>
+      <c r="AX13" s="8">
+        <v>0</v>
+      </c>
+      <c r="AY13" s="8">
+        <v>0</v>
+      </c>
+      <c r="AZ13" s="8">
+        <v>0</v>
+      </c>
+      <c r="BA13" s="8">
+        <v>1</v>
+      </c>
+      <c r="BB13" s="8">
+        <v>0</v>
+      </c>
+      <c r="BC13" s="8">
+        <v>0</v>
+      </c>
+      <c r="BD13" s="8">
+        <v>1</v>
+      </c>
+      <c r="BE13" s="8">
+        <v>0</v>
+      </c>
+      <c r="BF13" s="8">
+        <v>0</v>
+      </c>
+      <c r="BG13" s="8">
+        <v>0</v>
+      </c>
+      <c r="BH13" s="8">
+        <v>0</v>
+      </c>
+      <c r="BI13" s="8"/>
+      <c r="BJ13" s="8"/>
+    </row>
+    <row r="14" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="A14" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="8"/>
+      <c r="X14" s="8"/>
+      <c r="Y14" s="8"/>
+      <c r="Z14" s="8"/>
+      <c r="AA14" s="8"/>
+      <c r="AB14" s="8"/>
+      <c r="AC14" s="8"/>
+      <c r="AD14" s="8"/>
+      <c r="AE14" s="8"/>
+      <c r="AF14" s="8"/>
+      <c r="AG14" s="8"/>
+      <c r="AH14" s="8"/>
+      <c r="AI14" s="8"/>
+      <c r="AJ14" s="8"/>
+      <c r="AK14" s="8"/>
+      <c r="AL14" s="8"/>
+      <c r="AM14" s="8"/>
+      <c r="AN14" s="8"/>
+      <c r="AO14" s="8"/>
+      <c r="AP14" s="8"/>
+      <c r="AQ14" s="8"/>
+      <c r="AR14" s="8"/>
+      <c r="AS14" s="8">
+        <v>0</v>
+      </c>
+      <c r="AT14" s="8">
+        <v>0</v>
+      </c>
+      <c r="AU14" s="8">
+        <v>0</v>
+      </c>
+      <c r="AV14" s="8">
+        <v>0</v>
+      </c>
+      <c r="AW14" s="8">
+        <v>0</v>
+      </c>
+      <c r="AX14" s="8">
+        <v>1</v>
+      </c>
+      <c r="AY14" s="8">
+        <v>0</v>
+      </c>
+      <c r="AZ14" s="8">
+        <v>0</v>
+      </c>
+      <c r="BA14" s="8">
+        <v>0</v>
+      </c>
+      <c r="BB14" s="8">
+        <v>1</v>
+      </c>
+      <c r="BC14" s="8">
+        <v>0</v>
+      </c>
+      <c r="BD14" s="8">
+        <v>0</v>
+      </c>
+      <c r="BE14" s="8">
+        <v>1</v>
+      </c>
+      <c r="BF14" s="8">
+        <v>0</v>
+      </c>
+      <c r="BG14" s="8">
+        <v>0</v>
+      </c>
+      <c r="BH14" s="8">
+        <v>0</v>
+      </c>
+      <c r="BI14" s="8"/>
+      <c r="BJ14" s="8"/>
+    </row>
+    <row r="15" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="A15" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="8"/>
+      <c r="W15" s="8"/>
+      <c r="X15" s="8"/>
+      <c r="Y15" s="8"/>
+      <c r="Z15" s="8"/>
+      <c r="AA15" s="8"/>
+      <c r="AB15" s="8"/>
+      <c r="AC15" s="8"/>
+      <c r="AD15" s="8"/>
+      <c r="AE15" s="8"/>
+      <c r="AF15" s="8"/>
+      <c r="AG15" s="8"/>
+      <c r="AH15" s="8"/>
+      <c r="AI15" s="8"/>
+      <c r="AJ15" s="8"/>
+      <c r="AK15" s="8"/>
+      <c r="AL15" s="8"/>
+      <c r="AM15" s="8"/>
+      <c r="AN15" s="8"/>
+      <c r="AO15" s="8"/>
+      <c r="AP15" s="8"/>
+      <c r="AQ15" s="8"/>
+      <c r="AR15" s="8"/>
+      <c r="AS15" s="8">
+        <v>0</v>
+      </c>
+      <c r="AT15" s="8">
+        <v>1</v>
+      </c>
+      <c r="AU15" s="8">
+        <v>1</v>
+      </c>
+      <c r="AV15" s="8">
+        <v>0</v>
+      </c>
+      <c r="AW15" s="8">
+        <v>0</v>
+      </c>
+      <c r="AX15" s="8">
+        <v>0</v>
+      </c>
+      <c r="AY15" s="8">
+        <v>1</v>
+      </c>
+      <c r="AZ15" s="8">
+        <v>0</v>
+      </c>
+      <c r="BA15" s="8">
+        <v>0</v>
+      </c>
+      <c r="BB15" s="8">
+        <v>0</v>
+      </c>
+      <c r="BC15" s="8">
+        <v>1</v>
+      </c>
+      <c r="BD15" s="8">
+        <v>0</v>
+      </c>
+      <c r="BE15" s="8">
+        <v>0</v>
+      </c>
+      <c r="BF15" s="8">
+        <v>1</v>
+      </c>
+      <c r="BG15" s="8">
+        <v>0</v>
+      </c>
+      <c r="BH15" s="8">
+        <v>0</v>
+      </c>
+      <c r="BI15" s="8"/>
+      <c r="BJ15" s="8"/>
+    </row>
+    <row r="16" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="A16" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="8"/>
+      <c r="X16" s="8"/>
+      <c r="Y16" s="8"/>
+      <c r="Z16" s="8"/>
+      <c r="AA16" s="8"/>
+      <c r="AB16" s="8"/>
+      <c r="AC16" s="8"/>
+      <c r="AD16" s="8"/>
+      <c r="AE16" s="8"/>
+      <c r="AF16" s="8"/>
+      <c r="AG16" s="8"/>
+      <c r="AH16" s="8"/>
+      <c r="AI16" s="8"/>
+      <c r="AJ16" s="8"/>
+      <c r="AK16" s="8"/>
+      <c r="AL16" s="8"/>
+      <c r="AM16" s="8"/>
+      <c r="AN16" s="8"/>
+      <c r="AO16" s="8"/>
+      <c r="AP16" s="8"/>
+      <c r="AQ16" s="8"/>
+      <c r="AR16" s="8"/>
+      <c r="AS16" s="8">
+        <v>1</v>
+      </c>
+      <c r="AT16" s="8">
+        <v>0</v>
+      </c>
+      <c r="AU16" s="8">
+        <v>0</v>
+      </c>
+      <c r="AV16" s="8">
+        <v>0</v>
+      </c>
+      <c r="AW16" s="8">
+        <v>1</v>
+      </c>
+      <c r="AX16" s="8">
+        <v>0</v>
+      </c>
+      <c r="AY16" s="8">
+        <v>0</v>
+      </c>
+      <c r="AZ16" s="8">
+        <v>0</v>
+      </c>
+      <c r="BA16" s="8">
+        <v>1</v>
+      </c>
+      <c r="BB16" s="8">
+        <v>0</v>
+      </c>
+      <c r="BC16" s="8">
+        <v>0</v>
+      </c>
+      <c r="BD16" s="8">
+        <v>1</v>
+      </c>
+      <c r="BE16" s="8">
+        <v>0</v>
+      </c>
+      <c r="BF16" s="8">
+        <v>0</v>
+      </c>
+      <c r="BG16" s="8">
+        <v>0</v>
+      </c>
+      <c r="BH16" s="8">
+        <v>0</v>
+      </c>
+      <c r="BI16" s="8"/>
+      <c r="BJ16" s="8"/>
+    </row>
+    <row r="17" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="A17" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="8"/>
+      <c r="T17" s="8"/>
+      <c r="U17" s="8"/>
+      <c r="V17" s="8"/>
+      <c r="W17" s="8"/>
+      <c r="X17" s="8"/>
+      <c r="Y17" s="8"/>
+      <c r="Z17" s="8"/>
+      <c r="AA17" s="8"/>
+      <c r="AB17" s="8"/>
+      <c r="AC17" s="8"/>
+      <c r="AD17" s="8"/>
+      <c r="AE17" s="8"/>
+      <c r="AF17" s="8"/>
+      <c r="AG17" s="8"/>
+      <c r="AH17" s="8"/>
+      <c r="AI17" s="8"/>
+      <c r="AJ17" s="8"/>
+      <c r="AK17" s="8"/>
+      <c r="AL17" s="8"/>
+      <c r="AM17" s="8"/>
+      <c r="AN17" s="8"/>
+      <c r="AO17" s="8"/>
+      <c r="AP17" s="8"/>
+      <c r="AQ17" s="8"/>
+      <c r="AR17" s="8"/>
+      <c r="AS17" s="8">
+        <v>0</v>
+      </c>
+      <c r="AT17" s="8">
+        <v>0</v>
+      </c>
+      <c r="AU17" s="8">
+        <v>0</v>
+      </c>
+      <c r="AV17" s="8">
+        <v>0</v>
+      </c>
+      <c r="AW17" s="8">
+        <v>0</v>
+      </c>
+      <c r="AX17" s="8">
+        <v>0</v>
+      </c>
+      <c r="AY17" s="8">
+        <v>0</v>
+      </c>
+      <c r="AZ17" s="8">
+        <v>0</v>
+      </c>
+      <c r="BA17" s="8">
+        <v>0</v>
+      </c>
+      <c r="BB17" s="8">
+        <v>0</v>
+      </c>
+      <c r="BC17" s="8">
+        <v>0</v>
+      </c>
+      <c r="BD17" s="8">
+        <v>0</v>
+      </c>
+      <c r="BE17" s="8">
+        <v>0</v>
+      </c>
+      <c r="BF17" s="8">
+        <v>0</v>
+      </c>
+      <c r="BG17" s="8">
+        <v>0</v>
+      </c>
+      <c r="BH17" s="8">
+        <v>0</v>
+      </c>
+      <c r="BI17" s="8"/>
+      <c r="BJ17" s="8"/>
+    </row>
+    <row r="18" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="A18" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="8"/>
+      <c r="T18" s="8"/>
+      <c r="U18" s="8"/>
+      <c r="V18" s="8"/>
+      <c r="W18" s="8"/>
+      <c r="X18" s="8"/>
+      <c r="Y18" s="8"/>
+      <c r="Z18" s="8"/>
+      <c r="AA18" s="8"/>
+      <c r="AB18" s="8"/>
+      <c r="AC18" s="8"/>
+      <c r="AD18" s="8"/>
+      <c r="AE18" s="8"/>
+      <c r="AF18" s="8"/>
+      <c r="AG18" s="8"/>
+      <c r="AH18" s="8"/>
+      <c r="AI18" s="8"/>
+      <c r="AJ18" s="8"/>
+      <c r="AK18" s="8"/>
+      <c r="AL18" s="8"/>
+      <c r="AM18" s="8"/>
+      <c r="AN18" s="8"/>
+      <c r="AO18" s="8"/>
+      <c r="AP18" s="8"/>
+      <c r="AQ18" s="8"/>
+      <c r="AR18" s="8"/>
+      <c r="AS18" s="8"/>
+      <c r="AT18" s="8"/>
+      <c r="AU18" s="8"/>
+      <c r="AV18" s="8"/>
+      <c r="AW18" s="8"/>
+      <c r="AX18" s="8"/>
+      <c r="AY18" s="8"/>
+      <c r="AZ18" s="8"/>
+      <c r="BA18" s="8"/>
+      <c r="BB18" s="8"/>
+      <c r="BC18" s="8"/>
+      <c r="BD18" s="8"/>
+      <c r="BE18" s="8"/>
+      <c r="BF18" s="8"/>
+      <c r="BG18" s="8"/>
+      <c r="BH18" s="8"/>
+      <c r="BI18" s="8">
+        <v>0</v>
+      </c>
+      <c r="BJ18" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="A19" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="8"/>
+      <c r="T19" s="8"/>
+      <c r="U19" s="8"/>
+      <c r="V19" s="8"/>
+      <c r="W19" s="8"/>
+      <c r="X19" s="8"/>
+      <c r="Y19" s="8"/>
+      <c r="Z19" s="8"/>
+      <c r="AA19" s="8"/>
+      <c r="AB19" s="8"/>
+      <c r="AC19" s="8"/>
+      <c r="AD19" s="8"/>
+      <c r="AE19" s="8"/>
+      <c r="AF19" s="8"/>
+      <c r="AG19" s="8"/>
+      <c r="AH19" s="8"/>
+      <c r="AI19" s="8"/>
+      <c r="AJ19" s="8"/>
+      <c r="AK19" s="8"/>
+      <c r="AL19" s="8"/>
+      <c r="AM19" s="8"/>
+      <c r="AN19" s="8"/>
+      <c r="AO19" s="8"/>
+      <c r="AP19" s="8"/>
+      <c r="AQ19" s="8"/>
+      <c r="AR19" s="8"/>
+      <c r="AS19" s="8"/>
+      <c r="AT19" s="8"/>
+      <c r="AU19" s="8"/>
+      <c r="AV19" s="8"/>
+      <c r="AW19" s="8"/>
+      <c r="AX19" s="8"/>
+      <c r="AY19" s="8"/>
+      <c r="AZ19" s="8"/>
+      <c r="BA19" s="8"/>
+      <c r="BB19" s="8"/>
+      <c r="BC19" s="8"/>
+      <c r="BD19" s="8"/>
+      <c r="BE19" s="8"/>
+      <c r="BF19" s="8"/>
+      <c r="BG19" s="8"/>
+      <c r="BH19" s="8"/>
+      <c r="BI19" s="8">
+        <v>1</v>
+      </c>
+      <c r="BJ19" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="A20" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="8"/>
+      <c r="S20" s="8"/>
+      <c r="T20" s="8"/>
+      <c r="U20" s="8"/>
+      <c r="V20" s="8"/>
+      <c r="W20" s="8"/>
+      <c r="X20" s="8"/>
+      <c r="Y20" s="8"/>
+      <c r="Z20" s="8"/>
+      <c r="AA20" s="8"/>
+      <c r="AB20" s="8"/>
+      <c r="AC20" s="8"/>
+      <c r="AD20" s="8"/>
+      <c r="AE20" s="8"/>
+      <c r="AF20" s="8"/>
+      <c r="AG20" s="8"/>
+      <c r="AH20" s="8"/>
+      <c r="AI20" s="8"/>
+      <c r="AJ20" s="8"/>
+      <c r="AK20" s="8"/>
+      <c r="AL20" s="8"/>
+      <c r="AM20" s="8"/>
+      <c r="AN20" s="8"/>
+      <c r="AO20" s="8"/>
+      <c r="AP20" s="8"/>
+      <c r="AQ20" s="8"/>
+      <c r="AR20" s="8"/>
+      <c r="AS20" s="8"/>
+      <c r="AT20" s="8"/>
+      <c r="AU20" s="8"/>
+      <c r="AV20" s="8"/>
+      <c r="AW20" s="8"/>
+      <c r="AX20" s="8"/>
+      <c r="AY20" s="8"/>
+      <c r="AZ20" s="8"/>
+      <c r="BA20" s="8"/>
+      <c r="BB20" s="8"/>
+      <c r="BC20" s="8"/>
+      <c r="BD20" s="8"/>
+      <c r="BE20" s="8"/>
+      <c r="BF20" s="8"/>
+      <c r="BG20" s="8"/>
+      <c r="BH20" s="8"/>
+      <c r="BI20" s="8">
+        <v>0</v>
+      </c>
+      <c r="BJ20" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="A21" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="8"/>
+      <c r="T21" s="8"/>
+      <c r="U21" s="8"/>
+      <c r="V21" s="8"/>
+      <c r="W21" s="8"/>
+      <c r="X21" s="8"/>
+      <c r="Y21" s="8"/>
+      <c r="Z21" s="8"/>
+      <c r="AA21" s="8"/>
+      <c r="AB21" s="8"/>
+      <c r="AC21" s="8"/>
+      <c r="AD21" s="8"/>
+      <c r="AE21" s="8"/>
+      <c r="AF21" s="8"/>
+      <c r="AG21" s="8"/>
+      <c r="AH21" s="8"/>
+      <c r="AI21" s="8"/>
+      <c r="AJ21" s="8">
+        <v>1</v>
+      </c>
+      <c r="AK21" s="8">
+        <v>1</v>
+      </c>
+      <c r="AL21" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM21" s="8">
+        <v>1</v>
+      </c>
+      <c r="AN21" s="8">
+        <v>0</v>
+      </c>
+      <c r="AO21" s="8">
+        <v>1</v>
+      </c>
+      <c r="AP21" s="8">
+        <v>1</v>
+      </c>
+      <c r="AQ21" s="8">
+        <v>1</v>
+      </c>
+      <c r="AR21" s="8">
+        <v>1</v>
+      </c>
+      <c r="AS21" s="8"/>
+      <c r="AT21" s="8"/>
+      <c r="AU21" s="8"/>
+      <c r="AV21" s="8"/>
+      <c r="AW21" s="8"/>
+      <c r="AX21" s="8"/>
+      <c r="AY21" s="8"/>
+      <c r="AZ21" s="8"/>
+      <c r="BA21" s="8"/>
+      <c r="BB21" s="8"/>
+      <c r="BC21" s="8"/>
+      <c r="BD21" s="8"/>
+      <c r="BE21" s="8"/>
+      <c r="BF21" s="8"/>
+      <c r="BG21" s="8"/>
+      <c r="BH21" s="8"/>
+      <c r="BI21" s="8"/>
+      <c r="BJ21" s="8"/>
+    </row>
+    <row r="22" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="A22" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="8"/>
+      <c r="T22" s="8"/>
+      <c r="U22" s="8"/>
+      <c r="V22" s="8"/>
+      <c r="W22" s="8"/>
+      <c r="X22" s="8"/>
+      <c r="Y22" s="8"/>
+      <c r="Z22" s="8"/>
+      <c r="AA22" s="8"/>
+      <c r="AB22" s="8"/>
+      <c r="AC22" s="8"/>
+      <c r="AD22" s="8"/>
+      <c r="AE22" s="8"/>
+      <c r="AF22" s="8"/>
+      <c r="AG22" s="8"/>
+      <c r="AH22" s="8"/>
+      <c r="AI22" s="8"/>
+      <c r="AJ22" s="8">
+        <v>0</v>
+      </c>
+      <c r="AK22" s="8">
+        <v>1</v>
+      </c>
+      <c r="AL22" s="8">
+        <v>1</v>
+      </c>
+      <c r="AM22" s="8">
+        <v>0</v>
+      </c>
+      <c r="AN22" s="8">
+        <v>0</v>
+      </c>
+      <c r="AO22" s="8">
+        <v>1</v>
+      </c>
+      <c r="AP22" s="8">
+        <v>1</v>
+      </c>
+      <c r="AQ22" s="8">
+        <v>1</v>
+      </c>
+      <c r="AR22" s="8">
+        <v>1</v>
+      </c>
+      <c r="AS22" s="8"/>
+      <c r="AT22" s="8"/>
+      <c r="AU22" s="8"/>
+      <c r="AV22" s="8"/>
+      <c r="AW22" s="8"/>
+      <c r="AX22" s="8"/>
+      <c r="AY22" s="8"/>
+      <c r="AZ22" s="8"/>
+      <c r="BA22" s="8"/>
+      <c r="BB22" s="8"/>
+      <c r="BC22" s="8"/>
+      <c r="BD22" s="8"/>
+      <c r="BE22" s="8"/>
+      <c r="BF22" s="8"/>
+      <c r="BG22" s="8"/>
+      <c r="BH22" s="8"/>
+      <c r="BI22" s="8"/>
+      <c r="BJ22" s="8"/>
+    </row>
+    <row r="23" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="A23" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="8"/>
+      <c r="S23" s="8"/>
+      <c r="T23" s="8"/>
+      <c r="U23" s="8"/>
+      <c r="V23" s="8"/>
+      <c r="W23" s="8"/>
+      <c r="X23" s="8"/>
+      <c r="Y23" s="8"/>
+      <c r="Z23" s="8"/>
+      <c r="AA23" s="8"/>
+      <c r="AB23" s="8"/>
+      <c r="AC23" s="8"/>
+      <c r="AD23" s="8"/>
+      <c r="AE23" s="8"/>
+      <c r="AF23" s="8"/>
+      <c r="AG23" s="8"/>
+      <c r="AH23" s="8"/>
+      <c r="AI23" s="8"/>
+      <c r="AJ23" s="8">
+        <v>0</v>
+      </c>
+      <c r="AK23" s="8">
+        <v>1</v>
+      </c>
+      <c r="AL23" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM23" s="8">
+        <v>1</v>
+      </c>
+      <c r="AN23" s="8">
+        <v>1</v>
+      </c>
+      <c r="AO23" s="8">
+        <v>0</v>
+      </c>
+      <c r="AP23" s="8">
+        <v>0</v>
+      </c>
+      <c r="AQ23" s="8">
+        <v>1</v>
+      </c>
+      <c r="AR23" s="8">
+        <v>1</v>
+      </c>
+      <c r="AS23" s="8"/>
+      <c r="AT23" s="8"/>
+      <c r="AU23" s="8"/>
+      <c r="AV23" s="8"/>
+      <c r="AW23" s="8"/>
+      <c r="AX23" s="8"/>
+      <c r="AY23" s="8"/>
+      <c r="AZ23" s="8"/>
+      <c r="BA23" s="8"/>
+      <c r="BB23" s="8"/>
+      <c r="BC23" s="8"/>
+      <c r="BD23" s="8"/>
+      <c r="BE23" s="8"/>
+      <c r="BF23" s="8"/>
+      <c r="BG23" s="8"/>
+      <c r="BH23" s="8"/>
+      <c r="BI23" s="8"/>
+      <c r="BJ23" s="8"/>
+    </row>
+    <row r="24" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="A24" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="8"/>
+      <c r="U24" s="8"/>
+      <c r="V24" s="8"/>
+      <c r="W24" s="8"/>
+      <c r="X24" s="8"/>
+      <c r="Y24" s="8"/>
+      <c r="Z24" s="8"/>
+      <c r="AA24" s="8"/>
+      <c r="AB24" s="8"/>
+      <c r="AC24" s="8"/>
+      <c r="AD24" s="8"/>
+      <c r="AE24" s="8"/>
+      <c r="AF24" s="8"/>
+      <c r="AG24" s="8"/>
+      <c r="AH24" s="8"/>
+      <c r="AI24" s="8"/>
+      <c r="AJ24" s="8">
+        <v>0</v>
+      </c>
+      <c r="AK24" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL24" s="8">
+        <v>1</v>
+      </c>
+      <c r="AM24" s="8">
+        <v>0</v>
+      </c>
+      <c r="AN24" s="8">
+        <v>0</v>
+      </c>
+      <c r="AO24" s="8">
+        <v>0</v>
+      </c>
+      <c r="AP24" s="8">
+        <v>1</v>
+      </c>
+      <c r="AQ24" s="8">
+        <v>1</v>
+      </c>
+      <c r="AR24" s="8">
+        <v>0</v>
+      </c>
+      <c r="AS24" s="8"/>
+      <c r="AT24" s="8"/>
+      <c r="AU24" s="8"/>
+      <c r="AV24" s="8"/>
+      <c r="AW24" s="8"/>
+      <c r="AX24" s="8"/>
+      <c r="AY24" s="8"/>
+      <c r="AZ24" s="8"/>
+      <c r="BA24" s="8"/>
+      <c r="BB24" s="8"/>
+      <c r="BC24" s="8"/>
+      <c r="BD24" s="8"/>
+      <c r="BE24" s="8"/>
+      <c r="BF24" s="8"/>
+      <c r="BG24" s="8"/>
+      <c r="BH24" s="8"/>
+      <c r="BI24" s="8"/>
+      <c r="BJ24" s="8"/>
+    </row>
+    <row r="25" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="A25" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8"/>
+      <c r="S25" s="8"/>
+      <c r="T25" s="8"/>
+      <c r="U25" s="8"/>
+      <c r="V25" s="8"/>
+      <c r="W25" s="8"/>
+      <c r="X25" s="8"/>
+      <c r="Y25" s="8"/>
+      <c r="Z25" s="8"/>
+      <c r="AA25" s="8"/>
+      <c r="AB25" s="8"/>
+      <c r="AC25" s="8"/>
+      <c r="AD25" s="8"/>
+      <c r="AE25" s="8"/>
+      <c r="AF25" s="8"/>
+      <c r="AG25" s="8"/>
+      <c r="AH25" s="8"/>
+      <c r="AI25" s="8"/>
+      <c r="AJ25" s="8">
+        <v>0</v>
+      </c>
+      <c r="AK25" s="8">
+        <v>1</v>
+      </c>
+      <c r="AL25" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM25" s="8">
+        <v>1</v>
+      </c>
+      <c r="AN25" s="8">
+        <v>1</v>
+      </c>
+      <c r="AO25" s="8">
+        <v>1</v>
+      </c>
+      <c r="AP25" s="8">
+        <v>0</v>
+      </c>
+      <c r="AQ25" s="8">
+        <v>1</v>
+      </c>
+      <c r="AR25" s="8">
+        <v>1</v>
+      </c>
+      <c r="AS25" s="8"/>
+      <c r="AT25" s="8"/>
+      <c r="AU25" s="8"/>
+      <c r="AV25" s="8"/>
+      <c r="AW25" s="8"/>
+      <c r="AX25" s="8"/>
+      <c r="AY25" s="8"/>
+      <c r="AZ25" s="8"/>
+      <c r="BA25" s="8"/>
+      <c r="BB25" s="8"/>
+      <c r="BC25" s="8"/>
+      <c r="BD25" s="8"/>
+      <c r="BE25" s="8"/>
+      <c r="BF25" s="8"/>
+      <c r="BG25" s="8"/>
+      <c r="BH25" s="8"/>
+      <c r="BI25" s="8"/>
+      <c r="BJ25" s="8"/>
+    </row>
+    <row r="26" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="A26" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
+      <c r="Q26" s="8"/>
+      <c r="R26" s="8"/>
+      <c r="S26" s="8"/>
+      <c r="T26" s="8"/>
+      <c r="U26" s="8"/>
+      <c r="V26" s="8"/>
+      <c r="W26" s="8"/>
+      <c r="X26" s="8"/>
+      <c r="Y26" s="8"/>
+      <c r="Z26" s="8"/>
+      <c r="AA26" s="8"/>
+      <c r="AB26" s="8"/>
+      <c r="AC26" s="8"/>
+      <c r="AD26" s="8"/>
+      <c r="AE26" s="8"/>
+      <c r="AF26" s="8"/>
+      <c r="AG26" s="8"/>
+      <c r="AH26" s="8"/>
+      <c r="AI26" s="8"/>
+      <c r="AJ26" s="8">
+        <v>0</v>
+      </c>
+      <c r="AK26" s="8">
+        <v>1</v>
+      </c>
+      <c r="AL26" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM26" s="8">
+        <v>0</v>
+      </c>
+      <c r="AN26" s="8">
+        <v>0</v>
+      </c>
+      <c r="AO26" s="8">
+        <v>0</v>
+      </c>
+      <c r="AP26" s="8">
+        <v>1</v>
+      </c>
+      <c r="AQ26" s="8">
+        <v>1</v>
+      </c>
+      <c r="AR26" s="8">
+        <v>0</v>
+      </c>
+      <c r="AS26" s="8"/>
+      <c r="AT26" s="8"/>
+      <c r="AU26" s="8"/>
+      <c r="AV26" s="8"/>
+      <c r="AW26" s="8"/>
+      <c r="AX26" s="8"/>
+      <c r="AY26" s="8"/>
+      <c r="AZ26" s="8"/>
+      <c r="BA26" s="8"/>
+      <c r="BB26" s="8"/>
+      <c r="BC26" s="8"/>
+      <c r="BD26" s="8"/>
+      <c r="BE26" s="8"/>
+      <c r="BF26" s="8"/>
+      <c r="BG26" s="8"/>
+      <c r="BH26" s="8"/>
+      <c r="BI26" s="8"/>
+      <c r="BJ26" s="8"/>
+    </row>
+    <row r="27" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="A27" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="8"/>
+      <c r="Q27" s="8"/>
+      <c r="R27" s="8"/>
+      <c r="S27" s="8"/>
+      <c r="T27" s="8"/>
+      <c r="U27" s="8"/>
+      <c r="V27" s="8"/>
+      <c r="W27" s="8"/>
+      <c r="X27" s="8"/>
+      <c r="Y27" s="8"/>
+      <c r="Z27" s="8"/>
+      <c r="AA27" s="8"/>
+      <c r="AB27" s="8"/>
+      <c r="AC27" s="8"/>
+      <c r="AD27" s="8"/>
+      <c r="AE27" s="8"/>
+      <c r="AF27" s="8"/>
+      <c r="AG27" s="8"/>
+      <c r="AH27" s="8"/>
+      <c r="AI27" s="8"/>
+      <c r="AJ27" s="8">
+        <v>0</v>
+      </c>
+      <c r="AK27" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL27" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM27" s="8">
+        <v>0</v>
+      </c>
+      <c r="AN27" s="8">
+        <v>0</v>
+      </c>
+      <c r="AO27" s="8">
+        <v>0</v>
+      </c>
+      <c r="AP27" s="8">
+        <v>0</v>
+      </c>
+      <c r="AQ27" s="8">
+        <v>0</v>
+      </c>
+      <c r="AR27" s="8">
+        <v>0</v>
+      </c>
+      <c r="AS27" s="8"/>
+      <c r="AT27" s="8"/>
+      <c r="AU27" s="8"/>
+      <c r="AV27" s="8"/>
+      <c r="AW27" s="8"/>
+      <c r="AX27" s="8"/>
+      <c r="AY27" s="8"/>
+      <c r="AZ27" s="8"/>
+      <c r="BA27" s="8"/>
+      <c r="BB27" s="8"/>
+      <c r="BC27" s="8"/>
+      <c r="BD27" s="8"/>
+      <c r="BE27" s="8"/>
+      <c r="BF27" s="8"/>
+      <c r="BG27" s="8"/>
+      <c r="BH27" s="8"/>
+      <c r="BI27" s="8"/>
+      <c r="BJ27" s="8"/>
+    </row>
+    <row r="28" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="A28" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="8"/>
+      <c r="Q28" s="8"/>
+      <c r="R28" s="8"/>
+      <c r="S28" s="8"/>
+      <c r="T28" s="8"/>
+      <c r="U28" s="8"/>
+      <c r="V28" s="8"/>
+      <c r="W28" s="8"/>
+      <c r="X28" s="8"/>
+      <c r="Y28" s="8"/>
+      <c r="Z28" s="8"/>
+      <c r="AA28" s="8"/>
+      <c r="AB28" s="8"/>
+      <c r="AC28" s="8"/>
+      <c r="AD28" s="8"/>
+      <c r="AE28" s="8"/>
+      <c r="AF28" s="8"/>
+      <c r="AG28" s="8"/>
+      <c r="AH28" s="8"/>
+      <c r="AI28" s="8"/>
+      <c r="AJ28" s="8"/>
+      <c r="AK28" s="8"/>
+      <c r="AL28" s="8"/>
+      <c r="AM28" s="8">
+        <v>1</v>
+      </c>
+      <c r="AN28" s="8">
+        <v>1</v>
+      </c>
+      <c r="AO28" s="8">
+        <v>1</v>
+      </c>
+      <c r="AP28" s="8"/>
+      <c r="AQ28" s="8"/>
+      <c r="AR28" s="8"/>
+      <c r="AS28" s="8"/>
+      <c r="AT28" s="8"/>
+      <c r="AU28" s="8"/>
+      <c r="AV28" s="8"/>
+      <c r="AW28" s="8"/>
+      <c r="AX28" s="8"/>
+      <c r="AY28" s="8"/>
+      <c r="AZ28" s="8"/>
+      <c r="BA28" s="8"/>
+      <c r="BB28" s="8"/>
+      <c r="BC28" s="8"/>
+      <c r="BD28" s="8"/>
+      <c r="BE28" s="8"/>
+      <c r="BF28" s="8"/>
+      <c r="BG28" s="8"/>
+      <c r="BH28" s="8"/>
+      <c r="BI28" s="8"/>
+      <c r="BJ28" s="8"/>
+    </row>
+    <row r="29" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="A29" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="8"/>
+      <c r="P29" s="8"/>
+      <c r="Q29" s="8"/>
+      <c r="R29" s="8"/>
+      <c r="S29" s="8"/>
+      <c r="T29" s="8"/>
+      <c r="U29" s="8"/>
+      <c r="V29" s="8"/>
+      <c r="W29" s="8"/>
+      <c r="X29" s="8"/>
+      <c r="Y29" s="8"/>
+      <c r="Z29" s="8"/>
+      <c r="AA29" s="8"/>
+      <c r="AB29" s="8"/>
+      <c r="AC29" s="8"/>
+      <c r="AD29" s="8"/>
+      <c r="AE29" s="8"/>
+      <c r="AF29" s="8"/>
+      <c r="AG29" s="8"/>
+      <c r="AH29" s="8"/>
+      <c r="AI29" s="8"/>
+      <c r="AJ29" s="8"/>
+      <c r="AK29" s="8"/>
+      <c r="AL29" s="8"/>
+      <c r="AM29" s="8">
+        <v>1</v>
+      </c>
+      <c r="AN29" s="8">
+        <v>1</v>
+      </c>
+      <c r="AO29" s="8">
+        <v>0</v>
+      </c>
+      <c r="AP29" s="8"/>
+      <c r="AQ29" s="8"/>
+      <c r="AR29" s="8"/>
+      <c r="AS29" s="8"/>
+      <c r="AT29" s="8"/>
+      <c r="AU29" s="8"/>
+      <c r="AV29" s="8"/>
+      <c r="AW29" s="8"/>
+      <c r="AX29" s="8"/>
+      <c r="AY29" s="8"/>
+      <c r="AZ29" s="8"/>
+      <c r="BA29" s="8"/>
+      <c r="BB29" s="8"/>
+      <c r="BC29" s="8"/>
+      <c r="BD29" s="8"/>
+      <c r="BE29" s="8"/>
+      <c r="BF29" s="8"/>
+      <c r="BG29" s="8"/>
+      <c r="BH29" s="8"/>
+      <c r="BI29" s="8"/>
+      <c r="BJ29" s="8"/>
+    </row>
+    <row r="30" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="A30" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="8"/>
+      <c r="Q30" s="8"/>
+      <c r="R30" s="8"/>
+      <c r="S30" s="8"/>
+      <c r="T30" s="8"/>
+      <c r="U30" s="8"/>
+      <c r="V30" s="8"/>
+      <c r="W30" s="8"/>
+      <c r="X30" s="8"/>
+      <c r="Y30" s="8"/>
+      <c r="Z30" s="8"/>
+      <c r="AA30" s="8"/>
+      <c r="AB30" s="8"/>
+      <c r="AC30" s="8"/>
+      <c r="AD30" s="8"/>
+      <c r="AE30" s="8"/>
+      <c r="AF30" s="8"/>
+      <c r="AG30" s="8"/>
+      <c r="AH30" s="8"/>
+      <c r="AI30" s="8"/>
+      <c r="AJ30" s="8"/>
+      <c r="AK30" s="8"/>
+      <c r="AL30" s="8"/>
+      <c r="AM30" s="8">
+        <v>1</v>
+      </c>
+      <c r="AN30" s="8">
+        <v>0</v>
+      </c>
+      <c r="AO30" s="8">
+        <v>0</v>
+      </c>
+      <c r="AP30" s="8"/>
+      <c r="AQ30" s="8"/>
+      <c r="AR30" s="8"/>
+      <c r="AS30" s="8"/>
+      <c r="AT30" s="8"/>
+      <c r="AU30" s="8"/>
+      <c r="AV30" s="8"/>
+      <c r="AW30" s="8"/>
+      <c r="AX30" s="8"/>
+      <c r="AY30" s="8"/>
+      <c r="AZ30" s="8"/>
+      <c r="BA30" s="8"/>
+      <c r="BB30" s="8"/>
+      <c r="BC30" s="8"/>
+      <c r="BD30" s="8"/>
+      <c r="BE30" s="8"/>
+      <c r="BF30" s="8"/>
+      <c r="BG30" s="8"/>
+      <c r="BH30" s="8"/>
+      <c r="BI30" s="8"/>
+      <c r="BJ30" s="8"/>
+    </row>
+    <row r="31" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="A31" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="8"/>
+      <c r="Q31" s="8"/>
+      <c r="R31" s="8"/>
+      <c r="S31" s="8"/>
+      <c r="T31" s="8"/>
+      <c r="U31" s="8"/>
+      <c r="V31" s="8"/>
+      <c r="W31" s="8"/>
+      <c r="X31" s="8"/>
+      <c r="Y31" s="8"/>
+      <c r="Z31" s="8"/>
+      <c r="AA31" s="8"/>
+      <c r="AB31" s="8"/>
+      <c r="AC31" s="8"/>
+      <c r="AD31" s="8"/>
+      <c r="AE31" s="8"/>
+      <c r="AF31" s="8"/>
+      <c r="AG31" s="8"/>
+      <c r="AH31" s="8"/>
+      <c r="AI31" s="8"/>
+      <c r="AJ31" s="8"/>
+      <c r="AK31" s="8"/>
+      <c r="AL31" s="8"/>
+      <c r="AM31" s="8">
+        <v>0</v>
+      </c>
+      <c r="AN31" s="8">
+        <v>1</v>
+      </c>
+      <c r="AO31" s="8">
+        <v>0</v>
+      </c>
+      <c r="AP31" s="8"/>
+      <c r="AQ31" s="8"/>
+      <c r="AR31" s="8"/>
+      <c r="AS31" s="8"/>
+      <c r="AT31" s="8"/>
+      <c r="AU31" s="8"/>
+      <c r="AV31" s="8"/>
+      <c r="AW31" s="8"/>
+      <c r="AX31" s="8"/>
+      <c r="AY31" s="8"/>
+      <c r="AZ31" s="8"/>
+      <c r="BA31" s="8"/>
+      <c r="BB31" s="8"/>
+      <c r="BC31" s="8"/>
+      <c r="BD31" s="8"/>
+      <c r="BE31" s="8"/>
+      <c r="BF31" s="8"/>
+      <c r="BG31" s="8"/>
+      <c r="BH31" s="8"/>
+      <c r="BI31" s="8"/>
+      <c r="BJ31" s="8"/>
+    </row>
+    <row r="32" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="A32" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="8"/>
+      <c r="P32" s="8"/>
+      <c r="Q32" s="8"/>
+      <c r="R32" s="8"/>
+      <c r="S32" s="8"/>
+      <c r="T32" s="8"/>
+      <c r="U32" s="8"/>
+      <c r="V32" s="8"/>
+      <c r="W32" s="8"/>
+      <c r="X32" s="8"/>
+      <c r="Y32" s="8"/>
+      <c r="Z32" s="8"/>
+      <c r="AA32" s="8"/>
+      <c r="AB32" s="8"/>
+      <c r="AC32" s="8"/>
+      <c r="AD32" s="8"/>
+      <c r="AE32" s="8"/>
+      <c r="AF32" s="8"/>
+      <c r="AG32" s="8"/>
+      <c r="AH32" s="8"/>
+      <c r="AI32" s="8"/>
+      <c r="AJ32" s="8"/>
+      <c r="AK32" s="8"/>
+      <c r="AL32" s="8"/>
+      <c r="AM32" s="8">
+        <v>0</v>
+      </c>
+      <c r="AN32" s="8">
+        <v>0</v>
+      </c>
+      <c r="AO32" s="8">
+        <v>1</v>
+      </c>
+      <c r="AP32" s="8"/>
+      <c r="AQ32" s="8"/>
+      <c r="AR32" s="8"/>
+      <c r="AS32" s="8"/>
+      <c r="AT32" s="8"/>
+      <c r="AU32" s="8"/>
+      <c r="AV32" s="8"/>
+      <c r="AW32" s="8"/>
+      <c r="AX32" s="8"/>
+      <c r="AY32" s="8"/>
+      <c r="AZ32" s="8"/>
+      <c r="BA32" s="8"/>
+      <c r="BB32" s="8"/>
+      <c r="BC32" s="8"/>
+      <c r="BD32" s="8"/>
+      <c r="BE32" s="8"/>
+      <c r="BF32" s="8"/>
+      <c r="BG32" s="8"/>
+      <c r="BH32" s="8"/>
+      <c r="BI32" s="8"/>
+      <c r="BJ32" s="8"/>
+    </row>
+    <row r="33" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="A33" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="8"/>
+      <c r="P33" s="8"/>
+      <c r="Q33" s="8"/>
+      <c r="R33" s="8"/>
+      <c r="S33" s="8"/>
+      <c r="T33" s="8"/>
+      <c r="U33" s="8"/>
+      <c r="V33" s="8"/>
+      <c r="W33" s="8"/>
+      <c r="X33" s="8"/>
+      <c r="Y33" s="8"/>
+      <c r="Z33" s="8"/>
+      <c r="AA33" s="8"/>
+      <c r="AB33" s="8"/>
+      <c r="AC33" s="8"/>
+      <c r="AD33" s="8"/>
+      <c r="AE33" s="8"/>
+      <c r="AF33" s="8"/>
+      <c r="AG33" s="8"/>
+      <c r="AH33" s="8"/>
+      <c r="AI33" s="8"/>
+      <c r="AJ33" s="8"/>
+      <c r="AK33" s="8"/>
+      <c r="AL33" s="8"/>
+      <c r="AM33" s="8">
+        <v>0</v>
+      </c>
+      <c r="AN33" s="8">
+        <v>0</v>
+      </c>
+      <c r="AO33" s="8">
+        <v>0</v>
+      </c>
+      <c r="AP33" s="8"/>
+      <c r="AQ33" s="8"/>
+      <c r="AR33" s="8"/>
+      <c r="AS33" s="8"/>
+      <c r="AT33" s="8"/>
+      <c r="AU33" s="8"/>
+      <c r="AV33" s="8"/>
+      <c r="AW33" s="8"/>
+      <c r="AX33" s="8"/>
+      <c r="AY33" s="8"/>
+      <c r="AZ33" s="8"/>
+      <c r="BA33" s="8"/>
+      <c r="BB33" s="8"/>
+      <c r="BC33" s="8"/>
+      <c r="BD33" s="8"/>
+      <c r="BE33" s="8"/>
+      <c r="BF33" s="8"/>
+      <c r="BG33" s="8"/>
+      <c r="BH33" s="8"/>
+      <c r="BI33" s="8"/>
+      <c r="BJ33" s="8"/>
+    </row>
+    <row r="34" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="A34" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="8"/>
+      <c r="O34" s="8"/>
+      <c r="P34" s="8"/>
+      <c r="Q34" s="8"/>
+      <c r="R34" s="8"/>
+      <c r="S34" s="8"/>
+      <c r="T34" s="8"/>
+      <c r="U34" s="8"/>
+      <c r="V34" s="8"/>
+      <c r="W34" s="8"/>
+      <c r="X34" s="8"/>
+      <c r="Y34" s="8"/>
+      <c r="Z34" s="8"/>
+      <c r="AA34" s="8"/>
+      <c r="AB34" s="8"/>
+      <c r="AC34" s="8"/>
+      <c r="AD34" s="8"/>
+      <c r="AE34" s="8"/>
+      <c r="AF34" s="8"/>
+      <c r="AG34" s="8"/>
+      <c r="AH34" s="8"/>
+      <c r="AI34" s="8"/>
+      <c r="AJ34" s="8"/>
+      <c r="AK34" s="8"/>
+      <c r="AL34" s="8"/>
+      <c r="AM34" s="8"/>
+      <c r="AN34" s="8"/>
+      <c r="AO34" s="8"/>
+      <c r="AP34" s="8">
+        <v>1</v>
+      </c>
+      <c r="AQ34" s="8"/>
+      <c r="AR34" s="8"/>
+      <c r="AS34" s="8"/>
+      <c r="AT34" s="8"/>
+      <c r="AU34" s="8"/>
+      <c r="AV34" s="8"/>
+      <c r="AW34" s="8"/>
+      <c r="AX34" s="8"/>
+      <c r="AY34" s="8"/>
+      <c r="AZ34" s="8"/>
+      <c r="BA34" s="8"/>
+      <c r="BB34" s="8"/>
+      <c r="BC34" s="8"/>
+      <c r="BD34" s="8"/>
+      <c r="BE34" s="8"/>
+      <c r="BF34" s="8"/>
+      <c r="BG34" s="8"/>
+      <c r="BH34" s="8"/>
+      <c r="BI34" s="8"/>
+      <c r="BJ34" s="8"/>
+    </row>
+    <row r="35" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="A35" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="8"/>
+      <c r="O35" s="8"/>
+      <c r="P35" s="8"/>
+      <c r="Q35" s="8"/>
+      <c r="R35" s="8"/>
+      <c r="S35" s="8"/>
+      <c r="T35" s="8"/>
+      <c r="U35" s="8"/>
+      <c r="V35" s="8"/>
+      <c r="W35" s="8"/>
+      <c r="X35" s="8"/>
+      <c r="Y35" s="8"/>
+      <c r="Z35" s="8"/>
+      <c r="AA35" s="8"/>
+      <c r="AB35" s="8"/>
+      <c r="AC35" s="8"/>
+      <c r="AD35" s="8"/>
+      <c r="AE35" s="8"/>
+      <c r="AF35" s="8"/>
+      <c r="AG35" s="8"/>
+      <c r="AH35" s="8"/>
+      <c r="AI35" s="8"/>
+      <c r="AJ35" s="8"/>
+      <c r="AK35" s="8"/>
+      <c r="AL35" s="8"/>
+      <c r="AM35" s="8"/>
+      <c r="AN35" s="8"/>
+      <c r="AO35" s="8"/>
+      <c r="AP35" s="8">
+        <v>0</v>
+      </c>
+      <c r="AQ35" s="8"/>
+      <c r="AR35" s="8"/>
+      <c r="AS35" s="8"/>
+      <c r="AT35" s="8"/>
+      <c r="AU35" s="8"/>
+      <c r="AV35" s="8"/>
+      <c r="AW35" s="8"/>
+      <c r="AX35" s="8"/>
+      <c r="AY35" s="8"/>
+      <c r="AZ35" s="8"/>
+      <c r="BA35" s="8"/>
+      <c r="BB35" s="8"/>
+      <c r="BC35" s="8"/>
+      <c r="BD35" s="8"/>
+      <c r="BE35" s="8"/>
+      <c r="BF35" s="8"/>
+      <c r="BG35" s="8"/>
+      <c r="BH35" s="8"/>
+      <c r="BI35" s="8"/>
+      <c r="BJ35" s="8"/>
+    </row>
+    <row r="36" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="A36" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
+      <c r="N36" s="8"/>
+      <c r="O36" s="8"/>
+      <c r="P36" s="8"/>
+      <c r="Q36" s="8"/>
+      <c r="R36" s="8"/>
+      <c r="S36" s="8"/>
+      <c r="T36" s="8"/>
+      <c r="U36" s="8"/>
+      <c r="V36" s="8"/>
+      <c r="W36" s="8"/>
+      <c r="X36" s="8"/>
+      <c r="Y36" s="8"/>
+      <c r="Z36" s="8"/>
+      <c r="AA36" s="8"/>
+      <c r="AB36" s="8"/>
+      <c r="AC36" s="8"/>
+      <c r="AD36" s="8"/>
+      <c r="AE36" s="8"/>
+      <c r="AF36" s="8"/>
+      <c r="AG36" s="8"/>
+      <c r="AH36" s="8"/>
+      <c r="AI36" s="8"/>
+      <c r="AJ36" s="8"/>
+      <c r="AK36" s="8"/>
+      <c r="AL36" s="8"/>
+      <c r="AM36" s="8"/>
+      <c r="AN36" s="8"/>
+      <c r="AO36" s="8"/>
+      <c r="AP36" s="8"/>
+      <c r="AQ36" s="8">
+        <v>1</v>
+      </c>
+      <c r="AR36" s="8"/>
+      <c r="AS36" s="8"/>
+      <c r="AT36" s="8"/>
+      <c r="AU36" s="8"/>
+      <c r="AV36" s="8"/>
+      <c r="AW36" s="8"/>
+      <c r="AX36" s="8"/>
+      <c r="AY36" s="8"/>
+      <c r="AZ36" s="8"/>
+      <c r="BA36" s="8"/>
+      <c r="BB36" s="8"/>
+      <c r="BC36" s="8"/>
+      <c r="BD36" s="8"/>
+      <c r="BE36" s="8"/>
+      <c r="BF36" s="8"/>
+      <c r="BG36" s="8"/>
+      <c r="BH36" s="8"/>
+      <c r="BI36" s="8"/>
+      <c r="BJ36" s="8"/>
+    </row>
+    <row r="37" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="A37" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
+      <c r="N37" s="8"/>
+      <c r="O37" s="8"/>
+      <c r="P37" s="8"/>
+      <c r="Q37" s="8"/>
+      <c r="R37" s="8"/>
+      <c r="S37" s="8"/>
+      <c r="T37" s="8"/>
+      <c r="U37" s="8"/>
+      <c r="V37" s="8"/>
+      <c r="W37" s="8"/>
+      <c r="X37" s="8"/>
+      <c r="Y37" s="8"/>
+      <c r="Z37" s="8"/>
+      <c r="AA37" s="8"/>
+      <c r="AB37" s="8"/>
+      <c r="AC37" s="8"/>
+      <c r="AD37" s="8"/>
+      <c r="AE37" s="8"/>
+      <c r="AF37" s="8"/>
+      <c r="AG37" s="8"/>
+      <c r="AH37" s="8"/>
+      <c r="AI37" s="8"/>
+      <c r="AJ37" s="8"/>
+      <c r="AK37" s="8"/>
+      <c r="AL37" s="8"/>
+      <c r="AM37" s="8"/>
+      <c r="AN37" s="8"/>
+      <c r="AO37" s="8"/>
+      <c r="AP37" s="8"/>
+      <c r="AQ37" s="8">
+        <v>0</v>
+      </c>
+      <c r="AR37" s="8"/>
+      <c r="AS37" s="8"/>
+      <c r="AT37" s="8"/>
+      <c r="AU37" s="8"/>
+      <c r="AV37" s="8"/>
+      <c r="AW37" s="8"/>
+      <c r="AX37" s="8"/>
+      <c r="AY37" s="8"/>
+      <c r="AZ37" s="8"/>
+      <c r="BA37" s="8"/>
+      <c r="BB37" s="8"/>
+      <c r="BC37" s="8"/>
+      <c r="BD37" s="8"/>
+      <c r="BE37" s="8"/>
+      <c r="BF37" s="8"/>
+      <c r="BG37" s="8"/>
+      <c r="BH37" s="8"/>
+      <c r="BI37" s="8"/>
+      <c r="BJ37" s="8"/>
+    </row>
+    <row r="38" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="A38" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="8"/>
+      <c r="O38" s="8"/>
+      <c r="P38" s="8"/>
+      <c r="Q38" s="8"/>
+      <c r="R38" s="8"/>
+      <c r="S38" s="8"/>
+      <c r="T38" s="8"/>
+      <c r="U38" s="8"/>
+      <c r="V38" s="8"/>
+      <c r="W38" s="8"/>
+      <c r="X38" s="8"/>
+      <c r="Y38" s="8"/>
+      <c r="Z38" s="8"/>
+      <c r="AA38" s="8"/>
+      <c r="AB38" s="8"/>
+      <c r="AC38" s="8"/>
+      <c r="AD38" s="8"/>
+      <c r="AE38" s="8"/>
+      <c r="AF38" s="8"/>
+      <c r="AG38" s="8"/>
+      <c r="AH38" s="8"/>
+      <c r="AI38" s="8"/>
+      <c r="AJ38" s="8"/>
+      <c r="AK38" s="8"/>
+      <c r="AL38" s="8"/>
+      <c r="AM38" s="8"/>
+      <c r="AN38" s="8"/>
+      <c r="AO38" s="8"/>
+      <c r="AP38" s="8"/>
+      <c r="AQ38" s="8"/>
+      <c r="AR38" s="8">
+        <v>1</v>
+      </c>
+      <c r="AS38" s="8"/>
+      <c r="AT38" s="8"/>
+      <c r="AU38" s="8"/>
+      <c r="AV38" s="8"/>
+      <c r="AW38" s="8"/>
+      <c r="AX38" s="8"/>
+      <c r="AY38" s="8"/>
+      <c r="AZ38" s="8"/>
+      <c r="BA38" s="8"/>
+      <c r="BB38" s="8"/>
+      <c r="BC38" s="8"/>
+      <c r="BD38" s="8"/>
+      <c r="BE38" s="8"/>
+      <c r="BF38" s="8"/>
+      <c r="BG38" s="8"/>
+      <c r="BH38" s="8"/>
+      <c r="BI38" s="8"/>
+      <c r="BJ38" s="8"/>
+    </row>
+    <row r="39" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="A39" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8"/>
+      <c r="N39" s="8"/>
+      <c r="O39" s="8"/>
+      <c r="P39" s="8"/>
+      <c r="Q39" s="8"/>
+      <c r="R39" s="8"/>
+      <c r="S39" s="8"/>
+      <c r="T39" s="8"/>
+      <c r="U39" s="8"/>
+      <c r="V39" s="8"/>
+      <c r="W39" s="8"/>
+      <c r="X39" s="8"/>
+      <c r="Y39" s="8"/>
+      <c r="Z39" s="8"/>
+      <c r="AA39" s="8"/>
+      <c r="AB39" s="8"/>
+      <c r="AC39" s="8"/>
+      <c r="AD39" s="8"/>
+      <c r="AE39" s="8"/>
+      <c r="AF39" s="8"/>
+      <c r="AG39" s="8"/>
+      <c r="AH39" s="8"/>
+      <c r="AI39" s="8"/>
+      <c r="AJ39" s="8"/>
+      <c r="AK39" s="8"/>
+      <c r="AL39" s="8"/>
+      <c r="AM39" s="8"/>
+      <c r="AN39" s="8"/>
+      <c r="AO39" s="8"/>
+      <c r="AP39" s="8"/>
+      <c r="AQ39" s="8"/>
+      <c r="AR39" s="8">
+        <v>0</v>
+      </c>
+      <c r="AS39" s="8"/>
+      <c r="AT39" s="8"/>
+      <c r="AU39" s="8"/>
+      <c r="AV39" s="8"/>
+      <c r="AW39" s="8"/>
+      <c r="AX39" s="8"/>
+      <c r="AY39" s="8"/>
+      <c r="AZ39" s="8"/>
+      <c r="BA39" s="8"/>
+      <c r="BB39" s="8"/>
+      <c r="BC39" s="8"/>
+      <c r="BD39" s="8"/>
+      <c r="BE39" s="8"/>
+      <c r="BF39" s="8"/>
+      <c r="BG39" s="8"/>
+      <c r="BH39" s="8"/>
+      <c r="BI39" s="8"/>
+      <c r="BJ39" s="8"/>
+    </row>
+    <row r="40" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="A40" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="8"/>
+      <c r="M40" s="8"/>
+      <c r="N40" s="8"/>
+      <c r="O40" s="8"/>
+      <c r="P40" s="8"/>
+      <c r="Q40" s="8"/>
+      <c r="R40" s="8"/>
+      <c r="S40" s="8"/>
+      <c r="T40" s="8"/>
+      <c r="U40" s="8"/>
+      <c r="V40" s="8"/>
+      <c r="W40" s="8"/>
+      <c r="X40" s="8"/>
+      <c r="Y40" s="8"/>
+      <c r="Z40" s="8"/>
+      <c r="AA40" s="8"/>
+      <c r="AB40" s="8"/>
+      <c r="AC40" s="8"/>
+      <c r="AD40" s="8"/>
+      <c r="AE40" s="8"/>
+      <c r="AF40" s="8"/>
+      <c r="AG40" s="8"/>
+      <c r="AH40" s="8"/>
+      <c r="AI40" s="8"/>
+      <c r="AJ40" s="8"/>
+      <c r="AK40" s="8"/>
+      <c r="AL40" s="8"/>
+      <c r="AM40" s="8"/>
+      <c r="AN40" s="8"/>
+      <c r="AO40" s="8"/>
+      <c r="AP40" s="8"/>
+      <c r="AQ40" s="8"/>
+      <c r="AR40" s="8"/>
+      <c r="AS40" s="8"/>
+      <c r="AT40" s="8"/>
+      <c r="AU40" s="8"/>
+      <c r="AV40" s="8"/>
+      <c r="AW40" s="8"/>
+      <c r="AX40" s="8"/>
+      <c r="AY40" s="8"/>
+      <c r="AZ40" s="8"/>
+      <c r="BA40" s="8"/>
+      <c r="BB40" s="8"/>
+      <c r="BC40" s="8">
+        <v>1</v>
+      </c>
+      <c r="BD40" s="8">
+        <v>0</v>
+      </c>
+      <c r="BE40" s="8">
+        <v>0</v>
+      </c>
+      <c r="BF40" s="8"/>
+      <c r="BG40" s="8"/>
+      <c r="BH40" s="8"/>
+      <c r="BI40" s="8"/>
+      <c r="BJ40" s="8"/>
+    </row>
+    <row r="41" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="A41" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="8"/>
+      <c r="M41" s="8"/>
+      <c r="N41" s="8"/>
+      <c r="O41" s="8"/>
+      <c r="P41" s="8"/>
+      <c r="Q41" s="8"/>
+      <c r="R41" s="8"/>
+      <c r="S41" s="8"/>
+      <c r="T41" s="8"/>
+      <c r="U41" s="8"/>
+      <c r="V41" s="8"/>
+      <c r="W41" s="8"/>
+      <c r="X41" s="8"/>
+      <c r="Y41" s="8"/>
+      <c r="Z41" s="8"/>
+      <c r="AA41" s="8"/>
+      <c r="AB41" s="8"/>
+      <c r="AC41" s="8"/>
+      <c r="AD41" s="8"/>
+      <c r="AE41" s="8"/>
+      <c r="AF41" s="8"/>
+      <c r="AG41" s="8"/>
+      <c r="AH41" s="8"/>
+      <c r="AI41" s="8"/>
+      <c r="AJ41" s="8"/>
+      <c r="AK41" s="8"/>
+      <c r="AL41" s="8"/>
+      <c r="AM41" s="8"/>
+      <c r="AN41" s="8"/>
+      <c r="AO41" s="8"/>
+      <c r="AP41" s="8"/>
+      <c r="AQ41" s="8"/>
+      <c r="AR41" s="8"/>
+      <c r="AS41" s="8"/>
+      <c r="AT41" s="8"/>
+      <c r="AU41" s="8"/>
+      <c r="AV41" s="8"/>
+      <c r="AW41" s="8"/>
+      <c r="AX41" s="8"/>
+      <c r="AY41" s="8"/>
+      <c r="AZ41" s="8"/>
+      <c r="BA41" s="8"/>
+      <c r="BB41" s="8"/>
+      <c r="BC41" s="8">
+        <v>0</v>
+      </c>
+      <c r="BD41" s="8">
+        <v>1</v>
+      </c>
+      <c r="BE41" s="8">
+        <v>0</v>
+      </c>
+      <c r="BF41" s="8"/>
+      <c r="BG41" s="8"/>
+      <c r="BH41" s="8"/>
+      <c r="BI41" s="8"/>
+      <c r="BJ41" s="8"/>
+    </row>
+    <row r="42" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="A42" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="8"/>
+      <c r="M42" s="8"/>
+      <c r="N42" s="8"/>
+      <c r="O42" s="8"/>
+      <c r="P42" s="8"/>
+      <c r="Q42" s="8"/>
+      <c r="R42" s="8"/>
+      <c r="S42" s="8"/>
+      <c r="T42" s="8"/>
+      <c r="U42" s="8"/>
+      <c r="V42" s="8"/>
+      <c r="W42" s="8"/>
+      <c r="X42" s="8"/>
+      <c r="Y42" s="8"/>
+      <c r="Z42" s="8"/>
+      <c r="AA42" s="8"/>
+      <c r="AB42" s="8"/>
+      <c r="AC42" s="8"/>
+      <c r="AD42" s="8"/>
+      <c r="AE42" s="8"/>
+      <c r="AF42" s="8"/>
+      <c r="AG42" s="8"/>
+      <c r="AH42" s="8"/>
+      <c r="AI42" s="8"/>
+      <c r="AJ42" s="8"/>
+      <c r="AK42" s="8"/>
+      <c r="AL42" s="8"/>
+      <c r="AM42" s="8"/>
+      <c r="AN42" s="8"/>
+      <c r="AO42" s="8"/>
+      <c r="AP42" s="8"/>
+      <c r="AQ42" s="8"/>
+      <c r="AR42" s="8"/>
+      <c r="AS42" s="8"/>
+      <c r="AT42" s="8"/>
+      <c r="AU42" s="8"/>
+      <c r="AV42" s="8"/>
+      <c r="AW42" s="8"/>
+      <c r="AX42" s="8"/>
+      <c r="AY42" s="8"/>
+      <c r="AZ42" s="8"/>
+      <c r="BA42" s="8"/>
+      <c r="BB42" s="8"/>
+      <c r="BC42" s="8">
+        <v>0</v>
+      </c>
+      <c r="BD42" s="8">
+        <v>0</v>
+      </c>
+      <c r="BE42" s="8">
+        <v>1</v>
+      </c>
+      <c r="BF42" s="8"/>
+      <c r="BG42" s="8"/>
+      <c r="BH42" s="8"/>
+      <c r="BI42" s="8"/>
+      <c r="BJ42" s="8"/>
+    </row>
+    <row r="43" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="A43" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="8"/>
+      <c r="M43" s="8"/>
+      <c r="N43" s="8"/>
+      <c r="O43" s="8"/>
+      <c r="P43" s="8"/>
+      <c r="Q43" s="8"/>
+      <c r="R43" s="8"/>
+      <c r="S43" s="8"/>
+      <c r="T43" s="8"/>
+      <c r="U43" s="8"/>
+      <c r="V43" s="8"/>
+      <c r="W43" s="8"/>
+      <c r="X43" s="8"/>
+      <c r="Y43" s="8"/>
+      <c r="Z43" s="8"/>
+      <c r="AA43" s="8"/>
+      <c r="AB43" s="8"/>
+      <c r="AC43" s="8"/>
+      <c r="AD43" s="8"/>
+      <c r="AE43" s="8"/>
+      <c r="AF43" s="8"/>
+      <c r="AG43" s="8"/>
+      <c r="AH43" s="8"/>
+      <c r="AI43" s="8"/>
+      <c r="AJ43" s="8"/>
+      <c r="AK43" s="8"/>
+      <c r="AL43" s="8"/>
+      <c r="AM43" s="8"/>
+      <c r="AN43" s="8"/>
+      <c r="AO43" s="8"/>
+      <c r="AP43" s="8"/>
+      <c r="AQ43" s="8"/>
+      <c r="AR43" s="8"/>
+      <c r="AS43" s="8"/>
+      <c r="AT43" s="8"/>
+      <c r="AU43" s="8"/>
+      <c r="AV43" s="8"/>
+      <c r="AW43" s="8"/>
+      <c r="AX43" s="8"/>
+      <c r="AY43" s="8"/>
+      <c r="AZ43" s="8"/>
+      <c r="BA43" s="8"/>
+      <c r="BB43" s="8"/>
+      <c r="BC43" s="8">
+        <v>0</v>
+      </c>
+      <c r="BD43" s="8">
+        <v>0</v>
+      </c>
+      <c r="BE43" s="8">
+        <v>0</v>
+      </c>
+      <c r="BF43" s="8"/>
+      <c r="BG43" s="8"/>
+      <c r="BH43" s="8"/>
+      <c r="BI43" s="8"/>
+      <c r="BJ43" s="8"/>
+    </row>
+    <row r="44" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="A44" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="8"/>
+      <c r="M44" s="8"/>
+      <c r="N44" s="8"/>
+      <c r="O44" s="8"/>
+      <c r="P44" s="8"/>
+      <c r="Q44" s="8"/>
+      <c r="R44" s="8"/>
+      <c r="S44" s="8"/>
+      <c r="T44" s="8"/>
+      <c r="U44" s="8"/>
+      <c r="V44" s="8"/>
+      <c r="W44" s="8"/>
+      <c r="X44" s="8"/>
+      <c r="Y44" s="8"/>
+      <c r="Z44" s="8"/>
+      <c r="AA44" s="8"/>
+      <c r="AB44" s="8"/>
+      <c r="AC44" s="8"/>
+      <c r="AD44" s="8"/>
+      <c r="AE44" s="8"/>
+      <c r="AF44" s="8"/>
+      <c r="AG44" s="8"/>
+      <c r="AH44" s="8"/>
+      <c r="AI44" s="8"/>
+      <c r="AJ44" s="8"/>
+      <c r="AK44" s="8"/>
+      <c r="AL44" s="8"/>
+      <c r="AM44" s="8">
+        <v>1</v>
+      </c>
+      <c r="AN44" s="8"/>
+      <c r="AO44" s="8"/>
+      <c r="AP44" s="8"/>
+      <c r="AQ44" s="8"/>
+      <c r="AR44" s="8"/>
+      <c r="AS44" s="8"/>
+      <c r="AT44" s="8"/>
+      <c r="AU44" s="8"/>
+      <c r="AV44" s="8"/>
+      <c r="AW44" s="8"/>
+      <c r="AX44" s="8"/>
+      <c r="AY44" s="8"/>
+      <c r="AZ44" s="8"/>
+      <c r="BA44" s="8"/>
+      <c r="BB44" s="8"/>
+      <c r="BC44" s="8"/>
+      <c r="BD44" s="8"/>
+      <c r="BE44" s="8"/>
+      <c r="BF44" s="8"/>
+      <c r="BG44" s="8"/>
+      <c r="BH44" s="8"/>
+      <c r="BI44" s="8"/>
+      <c r="BJ44" s="8"/>
+    </row>
+    <row r="45" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="A45" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="8"/>
+      <c r="K45" s="8"/>
+      <c r="L45" s="8"/>
+      <c r="M45" s="8"/>
+      <c r="N45" s="8"/>
+      <c r="O45" s="8"/>
+      <c r="P45" s="8"/>
+      <c r="Q45" s="8"/>
+      <c r="R45" s="8"/>
+      <c r="S45" s="8"/>
+      <c r="T45" s="8"/>
+      <c r="U45" s="8"/>
+      <c r="V45" s="8"/>
+      <c r="W45" s="8"/>
+      <c r="X45" s="8"/>
+      <c r="Y45" s="8"/>
+      <c r="Z45" s="8"/>
+      <c r="AA45" s="8"/>
+      <c r="AB45" s="8"/>
+      <c r="AC45" s="8"/>
+      <c r="AD45" s="8"/>
+      <c r="AE45" s="8"/>
+      <c r="AF45" s="8"/>
+      <c r="AG45" s="8"/>
+      <c r="AH45" s="8"/>
+      <c r="AI45" s="8"/>
+      <c r="AJ45" s="8"/>
+      <c r="AK45" s="8"/>
+      <c r="AL45" s="8"/>
+      <c r="AM45" s="8">
+        <v>0</v>
+      </c>
+      <c r="AN45" s="8"/>
+      <c r="AO45" s="8"/>
+      <c r="AP45" s="8"/>
+      <c r="AQ45" s="8"/>
+      <c r="AR45" s="8"/>
+      <c r="AS45" s="8"/>
+      <c r="AT45" s="8"/>
+      <c r="AU45" s="8"/>
+      <c r="AV45" s="8"/>
+      <c r="AW45" s="8"/>
+      <c r="AX45" s="8"/>
+      <c r="AY45" s="8"/>
+      <c r="AZ45" s="8"/>
+      <c r="BA45" s="8"/>
+      <c r="BB45" s="8"/>
+      <c r="BC45" s="8"/>
+      <c r="BD45" s="8"/>
+      <c r="BE45" s="8"/>
+      <c r="BF45" s="8"/>
+      <c r="BG45" s="8"/>
+      <c r="BH45" s="8"/>
+      <c r="BI45" s="8"/>
+      <c r="BJ45" s="8"/>
+    </row>
+    <row r="46" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="A46" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
+      <c r="J46" s="8"/>
+      <c r="K46" s="8"/>
+      <c r="L46" s="8"/>
+      <c r="M46" s="8"/>
+      <c r="N46" s="8"/>
+      <c r="O46" s="8"/>
+      <c r="P46" s="8"/>
+      <c r="Q46" s="8"/>
+      <c r="R46" s="8"/>
+      <c r="S46" s="8"/>
+      <c r="T46" s="8"/>
+      <c r="U46" s="8"/>
+      <c r="V46" s="8"/>
+      <c r="W46" s="8"/>
+      <c r="X46" s="8"/>
+      <c r="Y46" s="8"/>
+      <c r="Z46" s="8"/>
+      <c r="AA46" s="8"/>
+      <c r="AB46" s="8"/>
+      <c r="AC46" s="8"/>
+      <c r="AD46" s="8"/>
+      <c r="AE46" s="8"/>
+      <c r="AF46" s="8"/>
+      <c r="AG46" s="8"/>
+      <c r="AH46" s="8"/>
+      <c r="AI46" s="8"/>
+      <c r="AJ46" s="8"/>
+      <c r="AK46" s="8"/>
+      <c r="AL46" s="8"/>
+      <c r="AM46" s="8"/>
+      <c r="AN46" s="8">
+        <v>1</v>
+      </c>
+      <c r="AO46" s="8"/>
+      <c r="AP46" s="8"/>
+      <c r="AQ46" s="8"/>
+      <c r="AR46" s="8"/>
+      <c r="AS46" s="8"/>
+      <c r="AT46" s="8"/>
+      <c r="AU46" s="8"/>
+      <c r="AV46" s="8"/>
+      <c r="AW46" s="8"/>
+      <c r="AX46" s="8"/>
+      <c r="AY46" s="8"/>
+      <c r="AZ46" s="8"/>
+      <c r="BA46" s="8"/>
+      <c r="BB46" s="8"/>
+      <c r="BC46" s="8"/>
+      <c r="BD46" s="8"/>
+      <c r="BE46" s="8"/>
+      <c r="BF46" s="8"/>
+      <c r="BG46" s="8"/>
+      <c r="BH46" s="8"/>
+      <c r="BI46" s="8"/>
+      <c r="BJ46" s="8"/>
+    </row>
+    <row r="47" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="A47" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="8"/>
+      <c r="J47" s="8"/>
+      <c r="K47" s="8"/>
+      <c r="L47" s="8"/>
+      <c r="M47" s="8"/>
+      <c r="N47" s="8"/>
+      <c r="O47" s="8"/>
+      <c r="P47" s="8"/>
+      <c r="Q47" s="8"/>
+      <c r="R47" s="8"/>
+      <c r="S47" s="8"/>
+      <c r="T47" s="8"/>
+      <c r="U47" s="8"/>
+      <c r="V47" s="8"/>
+      <c r="W47" s="8"/>
+      <c r="X47" s="8"/>
+      <c r="Y47" s="8"/>
+      <c r="Z47" s="8"/>
+      <c r="AA47" s="8"/>
+      <c r="AB47" s="8"/>
+      <c r="AC47" s="8"/>
+      <c r="AD47" s="8"/>
+      <c r="AE47" s="8"/>
+      <c r="AF47" s="8"/>
+      <c r="AG47" s="8"/>
+      <c r="AH47" s="8"/>
+      <c r="AI47" s="8"/>
+      <c r="AJ47" s="8"/>
+      <c r="AK47" s="8"/>
+      <c r="AL47" s="8"/>
+      <c r="AM47" s="8"/>
+      <c r="AN47" s="8">
+        <v>0</v>
+      </c>
+      <c r="AO47" s="8"/>
+      <c r="AP47" s="8"/>
+      <c r="AQ47" s="8"/>
+      <c r="AR47" s="8"/>
+      <c r="AS47" s="8"/>
+      <c r="AT47" s="8"/>
+      <c r="AU47" s="8"/>
+      <c r="AV47" s="8"/>
+      <c r="AW47" s="8"/>
+      <c r="AX47" s="8"/>
+      <c r="AY47" s="8"/>
+      <c r="AZ47" s="8"/>
+      <c r="BA47" s="8"/>
+      <c r="BB47" s="8"/>
+      <c r="BC47" s="8"/>
+      <c r="BD47" s="8"/>
+      <c r="BE47" s="8"/>
+      <c r="BF47" s="8"/>
+      <c r="BG47" s="8"/>
+      <c r="BH47" s="8"/>
+      <c r="BI47" s="8"/>
+      <c r="BJ47" s="8"/>
+    </row>
+    <row r="48" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="A48" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="8"/>
+      <c r="K48" s="8"/>
+      <c r="L48" s="8"/>
+      <c r="M48" s="8"/>
+      <c r="N48" s="8"/>
+      <c r="O48" s="8"/>
+      <c r="P48" s="8"/>
+      <c r="Q48" s="8"/>
+      <c r="R48" s="8"/>
+      <c r="S48" s="8"/>
+      <c r="T48" s="8"/>
+      <c r="U48" s="8"/>
+      <c r="V48" s="8"/>
+      <c r="W48" s="8"/>
+      <c r="X48" s="8"/>
+      <c r="Y48" s="8"/>
+      <c r="Z48" s="8"/>
+      <c r="AA48" s="8"/>
+      <c r="AB48" s="8"/>
+      <c r="AC48" s="8"/>
+      <c r="AD48" s="8"/>
+      <c r="AE48" s="8"/>
+      <c r="AF48" s="8"/>
+      <c r="AG48" s="8"/>
+      <c r="AH48" s="8"/>
+      <c r="AI48" s="8"/>
+      <c r="AJ48" s="8"/>
+      <c r="AK48" s="8"/>
+      <c r="AL48" s="8"/>
+      <c r="AM48" s="8"/>
+      <c r="AN48" s="8"/>
+      <c r="AO48" s="8">
+        <v>1</v>
+      </c>
+      <c r="AP48" s="8"/>
+      <c r="AQ48" s="8"/>
+      <c r="AR48" s="8"/>
+      <c r="AS48" s="8"/>
+      <c r="AT48" s="8"/>
+      <c r="AU48" s="8"/>
+      <c r="AV48" s="8"/>
+      <c r="AW48" s="8"/>
+      <c r="AX48" s="8"/>
+      <c r="AY48" s="8"/>
+      <c r="AZ48" s="8"/>
+      <c r="BA48" s="8"/>
+      <c r="BB48" s="8"/>
+      <c r="BC48" s="8"/>
+      <c r="BD48" s="8"/>
+      <c r="BE48" s="8"/>
+      <c r="BF48" s="8"/>
+      <c r="BG48" s="8"/>
+      <c r="BH48" s="8"/>
+      <c r="BI48" s="8"/>
+      <c r="BJ48" s="8"/>
+    </row>
+    <row r="49" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="A49" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8"/>
+      <c r="J49" s="8"/>
+      <c r="K49" s="8"/>
+      <c r="L49" s="8"/>
+      <c r="M49" s="8"/>
+      <c r="N49" s="8"/>
+      <c r="O49" s="8"/>
+      <c r="P49" s="8"/>
+      <c r="Q49" s="8"/>
+      <c r="R49" s="8"/>
+      <c r="S49" s="8"/>
+      <c r="T49" s="8"/>
+      <c r="U49" s="8"/>
+      <c r="V49" s="8"/>
+      <c r="W49" s="8"/>
+      <c r="X49" s="8"/>
+      <c r="Y49" s="8"/>
+      <c r="Z49" s="8"/>
+      <c r="AA49" s="8"/>
+      <c r="AB49" s="8"/>
+      <c r="AC49" s="8"/>
+      <c r="AD49" s="8"/>
+      <c r="AE49" s="8"/>
+      <c r="AF49" s="8"/>
+      <c r="AG49" s="8"/>
+      <c r="AH49" s="8"/>
+      <c r="AI49" s="8"/>
+      <c r="AJ49" s="8"/>
+      <c r="AK49" s="8"/>
+      <c r="AL49" s="8"/>
+      <c r="AM49" s="8"/>
+      <c r="AN49" s="8"/>
+      <c r="AO49" s="8">
+        <v>0</v>
+      </c>
+      <c r="AP49" s="8"/>
+      <c r="AQ49" s="8"/>
+      <c r="AR49" s="8"/>
+      <c r="AS49" s="8"/>
+      <c r="AT49" s="8"/>
+      <c r="AU49" s="8"/>
+      <c r="AV49" s="8"/>
+      <c r="AW49" s="8"/>
+      <c r="AX49" s="8"/>
+      <c r="AY49" s="8"/>
+      <c r="AZ49" s="8"/>
+      <c r="BA49" s="8"/>
+      <c r="BB49" s="8"/>
+      <c r="BC49" s="8"/>
+      <c r="BD49" s="8"/>
+      <c r="BE49" s="8"/>
+      <c r="BF49" s="8"/>
+      <c r="BG49" s="8"/>
+      <c r="BH49" s="8"/>
+      <c r="BI49" s="8"/>
+      <c r="BJ49" s="8"/>
+    </row>
+    <row r="50" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="A50" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="B50" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="8"/>
+      <c r="J50" s="8"/>
+      <c r="K50" s="8"/>
+      <c r="L50" s="8"/>
+      <c r="M50" s="8"/>
+      <c r="N50" s="8"/>
+      <c r="O50" s="8"/>
+      <c r="P50" s="8"/>
+      <c r="Q50" s="8"/>
+      <c r="R50" s="8"/>
+      <c r="S50" s="8"/>
+      <c r="T50" s="8"/>
+      <c r="U50" s="8"/>
+      <c r="V50" s="8"/>
+      <c r="W50" s="8"/>
+      <c r="X50" s="8"/>
+      <c r="Y50" s="8"/>
+      <c r="Z50" s="8"/>
+      <c r="AA50" s="8"/>
+      <c r="AB50" s="8"/>
+      <c r="AC50" s="8"/>
+      <c r="AD50" s="8"/>
+      <c r="AE50" s="8"/>
+      <c r="AF50" s="8"/>
+      <c r="AG50" s="8"/>
+      <c r="AH50" s="8"/>
+      <c r="AI50" s="8"/>
+      <c r="AJ50" s="8"/>
+      <c r="AK50" s="8"/>
+      <c r="AL50" s="8"/>
+      <c r="AM50" s="8"/>
+      <c r="AN50" s="8"/>
+      <c r="AO50" s="8"/>
+      <c r="AP50" s="8">
+        <v>1</v>
+      </c>
+      <c r="AQ50" s="8"/>
+      <c r="AR50" s="8"/>
+      <c r="AS50" s="8"/>
+      <c r="AT50" s="8"/>
+      <c r="AU50" s="8"/>
+      <c r="AV50" s="8"/>
+      <c r="AW50" s="8"/>
+      <c r="AX50" s="8"/>
+      <c r="AY50" s="8"/>
+      <c r="AZ50" s="8"/>
+      <c r="BA50" s="8"/>
+      <c r="BB50" s="8"/>
+      <c r="BC50" s="8"/>
+      <c r="BD50" s="8"/>
+      <c r="BE50" s="8"/>
+      <c r="BF50" s="8"/>
+      <c r="BG50" s="8"/>
+      <c r="BH50" s="8"/>
+      <c r="BI50" s="8"/>
+      <c r="BJ50" s="8"/>
+    </row>
+    <row r="51" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="A51" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8"/>
+      <c r="J51" s="8"/>
+      <c r="K51" s="8"/>
+      <c r="L51" s="8"/>
+      <c r="M51" s="8"/>
+      <c r="N51" s="8"/>
+      <c r="O51" s="8"/>
+      <c r="P51" s="8"/>
+      <c r="Q51" s="8"/>
+      <c r="R51" s="8"/>
+      <c r="S51" s="8"/>
+      <c r="T51" s="8"/>
+      <c r="U51" s="8"/>
+      <c r="V51" s="8"/>
+      <c r="W51" s="8"/>
+      <c r="X51" s="8"/>
+      <c r="Y51" s="8"/>
+      <c r="Z51" s="8"/>
+      <c r="AA51" s="8"/>
+      <c r="AB51" s="8"/>
+      <c r="AC51" s="8"/>
+      <c r="AD51" s="8"/>
+      <c r="AE51" s="8"/>
+      <c r="AF51" s="8"/>
+      <c r="AG51" s="8"/>
+      <c r="AH51" s="8"/>
+      <c r="AI51" s="8"/>
+      <c r="AJ51" s="8"/>
+      <c r="AK51" s="8"/>
+      <c r="AL51" s="8"/>
+      <c r="AM51" s="8"/>
+      <c r="AN51" s="8"/>
+      <c r="AO51" s="8"/>
+      <c r="AP51" s="8">
+        <v>0</v>
+      </c>
+      <c r="AQ51" s="8"/>
+      <c r="AR51" s="8"/>
+      <c r="AS51" s="8"/>
+      <c r="AT51" s="8"/>
+      <c r="AU51" s="8"/>
+      <c r="AV51" s="8"/>
+      <c r="AW51" s="8"/>
+      <c r="AX51" s="8"/>
+      <c r="AY51" s="8"/>
+      <c r="AZ51" s="8"/>
+      <c r="BA51" s="8"/>
+      <c r="BB51" s="8"/>
+      <c r="BC51" s="8"/>
+      <c r="BD51" s="8"/>
+      <c r="BE51" s="8"/>
+      <c r="BF51" s="8"/>
+      <c r="BG51" s="8"/>
+      <c r="BH51" s="8"/>
+      <c r="BI51" s="8"/>
+      <c r="BJ51" s="8"/>
+    </row>
+    <row r="52" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="A52" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="B52" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="8"/>
+      <c r="J52" s="8"/>
+      <c r="K52" s="8"/>
+      <c r="L52" s="8"/>
+      <c r="M52" s="8"/>
+      <c r="N52" s="8"/>
+      <c r="O52" s="8"/>
+      <c r="P52" s="8"/>
+      <c r="Q52" s="8"/>
+      <c r="R52" s="8"/>
+      <c r="S52" s="8"/>
+      <c r="T52" s="8"/>
+      <c r="U52" s="8"/>
+      <c r="V52" s="8"/>
+      <c r="W52" s="8"/>
+      <c r="X52" s="8"/>
+      <c r="Y52" s="8"/>
+      <c r="Z52" s="8"/>
+      <c r="AA52" s="8"/>
+      <c r="AB52" s="8"/>
+      <c r="AC52" s="8"/>
+      <c r="AD52" s="8"/>
+      <c r="AE52" s="8"/>
+      <c r="AF52" s="8"/>
+      <c r="AG52" s="8"/>
+      <c r="AH52" s="8"/>
+      <c r="AI52" s="8"/>
+      <c r="AJ52" s="8">
+        <v>1</v>
+      </c>
+      <c r="AK52" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL52" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM52" s="8"/>
+      <c r="AN52" s="8"/>
+      <c r="AO52" s="8"/>
+      <c r="AP52" s="8"/>
+      <c r="AQ52" s="8"/>
+      <c r="AR52" s="8"/>
+      <c r="AS52" s="8"/>
+      <c r="AT52" s="8"/>
+      <c r="AU52" s="8"/>
+      <c r="AV52" s="8"/>
+      <c r="AW52" s="8"/>
+      <c r="AX52" s="8"/>
+      <c r="AY52" s="8"/>
+      <c r="AZ52" s="8"/>
+      <c r="BA52" s="8"/>
+      <c r="BB52" s="8"/>
+      <c r="BC52" s="8"/>
+      <c r="BD52" s="8"/>
+      <c r="BE52" s="8"/>
+      <c r="BF52" s="8"/>
+      <c r="BG52" s="8"/>
+      <c r="BH52" s="8"/>
+      <c r="BI52" s="8"/>
+      <c r="BJ52" s="8"/>
+    </row>
+    <row r="53" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="A53" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="8"/>
+      <c r="J53" s="8"/>
+      <c r="K53" s="8"/>
+      <c r="L53" s="8"/>
+      <c r="M53" s="8"/>
+      <c r="N53" s="8"/>
+      <c r="O53" s="8"/>
+      <c r="P53" s="8"/>
+      <c r="Q53" s="8"/>
+      <c r="R53" s="8"/>
+      <c r="S53" s="8"/>
+      <c r="T53" s="8"/>
+      <c r="U53" s="8"/>
+      <c r="V53" s="8"/>
+      <c r="W53" s="8"/>
+      <c r="X53" s="8"/>
+      <c r="Y53" s="8"/>
+      <c r="Z53" s="8"/>
+      <c r="AA53" s="8"/>
+      <c r="AB53" s="8"/>
+      <c r="AC53" s="8"/>
+      <c r="AD53" s="8"/>
+      <c r="AE53" s="8"/>
+      <c r="AF53" s="8"/>
+      <c r="AG53" s="8"/>
+      <c r="AH53" s="8"/>
+      <c r="AI53" s="8"/>
+      <c r="AJ53" s="8">
+        <v>0</v>
+      </c>
+      <c r="AK53" s="8">
+        <v>1</v>
+      </c>
+      <c r="AL53" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM53" s="8"/>
+      <c r="AN53" s="8"/>
+      <c r="AO53" s="8"/>
+      <c r="AP53" s="8"/>
+      <c r="AQ53" s="8"/>
+      <c r="AR53" s="8"/>
+      <c r="AS53" s="8"/>
+      <c r="AT53" s="8"/>
+      <c r="AU53" s="8"/>
+      <c r="AV53" s="8"/>
+      <c r="AW53" s="8"/>
+      <c r="AX53" s="8"/>
+      <c r="AY53" s="8"/>
+      <c r="AZ53" s="8"/>
+      <c r="BA53" s="8"/>
+      <c r="BB53" s="8"/>
+      <c r="BC53" s="8"/>
+      <c r="BD53" s="8"/>
+      <c r="BE53" s="8"/>
+      <c r="BF53" s="8"/>
+      <c r="BG53" s="8"/>
+      <c r="BH53" s="8"/>
+      <c r="BI53" s="8"/>
+      <c r="BJ53" s="8"/>
+    </row>
+    <row r="54" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="A54" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="B54" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="8"/>
+      <c r="J54" s="8"/>
+      <c r="K54" s="8"/>
+      <c r="L54" s="8"/>
+      <c r="M54" s="8"/>
+      <c r="N54" s="8"/>
+      <c r="O54" s="8"/>
+      <c r="P54" s="8"/>
+      <c r="Q54" s="8"/>
+      <c r="R54" s="8"/>
+      <c r="S54" s="8"/>
+      <c r="T54" s="8"/>
+      <c r="U54" s="8"/>
+      <c r="V54" s="8"/>
+      <c r="W54" s="8"/>
+      <c r="X54" s="8"/>
+      <c r="Y54" s="8"/>
+      <c r="Z54" s="8"/>
+      <c r="AA54" s="8"/>
+      <c r="AB54" s="8"/>
+      <c r="AC54" s="8"/>
+      <c r="AD54" s="8"/>
+      <c r="AE54" s="8"/>
+      <c r="AF54" s="8"/>
+      <c r="AG54" s="8"/>
+      <c r="AH54" s="8"/>
+      <c r="AI54" s="8"/>
+      <c r="AJ54" s="8">
+        <v>0</v>
+      </c>
+      <c r="AK54" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL54" s="8">
+        <v>1</v>
+      </c>
+      <c r="AM54" s="8"/>
+      <c r="AN54" s="8"/>
+      <c r="AO54" s="8"/>
+      <c r="AP54" s="8"/>
+      <c r="AQ54" s="8"/>
+      <c r="AR54" s="8"/>
+      <c r="AS54" s="8"/>
+      <c r="AT54" s="8"/>
+      <c r="AU54" s="8"/>
+      <c r="AV54" s="8"/>
+      <c r="AW54" s="8"/>
+      <c r="AX54" s="8"/>
+      <c r="AY54" s="8"/>
+      <c r="AZ54" s="8"/>
+      <c r="BA54" s="8"/>
+      <c r="BB54" s="8"/>
+      <c r="BC54" s="8"/>
+      <c r="BD54" s="8"/>
+      <c r="BE54" s="8"/>
+      <c r="BF54" s="8"/>
+      <c r="BG54" s="8"/>
+      <c r="BH54" s="8"/>
+      <c r="BI54" s="8"/>
+      <c r="BJ54" s="8"/>
+    </row>
+    <row r="55" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="A55" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="8"/>
+      <c r="J55" s="8"/>
+      <c r="K55" s="8"/>
+      <c r="L55" s="8"/>
+      <c r="M55" s="8"/>
+      <c r="N55" s="8"/>
+      <c r="O55" s="8"/>
+      <c r="P55" s="8"/>
+      <c r="Q55" s="8"/>
+      <c r="R55" s="8"/>
+      <c r="S55" s="8"/>
+      <c r="T55" s="8"/>
+      <c r="U55" s="8"/>
+      <c r="V55" s="8"/>
+      <c r="W55" s="8"/>
+      <c r="X55" s="8"/>
+      <c r="Y55" s="8"/>
+      <c r="Z55" s="8"/>
+      <c r="AA55" s="8"/>
+      <c r="AB55" s="8"/>
+      <c r="AC55" s="8"/>
+      <c r="AD55" s="8"/>
+      <c r="AE55" s="8"/>
+      <c r="AF55" s="8"/>
+      <c r="AG55" s="8"/>
+      <c r="AH55" s="8"/>
+      <c r="AI55" s="8"/>
+      <c r="AJ55" s="8">
+        <v>0</v>
+      </c>
+      <c r="AK55" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL55" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM55" s="8"/>
+      <c r="AN55" s="8"/>
+      <c r="AO55" s="8"/>
+      <c r="AP55" s="8"/>
+      <c r="AQ55" s="8"/>
+      <c r="AR55" s="8"/>
+      <c r="AS55" s="8"/>
+      <c r="AT55" s="8"/>
+      <c r="AU55" s="8"/>
+      <c r="AV55" s="8"/>
+      <c r="AW55" s="8"/>
+      <c r="AX55" s="8"/>
+      <c r="AY55" s="8"/>
+      <c r="AZ55" s="8"/>
+      <c r="BA55" s="8"/>
+      <c r="BB55" s="8"/>
+      <c r="BC55" s="8"/>
+      <c r="BD55" s="8"/>
+      <c r="BE55" s="8"/>
+      <c r="BF55" s="8"/>
+      <c r="BG55" s="8"/>
+      <c r="BH55" s="8"/>
+      <c r="BI55" s="8"/>
+      <c r="BJ55" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/earlywarning-pom/Document/test/SME RETAIL/test_BR_SME_Retail.xlsx
+++ b/earlywarning-pom/Document/test/SME RETAIL/test_BR_SME_Retail.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="206">
   <si>
     <t>SNDG</t>
   </si>
@@ -48,9 +48,6 @@
     <t>IND_13</t>
   </si>
   <si>
-    <t>0000000000000395'</t>
-  </si>
-  <si>
     <t>BR2</t>
   </si>
   <si>
@@ -66,33 +63,6 @@
     <t xml:space="preserve">IND_23 </t>
   </si>
   <si>
-    <t>R5'</t>
-  </si>
-  <si>
-    <t>R4'</t>
-  </si>
-  <si>
-    <t>0000000000000396'</t>
-  </si>
-  <si>
-    <t>0000000000000397'</t>
-  </si>
-  <si>
-    <t>0000000000000398'</t>
-  </si>
-  <si>
-    <t>0000000000000399'</t>
-  </si>
-  <si>
-    <t>0000000000000400'</t>
-  </si>
-  <si>
-    <t>0000000000000401'</t>
-  </si>
-  <si>
-    <t>0000000000000402'</t>
-  </si>
-  <si>
     <t>BR7</t>
   </si>
   <si>
@@ -111,39 +81,12 @@
     <t>BR4</t>
   </si>
   <si>
-    <t>0000000000000404'</t>
-  </si>
-  <si>
-    <t>0000000000000405'</t>
-  </si>
-  <si>
-    <t>0000000000000406'</t>
-  </si>
-  <si>
     <t>BR5</t>
   </si>
   <si>
-    <t>0000000000000407'</t>
-  </si>
-  <si>
     <t>0000000000000408'</t>
   </si>
   <si>
-    <t>0000000000000409'</t>
-  </si>
-  <si>
-    <t>0000000000000410'</t>
-  </si>
-  <si>
-    <t>0000000000000411'</t>
-  </si>
-  <si>
-    <t>0000000000000412'</t>
-  </si>
-  <si>
-    <t>0000000000000413'</t>
-  </si>
-  <si>
     <t>IND_09</t>
   </si>
   <si>
@@ -180,57 +123,24 @@
     <t>BR9</t>
   </si>
   <si>
-    <t>0000000000000414'</t>
-  </si>
-  <si>
-    <t>0000000000000415'</t>
-  </si>
-  <si>
-    <t>0000000000000416'</t>
-  </si>
-  <si>
     <t>BR10</t>
   </si>
   <si>
-    <t>0000000000000417'</t>
-  </si>
-  <si>
-    <t>0000000000000418'</t>
-  </si>
-  <si>
     <t>BR11</t>
   </si>
   <si>
-    <t>0000000000000419'</t>
-  </si>
-  <si>
-    <t>0000000000000420'</t>
-  </si>
-  <si>
     <t>BR12</t>
   </si>
   <si>
-    <t>0000000000000421'</t>
-  </si>
-  <si>
     <t>0000000000000422'</t>
   </si>
   <si>
-    <t>0000000000000423'</t>
-  </si>
-  <si>
     <t>BR13</t>
   </si>
   <si>
     <t>0000000000000424'</t>
   </si>
   <si>
-    <t>0000000000000425'</t>
-  </si>
-  <si>
-    <t>0000000000000426'</t>
-  </si>
-  <si>
     <t>0000000000000427'</t>
   </si>
   <si>
@@ -240,27 +150,12 @@
     <t>BR15</t>
   </si>
   <si>
-    <t>0000000000000428'</t>
-  </si>
-  <si>
-    <t>0000000000000429'</t>
-  </si>
-  <si>
     <t>BR16</t>
   </si>
   <si>
-    <t>0000000000000430'</t>
-  </si>
-  <si>
-    <t>0000000000000431'</t>
-  </si>
-  <si>
     <t>BR17</t>
   </si>
   <si>
-    <t>0000000000000432'</t>
-  </si>
-  <si>
     <t>0000000000000433'</t>
   </si>
   <si>
@@ -282,33 +177,6 @@
     <t>0000000000000434'</t>
   </si>
   <si>
-    <t>0000000000000435'</t>
-  </si>
-  <si>
-    <t>0000000000000436'</t>
-  </si>
-  <si>
-    <t>0000000000000437'</t>
-  </si>
-  <si>
-    <t>0000000000000438'</t>
-  </si>
-  <si>
-    <t>0000000000000439'</t>
-  </si>
-  <si>
-    <t>0000000000000440'</t>
-  </si>
-  <si>
-    <t>0000000000000441'</t>
-  </si>
-  <si>
-    <t>0000000000000442'</t>
-  </si>
-  <si>
-    <t>0000000000000443'</t>
-  </si>
-  <si>
     <t>IND_26</t>
   </si>
   <si>
@@ -354,33 +222,9 @@
     <t>BR35</t>
   </si>
   <si>
-    <t>0000000000000444'</t>
-  </si>
-  <si>
-    <t>0000000000000445'</t>
-  </si>
-  <si>
-    <t>0000000000000446'</t>
-  </si>
-  <si>
     <t>0000000000000447'</t>
   </si>
   <si>
-    <t>0000000000000448'</t>
-  </si>
-  <si>
-    <t>0000000000000449'</t>
-  </si>
-  <si>
-    <t>0000000000000450'</t>
-  </si>
-  <si>
-    <t>0000000000000451'</t>
-  </si>
-  <si>
-    <t>0000000000000452'</t>
-  </si>
-  <si>
     <t>0000000000000453'</t>
   </si>
   <si>
@@ -393,15 +237,9 @@
     <t>0000000000000456'</t>
   </si>
   <si>
-    <t>0000000000000457'</t>
-  </si>
-  <si>
     <t>BR36</t>
   </si>
   <si>
-    <t>0000000000000458'</t>
-  </si>
-  <si>
     <t>0000000000000459'</t>
   </si>
   <si>
@@ -420,27 +258,9 @@
     <t>BR529</t>
   </si>
   <si>
-    <t>0000000000000461'</t>
-  </si>
-  <si>
     <t>0000000000000462'</t>
   </si>
   <si>
-    <t>0000000000000463'</t>
-  </si>
-  <si>
-    <t>0000000000000464'</t>
-  </si>
-  <si>
-    <t>0000000000000465'</t>
-  </si>
-  <si>
-    <t>0000000000000466'</t>
-  </si>
-  <si>
-    <t>0000000000000467'</t>
-  </si>
-  <si>
     <t>BR512</t>
   </si>
   <si>
@@ -450,18 +270,12 @@
     <t>0000000000000469'</t>
   </si>
   <si>
-    <t>0000000000000470'</t>
-  </si>
-  <si>
     <t>BR536</t>
   </si>
   <si>
     <t>0000000000000471'</t>
   </si>
   <si>
-    <t>0000000000000472'</t>
-  </si>
-  <si>
     <t>0000000000000473'</t>
   </si>
   <si>
@@ -489,27 +303,9 @@
     <t>0000000000000475'</t>
   </si>
   <si>
-    <t>0000000000000476'</t>
-  </si>
-  <si>
-    <t>0000000000000477'</t>
-  </si>
-  <si>
-    <t>0000000000000478'</t>
-  </si>
-  <si>
     <t>0000000000000479'</t>
   </si>
   <si>
-    <t>0000000000000480'</t>
-  </si>
-  <si>
-    <t>0000000000000481'</t>
-  </si>
-  <si>
-    <t>0000000000000482'</t>
-  </si>
-  <si>
     <t>0000000000000483'</t>
   </si>
   <si>
@@ -519,12 +315,6 @@
     <t>BR160</t>
   </si>
   <si>
-    <t>0000000000000484'</t>
-  </si>
-  <si>
-    <t>0000000000000485'</t>
-  </si>
-  <si>
     <t>IND_103</t>
   </si>
   <si>
@@ -540,21 +330,12 @@
     <t>no al momento</t>
   </si>
   <si>
-    <t>0000000000000486'</t>
-  </si>
-  <si>
-    <t>0000000000000487'</t>
-  </si>
-  <si>
     <t>BR162</t>
   </si>
   <si>
     <t>0000000000000488'</t>
   </si>
   <si>
-    <t>0000000000000489'</t>
-  </si>
-  <si>
     <t>IND_106</t>
   </si>
   <si>
@@ -570,15 +351,6 @@
     <t>BR163</t>
   </si>
   <si>
-    <t>0000000000000490'</t>
-  </si>
-  <si>
-    <t>0000000000000491'</t>
-  </si>
-  <si>
-    <t>0000000000000492'</t>
-  </si>
-  <si>
     <t>IND_114</t>
   </si>
   <si>
@@ -594,9 +366,6 @@
     <t>BR146</t>
   </si>
   <si>
-    <t>0000000000000493'</t>
-  </si>
-  <si>
     <t>0000000000000494'</t>
   </si>
   <si>
@@ -606,15 +375,9 @@
     <t>BR148</t>
   </si>
   <si>
-    <t>0000000000000496'</t>
-  </si>
-  <si>
     <t>0000000000000497'</t>
   </si>
   <si>
-    <t>0000000000000498'</t>
-  </si>
-  <si>
     <t>IND_162</t>
   </si>
   <si>
@@ -648,30 +411,15 @@
     <t>BR108</t>
   </si>
   <si>
-    <t>0000000000000499'</t>
-  </si>
-  <si>
     <t>0000000000000500'</t>
   </si>
   <si>
-    <t>0000000000000501'</t>
-  </si>
-  <si>
-    <t>0000000000000502'</t>
-  </si>
-  <si>
     <t>BR107</t>
   </si>
   <si>
     <t>0000000000000503'</t>
   </si>
   <si>
-    <t>0000000000000504'</t>
-  </si>
-  <si>
-    <t>0000000000000505'</t>
-  </si>
-  <si>
     <t>0000000000000506'</t>
   </si>
   <si>
@@ -871,6 +619,24 @@
   </si>
   <si>
     <t>0000000000000556'</t>
+  </si>
+  <si>
+    <t>07'</t>
+  </si>
+  <si>
+    <t>'07'</t>
+  </si>
+  <si>
+    <t>'R5'</t>
+  </si>
+  <si>
+    <t>R3'</t>
+  </si>
+  <si>
+    <t>'14'</t>
+  </si>
+  <si>
+    <t>MT7</t>
   </si>
 </sst>
 </file>
@@ -893,7 +659,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -903,6 +669,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -934,7 +712,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -959,9 +737,36 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1242,28 +1047,30 @@
   <dimension ref="B2:BF163"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="AW111" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E155" sqref="E155"/>
+      <selection pane="bottomRight" activeCell="C114" sqref="C114"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" customWidth="1"/>
-    <col min="2" max="2" width="18.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="17" width="15.6640625" style="3" customWidth="1"/>
-    <col min="18" max="26" width="14.77734375" customWidth="1"/>
-    <col min="27" max="35" width="8.88671875" customWidth="1"/>
-    <col min="36" max="36" width="8.88671875" style="3" customWidth="1"/>
-    <col min="37" max="39" width="8.88671875" customWidth="1"/>
-    <col min="40" max="40" width="13.5546875" customWidth="1"/>
-    <col min="41" max="52" width="8.88671875" style="3"/>
-    <col min="55" max="55" width="8.88671875" style="3"/>
-    <col min="58" max="58" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="15.7109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" style="14" customWidth="1"/>
+    <col min="6" max="17" width="15.7109375" style="3" customWidth="1"/>
+    <col min="18" max="26" width="14.7109375" customWidth="1"/>
+    <col min="27" max="35" width="8.85546875" customWidth="1"/>
+    <col min="36" max="36" width="8.85546875" style="3" customWidth="1"/>
+    <col min="37" max="39" width="8.85546875" customWidth="1"/>
+    <col min="40" max="40" width="13.5703125" customWidth="1"/>
+    <col min="41" max="52" width="8.85546875" style="3"/>
+    <col min="55" max="55" width="8.85546875" style="3"/>
+    <col min="58" max="58" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:58" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1273,23 +1080,23 @@
       <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>4</v>
@@ -1298,10 +1105,10 @@
         <v>5</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>6</v>
@@ -1313,144 +1120,144 @@
         <v>8</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="AA2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AK2" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="AB2" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="AC2" s="2" t="s">
+      <c r="AL2" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="AD2" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="AE2" s="2" t="s">
+      <c r="AM2" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="AF2" s="2" t="s">
+      <c r="AN2" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="AG2" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="AH2" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="AI2" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="AJ2" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="AK2" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="AL2" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="AM2" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="AN2" s="2" t="s">
-        <v>170</v>
-      </c>
       <c r="AO2" s="2" t="s">
-        <v>178</v>
+        <v>105</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>179</v>
+        <v>106</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>180</v>
+        <v>107</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>181</v>
+        <v>108</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>186</v>
+        <v>110</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>187</v>
+        <v>111</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>188</v>
+        <v>112</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>189</v>
+        <v>113</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>198</v>
+        <v>119</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>200</v>
+        <v>121</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>201</v>
+        <v>122</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>202</v>
+        <v>123</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>203</v>
+        <v>124</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>204</v>
+        <v>125</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>205</v>
+        <v>126</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>206</v>
+        <v>127</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="3" spans="2:58" x14ac:dyDescent="0.3">
-      <c r="B3" s="4" t="s">
-        <v>9</v>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="2:58" x14ac:dyDescent="0.25">
+      <c r="B3" s="4">
+        <v>43402427</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" s="5">
         <v>1</v>
       </c>
-      <c r="E3" s="6">
-        <v>7</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>15</v>
+      <c r="E3" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>202</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
@@ -1505,21 +1312,21 @@
       <c r="BE3" s="8"/>
       <c r="BF3" s="5"/>
     </row>
-    <row r="4" spans="2:58" x14ac:dyDescent="0.3">
-      <c r="B4" s="4" t="s">
-        <v>17</v>
+    <row r="4" spans="2:58" x14ac:dyDescent="0.25">
+      <c r="B4" s="3">
+        <v>27076016</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" s="5">
         <v>0</v>
       </c>
-      <c r="E4" s="6">
-        <v>5</v>
+      <c r="E4" s="12" t="s">
+        <v>204</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>16</v>
+        <v>205</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
@@ -1574,21 +1381,21 @@
       <c r="BE4" s="8"/>
       <c r="BF4" s="5"/>
     </row>
-    <row r="5" spans="2:58" x14ac:dyDescent="0.3">
-      <c r="B5" s="4" t="s">
-        <v>18</v>
+    <row r="5" spans="2:58" x14ac:dyDescent="0.25">
+      <c r="B5" s="4">
+        <v>72859647</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" s="5">
         <v>0</v>
       </c>
-      <c r="E5" s="6">
-        <v>7</v>
+      <c r="E5" s="12" t="s">
+        <v>200</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>16</v>
+        <v>203</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -1643,17 +1450,17 @@
       <c r="BE5" s="8"/>
       <c r="BF5" s="5"/>
     </row>
-    <row r="6" spans="2:58" x14ac:dyDescent="0.3">
-      <c r="B6" s="4" t="s">
-        <v>19</v>
+    <row r="6" spans="2:58" x14ac:dyDescent="0.25">
+      <c r="B6" s="4">
+        <v>27076016</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6" s="5">
         <v>1</v>
       </c>
-      <c r="E6" s="5"/>
+      <c r="E6" s="13"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5">
         <v>1</v>
@@ -1710,17 +1517,17 @@
       <c r="BE6" s="8"/>
       <c r="BF6" s="5"/>
     </row>
-    <row r="7" spans="2:58" x14ac:dyDescent="0.3">
-      <c r="B7" s="4" t="s">
-        <v>20</v>
+    <row r="7" spans="2:58" x14ac:dyDescent="0.25">
+      <c r="B7" s="4">
+        <v>9247213</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D7" s="5">
         <v>0</v>
       </c>
-      <c r="E7" s="5"/>
+      <c r="E7" s="13"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5">
         <v>0</v>
@@ -1777,21 +1584,21 @@
       <c r="BE7" s="8"/>
       <c r="BF7" s="5"/>
     </row>
-    <row r="8" spans="2:58" x14ac:dyDescent="0.3">
-      <c r="B8" s="4" t="s">
-        <v>21</v>
+    <row r="8" spans="2:58" x14ac:dyDescent="0.25">
+      <c r="B8" s="4">
+        <v>79455104</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D8" s="5">
         <v>1</v>
       </c>
-      <c r="E8" s="5"/>
+      <c r="E8" s="13"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5">
-        <v>-0.6</v>
+        <v>-3.7</v>
       </c>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
@@ -1844,17 +1651,17 @@
       <c r="BE8" s="8"/>
       <c r="BF8" s="5"/>
     </row>
-    <row r="9" spans="2:58" x14ac:dyDescent="0.3">
-      <c r="B9" s="4" t="s">
-        <v>22</v>
+    <row r="9" spans="2:58" x14ac:dyDescent="0.25">
+      <c r="B9" s="4">
+        <v>17905351</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D9" s="5">
         <v>0</v>
       </c>
-      <c r="E9" s="5"/>
+      <c r="E9" s="13"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5">
@@ -1911,21 +1718,21 @@
       <c r="BE9" s="8"/>
       <c r="BF9" s="5"/>
     </row>
-    <row r="10" spans="2:58" x14ac:dyDescent="0.3">
-      <c r="B10" s="4" t="s">
-        <v>23</v>
+    <row r="10" spans="2:58" x14ac:dyDescent="0.25">
+      <c r="B10" s="4">
+        <v>16742755</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D10" s="5">
         <v>0</v>
       </c>
-      <c r="E10" s="5"/>
+      <c r="E10" s="13"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5">
-        <v>0.1</v>
+        <v>0.12071800000000001</v>
       </c>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
@@ -1978,22 +1785,22 @@
       <c r="BE10" s="8"/>
       <c r="BF10" s="5"/>
     </row>
-    <row r="11" spans="2:58" x14ac:dyDescent="0.3">
-      <c r="B11" s="4" t="s">
-        <v>30</v>
+    <row r="11" spans="2:58" x14ac:dyDescent="0.25">
+      <c r="B11" s="4">
+        <v>17708009</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D11" s="5">
         <v>1</v>
       </c>
-      <c r="E11" s="5"/>
+      <c r="E11" s="13"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5">
-        <v>-0.6</v>
+        <v>-0.68744300000000003</v>
       </c>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
@@ -2045,17 +1852,17 @@
       <c r="BE11" s="8"/>
       <c r="BF11" s="5"/>
     </row>
-    <row r="12" spans="2:58" x14ac:dyDescent="0.3">
-      <c r="B12" s="4" t="s">
-        <v>31</v>
+    <row r="12" spans="2:58" x14ac:dyDescent="0.25">
+      <c r="B12" s="4">
+        <v>16166624</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D12" s="5">
         <v>0</v>
       </c>
-      <c r="E12" s="5"/>
+      <c r="E12" s="13"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
@@ -2112,22 +1919,22 @@
       <c r="BE12" s="8"/>
       <c r="BF12" s="5"/>
     </row>
-    <row r="13" spans="2:58" x14ac:dyDescent="0.3">
-      <c r="B13" s="4" t="s">
-        <v>32</v>
+    <row r="13" spans="2:58" x14ac:dyDescent="0.25">
+      <c r="B13" s="4">
+        <v>16742755</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D13" s="5">
         <v>0</v>
       </c>
-      <c r="E13" s="5"/>
+      <c r="E13" s="13"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5">
-        <v>0.1</v>
+        <v>9.1837000000000002E-2</v>
       </c>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
@@ -2179,23 +1986,23 @@
       <c r="BE13" s="8"/>
       <c r="BF13" s="5"/>
     </row>
-    <row r="14" spans="2:58" x14ac:dyDescent="0.3">
-      <c r="B14" s="4" t="s">
-        <v>34</v>
+    <row r="14" spans="2:58" x14ac:dyDescent="0.25">
+      <c r="B14" s="4">
+        <v>17882250</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="D14" s="5">
         <v>1</v>
       </c>
-      <c r="E14" s="5"/>
+      <c r="E14" s="13"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
       <c r="J14" s="5">
-        <v>5.8999999999999997E-2</v>
+        <v>4.1764999999999997E-2</v>
       </c>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
@@ -2246,17 +2053,17 @@
       <c r="BE14" s="8"/>
       <c r="BF14" s="5"/>
     </row>
-    <row r="15" spans="2:58" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="D15" s="5">
         <v>0</v>
       </c>
-      <c r="E15" s="5"/>
+      <c r="E15" s="13"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
@@ -2313,23 +2120,23 @@
       <c r="BE15" s="8"/>
       <c r="BF15" s="5"/>
     </row>
-    <row r="16" spans="2:58" x14ac:dyDescent="0.3">
-      <c r="B16" s="4" t="s">
-        <v>36</v>
+    <row r="16" spans="2:58" x14ac:dyDescent="0.25">
+      <c r="B16" s="4">
+        <v>17933789</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="D16" s="5">
         <v>0</v>
       </c>
-      <c r="E16" s="5"/>
+      <c r="E16" s="13"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
       <c r="J16" s="5">
-        <v>7.0999999999999994E-2</v>
+        <v>0.100457</v>
       </c>
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
@@ -2380,17 +2187,17 @@
       <c r="BE16" s="8"/>
       <c r="BF16" s="5"/>
     </row>
-    <row r="17" spans="2:58" x14ac:dyDescent="0.3">
-      <c r="B17" s="4" t="s">
-        <v>37</v>
+    <row r="17" spans="2:58" x14ac:dyDescent="0.25">
+      <c r="B17" s="4">
+        <v>13576608</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D17" s="5">
         <v>1</v>
       </c>
-      <c r="E17" s="5"/>
+      <c r="E17" s="13"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
@@ -2447,17 +2254,17 @@
       <c r="BE17" s="8"/>
       <c r="BF17" s="5"/>
     </row>
-    <row r="18" spans="2:58" x14ac:dyDescent="0.3">
-      <c r="B18" s="4" t="s">
-        <v>38</v>
+    <row r="18" spans="2:58" x14ac:dyDescent="0.25">
+      <c r="B18" s="4">
+        <v>27076016</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D18" s="5">
         <v>0</v>
       </c>
-      <c r="E18" s="5"/>
+      <c r="E18" s="13"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
@@ -2514,17 +2321,17 @@
       <c r="BE18" s="8"/>
       <c r="BF18" s="5"/>
     </row>
-    <row r="19" spans="2:58" x14ac:dyDescent="0.3">
-      <c r="B19" s="4" t="s">
-        <v>39</v>
+    <row r="19" spans="2:58" x14ac:dyDescent="0.25">
+      <c r="B19" s="4">
+        <v>8868787</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D19" s="5">
         <v>1</v>
       </c>
-      <c r="E19" s="5"/>
+      <c r="E19" s="13"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
@@ -2581,17 +2388,17 @@
       <c r="BE19" s="8"/>
       <c r="BF19" s="5"/>
     </row>
-    <row r="20" spans="2:58" x14ac:dyDescent="0.3">
-      <c r="B20" s="4" t="s">
-        <v>40</v>
+    <row r="20" spans="2:58" x14ac:dyDescent="0.25">
+      <c r="B20" s="4">
+        <v>27076016</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D20" s="5">
         <v>0</v>
       </c>
-      <c r="E20" s="5"/>
+      <c r="E20" s="13"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
@@ -2648,17 +2455,17 @@
       <c r="BE20" s="8"/>
       <c r="BF20" s="5"/>
     </row>
-    <row r="21" spans="2:58" x14ac:dyDescent="0.3">
-      <c r="B21" s="4" t="s">
-        <v>53</v>
+    <row r="21" spans="2:58" x14ac:dyDescent="0.25">
+      <c r="B21" s="4">
+        <v>73149868</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="D21" s="5">
         <v>1</v>
       </c>
-      <c r="E21" s="5"/>
+      <c r="E21" s="13"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
@@ -2715,17 +2522,17 @@
       <c r="BE21" s="8"/>
       <c r="BF21" s="5"/>
     </row>
-    <row r="22" spans="2:58" x14ac:dyDescent="0.3">
-      <c r="B22" s="4" t="s">
-        <v>54</v>
+    <row r="22" spans="2:58" x14ac:dyDescent="0.25">
+      <c r="B22" s="4">
+        <v>46682955</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="D22" s="5">
         <v>1</v>
       </c>
-      <c r="E22" s="5"/>
+      <c r="E22" s="13"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
@@ -2734,7 +2541,7 @@
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
       <c r="M22" s="5">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N22" s="5"/>
       <c r="O22" s="5"/>
@@ -2782,17 +2589,17 @@
       <c r="BE22" s="8"/>
       <c r="BF22" s="5"/>
     </row>
-    <row r="23" spans="2:58" x14ac:dyDescent="0.3">
-      <c r="B23" s="4" t="s">
-        <v>55</v>
+    <row r="23" spans="2:58" x14ac:dyDescent="0.25">
+      <c r="B23" s="4">
+        <v>13259874</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="D23" s="5">
         <v>0</v>
       </c>
-      <c r="E23" s="5"/>
+      <c r="E23" s="13"/>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
@@ -2801,7 +2608,7 @@
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
       <c r="M23" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N23" s="5"/>
       <c r="O23" s="5"/>
@@ -2849,17 +2656,17 @@
       <c r="BE23" s="8"/>
       <c r="BF23" s="5"/>
     </row>
-    <row r="24" spans="2:58" x14ac:dyDescent="0.3">
-      <c r="B24" s="4" t="s">
-        <v>57</v>
+    <row r="24" spans="2:58" x14ac:dyDescent="0.25">
+      <c r="B24" s="4">
+        <v>82354169</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="D24" s="5">
         <v>1</v>
       </c>
-      <c r="E24" s="5"/>
+      <c r="E24" s="13"/>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
@@ -2916,17 +2723,17 @@
       <c r="BE24" s="8"/>
       <c r="BF24" s="5"/>
     </row>
-    <row r="25" spans="2:58" x14ac:dyDescent="0.3">
-      <c r="B25" s="4" t="s">
-        <v>58</v>
+    <row r="25" spans="2:58" x14ac:dyDescent="0.25">
+      <c r="B25" s="4">
+        <v>27076016</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="D25" s="5">
         <v>0</v>
       </c>
-      <c r="E25" s="5"/>
+      <c r="E25" s="13"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
@@ -2983,17 +2790,17 @@
       <c r="BE25" s="8"/>
       <c r="BF25" s="5"/>
     </row>
-    <row r="26" spans="2:58" x14ac:dyDescent="0.3">
-      <c r="B26" s="4" t="s">
-        <v>60</v>
+    <row r="26" spans="2:58" x14ac:dyDescent="0.25">
+      <c r="B26" s="4">
+        <v>17826108</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="D26" s="5">
         <v>1</v>
       </c>
-      <c r="E26" s="5"/>
+      <c r="E26" s="13"/>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
@@ -3050,17 +2857,17 @@
       <c r="BE26" s="8"/>
       <c r="BF26" s="5"/>
     </row>
-    <row r="27" spans="2:58" x14ac:dyDescent="0.3">
-      <c r="B27" s="4" t="s">
-        <v>61</v>
+    <row r="27" spans="2:58" x14ac:dyDescent="0.25">
+      <c r="B27" s="4">
+        <v>13558883</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="D27" s="5">
         <v>0</v>
       </c>
-      <c r="E27" s="5"/>
+      <c r="E27" s="13"/>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
@@ -3117,17 +2924,17 @@
       <c r="BE27" s="8"/>
       <c r="BF27" s="5"/>
     </row>
-    <row r="28" spans="2:58" x14ac:dyDescent="0.3">
-      <c r="B28" s="4" t="s">
-        <v>63</v>
+    <row r="28" spans="2:58" x14ac:dyDescent="0.25">
+      <c r="B28" s="4">
+        <v>39477515</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="D28" s="5">
         <v>1</v>
       </c>
-      <c r="E28" s="5"/>
+      <c r="E28" s="13"/>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
@@ -3139,7 +2946,7 @@
       <c r="N28" s="5"/>
       <c r="O28" s="5"/>
       <c r="P28" s="5">
-        <v>0.15</v>
+        <v>0.18021100000000001</v>
       </c>
       <c r="Q28" s="5"/>
       <c r="R28" s="8"/>
@@ -3184,17 +2991,17 @@
       <c r="BE28" s="8"/>
       <c r="BF28" s="5"/>
     </row>
-    <row r="29" spans="2:58" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B29" s="4" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="D29" s="5">
         <v>0</v>
       </c>
-      <c r="E29" s="5"/>
+      <c r="E29" s="13"/>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
@@ -3251,17 +3058,17 @@
       <c r="BE29" s="8"/>
       <c r="BF29" s="5"/>
     </row>
-    <row r="30" spans="2:58" x14ac:dyDescent="0.3">
-      <c r="B30" s="4" t="s">
-        <v>65</v>
+    <row r="30" spans="2:58" x14ac:dyDescent="0.25">
+      <c r="B30" s="4">
+        <v>6585550</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="D30" s="5">
         <v>0</v>
       </c>
-      <c r="E30" s="5"/>
+      <c r="E30" s="13"/>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
@@ -3273,7 +3080,7 @@
       <c r="N30" s="5"/>
       <c r="O30" s="5"/>
       <c r="P30" s="5">
-        <v>0.06</v>
+        <v>4.8819000000000001E-2</v>
       </c>
       <c r="Q30" s="5"/>
       <c r="R30" s="8"/>
@@ -3318,17 +3125,17 @@
       <c r="BE30" s="8"/>
       <c r="BF30" s="5"/>
     </row>
-    <row r="31" spans="2:58" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B31" s="4" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="D31" s="5">
         <v>1</v>
       </c>
-      <c r="E31" s="5"/>
+      <c r="E31" s="13"/>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
@@ -3385,17 +3192,17 @@
       <c r="BE31" s="8"/>
       <c r="BF31" s="5"/>
     </row>
-    <row r="32" spans="2:58" x14ac:dyDescent="0.3">
-      <c r="B32" s="4" t="s">
-        <v>68</v>
+    <row r="32" spans="2:58" x14ac:dyDescent="0.25">
+      <c r="B32" s="4">
+        <v>6585550</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="D32" s="5">
         <v>1</v>
       </c>
-      <c r="E32" s="5"/>
+      <c r="E32" s="13"/>
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
@@ -3407,7 +3214,7 @@
       <c r="N32" s="5"/>
       <c r="O32" s="5"/>
       <c r="P32" s="5">
-        <v>0.06</v>
+        <v>4.8819000000000001E-2</v>
       </c>
       <c r="Q32" s="5"/>
       <c r="R32" s="8"/>
@@ -3452,17 +3259,17 @@
       <c r="BE32" s="8"/>
       <c r="BF32" s="5"/>
     </row>
-    <row r="33" spans="2:58" x14ac:dyDescent="0.3">
-      <c r="B33" s="4" t="s">
-        <v>69</v>
+    <row r="33" spans="2:58" x14ac:dyDescent="0.25">
+      <c r="B33" s="4">
+        <v>39477515</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="D33" s="5">
         <v>0</v>
       </c>
-      <c r="E33" s="5"/>
+      <c r="E33" s="13"/>
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
@@ -3474,7 +3281,7 @@
       <c r="N33" s="5"/>
       <c r="O33" s="5"/>
       <c r="P33" s="5">
-        <v>0.25</v>
+        <v>0.18021100000000001</v>
       </c>
       <c r="Q33" s="5"/>
       <c r="R33" s="8"/>
@@ -3519,17 +3326,17 @@
       <c r="BE33" s="8"/>
       <c r="BF33" s="5"/>
     </row>
-    <row r="34" spans="2:58" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B34" s="4" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="D34" s="5">
         <v>1</v>
       </c>
-      <c r="E34" s="5"/>
+      <c r="E34" s="13"/>
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
@@ -3586,17 +3393,17 @@
       <c r="BE34" s="8"/>
       <c r="BF34" s="5"/>
     </row>
-    <row r="35" spans="2:58" x14ac:dyDescent="0.3">
-      <c r="B35" s="4" t="s">
-        <v>73</v>
+    <row r="35" spans="2:58" x14ac:dyDescent="0.25">
+      <c r="B35" s="4">
+        <v>27076016</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="D35" s="5">
         <v>0</v>
       </c>
-      <c r="E35" s="5"/>
+      <c r="E35" s="13"/>
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
@@ -3653,17 +3460,17 @@
       <c r="BE35" s="8"/>
       <c r="BF35" s="5"/>
     </row>
-    <row r="36" spans="2:58" x14ac:dyDescent="0.3">
-      <c r="B36" s="4" t="s">
-        <v>74</v>
+    <row r="36" spans="2:58" x14ac:dyDescent="0.25">
+      <c r="B36" s="4">
+        <v>17941166</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="D36" s="5">
         <v>1</v>
       </c>
-      <c r="E36" s="5"/>
+      <c r="E36" s="13"/>
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
@@ -3720,17 +3527,17 @@
       <c r="BE36" s="8"/>
       <c r="BF36" s="5"/>
     </row>
-    <row r="37" spans="2:58" x14ac:dyDescent="0.3">
-      <c r="B37" s="4" t="s">
-        <v>76</v>
+    <row r="37" spans="2:58" x14ac:dyDescent="0.25">
+      <c r="B37" s="4">
+        <v>9247213</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="D37" s="5">
         <v>0</v>
       </c>
-      <c r="E37" s="5"/>
+      <c r="E37" s="13"/>
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
@@ -3787,17 +3594,17 @@
       <c r="BE37" s="8"/>
       <c r="BF37" s="5"/>
     </row>
-    <row r="38" spans="2:58" x14ac:dyDescent="0.3">
-      <c r="B38" s="4" t="s">
-        <v>77</v>
+    <row r="38" spans="2:58" x14ac:dyDescent="0.25">
+      <c r="B38" s="4">
+        <v>86509813</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="D38" s="5">
         <v>1</v>
       </c>
-      <c r="E38" s="5"/>
+      <c r="E38" s="13"/>
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
@@ -3854,17 +3661,17 @@
       <c r="BE38" s="8"/>
       <c r="BF38" s="5"/>
     </row>
-    <row r="39" spans="2:58" x14ac:dyDescent="0.3">
-      <c r="B39" s="4" t="s">
-        <v>79</v>
+    <row r="39" spans="2:58" x14ac:dyDescent="0.25">
+      <c r="B39" s="4">
+        <v>42647456</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="D39" s="5">
         <v>0</v>
       </c>
-      <c r="E39" s="5"/>
+      <c r="E39" s="13"/>
       <c r="F39" s="5"/>
       <c r="G39" s="5"/>
       <c r="H39" s="5"/>
@@ -3921,17 +3728,17 @@
       <c r="BE39" s="8"/>
       <c r="BF39" s="5"/>
     </row>
-    <row r="40" spans="2:58" x14ac:dyDescent="0.3">
-      <c r="B40" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>75</v>
+    <row r="40" spans="2:58" x14ac:dyDescent="0.25">
+      <c r="B40" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>43</v>
       </c>
       <c r="D40" s="5">
         <v>1</v>
       </c>
-      <c r="E40" s="5"/>
+      <c r="E40" s="13"/>
       <c r="F40" s="5"/>
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
@@ -3988,17 +3795,17 @@
       <c r="BE40" s="8"/>
       <c r="BF40" s="5"/>
     </row>
-    <row r="41" spans="2:58" x14ac:dyDescent="0.3">
-      <c r="B41" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>75</v>
+    <row r="41" spans="2:58" x14ac:dyDescent="0.25">
+      <c r="B41" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>43</v>
       </c>
       <c r="D41" s="5">
         <v>0</v>
       </c>
-      <c r="E41" s="5"/>
+      <c r="E41" s="13"/>
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
@@ -4055,17 +3862,17 @@
       <c r="BE41" s="8"/>
       <c r="BF41" s="5"/>
     </row>
-    <row r="42" spans="2:58" x14ac:dyDescent="0.3">
-      <c r="B42" s="4" t="s">
-        <v>87</v>
+    <row r="42" spans="2:58" x14ac:dyDescent="0.25">
+      <c r="B42" s="4">
+        <v>46493451</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="D42" s="5">
         <v>1</v>
       </c>
-      <c r="E42" s="5"/>
+      <c r="E42" s="13"/>
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
@@ -4122,17 +3929,17 @@
       <c r="BE42" s="8"/>
       <c r="BF42" s="5"/>
     </row>
-    <row r="43" spans="2:58" x14ac:dyDescent="0.3">
-      <c r="B43" s="4" t="s">
-        <v>88</v>
+    <row r="43" spans="2:58" x14ac:dyDescent="0.25">
+      <c r="B43" s="4">
+        <v>42647456</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="D43" s="5">
         <v>0</v>
       </c>
-      <c r="E43" s="5"/>
+      <c r="E43" s="13"/>
       <c r="F43" s="5"/>
       <c r="G43" s="5"/>
       <c r="H43" s="5"/>
@@ -4189,17 +3996,17 @@
       <c r="BE43" s="8"/>
       <c r="BF43" s="5"/>
     </row>
-    <row r="44" spans="2:58" x14ac:dyDescent="0.3">
-      <c r="B44" s="4" t="s">
-        <v>89</v>
+    <row r="44" spans="2:58" x14ac:dyDescent="0.25">
+      <c r="B44" s="4">
+        <v>46493451</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="D44" s="5">
         <v>1</v>
       </c>
-      <c r="E44" s="5"/>
+      <c r="E44" s="13"/>
       <c r="F44" s="5"/>
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
@@ -4256,17 +4063,17 @@
       <c r="BE44" s="8"/>
       <c r="BF44" s="5"/>
     </row>
-    <row r="45" spans="2:58" x14ac:dyDescent="0.3">
-      <c r="B45" s="4" t="s">
-        <v>90</v>
+    <row r="45" spans="2:58" x14ac:dyDescent="0.25">
+      <c r="B45" s="4">
+        <v>17361214</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="D45" s="5">
         <v>0</v>
       </c>
-      <c r="E45" s="5"/>
+      <c r="E45" s="13"/>
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
       <c r="H45" s="5"/>
@@ -4323,17 +4130,17 @@
       <c r="BE45" s="8"/>
       <c r="BF45" s="5"/>
     </row>
-    <row r="46" spans="2:58" x14ac:dyDescent="0.3">
-      <c r="B46" s="4" t="s">
-        <v>91</v>
+    <row r="46" spans="2:58" x14ac:dyDescent="0.25">
+      <c r="B46" s="17">
+        <v>17392845</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="D46" s="5">
         <v>1</v>
       </c>
-      <c r="E46" s="5"/>
+      <c r="E46" s="13"/>
       <c r="F46" s="5"/>
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
@@ -4390,17 +4197,17 @@
       <c r="BE46" s="8"/>
       <c r="BF46" s="5"/>
     </row>
-    <row r="47" spans="2:58" x14ac:dyDescent="0.3">
-      <c r="B47" s="4" t="s">
-        <v>92</v>
+    <row r="47" spans="2:58" x14ac:dyDescent="0.25">
+      <c r="B47" s="4">
+        <v>15987615</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="D47" s="5">
         <v>0</v>
       </c>
-      <c r="E47" s="5"/>
+      <c r="E47" s="13"/>
       <c r="F47" s="5"/>
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
@@ -4457,17 +4264,17 @@
       <c r="BE47" s="8"/>
       <c r="BF47" s="5"/>
     </row>
-    <row r="48" spans="2:58" x14ac:dyDescent="0.3">
-      <c r="B48" s="4" t="s">
-        <v>93</v>
+    <row r="48" spans="2:58" x14ac:dyDescent="0.25">
+      <c r="B48" s="4">
+        <v>17872411</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="D48" s="5">
         <v>1</v>
       </c>
-      <c r="E48" s="5"/>
+      <c r="E48" s="13"/>
       <c r="F48" s="5"/>
       <c r="G48" s="5"/>
       <c r="H48" s="5"/>
@@ -4524,17 +4331,17 @@
       <c r="BE48" s="8"/>
       <c r="BF48" s="5"/>
     </row>
-    <row r="49" spans="2:58" x14ac:dyDescent="0.3">
-      <c r="B49" s="4" t="s">
-        <v>94</v>
+    <row r="49" spans="2:58" x14ac:dyDescent="0.25">
+      <c r="B49" s="4">
+        <v>16742755</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="D49" s="5">
         <v>0</v>
       </c>
-      <c r="E49" s="5"/>
+      <c r="E49" s="13"/>
       <c r="F49" s="5"/>
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
@@ -4591,17 +4398,17 @@
       <c r="BE49" s="8"/>
       <c r="BF49" s="5"/>
     </row>
-    <row r="50" spans="2:58" x14ac:dyDescent="0.3">
-      <c r="B50" s="4" t="s">
-        <v>95</v>
+    <row r="50" spans="2:58" x14ac:dyDescent="0.25">
+      <c r="B50" s="4">
+        <v>46493451</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="D50" s="5">
         <v>1</v>
       </c>
-      <c r="E50" s="5"/>
+      <c r="E50" s="13"/>
       <c r="F50" s="5"/>
       <c r="G50" s="5"/>
       <c r="H50" s="5"/>
@@ -4658,17 +4465,17 @@
       <c r="BE50" s="8"/>
       <c r="BF50" s="5"/>
     </row>
-    <row r="51" spans="2:58" x14ac:dyDescent="0.3">
-      <c r="B51" s="4" t="s">
-        <v>111</v>
+    <row r="51" spans="2:58" x14ac:dyDescent="0.25">
+      <c r="B51" s="4">
+        <v>24615700</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="D51" s="5">
         <v>0</v>
       </c>
-      <c r="E51" s="5"/>
+      <c r="E51" s="13"/>
       <c r="F51" s="5"/>
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
@@ -4725,17 +4532,17 @@
       <c r="BE51" s="8"/>
       <c r="BF51" s="5"/>
     </row>
-    <row r="52" spans="2:58" x14ac:dyDescent="0.3">
-      <c r="B52" s="4" t="s">
-        <v>112</v>
+    <row r="52" spans="2:58" x14ac:dyDescent="0.25">
+      <c r="B52" s="4">
+        <v>56200741</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="D52" s="5">
         <v>1</v>
       </c>
-      <c r="E52" s="5"/>
+      <c r="E52" s="13"/>
       <c r="F52" s="5"/>
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
@@ -4792,17 +4599,17 @@
       <c r="BE52" s="8"/>
       <c r="BF52" s="5"/>
     </row>
-    <row r="53" spans="2:58" x14ac:dyDescent="0.3">
-      <c r="B53" s="4" t="s">
-        <v>113</v>
+    <row r="53" spans="2:58" x14ac:dyDescent="0.25">
+      <c r="B53" s="4">
+        <v>16742755</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="D53" s="5">
         <v>0</v>
       </c>
-      <c r="E53" s="5"/>
+      <c r="E53" s="13"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
@@ -4859,17 +4666,17 @@
       <c r="BE53" s="8"/>
       <c r="BF53" s="5"/>
     </row>
-    <row r="54" spans="2:58" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B54" s="4" t="s">
-        <v>114</v>
+        <v>67</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>104</v>
+        <v>60</v>
       </c>
       <c r="D54" s="5">
         <v>1</v>
       </c>
-      <c r="E54" s="5"/>
+      <c r="E54" s="13"/>
       <c r="F54" s="5"/>
       <c r="G54" s="5"/>
       <c r="H54" s="5"/>
@@ -4926,17 +4733,17 @@
       <c r="BE54" s="8"/>
       <c r="BF54" s="5"/>
     </row>
-    <row r="55" spans="2:58" x14ac:dyDescent="0.3">
-      <c r="B55" s="4" t="s">
-        <v>115</v>
+    <row r="55" spans="2:58" x14ac:dyDescent="0.25">
+      <c r="B55" s="4">
+        <v>26156831</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>104</v>
+        <v>60</v>
       </c>
       <c r="D55" s="5">
         <v>0</v>
       </c>
-      <c r="E55" s="5"/>
+      <c r="E55" s="13"/>
       <c r="F55" s="5"/>
       <c r="G55" s="5"/>
       <c r="H55" s="5"/>
@@ -4993,17 +4800,17 @@
       <c r="BE55" s="8"/>
       <c r="BF55" s="5"/>
     </row>
-    <row r="56" spans="2:58" x14ac:dyDescent="0.3">
-      <c r="B56" s="4" t="s">
-        <v>116</v>
+    <row r="56" spans="2:58" x14ac:dyDescent="0.25">
+      <c r="B56" s="4">
+        <v>56200741</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>105</v>
+        <v>61</v>
       </c>
       <c r="D56" s="5">
         <v>1</v>
       </c>
-      <c r="E56" s="5"/>
+      <c r="E56" s="13"/>
       <c r="F56" s="5"/>
       <c r="G56" s="5"/>
       <c r="H56" s="5"/>
@@ -5060,17 +4867,17 @@
       <c r="BE56" s="8"/>
       <c r="BF56" s="5"/>
     </row>
-    <row r="57" spans="2:58" x14ac:dyDescent="0.3">
-      <c r="B57" s="4" t="s">
-        <v>117</v>
+    <row r="57" spans="2:58" x14ac:dyDescent="0.25">
+      <c r="B57" s="4">
+        <v>83505223</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>105</v>
+        <v>61</v>
       </c>
       <c r="D57" s="5">
         <v>0</v>
       </c>
-      <c r="E57" s="5"/>
+      <c r="E57" s="13"/>
       <c r="F57" s="5"/>
       <c r="G57" s="5"/>
       <c r="H57" s="5"/>
@@ -5127,17 +4934,17 @@
       <c r="BE57" s="8"/>
       <c r="BF57" s="5"/>
     </row>
-    <row r="58" spans="2:58" x14ac:dyDescent="0.3">
-      <c r="B58" s="4" t="s">
-        <v>118</v>
+    <row r="58" spans="2:58" x14ac:dyDescent="0.25">
+      <c r="B58" s="4">
+        <v>69380267</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>106</v>
+        <v>62</v>
       </c>
       <c r="D58" s="5">
         <v>1</v>
       </c>
-      <c r="E58" s="5"/>
+      <c r="E58" s="13"/>
       <c r="F58" s="5"/>
       <c r="G58" s="5"/>
       <c r="H58" s="5"/>
@@ -5194,17 +5001,17 @@
       <c r="BE58" s="8"/>
       <c r="BF58" s="5"/>
     </row>
-    <row r="59" spans="2:58" x14ac:dyDescent="0.3">
-      <c r="B59" s="4" t="s">
-        <v>119</v>
+    <row r="59" spans="2:58" x14ac:dyDescent="0.25">
+      <c r="B59" s="4">
+        <v>24615700</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>106</v>
+        <v>62</v>
       </c>
       <c r="D59" s="5">
         <v>0</v>
       </c>
-      <c r="E59" s="5"/>
+      <c r="E59" s="13"/>
       <c r="F59" s="5"/>
       <c r="G59" s="5"/>
       <c r="H59" s="5"/>
@@ -5261,17 +5068,17 @@
       <c r="BE59" s="8"/>
       <c r="BF59" s="5"/>
     </row>
-    <row r="60" spans="2:58" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B60" s="4" t="s">
-        <v>120</v>
+        <v>68</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="D60" s="5">
         <v>1</v>
       </c>
-      <c r="E60" s="5"/>
+      <c r="E60" s="13"/>
       <c r="F60" s="5"/>
       <c r="G60" s="5"/>
       <c r="H60" s="5"/>
@@ -5328,17 +5135,17 @@
       <c r="BE60" s="8"/>
       <c r="BF60" s="5"/>
     </row>
-    <row r="61" spans="2:58" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B61" s="4" t="s">
-        <v>121</v>
+        <v>69</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="D61" s="5">
         <v>1</v>
       </c>
-      <c r="E61" s="5"/>
+      <c r="E61" s="13"/>
       <c r="F61" s="5"/>
       <c r="G61" s="5"/>
       <c r="H61" s="5"/>
@@ -5395,17 +5202,17 @@
       <c r="BE61" s="8"/>
       <c r="BF61" s="5"/>
     </row>
-    <row r="62" spans="2:58" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B62" s="4" t="s">
-        <v>122</v>
+        <v>70</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="D62" s="5">
         <v>1</v>
       </c>
-      <c r="E62" s="5"/>
+      <c r="E62" s="13"/>
       <c r="F62" s="5"/>
       <c r="G62" s="5"/>
       <c r="H62" s="5"/>
@@ -5462,17 +5269,17 @@
       <c r="BE62" s="8"/>
       <c r="BF62" s="5"/>
     </row>
-    <row r="63" spans="2:58" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B63" s="4" t="s">
-        <v>123</v>
+        <v>71</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="D63" s="5">
         <v>0</v>
       </c>
-      <c r="E63" s="5"/>
+      <c r="E63" s="13"/>
       <c r="F63" s="5"/>
       <c r="G63" s="5"/>
       <c r="H63" s="5"/>
@@ -5529,17 +5336,17 @@
       <c r="BE63" s="8"/>
       <c r="BF63" s="5"/>
     </row>
-    <row r="64" spans="2:58" x14ac:dyDescent="0.3">
-      <c r="B64" s="4" t="s">
-        <v>124</v>
+    <row r="64" spans="2:58" x14ac:dyDescent="0.25">
+      <c r="B64" s="4">
+        <v>17260961</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="D64" s="5">
         <v>0</v>
       </c>
-      <c r="E64" s="5"/>
+      <c r="E64" s="13"/>
       <c r="F64" s="5"/>
       <c r="G64" s="5"/>
       <c r="H64" s="5"/>
@@ -5565,7 +5372,7 @@
       <c r="AB64" s="8"/>
       <c r="AC64" s="5"/>
       <c r="AD64" s="5">
-        <v>91</v>
+        <v>378</v>
       </c>
       <c r="AE64" s="8"/>
       <c r="AF64" s="8"/>
@@ -5596,17 +5403,17 @@
       <c r="BE64" s="8"/>
       <c r="BF64" s="5"/>
     </row>
-    <row r="65" spans="2:58" x14ac:dyDescent="0.3">
-      <c r="B65" s="4" t="s">
-        <v>126</v>
+    <row r="65" spans="2:58" x14ac:dyDescent="0.25">
+      <c r="B65" s="4">
+        <v>17260961</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>132</v>
+        <v>78</v>
       </c>
       <c r="D65" s="5">
         <v>1</v>
       </c>
-      <c r="E65" s="5"/>
+      <c r="E65" s="13"/>
       <c r="F65" s="5"/>
       <c r="G65" s="5"/>
       <c r="H65" s="5"/>
@@ -5632,7 +5439,7 @@
       <c r="AB65" s="8"/>
       <c r="AC65" s="5"/>
       <c r="AD65" s="5">
-        <v>93</v>
+        <v>378</v>
       </c>
       <c r="AE65" s="8"/>
       <c r="AF65" s="8"/>
@@ -5663,17 +5470,17 @@
       <c r="BE65" s="8"/>
       <c r="BF65" s="5"/>
     </row>
-    <row r="66" spans="2:58" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B66" s="4" t="s">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>132</v>
+        <v>78</v>
       </c>
       <c r="D66" s="5">
         <v>0</v>
       </c>
-      <c r="E66" s="5"/>
+      <c r="E66" s="13"/>
       <c r="F66" s="5"/>
       <c r="G66" s="5"/>
       <c r="H66" s="5"/>
@@ -5730,17 +5537,17 @@
       <c r="BE66" s="8"/>
       <c r="BF66" s="5"/>
     </row>
-    <row r="67" spans="2:58" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B67" s="4" t="s">
-        <v>128</v>
+        <v>74</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>107</v>
+        <v>63</v>
       </c>
       <c r="D67" s="5">
         <v>1</v>
       </c>
-      <c r="E67" s="5"/>
+      <c r="E67" s="13"/>
       <c r="F67" s="5"/>
       <c r="G67" s="5"/>
       <c r="H67" s="5"/>
@@ -5797,17 +5604,17 @@
       <c r="BE67" s="8"/>
       <c r="BF67" s="5"/>
     </row>
-    <row r="68" spans="2:58" x14ac:dyDescent="0.3">
-      <c r="B68" s="4" t="s">
-        <v>133</v>
+    <row r="68" spans="2:58" x14ac:dyDescent="0.25">
+      <c r="B68" s="4">
+        <v>83505223</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>107</v>
+        <v>63</v>
       </c>
       <c r="D68" s="5">
         <v>0</v>
       </c>
-      <c r="E68" s="5"/>
+      <c r="E68" s="13"/>
       <c r="F68" s="5"/>
       <c r="G68" s="5"/>
       <c r="H68" s="5"/>
@@ -5864,17 +5671,17 @@
       <c r="BE68" s="8"/>
       <c r="BF68" s="5"/>
     </row>
-    <row r="69" spans="2:58" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B69" s="4" t="s">
-        <v>134</v>
+        <v>79</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>108</v>
+        <v>64</v>
       </c>
       <c r="D69" s="5">
         <v>1</v>
       </c>
-      <c r="E69" s="5"/>
+      <c r="E69" s="13"/>
       <c r="F69" s="5"/>
       <c r="G69" s="5"/>
       <c r="H69" s="5"/>
@@ -5931,17 +5738,17 @@
       <c r="BE69" s="8"/>
       <c r="BF69" s="5"/>
     </row>
-    <row r="70" spans="2:58" x14ac:dyDescent="0.3">
-      <c r="B70" s="4" t="s">
-        <v>135</v>
+    <row r="70" spans="2:58" x14ac:dyDescent="0.25">
+      <c r="B70" s="4">
+        <v>42647456</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>108</v>
+        <v>64</v>
       </c>
       <c r="D70" s="5">
         <v>0</v>
       </c>
-      <c r="E70" s="5"/>
+      <c r="E70" s="13"/>
       <c r="F70" s="5"/>
       <c r="G70" s="5"/>
       <c r="H70" s="5"/>
@@ -5998,17 +5805,17 @@
       <c r="BE70" s="8"/>
       <c r="BF70" s="5"/>
     </row>
-    <row r="71" spans="2:58" x14ac:dyDescent="0.3">
-      <c r="B71" s="4" t="s">
-        <v>136</v>
+    <row r="71" spans="2:58" x14ac:dyDescent="0.25">
+      <c r="B71" s="4">
+        <v>86509813</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="D71" s="5">
         <v>1</v>
       </c>
-      <c r="E71" s="5"/>
+      <c r="E71" s="13"/>
       <c r="F71" s="5"/>
       <c r="G71" s="5"/>
       <c r="H71" s="5"/>
@@ -6065,17 +5872,17 @@
       <c r="BE71" s="8"/>
       <c r="BF71" s="5"/>
     </row>
-    <row r="72" spans="2:58" x14ac:dyDescent="0.3">
-      <c r="B72" s="4" t="s">
-        <v>137</v>
+    <row r="72" spans="2:58" x14ac:dyDescent="0.25">
+      <c r="B72" s="4">
+        <v>42647456</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="D72" s="5">
         <v>0</v>
       </c>
-      <c r="E72" s="5"/>
+      <c r="E72" s="13"/>
       <c r="F72" s="5"/>
       <c r="G72" s="5"/>
       <c r="H72" s="5"/>
@@ -6132,17 +5939,17 @@
       <c r="BE72" s="8"/>
       <c r="BF72" s="5"/>
     </row>
-    <row r="73" spans="2:58" x14ac:dyDescent="0.3">
-      <c r="B73" s="4" t="s">
-        <v>138</v>
+    <row r="73" spans="2:58" x14ac:dyDescent="0.25">
+      <c r="B73" s="4">
+        <v>24406627</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>109</v>
+        <v>66</v>
       </c>
       <c r="D73" s="5">
         <v>1</v>
       </c>
-      <c r="E73" s="5"/>
+      <c r="E73" s="13"/>
       <c r="F73" s="5"/>
       <c r="G73" s="5"/>
       <c r="H73" s="5"/>
@@ -6199,17 +6006,17 @@
       <c r="BE73" s="8"/>
       <c r="BF73" s="5"/>
     </row>
-    <row r="74" spans="2:58" x14ac:dyDescent="0.3">
-      <c r="B74" s="4" t="s">
-        <v>139</v>
+    <row r="74" spans="2:58" x14ac:dyDescent="0.25">
+      <c r="B74" s="4">
+        <v>42647456</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>110</v>
+        <v>66</v>
       </c>
       <c r="D74" s="5">
         <v>0</v>
       </c>
-      <c r="E74" s="5"/>
+      <c r="E74" s="13"/>
       <c r="F74" s="5"/>
       <c r="G74" s="5"/>
       <c r="H74" s="5"/>
@@ -6266,17 +6073,17 @@
       <c r="BE74" s="8"/>
       <c r="BF74" s="5"/>
     </row>
-    <row r="75" spans="2:58" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B75" s="4" t="s">
-        <v>141</v>
+        <v>81</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>125</v>
+        <v>72</v>
       </c>
       <c r="D75" s="5">
         <v>1</v>
       </c>
-      <c r="E75" s="5"/>
+      <c r="E75" s="13"/>
       <c r="F75" s="5"/>
       <c r="G75" s="5"/>
       <c r="H75" s="5"/>
@@ -6333,17 +6140,17 @@
       <c r="BE75" s="8"/>
       <c r="BF75" s="5"/>
     </row>
-    <row r="76" spans="2:58" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B76" s="4" t="s">
-        <v>142</v>
+        <v>82</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>125</v>
+        <v>72</v>
       </c>
       <c r="D76" s="5">
         <v>0</v>
       </c>
-      <c r="E76" s="5"/>
+      <c r="E76" s="13"/>
       <c r="F76" s="5"/>
       <c r="G76" s="5"/>
       <c r="H76" s="5"/>
@@ -6400,17 +6207,17 @@
       <c r="BE76" s="8"/>
       <c r="BF76" s="5"/>
     </row>
-    <row r="77" spans="2:58" x14ac:dyDescent="0.3">
-      <c r="B77" s="4" t="s">
-        <v>143</v>
+    <row r="77" spans="2:58" x14ac:dyDescent="0.25">
+      <c r="B77" s="4">
+        <v>16708822</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>125</v>
+        <v>72</v>
       </c>
       <c r="D77" s="5">
         <v>0</v>
       </c>
-      <c r="E77" s="5"/>
+      <c r="E77" s="13"/>
       <c r="F77" s="5"/>
       <c r="G77" s="5"/>
       <c r="H77" s="5"/>
@@ -6441,7 +6248,7 @@
       <c r="AG77" s="8"/>
       <c r="AH77" s="8"/>
       <c r="AI77" s="5">
-        <v>0.2</v>
+        <v>1E-3</v>
       </c>
       <c r="AJ77" s="5"/>
       <c r="AK77" s="8"/>
@@ -6467,17 +6274,17 @@
       <c r="BE77" s="8"/>
       <c r="BF77" s="5"/>
     </row>
-    <row r="78" spans="2:58" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B78" s="4" t="s">
-        <v>145</v>
+        <v>84</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>144</v>
+        <v>83</v>
       </c>
       <c r="D78" s="5">
         <v>1</v>
       </c>
-      <c r="E78" s="5"/>
+      <c r="E78" s="13"/>
       <c r="F78" s="5"/>
       <c r="G78" s="5"/>
       <c r="H78" s="5"/>
@@ -6534,17 +6341,17 @@
       <c r="BE78" s="8"/>
       <c r="BF78" s="5"/>
     </row>
-    <row r="79" spans="2:58" x14ac:dyDescent="0.3">
-      <c r="B79" s="4" t="s">
-        <v>146</v>
+    <row r="79" spans="2:58" x14ac:dyDescent="0.25">
+      <c r="B79" s="4">
+        <v>16708822</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>144</v>
+        <v>83</v>
       </c>
       <c r="D79" s="5">
         <v>1</v>
       </c>
-      <c r="E79" s="5"/>
+      <c r="E79" s="13"/>
       <c r="F79" s="5"/>
       <c r="G79" s="5"/>
       <c r="H79" s="5"/>
@@ -6575,7 +6382,7 @@
       <c r="AG79" s="8"/>
       <c r="AH79" s="8"/>
       <c r="AI79" s="5">
-        <v>0.25</v>
+        <v>1E-3</v>
       </c>
       <c r="AJ79" s="5"/>
       <c r="AK79" s="8"/>
@@ -6601,17 +6408,17 @@
       <c r="BE79" s="8"/>
       <c r="BF79" s="5"/>
     </row>
-    <row r="80" spans="2:58" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B80" s="4" t="s">
-        <v>147</v>
+        <v>85</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>144</v>
+        <v>83</v>
       </c>
       <c r="D80" s="5">
         <v>0</v>
       </c>
-      <c r="E80" s="5"/>
+      <c r="E80" s="13"/>
       <c r="F80" s="5"/>
       <c r="G80" s="5"/>
       <c r="H80" s="5"/>
@@ -6668,17 +6475,17 @@
       <c r="BE80" s="8"/>
       <c r="BF80" s="5"/>
     </row>
-    <row r="81" spans="2:58" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B81" s="4" t="s">
-        <v>148</v>
+        <v>86</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>144</v>
+        <v>83</v>
       </c>
       <c r="D81" s="5">
         <v>0</v>
       </c>
-      <c r="E81" s="5"/>
+      <c r="E81" s="13"/>
       <c r="F81" s="5"/>
       <c r="G81" s="5"/>
       <c r="H81" s="5"/>
@@ -6735,17 +6542,17 @@
       <c r="BE81" s="8"/>
       <c r="BF81" s="5"/>
     </row>
-    <row r="82" spans="2:58" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B82" s="4" t="s">
-        <v>155</v>
+        <v>93</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>129</v>
+        <v>75</v>
       </c>
       <c r="D82" s="5">
         <v>1</v>
       </c>
-      <c r="E82" s="5"/>
+      <c r="E82" s="13"/>
       <c r="F82" s="5"/>
       <c r="G82" s="5"/>
       <c r="H82" s="5"/>
@@ -6777,7 +6584,7 @@
       <c r="AH82" s="8"/>
       <c r="AI82" s="8"/>
       <c r="AJ82" s="4" t="s">
-        <v>150</v>
+        <v>88</v>
       </c>
       <c r="AK82" s="8"/>
       <c r="AL82" s="8"/>
@@ -6802,17 +6609,17 @@
       <c r="BE82" s="8"/>
       <c r="BF82" s="5"/>
     </row>
-    <row r="83" spans="2:58" x14ac:dyDescent="0.3">
-      <c r="B83" s="4" t="s">
-        <v>156</v>
+    <row r="83" spans="2:58" x14ac:dyDescent="0.25">
+      <c r="B83" s="4">
+        <v>8868787</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>129</v>
+        <v>75</v>
       </c>
       <c r="D83" s="5">
         <v>0</v>
       </c>
-      <c r="E83" s="5"/>
+      <c r="E83" s="13"/>
       <c r="F83" s="5"/>
       <c r="G83" s="5"/>
       <c r="H83" s="5"/>
@@ -6844,7 +6651,7 @@
       <c r="AH83" s="8"/>
       <c r="AI83" s="8"/>
       <c r="AJ83" s="4" t="s">
-        <v>151</v>
+        <v>89</v>
       </c>
       <c r="AK83" s="8"/>
       <c r="AL83" s="8"/>
@@ -6869,17 +6676,17 @@
       <c r="BE83" s="8"/>
       <c r="BF83" s="5"/>
     </row>
-    <row r="84" spans="2:58" x14ac:dyDescent="0.3">
-      <c r="B84" s="4" t="s">
-        <v>157</v>
+    <row r="84" spans="2:58" x14ac:dyDescent="0.25">
+      <c r="B84" s="4">
+        <v>17934256</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>129</v>
+        <v>75</v>
       </c>
       <c r="D84" s="5">
         <v>0</v>
       </c>
-      <c r="E84" s="5"/>
+      <c r="E84" s="13"/>
       <c r="F84" s="5"/>
       <c r="G84" s="5"/>
       <c r="H84" s="5"/>
@@ -6911,7 +6718,7 @@
       <c r="AH84" s="8"/>
       <c r="AI84" s="8"/>
       <c r="AJ84" s="4" t="s">
-        <v>152</v>
+        <v>90</v>
       </c>
       <c r="AK84" s="8"/>
       <c r="AL84" s="8"/>
@@ -6936,17 +6743,17 @@
       <c r="BE84" s="8"/>
       <c r="BF84" s="5"/>
     </row>
-    <row r="85" spans="2:58" x14ac:dyDescent="0.3">
-      <c r="B85" s="4" t="s">
-        <v>158</v>
+    <row r="85" spans="2:58" x14ac:dyDescent="0.25">
+      <c r="B85" s="4">
+        <v>8868787</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>153</v>
+        <v>91</v>
       </c>
       <c r="D85" s="5">
         <v>1</v>
       </c>
-      <c r="E85" s="5"/>
+      <c r="E85" s="13"/>
       <c r="F85" s="5"/>
       <c r="G85" s="5"/>
       <c r="H85" s="5"/>
@@ -6978,7 +6785,7 @@
       <c r="AH85" s="8"/>
       <c r="AI85" s="8"/>
       <c r="AJ85" s="4" t="s">
-        <v>151</v>
+        <v>89</v>
       </c>
       <c r="AK85" s="8"/>
       <c r="AL85" s="8"/>
@@ -7003,17 +6810,17 @@
       <c r="BE85" s="8"/>
       <c r="BF85" s="5"/>
     </row>
-    <row r="86" spans="2:58" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B86" s="4" t="s">
-        <v>159</v>
+        <v>94</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>153</v>
+        <v>91</v>
       </c>
       <c r="D86" s="5">
         <v>0</v>
       </c>
-      <c r="E86" s="5"/>
+      <c r="E86" s="13"/>
       <c r="F86" s="5"/>
       <c r="G86" s="5"/>
       <c r="H86" s="5"/>
@@ -7045,7 +6852,7 @@
       <c r="AH86" s="8"/>
       <c r="AI86" s="8"/>
       <c r="AJ86" s="4" t="s">
-        <v>150</v>
+        <v>88</v>
       </c>
       <c r="AK86" s="8"/>
       <c r="AL86" s="8"/>
@@ -7070,17 +6877,17 @@
       <c r="BE86" s="8"/>
       <c r="BF86" s="5"/>
     </row>
-    <row r="87" spans="2:58" x14ac:dyDescent="0.3">
-      <c r="B87" s="4" t="s">
-        <v>160</v>
+    <row r="87" spans="2:58" x14ac:dyDescent="0.25">
+      <c r="B87" s="4">
+        <v>17934256</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>153</v>
+        <v>91</v>
       </c>
       <c r="D87" s="5">
         <v>0</v>
       </c>
-      <c r="E87" s="5"/>
+      <c r="E87" s="13"/>
       <c r="F87" s="5"/>
       <c r="G87" s="5"/>
       <c r="H87" s="5"/>
@@ -7112,7 +6919,7 @@
       <c r="AH87" s="8"/>
       <c r="AI87" s="8"/>
       <c r="AJ87" s="4" t="s">
-        <v>152</v>
+        <v>90</v>
       </c>
       <c r="AK87" s="8"/>
       <c r="AL87" s="8"/>
@@ -7137,17 +6944,17 @@
       <c r="BE87" s="8"/>
       <c r="BF87" s="5"/>
     </row>
-    <row r="88" spans="2:58" x14ac:dyDescent="0.3">
-      <c r="B88" s="4" t="s">
-        <v>161</v>
+    <row r="88" spans="2:58" x14ac:dyDescent="0.25">
+      <c r="B88" s="4">
+        <v>17934256</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>154</v>
+        <v>92</v>
       </c>
       <c r="D88" s="5">
         <v>1</v>
       </c>
-      <c r="E88" s="5"/>
+      <c r="E88" s="13"/>
       <c r="F88" s="5"/>
       <c r="G88" s="5"/>
       <c r="H88" s="5"/>
@@ -7179,7 +6986,7 @@
       <c r="AH88" s="8"/>
       <c r="AI88" s="8"/>
       <c r="AJ88" s="4" t="s">
-        <v>152</v>
+        <v>90</v>
       </c>
       <c r="AK88" s="8"/>
       <c r="AL88" s="8"/>
@@ -7204,17 +7011,17 @@
       <c r="BE88" s="8"/>
       <c r="BF88" s="5"/>
     </row>
-    <row r="89" spans="2:58" x14ac:dyDescent="0.3">
-      <c r="B89" s="4" t="s">
-        <v>162</v>
+    <row r="89" spans="2:58" x14ac:dyDescent="0.25">
+      <c r="B89" s="4">
+        <v>8868787</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>154</v>
+        <v>92</v>
       </c>
       <c r="D89" s="5">
         <v>0</v>
       </c>
-      <c r="E89" s="5"/>
+      <c r="E89" s="13"/>
       <c r="F89" s="5"/>
       <c r="G89" s="5"/>
       <c r="H89" s="5"/>
@@ -7246,7 +7053,7 @@
       <c r="AH89" s="8"/>
       <c r="AI89" s="8"/>
       <c r="AJ89" s="4" t="s">
-        <v>151</v>
+        <v>89</v>
       </c>
       <c r="AK89" s="8"/>
       <c r="AL89" s="8"/>
@@ -7271,17 +7078,17 @@
       <c r="BE89" s="8"/>
       <c r="BF89" s="5"/>
     </row>
-    <row r="90" spans="2:58" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B90" s="4" t="s">
-        <v>163</v>
+        <v>95</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>154</v>
+        <v>92</v>
       </c>
       <c r="D90" s="5">
         <v>0</v>
       </c>
-      <c r="E90" s="5"/>
+      <c r="E90" s="13"/>
       <c r="F90" s="5"/>
       <c r="G90" s="5"/>
       <c r="H90" s="5"/>
@@ -7313,7 +7120,7 @@
       <c r="AH90" s="8"/>
       <c r="AI90" s="8"/>
       <c r="AJ90" s="4" t="s">
-        <v>150</v>
+        <v>88</v>
       </c>
       <c r="AK90" s="8"/>
       <c r="AL90" s="8"/>
@@ -7338,17 +7145,17 @@
       <c r="BE90" s="8"/>
       <c r="BF90" s="5"/>
     </row>
-    <row r="91" spans="2:58" x14ac:dyDescent="0.3">
-      <c r="B91" s="4" t="s">
-        <v>166</v>
+    <row r="91" spans="2:58" x14ac:dyDescent="0.25">
+      <c r="B91" s="4">
+        <v>66926387</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>165</v>
+        <v>97</v>
       </c>
       <c r="D91" s="5">
         <v>1</v>
       </c>
-      <c r="E91" s="5"/>
+      <c r="E91" s="13"/>
       <c r="F91" s="5"/>
       <c r="G91" s="5"/>
       <c r="H91" s="5"/>
@@ -7405,17 +7212,17 @@
       <c r="BE91" s="8"/>
       <c r="BF91" s="5"/>
     </row>
-    <row r="92" spans="2:58" x14ac:dyDescent="0.3">
-      <c r="B92" s="4" t="s">
-        <v>167</v>
+    <row r="92" spans="2:58" x14ac:dyDescent="0.25">
+      <c r="B92" s="4">
+        <v>83505223</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>165</v>
+        <v>97</v>
       </c>
       <c r="D92" s="5">
         <v>0</v>
       </c>
-      <c r="E92" s="5"/>
+      <c r="E92" s="13"/>
       <c r="F92" s="5"/>
       <c r="G92" s="5"/>
       <c r="H92" s="5"/>
@@ -7472,17 +7279,17 @@
       <c r="BE92" s="8"/>
       <c r="BF92" s="5"/>
     </row>
-    <row r="93" spans="2:58" x14ac:dyDescent="0.3">
-      <c r="B93" s="4" t="s">
-        <v>173</v>
+    <row r="93" spans="2:58" x14ac:dyDescent="0.25">
+      <c r="B93" s="4">
+        <v>17781207</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>171</v>
+        <v>101</v>
       </c>
       <c r="D93" s="5">
         <v>1</v>
       </c>
-      <c r="E93" s="5"/>
+      <c r="E93" s="13"/>
       <c r="F93" s="5"/>
       <c r="G93" s="5"/>
       <c r="H93" s="5"/>
@@ -7520,7 +7327,7 @@
       </c>
       <c r="AM93" s="8"/>
       <c r="AN93" s="9" t="s">
-        <v>172</v>
+        <v>102</v>
       </c>
       <c r="AO93" s="5"/>
       <c r="AP93" s="5"/>
@@ -7541,17 +7348,17 @@
       <c r="BE93" s="8"/>
       <c r="BF93" s="5"/>
     </row>
-    <row r="94" spans="2:58" x14ac:dyDescent="0.3">
-      <c r="B94" s="4" t="s">
-        <v>174</v>
+    <row r="94" spans="2:58" x14ac:dyDescent="0.25">
+      <c r="B94" s="4">
+        <v>37963129</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>171</v>
+        <v>101</v>
       </c>
       <c r="D94" s="5">
         <v>0</v>
       </c>
-      <c r="E94" s="5"/>
+      <c r="E94" s="13"/>
       <c r="F94" s="5"/>
       <c r="G94" s="5"/>
       <c r="H94" s="5"/>
@@ -7589,7 +7396,7 @@
       </c>
       <c r="AM94" s="8"/>
       <c r="AN94" s="9" t="s">
-        <v>172</v>
+        <v>102</v>
       </c>
       <c r="AO94" s="5"/>
       <c r="AP94" s="5"/>
@@ -7610,17 +7417,17 @@
       <c r="BE94" s="8"/>
       <c r="BF94" s="5"/>
     </row>
-    <row r="95" spans="2:58" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B95" s="4" t="s">
-        <v>176</v>
+        <v>104</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>175</v>
+        <v>103</v>
       </c>
       <c r="D95" s="5">
         <v>1</v>
       </c>
-      <c r="E95" s="5"/>
+      <c r="E95" s="13"/>
       <c r="F95" s="5"/>
       <c r="G95" s="5"/>
       <c r="H95" s="5"/>
@@ -7677,17 +7484,17 @@
       <c r="BE95" s="8"/>
       <c r="BF95" s="5"/>
     </row>
-    <row r="96" spans="2:58" x14ac:dyDescent="0.3">
-      <c r="B96" s="4" t="s">
-        <v>177</v>
+    <row r="96" spans="2:58" x14ac:dyDescent="0.25">
+      <c r="B96" s="4">
+        <v>24615700</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>175</v>
+        <v>103</v>
       </c>
       <c r="D96" s="5">
         <v>0</v>
       </c>
-      <c r="E96" s="5"/>
+      <c r="E96" s="13"/>
       <c r="F96" s="5"/>
       <c r="G96" s="5"/>
       <c r="H96" s="5"/>
@@ -7744,17 +7551,17 @@
       <c r="BE96" s="8"/>
       <c r="BF96" s="5"/>
     </row>
-    <row r="97" spans="2:58" x14ac:dyDescent="0.3">
-      <c r="B97" s="4" t="s">
-        <v>183</v>
+    <row r="97" spans="2:58" x14ac:dyDescent="0.25">
+      <c r="B97" s="4">
+        <v>12273953</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>182</v>
+        <v>109</v>
       </c>
       <c r="D97" s="5">
         <v>1</v>
       </c>
-      <c r="E97" s="5"/>
+      <c r="E97" s="13"/>
       <c r="F97" s="5"/>
       <c r="G97" s="5"/>
       <c r="H97" s="5"/>
@@ -7794,13 +7601,13 @@
         <v>1</v>
       </c>
       <c r="AP97" s="5">
-        <v>9</v>
-      </c>
-      <c r="AQ97" s="5">
-        <v>250</v>
-      </c>
-      <c r="AR97" s="5">
-        <v>200</v>
+        <v>179</v>
+      </c>
+      <c r="AQ97" s="18">
+        <v>2045.13</v>
+      </c>
+      <c r="AR97" s="18">
+        <v>31975.5</v>
       </c>
       <c r="AS97" s="5"/>
       <c r="AT97" s="5"/>
@@ -7817,17 +7624,17 @@
       <c r="BE97" s="8"/>
       <c r="BF97" s="5"/>
     </row>
-    <row r="98" spans="2:58" x14ac:dyDescent="0.3">
-      <c r="B98" s="4" t="s">
-        <v>184</v>
+    <row r="98" spans="2:58" x14ac:dyDescent="0.25">
+      <c r="B98" s="4">
+        <v>58943028</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>182</v>
+        <v>109</v>
       </c>
       <c r="D98" s="5">
         <v>0</v>
       </c>
-      <c r="E98" s="5"/>
+      <c r="E98" s="13"/>
       <c r="F98" s="5"/>
       <c r="G98" s="5"/>
       <c r="H98" s="5"/>
@@ -7890,17 +7697,17 @@
       <c r="BE98" s="8"/>
       <c r="BF98" s="5"/>
     </row>
-    <row r="99" spans="2:58" x14ac:dyDescent="0.3">
-      <c r="B99" s="4" t="s">
-        <v>185</v>
+    <row r="99" spans="2:58" x14ac:dyDescent="0.25">
+      <c r="B99" s="4">
+        <v>17033219</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>182</v>
+        <v>109</v>
       </c>
       <c r="D99" s="5">
         <v>0</v>
       </c>
-      <c r="E99" s="5"/>
+      <c r="E99" s="13"/>
       <c r="F99" s="5"/>
       <c r="G99" s="5"/>
       <c r="H99" s="5"/>
@@ -7940,13 +7747,13 @@
         <v>1</v>
       </c>
       <c r="AP99" s="5">
-        <v>8</v>
-      </c>
-      <c r="AQ99" s="5">
-        <v>300</v>
+        <v>60</v>
+      </c>
+      <c r="AQ99" s="18">
+        <v>1235</v>
       </c>
       <c r="AR99" s="5">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="AS99" s="5"/>
       <c r="AT99" s="5"/>
@@ -7963,17 +7770,17 @@
       <c r="BE99" s="8"/>
       <c r="BF99" s="5"/>
     </row>
-    <row r="100" spans="2:58" x14ac:dyDescent="0.3">
-      <c r="B100" s="4" t="s">
-        <v>191</v>
+    <row r="100" spans="2:58" x14ac:dyDescent="0.25">
+      <c r="B100" s="4">
+        <v>67354476</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>190</v>
+        <v>114</v>
       </c>
       <c r="D100" s="5">
         <v>1</v>
       </c>
-      <c r="E100" s="5"/>
+      <c r="E100" s="13"/>
       <c r="F100" s="5"/>
       <c r="G100" s="5"/>
       <c r="H100" s="5"/>
@@ -8014,10 +7821,10 @@
       <c r="AQ100" s="5"/>
       <c r="AR100" s="5"/>
       <c r="AS100" s="5">
-        <v>200</v>
+        <v>104</v>
       </c>
       <c r="AT100" s="5">
-        <v>1</v>
+        <v>117</v>
       </c>
       <c r="AU100" s="5"/>
       <c r="AV100" s="5"/>
@@ -8032,17 +7839,17 @@
       <c r="BE100" s="8"/>
       <c r="BF100" s="5"/>
     </row>
-    <row r="101" spans="2:58" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B101" s="4" t="s">
-        <v>192</v>
+        <v>115</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>190</v>
+        <v>114</v>
       </c>
       <c r="D101" s="5">
         <v>0</v>
       </c>
-      <c r="E101" s="5"/>
+      <c r="E101" s="13"/>
       <c r="F101" s="5"/>
       <c r="G101" s="5"/>
       <c r="H101" s="5"/>
@@ -8101,17 +7908,17 @@
       <c r="BE101" s="8"/>
       <c r="BF101" s="5"/>
     </row>
-    <row r="102" spans="2:58" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B102" s="4" t="s">
-        <v>193</v>
+        <v>116</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>190</v>
+        <v>114</v>
       </c>
       <c r="D102" s="5">
         <v>0</v>
       </c>
-      <c r="E102" s="5"/>
+      <c r="E102" s="13"/>
       <c r="F102" s="5"/>
       <c r="G102" s="5"/>
       <c r="H102" s="5"/>
@@ -8170,17 +7977,17 @@
       <c r="BE102" s="8"/>
       <c r="BF102" s="5"/>
     </row>
-    <row r="103" spans="2:58" x14ac:dyDescent="0.3">
-      <c r="B103" s="4" t="s">
-        <v>195</v>
+    <row r="103" spans="2:58" x14ac:dyDescent="0.25">
+      <c r="B103" s="4">
+        <v>24596749</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>194</v>
+        <v>117</v>
       </c>
       <c r="D103" s="5">
         <v>1</v>
       </c>
-      <c r="E103" s="5"/>
+      <c r="E103" s="13"/>
       <c r="F103" s="5"/>
       <c r="G103" s="5"/>
       <c r="H103" s="5"/>
@@ -8226,7 +8033,7 @@
         <v>1</v>
       </c>
       <c r="AV103" s="5">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="AW103" s="5"/>
       <c r="AX103" s="5"/>
@@ -8239,17 +8046,17 @@
       <c r="BE103" s="8"/>
       <c r="BF103" s="5"/>
     </row>
-    <row r="104" spans="2:58" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B104" s="4" t="s">
-        <v>196</v>
+        <v>118</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>194</v>
+        <v>117</v>
       </c>
       <c r="D104" s="5">
         <v>0</v>
       </c>
-      <c r="E104" s="5"/>
+      <c r="E104" s="13"/>
       <c r="F104" s="5"/>
       <c r="G104" s="5"/>
       <c r="H104" s="5"/>
@@ -8308,17 +8115,17 @@
       <c r="BE104" s="8"/>
       <c r="BF104" s="5"/>
     </row>
-    <row r="105" spans="2:58" x14ac:dyDescent="0.3">
-      <c r="B105" s="4" t="s">
-        <v>197</v>
+    <row r="105" spans="2:58" x14ac:dyDescent="0.25">
+      <c r="B105" s="4">
+        <v>68510291</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>194</v>
+        <v>117</v>
       </c>
       <c r="D105" s="5">
         <v>0</v>
       </c>
-      <c r="E105" s="5"/>
+      <c r="E105" s="13"/>
       <c r="F105" s="5"/>
       <c r="G105" s="5"/>
       <c r="H105" s="5"/>
@@ -8377,17 +8184,17 @@
       <c r="BE105" s="8"/>
       <c r="BF105" s="5"/>
     </row>
-    <row r="106" spans="2:58" x14ac:dyDescent="0.3">
-      <c r="B106" s="4" t="s">
-        <v>209</v>
+    <row r="106" spans="2:58" x14ac:dyDescent="0.25">
+      <c r="B106" s="4">
+        <v>27674154</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>213</v>
+        <v>131</v>
       </c>
       <c r="D106" s="5">
         <v>1</v>
       </c>
-      <c r="E106" s="5"/>
+      <c r="E106" s="13"/>
       <c r="F106" s="5"/>
       <c r="G106" s="5"/>
       <c r="H106" s="5"/>
@@ -8432,10 +8239,10 @@
       <c r="AU106" s="5"/>
       <c r="AV106" s="5"/>
       <c r="AW106" s="5">
-        <v>0.15</v>
+        <v>0.125</v>
       </c>
       <c r="AX106" s="5">
-        <v>65</v>
+        <v>265</v>
       </c>
       <c r="AY106" s="5"/>
       <c r="AZ106" s="5"/>
@@ -8446,17 +8253,17 @@
       <c r="BE106" s="8"/>
       <c r="BF106" s="5"/>
     </row>
-    <row r="107" spans="2:58" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B107" s="4" t="s">
-        <v>210</v>
+        <v>130</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>213</v>
+        <v>131</v>
       </c>
       <c r="D107" s="5">
         <v>1</v>
       </c>
-      <c r="E107" s="5"/>
+      <c r="E107" s="13"/>
       <c r="F107" s="5"/>
       <c r="G107" s="5"/>
       <c r="H107" s="5"/>
@@ -8515,17 +8322,17 @@
       <c r="BE107" s="8"/>
       <c r="BF107" s="5"/>
     </row>
-    <row r="108" spans="2:58" x14ac:dyDescent="0.3">
-      <c r="B108" s="4" t="s">
-        <v>211</v>
+    <row r="108" spans="2:58" x14ac:dyDescent="0.25">
+      <c r="B108" s="4">
+        <v>87809034</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>213</v>
+        <v>131</v>
       </c>
       <c r="D108" s="5">
         <v>0</v>
       </c>
-      <c r="E108" s="5"/>
+      <c r="E108" s="13"/>
       <c r="F108" s="5"/>
       <c r="G108" s="5"/>
       <c r="H108" s="5"/>
@@ -8573,7 +8380,7 @@
         <v>0.2</v>
       </c>
       <c r="AX108" s="5">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="AY108" s="5"/>
       <c r="AZ108" s="5"/>
@@ -8584,17 +8391,17 @@
       <c r="BE108" s="8"/>
       <c r="BF108" s="5"/>
     </row>
-    <row r="109" spans="2:58" x14ac:dyDescent="0.3">
-      <c r="B109" s="4" t="s">
-        <v>212</v>
+    <row r="109" spans="2:58" x14ac:dyDescent="0.25">
+      <c r="B109" s="4">
+        <v>54451661</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>213</v>
+        <v>131</v>
       </c>
       <c r="D109" s="5">
         <v>0</v>
       </c>
-      <c r="E109" s="5"/>
+      <c r="E109" s="13"/>
       <c r="F109" s="5"/>
       <c r="G109" s="5"/>
       <c r="H109" s="5"/>
@@ -8639,10 +8446,10 @@
       <c r="AU109" s="5"/>
       <c r="AV109" s="5"/>
       <c r="AW109" s="5">
-        <v>0.25</v>
+        <v>0.32</v>
       </c>
       <c r="AX109" s="5">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AY109" s="5"/>
       <c r="AZ109" s="5"/>
@@ -8653,17 +8460,17 @@
       <c r="BE109" s="8"/>
       <c r="BF109" s="5"/>
     </row>
-    <row r="110" spans="2:58" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B110" s="4" t="s">
-        <v>214</v>
+        <v>132</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>208</v>
+        <v>129</v>
       </c>
       <c r="D110" s="5">
         <v>1</v>
       </c>
-      <c r="E110" s="5"/>
+      <c r="E110" s="13"/>
       <c r="F110" s="5"/>
       <c r="G110" s="5"/>
       <c r="H110" s="5"/>
@@ -8722,17 +8529,17 @@
       <c r="BE110" s="8"/>
       <c r="BF110" s="5"/>
     </row>
-    <row r="111" spans="2:58" x14ac:dyDescent="0.3">
-      <c r="B111" s="4" t="s">
-        <v>215</v>
+    <row r="111" spans="2:58" x14ac:dyDescent="0.25">
+      <c r="B111" s="4">
+        <v>54451661</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>208</v>
+        <v>129</v>
       </c>
       <c r="D111" s="5">
         <v>1</v>
       </c>
-      <c r="E111" s="5"/>
+      <c r="E111" s="13"/>
       <c r="F111" s="5"/>
       <c r="G111" s="5"/>
       <c r="H111" s="5"/>
@@ -8777,10 +8584,10 @@
       <c r="AU111" s="5"/>
       <c r="AV111" s="5"/>
       <c r="AW111" s="5">
-        <v>0.35</v>
+        <v>0.32</v>
       </c>
       <c r="AX111" s="5">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="AY111" s="5"/>
       <c r="AZ111" s="5"/>
@@ -8791,17 +8598,17 @@
       <c r="BE111" s="8"/>
       <c r="BF111" s="5"/>
     </row>
-    <row r="112" spans="2:58" x14ac:dyDescent="0.3">
-      <c r="B112" s="4" t="s">
-        <v>216</v>
+    <row r="112" spans="2:58" x14ac:dyDescent="0.25">
+      <c r="B112" s="4">
+        <v>27674154</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>208</v>
+        <v>129</v>
       </c>
       <c r="D112" s="5">
         <v>0</v>
       </c>
-      <c r="E112" s="5"/>
+      <c r="E112" s="13"/>
       <c r="F112" s="5"/>
       <c r="G112" s="5"/>
       <c r="H112" s="5"/>
@@ -8846,7 +8653,7 @@
       <c r="AU112" s="5"/>
       <c r="AV112" s="5"/>
       <c r="AW112" s="5">
-        <v>0.15</v>
+        <v>0.125</v>
       </c>
       <c r="AX112" s="5">
         <v>32</v>
@@ -8860,17 +8667,17 @@
       <c r="BE112" s="8"/>
       <c r="BF112" s="5"/>
     </row>
-    <row r="113" spans="2:58" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B113" s="4" t="s">
-        <v>217</v>
+        <v>133</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>208</v>
+        <v>129</v>
       </c>
       <c r="D113" s="5">
         <v>0</v>
       </c>
-      <c r="E113" s="5"/>
+      <c r="E113" s="13"/>
       <c r="F113" s="5"/>
       <c r="G113" s="5"/>
       <c r="H113" s="5"/>
@@ -8929,17 +8736,17 @@
       <c r="BE113" s="8"/>
       <c r="BF113" s="5"/>
     </row>
-    <row r="114" spans="2:58" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B114" s="4" t="s">
-        <v>219</v>
+        <v>135</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>218</v>
+        <v>134</v>
       </c>
       <c r="D114" s="5">
         <v>1</v>
       </c>
-      <c r="E114" s="5"/>
+      <c r="E114" s="13"/>
       <c r="F114" s="5"/>
       <c r="G114" s="5"/>
       <c r="H114" s="5"/>
@@ -8998,17 +8805,17 @@
       <c r="BE114" s="8"/>
       <c r="BF114" s="5"/>
     </row>
-    <row r="115" spans="2:58" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B115" s="4" t="s">
-        <v>220</v>
+        <v>136</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>218</v>
+        <v>134</v>
       </c>
       <c r="D115" s="5">
         <v>1</v>
       </c>
-      <c r="E115" s="5"/>
+      <c r="E115" s="13"/>
       <c r="F115" s="5"/>
       <c r="G115" s="5"/>
       <c r="H115" s="5"/>
@@ -9067,17 +8874,17 @@
       <c r="BE115" s="8"/>
       <c r="BF115" s="5"/>
     </row>
-    <row r="116" spans="2:58" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B116" s="4" t="s">
-        <v>221</v>
+        <v>137</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>218</v>
+        <v>134</v>
       </c>
       <c r="D116" s="5">
         <v>0</v>
       </c>
-      <c r="E116" s="5"/>
+      <c r="E116" s="13"/>
       <c r="F116" s="5"/>
       <c r="G116" s="5"/>
       <c r="H116" s="5"/>
@@ -9136,17 +8943,17 @@
       <c r="BE116" s="8"/>
       <c r="BF116" s="5"/>
     </row>
-    <row r="117" spans="2:58" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B117" s="4" t="s">
-        <v>222</v>
+        <v>138</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>218</v>
+        <v>134</v>
       </c>
       <c r="D117" s="5">
         <v>0</v>
       </c>
-      <c r="E117" s="5"/>
+      <c r="E117" s="13"/>
       <c r="F117" s="5"/>
       <c r="G117" s="5"/>
       <c r="H117" s="5"/>
@@ -9205,17 +9012,17 @@
       <c r="BE117" s="8"/>
       <c r="BF117" s="5"/>
     </row>
-    <row r="118" spans="2:58" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B118" s="4" t="s">
-        <v>223</v>
+        <v>139</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>218</v>
+        <v>134</v>
       </c>
       <c r="D118" s="5">
         <v>0</v>
       </c>
-      <c r="E118" s="5"/>
+      <c r="E118" s="13"/>
       <c r="F118" s="5"/>
       <c r="G118" s="5"/>
       <c r="H118" s="5"/>
@@ -9274,17 +9081,17 @@
       <c r="BE118" s="8"/>
       <c r="BF118" s="5"/>
     </row>
-    <row r="119" spans="2:58" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B119" s="4" t="s">
-        <v>225</v>
+        <v>141</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>224</v>
+        <v>140</v>
       </c>
       <c r="D119" s="5">
         <v>1</v>
       </c>
-      <c r="E119" s="5"/>
+      <c r="E119" s="13"/>
       <c r="F119" s="5"/>
       <c r="G119" s="5"/>
       <c r="H119" s="5"/>
@@ -9343,17 +9150,17 @@
       <c r="BE119" s="8"/>
       <c r="BF119" s="5"/>
     </row>
-    <row r="120" spans="2:58" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B120" s="4" t="s">
-        <v>226</v>
+        <v>142</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>224</v>
+        <v>140</v>
       </c>
       <c r="D120" s="5">
         <v>0</v>
       </c>
-      <c r="E120" s="5"/>
+      <c r="E120" s="13"/>
       <c r="F120" s="5"/>
       <c r="G120" s="5"/>
       <c r="H120" s="5"/>
@@ -9412,17 +9219,17 @@
       <c r="BE120" s="8"/>
       <c r="BF120" s="5"/>
     </row>
-    <row r="121" spans="2:58" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B121" s="4" t="s">
-        <v>227</v>
+        <v>143</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>224</v>
+        <v>140</v>
       </c>
       <c r="D121" s="5">
         <v>0</v>
       </c>
-      <c r="E121" s="5"/>
+      <c r="E121" s="13"/>
       <c r="F121" s="5"/>
       <c r="G121" s="5"/>
       <c r="H121" s="5"/>
@@ -9481,17 +9288,17 @@
       <c r="BE121" s="8"/>
       <c r="BF121" s="5"/>
     </row>
-    <row r="122" spans="2:58" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B122" s="4" t="s">
-        <v>230</v>
+        <v>146</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>228</v>
+        <v>144</v>
       </c>
       <c r="D122" s="5">
         <v>1</v>
       </c>
-      <c r="E122" s="5"/>
+      <c r="E122" s="13"/>
       <c r="F122" s="5"/>
       <c r="G122" s="5"/>
       <c r="H122" s="5"/>
@@ -9548,17 +9355,17 @@
       <c r="BE122" s="8"/>
       <c r="BF122" s="5"/>
     </row>
-    <row r="123" spans="2:58" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B123" s="4" t="s">
-        <v>231</v>
+        <v>147</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>228</v>
+        <v>144</v>
       </c>
       <c r="D123" s="5">
         <v>1</v>
       </c>
-      <c r="E123" s="5"/>
+      <c r="E123" s="13"/>
       <c r="F123" s="5"/>
       <c r="G123" s="5"/>
       <c r="H123" s="5"/>
@@ -9615,17 +9422,17 @@
       <c r="BE123" s="8"/>
       <c r="BF123" s="5"/>
     </row>
-    <row r="124" spans="2:58" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B124" s="4" t="s">
-        <v>232</v>
+        <v>148</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>228</v>
+        <v>144</v>
       </c>
       <c r="D124" s="5">
         <v>0</v>
       </c>
-      <c r="E124" s="5"/>
+      <c r="E124" s="13"/>
       <c r="F124" s="5"/>
       <c r="G124" s="5"/>
       <c r="H124" s="5"/>
@@ -9682,17 +9489,17 @@
       <c r="BE124" s="8"/>
       <c r="BF124" s="5"/>
     </row>
-    <row r="125" spans="2:58" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B125" s="4" t="s">
-        <v>233</v>
+        <v>149</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>229</v>
+        <v>145</v>
       </c>
       <c r="D125" s="5">
         <v>1</v>
       </c>
-      <c r="E125" s="5"/>
+      <c r="E125" s="13"/>
       <c r="F125" s="5"/>
       <c r="G125" s="5"/>
       <c r="H125" s="5"/>
@@ -9749,17 +9556,17 @@
       <c r="BE125" s="8"/>
       <c r="BF125" s="5"/>
     </row>
-    <row r="126" spans="2:58" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B126" s="4" t="s">
-        <v>234</v>
+        <v>150</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>229</v>
+        <v>145</v>
       </c>
       <c r="D126" s="5">
         <v>0</v>
       </c>
-      <c r="E126" s="5"/>
+      <c r="E126" s="13"/>
       <c r="F126" s="5"/>
       <c r="G126" s="5"/>
       <c r="H126" s="5"/>
@@ -9816,17 +9623,17 @@
       <c r="BE126" s="8"/>
       <c r="BF126" s="5"/>
     </row>
-    <row r="127" spans="2:58" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B127" s="4" t="s">
-        <v>239</v>
+        <v>155</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>235</v>
+        <v>151</v>
       </c>
       <c r="D127" s="5">
         <v>1</v>
       </c>
-      <c r="E127" s="5"/>
+      <c r="E127" s="13"/>
       <c r="F127" s="5"/>
       <c r="G127" s="5"/>
       <c r="H127" s="5"/>
@@ -9885,17 +9692,17 @@
       <c r="BE127" s="8"/>
       <c r="BF127" s="5"/>
     </row>
-    <row r="128" spans="2:58" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B128" s="4" t="s">
-        <v>240</v>
+        <v>156</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>235</v>
+        <v>151</v>
       </c>
       <c r="D128" s="5">
         <v>1</v>
       </c>
-      <c r="E128" s="5"/>
+      <c r="E128" s="13"/>
       <c r="F128" s="5"/>
       <c r="G128" s="5"/>
       <c r="H128" s="5"/>
@@ -9954,17 +9761,17 @@
       <c r="BE128" s="8"/>
       <c r="BF128" s="5"/>
     </row>
-    <row r="129" spans="2:58" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B129" s="4" t="s">
-        <v>241</v>
+        <v>157</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>235</v>
+        <v>151</v>
       </c>
       <c r="D129" s="5">
         <v>0</v>
       </c>
-      <c r="E129" s="5"/>
+      <c r="E129" s="13"/>
       <c r="F129" s="5"/>
       <c r="G129" s="5"/>
       <c r="H129" s="5"/>
@@ -10023,17 +9830,17 @@
       <c r="BE129" s="8"/>
       <c r="BF129" s="5"/>
     </row>
-    <row r="130" spans="2:58" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B130" s="4" t="s">
-        <v>242</v>
+        <v>158</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>235</v>
+        <v>151</v>
       </c>
       <c r="D130" s="5">
         <v>0</v>
       </c>
-      <c r="E130" s="5"/>
+      <c r="E130" s="13"/>
       <c r="F130" s="5"/>
       <c r="G130" s="5"/>
       <c r="H130" s="5"/>
@@ -10092,17 +9899,17 @@
       <c r="BE130" s="8"/>
       <c r="BF130" s="5"/>
     </row>
-    <row r="131" spans="2:58" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B131" s="4" t="s">
-        <v>243</v>
+        <v>159</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>235</v>
+        <v>151</v>
       </c>
       <c r="D131" s="5">
         <v>0</v>
       </c>
-      <c r="E131" s="5"/>
+      <c r="E131" s="13"/>
       <c r="F131" s="5"/>
       <c r="G131" s="5"/>
       <c r="H131" s="5"/>
@@ -10161,17 +9968,17 @@
       <c r="BE131" s="8"/>
       <c r="BF131" s="5"/>
     </row>
-    <row r="132" spans="2:58" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B132" s="4" t="s">
-        <v>244</v>
+        <v>160</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>236</v>
+        <v>152</v>
       </c>
       <c r="D132" s="5">
         <v>1</v>
       </c>
-      <c r="E132" s="5"/>
+      <c r="E132" s="13"/>
       <c r="F132" s="5"/>
       <c r="G132" s="5"/>
       <c r="H132" s="5"/>
@@ -10230,17 +10037,17 @@
       <c r="BE132" s="8"/>
       <c r="BF132" s="5"/>
     </row>
-    <row r="133" spans="2:58" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B133" s="4" t="s">
-        <v>245</v>
+        <v>161</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>236</v>
+        <v>152</v>
       </c>
       <c r="D133" s="5">
         <v>0</v>
       </c>
-      <c r="E133" s="5"/>
+      <c r="E133" s="13"/>
       <c r="F133" s="5"/>
       <c r="G133" s="5"/>
       <c r="H133" s="5"/>
@@ -10299,17 +10106,17 @@
       <c r="BE133" s="8"/>
       <c r="BF133" s="5"/>
     </row>
-    <row r="134" spans="2:58" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B134" s="4" t="s">
-        <v>246</v>
+        <v>162</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>236</v>
+        <v>152</v>
       </c>
       <c r="D134" s="5">
         <v>0</v>
       </c>
-      <c r="E134" s="5"/>
+      <c r="E134" s="13"/>
       <c r="F134" s="5"/>
       <c r="G134" s="5"/>
       <c r="H134" s="5"/>
@@ -10368,17 +10175,17 @@
       <c r="BE134" s="8"/>
       <c r="BF134" s="5"/>
     </row>
-    <row r="135" spans="2:58" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B135" s="4" t="s">
-        <v>247</v>
+        <v>163</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>237</v>
+        <v>153</v>
       </c>
       <c r="D135" s="5">
         <v>1</v>
       </c>
-      <c r="E135" s="5"/>
+      <c r="E135" s="13"/>
       <c r="F135" s="5"/>
       <c r="G135" s="5"/>
       <c r="H135" s="5"/>
@@ -10435,17 +10242,17 @@
       <c r="BE135" s="8"/>
       <c r="BF135" s="5"/>
     </row>
-    <row r="136" spans="2:58" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B136" s="4" t="s">
-        <v>248</v>
+        <v>164</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>237</v>
+        <v>153</v>
       </c>
       <c r="D136" s="5">
         <v>1</v>
       </c>
-      <c r="E136" s="5"/>
+      <c r="E136" s="13"/>
       <c r="F136" s="5"/>
       <c r="G136" s="5"/>
       <c r="H136" s="5"/>
@@ -10502,17 +10309,17 @@
       <c r="BE136" s="8"/>
       <c r="BF136" s="5"/>
     </row>
-    <row r="137" spans="2:58" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B137" s="4" t="s">
-        <v>249</v>
+        <v>165</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>237</v>
+        <v>153</v>
       </c>
       <c r="D137" s="5">
         <v>0</v>
       </c>
-      <c r="E137" s="5"/>
+      <c r="E137" s="13"/>
       <c r="F137" s="5"/>
       <c r="G137" s="5"/>
       <c r="H137" s="5"/>
@@ -10569,17 +10376,17 @@
       <c r="BE137" s="8"/>
       <c r="BF137" s="5"/>
     </row>
-    <row r="138" spans="2:58" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B138" s="4" t="s">
-        <v>250</v>
+        <v>166</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>238</v>
+        <v>154</v>
       </c>
       <c r="D138" s="5">
         <v>1</v>
       </c>
-      <c r="E138" s="5"/>
+      <c r="E138" s="13"/>
       <c r="F138" s="5"/>
       <c r="G138" s="5"/>
       <c r="H138" s="5"/>
@@ -10636,17 +10443,17 @@
       <c r="BE138" s="8"/>
       <c r="BF138" s="5"/>
     </row>
-    <row r="139" spans="2:58" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B139" s="4" t="s">
-        <v>251</v>
+        <v>167</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>238</v>
+        <v>154</v>
       </c>
       <c r="D139" s="5">
         <v>0</v>
       </c>
-      <c r="E139" s="5"/>
+      <c r="E139" s="13"/>
       <c r="F139" s="5"/>
       <c r="G139" s="5"/>
       <c r="H139" s="5"/>
@@ -10703,17 +10510,17 @@
       <c r="BE139" s="8"/>
       <c r="BF139" s="5"/>
     </row>
-    <row r="140" spans="2:58" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B140" s="4" t="s">
-        <v>254</v>
+        <v>170</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>252</v>
+        <v>168</v>
       </c>
       <c r="D140" s="5">
         <v>1</v>
       </c>
-      <c r="E140" s="5"/>
+      <c r="E140" s="13"/>
       <c r="F140" s="5"/>
       <c r="G140" s="5"/>
       <c r="H140" s="5"/>
@@ -10770,17 +10577,17 @@
       <c r="BE140" s="8"/>
       <c r="BF140" s="5"/>
     </row>
-    <row r="141" spans="2:58" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B141" s="4" t="s">
-        <v>255</v>
+        <v>171</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>252</v>
+        <v>168</v>
       </c>
       <c r="D141" s="5">
         <v>0</v>
       </c>
-      <c r="E141" s="5"/>
+      <c r="E141" s="13"/>
       <c r="F141" s="5"/>
       <c r="G141" s="5"/>
       <c r="H141" s="5"/>
@@ -10837,17 +10644,17 @@
       <c r="BE141" s="8"/>
       <c r="BF141" s="5"/>
     </row>
-    <row r="142" spans="2:58" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B142" s="4" t="s">
-        <v>256</v>
+        <v>172</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>253</v>
+        <v>169</v>
       </c>
       <c r="D142" s="5">
         <v>1</v>
       </c>
-      <c r="E142" s="5"/>
+      <c r="E142" s="13"/>
       <c r="F142" s="5"/>
       <c r="G142" s="5"/>
       <c r="H142" s="5"/>
@@ -10904,17 +10711,17 @@
       <c r="BE142" s="8"/>
       <c r="BF142" s="5"/>
     </row>
-    <row r="143" spans="2:58" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B143" s="4" t="s">
-        <v>257</v>
+        <v>173</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>253</v>
+        <v>169</v>
       </c>
       <c r="D143" s="5">
         <v>1</v>
       </c>
-      <c r="E143" s="5"/>
+      <c r="E143" s="13"/>
       <c r="F143" s="5"/>
       <c r="G143" s="5"/>
       <c r="H143" s="5"/>
@@ -10971,17 +10778,17 @@
       <c r="BE143" s="8"/>
       <c r="BF143" s="5"/>
     </row>
-    <row r="144" spans="2:58" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B144" s="4" t="s">
-        <v>258</v>
+        <v>174</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>253</v>
+        <v>169</v>
       </c>
       <c r="D144" s="5">
         <v>0</v>
       </c>
-      <c r="E144" s="5"/>
+      <c r="E144" s="13"/>
       <c r="F144" s="5"/>
       <c r="G144" s="5"/>
       <c r="H144" s="5"/>
@@ -11038,17 +10845,17 @@
       <c r="BE144" s="8"/>
       <c r="BF144" s="5"/>
     </row>
-    <row r="145" spans="2:58" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B145" s="4" t="s">
-        <v>259</v>
+        <v>175</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>253</v>
+        <v>169</v>
       </c>
       <c r="D145" s="5">
         <v>0</v>
       </c>
-      <c r="E145" s="5"/>
+      <c r="E145" s="13"/>
       <c r="F145" s="5"/>
       <c r="G145" s="5"/>
       <c r="H145" s="5"/>
@@ -11105,17 +10912,17 @@
       <c r="BE145" s="8"/>
       <c r="BF145" s="5"/>
     </row>
-    <row r="146" spans="2:58" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B146" s="4" t="s">
-        <v>261</v>
+        <v>177</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>260</v>
+        <v>176</v>
       </c>
       <c r="D146" s="5">
         <v>1</v>
       </c>
-      <c r="E146" s="5"/>
+      <c r="E146" s="13"/>
       <c r="F146" s="5"/>
       <c r="G146" s="5"/>
       <c r="H146" s="5"/>
@@ -11172,17 +10979,17 @@
       <c r="BE146" s="8"/>
       <c r="BF146" s="5"/>
     </row>
-    <row r="147" spans="2:58" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B147" s="4" t="s">
-        <v>262</v>
+        <v>178</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>260</v>
+        <v>176</v>
       </c>
       <c r="D147" s="5">
         <v>0</v>
       </c>
-      <c r="E147" s="5"/>
+      <c r="E147" s="13"/>
       <c r="F147" s="5"/>
       <c r="G147" s="5"/>
       <c r="H147" s="5"/>
@@ -11239,17 +11046,17 @@
       <c r="BE147" s="8"/>
       <c r="BF147" s="5"/>
     </row>
-    <row r="148" spans="2:58" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B148" s="4" t="s">
-        <v>265</v>
+        <v>181</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>263</v>
+        <v>179</v>
       </c>
       <c r="D148" s="5">
         <v>1</v>
       </c>
-      <c r="E148" s="5"/>
+      <c r="E148" s="13"/>
       <c r="F148" s="5"/>
       <c r="G148" s="5"/>
       <c r="H148" s="5"/>
@@ -11308,17 +11115,17 @@
       </c>
       <c r="BF148" s="5"/>
     </row>
-    <row r="149" spans="2:58" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B149" s="4" t="s">
-        <v>266</v>
+        <v>182</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>263</v>
+        <v>179</v>
       </c>
       <c r="D149" s="5">
         <v>1</v>
       </c>
-      <c r="E149" s="5"/>
+      <c r="E149" s="13"/>
       <c r="F149" s="5"/>
       <c r="G149" s="5"/>
       <c r="H149" s="5"/>
@@ -11377,17 +11184,17 @@
       </c>
       <c r="BF149" s="5"/>
     </row>
-    <row r="150" spans="2:58" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B150" s="4" t="s">
-        <v>267</v>
+        <v>183</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>263</v>
+        <v>179</v>
       </c>
       <c r="D150" s="5">
         <v>0</v>
       </c>
-      <c r="E150" s="5"/>
+      <c r="E150" s="13"/>
       <c r="F150" s="5"/>
       <c r="G150" s="5"/>
       <c r="H150" s="5"/>
@@ -11446,17 +11253,17 @@
       </c>
       <c r="BF150" s="5"/>
     </row>
-    <row r="151" spans="2:58" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B151" s="4" t="s">
-        <v>268</v>
+        <v>184</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>263</v>
+        <v>179</v>
       </c>
       <c r="D151" s="5">
         <v>0</v>
       </c>
-      <c r="E151" s="5"/>
+      <c r="E151" s="13"/>
       <c r="F151" s="5"/>
       <c r="G151" s="5"/>
       <c r="H151" s="5"/>
@@ -11515,17 +11322,17 @@
       </c>
       <c r="BF151" s="5"/>
     </row>
-    <row r="152" spans="2:58" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B152" s="4" t="s">
-        <v>269</v>
+        <v>185</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>263</v>
+        <v>179</v>
       </c>
       <c r="D152" s="5">
         <v>0</v>
       </c>
-      <c r="E152" s="5"/>
+      <c r="E152" s="13"/>
       <c r="F152" s="5"/>
       <c r="G152" s="5"/>
       <c r="H152" s="5"/>
@@ -11584,17 +11391,17 @@
       </c>
       <c r="BF152" s="5"/>
     </row>
-    <row r="153" spans="2:58" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B153" s="4" t="s">
-        <v>270</v>
+        <v>186</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>264</v>
+        <v>180</v>
       </c>
       <c r="D153" s="5">
         <v>1</v>
       </c>
-      <c r="E153" s="5"/>
+      <c r="E153" s="13"/>
       <c r="F153" s="5"/>
       <c r="G153" s="5"/>
       <c r="H153" s="5"/>
@@ -11653,17 +11460,17 @@
       </c>
       <c r="BF153" s="5"/>
     </row>
-    <row r="154" spans="2:58" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B154" s="4" t="s">
-        <v>271</v>
+        <v>187</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>264</v>
+        <v>180</v>
       </c>
       <c r="D154" s="5">
         <v>1</v>
       </c>
-      <c r="E154" s="5"/>
+      <c r="E154" s="13"/>
       <c r="F154" s="5"/>
       <c r="G154" s="5"/>
       <c r="H154" s="5"/>
@@ -11722,17 +11529,17 @@
       </c>
       <c r="BF154" s="5"/>
     </row>
-    <row r="155" spans="2:58" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B155" s="4" t="s">
-        <v>272</v>
+        <v>188</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>264</v>
+        <v>180</v>
       </c>
       <c r="D155" s="5">
         <v>0</v>
       </c>
-      <c r="E155" s="5"/>
+      <c r="E155" s="13"/>
       <c r="F155" s="5"/>
       <c r="G155" s="5"/>
       <c r="H155" s="5"/>
@@ -11791,17 +11598,17 @@
       </c>
       <c r="BF155" s="5"/>
     </row>
-    <row r="156" spans="2:58" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B156" s="4" t="s">
-        <v>273</v>
+        <v>189</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>264</v>
+        <v>180</v>
       </c>
       <c r="D156" s="5">
         <v>0</v>
       </c>
-      <c r="E156" s="5"/>
+      <c r="E156" s="13"/>
       <c r="F156" s="5"/>
       <c r="G156" s="5"/>
       <c r="H156" s="5"/>
@@ -11860,17 +11667,17 @@
       </c>
       <c r="BF156" s="5"/>
     </row>
-    <row r="157" spans="2:58" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B157" s="4" t="s">
-        <v>275</v>
+        <v>191</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>274</v>
+        <v>190</v>
       </c>
       <c r="D157" s="5">
         <v>1</v>
       </c>
-      <c r="E157" s="5"/>
+      <c r="E157" s="13"/>
       <c r="F157" s="5"/>
       <c r="G157" s="5"/>
       <c r="H157" s="5"/>
@@ -11929,17 +11736,17 @@
       </c>
       <c r="BF157" s="5"/>
     </row>
-    <row r="158" spans="2:58" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B158" s="4" t="s">
-        <v>276</v>
+        <v>192</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>274</v>
+        <v>190</v>
       </c>
       <c r="D158" s="5">
         <v>0</v>
       </c>
-      <c r="E158" s="5"/>
+      <c r="E158" s="13"/>
       <c r="F158" s="5"/>
       <c r="G158" s="5"/>
       <c r="H158" s="5"/>
@@ -11998,17 +11805,17 @@
       </c>
       <c r="BF158" s="5"/>
     </row>
-    <row r="159" spans="2:58" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B159" s="4" t="s">
-        <v>277</v>
+        <v>193</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>274</v>
+        <v>190</v>
       </c>
       <c r="D159" s="5">
         <v>0</v>
       </c>
-      <c r="E159" s="5"/>
+      <c r="E159" s="13"/>
       <c r="F159" s="5"/>
       <c r="G159" s="5"/>
       <c r="H159" s="5"/>
@@ -12067,17 +11874,17 @@
       </c>
       <c r="BF159" s="5"/>
     </row>
-    <row r="160" spans="2:58" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B160" s="4" t="s">
-        <v>280</v>
+        <v>196</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>278</v>
+        <v>194</v>
       </c>
       <c r="D160" s="5">
         <v>1</v>
       </c>
-      <c r="E160" s="5"/>
+      <c r="E160" s="13"/>
       <c r="F160" s="5"/>
       <c r="G160" s="5"/>
       <c r="H160" s="5"/>
@@ -12134,17 +11941,17 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="161" spans="2:58" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B161" s="4" t="s">
-        <v>281</v>
+        <v>197</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>278</v>
+        <v>194</v>
       </c>
       <c r="D161" s="5">
         <v>0</v>
       </c>
-      <c r="E161" s="5"/>
+      <c r="E161" s="13"/>
       <c r="F161" s="5"/>
       <c r="G161" s="5"/>
       <c r="H161" s="5"/>
@@ -12201,17 +12008,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="2:58" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B162" s="4" t="s">
-        <v>282</v>
+        <v>198</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>279</v>
+        <v>195</v>
       </c>
       <c r="D162" s="5">
         <v>1</v>
       </c>
-      <c r="E162" s="5"/>
+      <c r="E162" s="13"/>
       <c r="F162" s="5"/>
       <c r="G162" s="5"/>
       <c r="H162" s="5"/>
@@ -12268,17 +12075,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="2:58" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B163" s="4" t="s">
-        <v>283</v>
+        <v>199</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>279</v>
+        <v>195</v>
       </c>
       <c r="D163" s="5">
         <v>0</v>
       </c>
-      <c r="E163" s="5"/>
+      <c r="E163" s="13"/>
       <c r="F163" s="5"/>
       <c r="G163" s="5"/>
       <c r="H163" s="5"/>

--- a/earlywarning-pom/Document/test/SME RETAIL/test_BR_SME_Retail.xlsx
+++ b/earlywarning-pom/Document/test/SME RETAIL/test_BR_SME_Retail.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="202">
   <si>
     <t>SNDG</t>
   </si>
@@ -429,15 +429,6 @@
     <t>0000000000000507'</t>
   </si>
   <si>
-    <t>0000000000000508'</t>
-  </si>
-  <si>
-    <t>0000000000000509'</t>
-  </si>
-  <si>
-    <t>0000000000000510'</t>
-  </si>
-  <si>
     <t>0000000000000511'</t>
   </si>
   <si>
@@ -448,9 +439,6 @@
   </si>
   <si>
     <t>0000000000000513'</t>
-  </si>
-  <si>
-    <t>0000000000000514'</t>
   </si>
   <si>
     <t>BR150</t>
@@ -1047,10 +1035,10 @@
   <dimension ref="B2:BF163"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="AW111" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="BA120" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C114" sqref="C114"/>
+      <selection pane="bottomRight" activeCell="BM127" sqref="BM127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1254,10 +1242,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
@@ -1323,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
@@ -1392,10 +1380,10 @@
         <v>0</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -8806,8 +8794,8 @@
       <c r="BF114" s="5"/>
     </row>
     <row r="115" spans="2:58" x14ac:dyDescent="0.25">
-      <c r="B115" s="4" t="s">
-        <v>136</v>
+      <c r="B115" s="4">
+        <v>17032891</v>
       </c>
       <c r="C115" s="5" t="s">
         <v>134</v>
@@ -8862,10 +8850,10 @@
       <c r="AW115" s="5"/>
       <c r="AX115" s="5"/>
       <c r="AY115" s="5">
-        <v>0.19</v>
+        <v>0.15329999999999999</v>
       </c>
       <c r="AZ115" s="5">
-        <v>31</v>
+        <v>343</v>
       </c>
       <c r="BA115" s="8"/>
       <c r="BB115" s="8"/>
@@ -8875,8 +8863,8 @@
       <c r="BF115" s="5"/>
     </row>
     <row r="116" spans="2:58" x14ac:dyDescent="0.25">
-      <c r="B116" s="4" t="s">
-        <v>137</v>
+      <c r="B116" s="4">
+        <v>87808970</v>
       </c>
       <c r="C116" s="5" t="s">
         <v>134</v>
@@ -8931,10 +8919,10 @@
       <c r="AW116" s="5"/>
       <c r="AX116" s="5"/>
       <c r="AY116" s="5">
-        <v>0.04</v>
+        <v>4.2700000000000002E-2</v>
       </c>
       <c r="AZ116" s="5">
-        <v>40</v>
+        <v>354</v>
       </c>
       <c r="BA116" s="8"/>
       <c r="BB116" s="8"/>
@@ -8944,8 +8932,8 @@
       <c r="BF116" s="5"/>
     </row>
     <row r="117" spans="2:58" x14ac:dyDescent="0.25">
-      <c r="B117" s="4" t="s">
-        <v>138</v>
+      <c r="B117" s="4">
+        <v>56027003</v>
       </c>
       <c r="C117" s="5" t="s">
         <v>134</v>
@@ -9000,10 +8988,10 @@
       <c r="AW117" s="5"/>
       <c r="AX117" s="5"/>
       <c r="AY117" s="5">
-        <v>0.25</v>
+        <v>0.3785</v>
       </c>
       <c r="AZ117" s="5">
-        <v>35</v>
+        <v>354</v>
       </c>
       <c r="BA117" s="8"/>
       <c r="BB117" s="8"/>
@@ -9014,7 +9002,7 @@
     </row>
     <row r="118" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B118" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C118" s="5" t="s">
         <v>134</v>
@@ -9083,10 +9071,10 @@
     </row>
     <row r="119" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B119" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D119" s="5">
         <v>1</v>
@@ -9152,10 +9140,10 @@
     </row>
     <row r="120" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B120" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D120" s="5">
         <v>0</v>
@@ -9220,11 +9208,11 @@
       <c r="BF120" s="5"/>
     </row>
     <row r="121" spans="2:58" x14ac:dyDescent="0.25">
-      <c r="B121" s="4" t="s">
-        <v>143</v>
+      <c r="B121" s="4">
+        <v>17032891</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D121" s="5">
         <v>0</v>
@@ -9276,10 +9264,10 @@
       <c r="AW121" s="5"/>
       <c r="AX121" s="5"/>
       <c r="AY121" s="5">
-        <v>0.15</v>
+        <v>0.15329999999999999</v>
       </c>
       <c r="AZ121" s="5">
-        <v>40</v>
+        <v>343</v>
       </c>
       <c r="BA121" s="8"/>
       <c r="BB121" s="8"/>
@@ -9290,10 +9278,10 @@
     </row>
     <row r="122" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B122" s="4" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D122" s="5">
         <v>1</v>
@@ -9357,10 +9345,10 @@
     </row>
     <row r="123" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B123" s="4" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D123" s="5">
         <v>1</v>
@@ -9424,10 +9412,10 @@
     </row>
     <row r="124" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B124" s="4" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D124" s="5">
         <v>0</v>
@@ -9491,10 +9479,10 @@
     </row>
     <row r="125" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B125" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D125" s="5">
         <v>1</v>
@@ -9558,10 +9546,10 @@
     </row>
     <row r="126" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B126" s="4" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D126" s="5">
         <v>0</v>
@@ -9625,10 +9613,10 @@
     </row>
     <row r="127" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B127" s="4" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D127" s="5">
         <v>1</v>
@@ -9694,10 +9682,10 @@
     </row>
     <row r="128" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B128" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D128" s="5">
         <v>1</v>
@@ -9763,10 +9751,10 @@
     </row>
     <row r="129" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B129" s="4" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D129" s="5">
         <v>0</v>
@@ -9832,10 +9820,10 @@
     </row>
     <row r="130" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B130" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D130" s="5">
         <v>0</v>
@@ -9901,10 +9889,10 @@
     </row>
     <row r="131" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B131" s="4" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D131" s="5">
         <v>0</v>
@@ -9970,10 +9958,10 @@
     </row>
     <row r="132" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B132" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D132" s="5">
         <v>1</v>
@@ -10039,10 +10027,10 @@
     </row>
     <row r="133" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B133" s="4" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D133" s="5">
         <v>0</v>
@@ -10108,10 +10096,10 @@
     </row>
     <row r="134" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B134" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D134" s="5">
         <v>0</v>
@@ -10177,10 +10165,10 @@
     </row>
     <row r="135" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B135" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D135" s="5">
         <v>1</v>
@@ -10244,10 +10232,10 @@
     </row>
     <row r="136" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B136" s="4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D136" s="5">
         <v>1</v>
@@ -10311,10 +10299,10 @@
     </row>
     <row r="137" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B137" s="4" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D137" s="5">
         <v>0</v>
@@ -10378,10 +10366,10 @@
     </row>
     <row r="138" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B138" s="4" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D138" s="5">
         <v>1</v>
@@ -10445,10 +10433,10 @@
     </row>
     <row r="139" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B139" s="4" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D139" s="5">
         <v>0</v>
@@ -10512,10 +10500,10 @@
     </row>
     <row r="140" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B140" s="4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D140" s="5">
         <v>1</v>
@@ -10579,10 +10567,10 @@
     </row>
     <row r="141" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B141" s="4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D141" s="5">
         <v>0</v>
@@ -10646,10 +10634,10 @@
     </row>
     <row r="142" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B142" s="4" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D142" s="5">
         <v>1</v>
@@ -10713,10 +10701,10 @@
     </row>
     <row r="143" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B143" s="4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D143" s="5">
         <v>1</v>
@@ -10780,10 +10768,10 @@
     </row>
     <row r="144" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B144" s="4" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D144" s="5">
         <v>0</v>
@@ -10847,10 +10835,10 @@
     </row>
     <row r="145" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B145" s="4" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D145" s="5">
         <v>0</v>
@@ -10914,10 +10902,10 @@
     </row>
     <row r="146" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B146" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D146" s="5">
         <v>1</v>
@@ -10981,10 +10969,10 @@
     </row>
     <row r="147" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B147" s="4" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D147" s="5">
         <v>0</v>
@@ -11048,10 +11036,10 @@
     </row>
     <row r="148" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B148" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D148" s="5">
         <v>1</v>
@@ -11117,10 +11105,10 @@
     </row>
     <row r="149" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B149" s="4" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D149" s="5">
         <v>1</v>
@@ -11186,10 +11174,10 @@
     </row>
     <row r="150" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B150" s="4" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D150" s="5">
         <v>0</v>
@@ -11255,10 +11243,10 @@
     </row>
     <row r="151" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B151" s="4" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D151" s="5">
         <v>0</v>
@@ -11324,10 +11312,10 @@
     </row>
     <row r="152" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B152" s="4" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D152" s="5">
         <v>0</v>
@@ -11393,10 +11381,10 @@
     </row>
     <row r="153" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B153" s="4" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D153" s="5">
         <v>1</v>
@@ -11462,10 +11450,10 @@
     </row>
     <row r="154" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B154" s="4" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D154" s="5">
         <v>1</v>
@@ -11531,10 +11519,10 @@
     </row>
     <row r="155" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B155" s="4" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D155" s="5">
         <v>0</v>
@@ -11600,10 +11588,10 @@
     </row>
     <row r="156" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B156" s="4" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D156" s="5">
         <v>0</v>
@@ -11669,10 +11657,10 @@
     </row>
     <row r="157" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B157" s="4" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D157" s="5">
         <v>1</v>
@@ -11738,10 +11726,10 @@
     </row>
     <row r="158" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B158" s="4" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D158" s="5">
         <v>0</v>
@@ -11807,10 +11795,10 @@
     </row>
     <row r="159" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B159" s="4" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D159" s="5">
         <v>0</v>
@@ -11876,10 +11864,10 @@
     </row>
     <row r="160" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B160" s="4" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D160" s="5">
         <v>1</v>
@@ -11943,10 +11931,10 @@
     </row>
     <row r="161" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B161" s="4" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D161" s="5">
         <v>0</v>
@@ -12010,10 +11998,10 @@
     </row>
     <row r="162" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B162" s="4" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D162" s="5">
         <v>1</v>
@@ -12077,10 +12065,10 @@
     </row>
     <row r="163" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B163" s="4" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D163" s="5">
         <v>0</v>

--- a/earlywarning-pom/Document/test/SME RETAIL/test_BR_SME_Retail.xlsx
+++ b/earlywarning-pom/Document/test/SME RETAIL/test_BR_SME_Retail.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="LOGICA BR" sheetId="1" r:id="rId1"/>
+    <sheet name="MODULI" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="201">
   <si>
     <t>SNDG</t>
   </si>
@@ -565,6 +566,66 @@
   <si>
     <t>note</t>
   </si>
+  <si>
+    <t>MODULO</t>
+  </si>
+  <si>
+    <t>High Priority</t>
+  </si>
+  <si>
+    <t>S50</t>
+  </si>
+  <si>
+    <t>S20</t>
+  </si>
+  <si>
+    <t>Qualitativo</t>
+  </si>
+  <si>
+    <t>S01</t>
+  </si>
+  <si>
+    <t>SEMAFORO_SEGNALI_GRAVI_RISK</t>
+  </si>
+  <si>
+    <t>SEMAFORO_RATE_IMPAGATE</t>
+  </si>
+  <si>
+    <t>SEMAFORO_SCONFINO_CC</t>
+  </si>
+  <si>
+    <t>SEMAFORO_FORBORNE</t>
+  </si>
+  <si>
+    <t>SEMAFORO_NOPG</t>
+  </si>
+  <si>
+    <t>S10</t>
+  </si>
+  <si>
+    <t>VALORE</t>
+  </si>
+  <si>
+    <t>ESITO</t>
+  </si>
+  <si>
+    <t>Covenant</t>
+  </si>
+  <si>
+    <t>Carta Commerciale</t>
+  </si>
+  <si>
+    <t>Preammortamenti</t>
+  </si>
+  <si>
+    <t>SEMAFORO_GARAttEsitoNeg</t>
+  </si>
+  <si>
+    <t>SEMAFORO_GaranzieSoggSoff</t>
+  </si>
+  <si>
+    <t>SEMAFORO_SocioSocietaSoff</t>
+  </si>
 </sst>
 </file>
 
@@ -594,7 +655,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -643,6 +704,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -671,7 +738,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -744,9 +811,19 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1026,32 +1103,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:BE161"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="M36" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="4" ySplit="2" topLeftCell="E111" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="T1" sqref="T1:T1048576"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2:C161"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="15.7109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" style="13" customWidth="1"/>
-    <col min="6" max="17" width="15.7109375" style="3" customWidth="1"/>
-    <col min="18" max="25" width="14.7109375" customWidth="1"/>
-    <col min="26" max="34" width="8.85546875" customWidth="1"/>
-    <col min="35" max="35" width="8.85546875" style="3" customWidth="1"/>
-    <col min="36" max="38" width="8.85546875" customWidth="1"/>
-    <col min="39" max="39" width="13.5703125" customWidth="1"/>
-    <col min="40" max="50" width="8.85546875" style="3"/>
-    <col min="51" max="51" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="8.85546875" style="3"/>
-    <col min="57" max="57" width="8.85546875" style="3"/>
+    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="15.6640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" style="13" customWidth="1"/>
+    <col min="6" max="17" width="15.6640625" style="3" customWidth="1"/>
+    <col min="18" max="25" width="14.6640625" customWidth="1"/>
+    <col min="26" max="34" width="8.88671875" customWidth="1"/>
+    <col min="35" max="35" width="8.88671875" style="3" customWidth="1"/>
+    <col min="36" max="38" width="8.88671875" customWidth="1"/>
+    <col min="39" max="39" width="13.5546875" customWidth="1"/>
+    <col min="40" max="50" width="8.88671875" style="3"/>
+    <col min="51" max="51" width="9.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="8.88671875" style="3"/>
+    <col min="57" max="57" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
         <v>180</v>
       </c>
@@ -1224,7 +1301,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B3" s="4">
         <v>43402427</v>
       </c>
@@ -1292,7 +1369,7 @@
       <c r="BD3" s="8"/>
       <c r="BE3" s="5"/>
     </row>
-    <row r="4" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B4" s="5">
         <v>27076016</v>
       </c>
@@ -1360,7 +1437,7 @@
       <c r="BD4" s="8"/>
       <c r="BE4" s="5"/>
     </row>
-    <row r="5" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B5" s="4">
         <v>72859647</v>
       </c>
@@ -1428,7 +1505,7 @@
       <c r="BD5" s="8"/>
       <c r="BE5" s="5"/>
     </row>
-    <row r="6" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B6" s="4">
         <v>27076016</v>
       </c>
@@ -1494,7 +1571,7 @@
       <c r="BD6" s="8"/>
       <c r="BE6" s="5"/>
     </row>
-    <row r="7" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B7" s="4">
         <v>9247213</v>
       </c>
@@ -1560,7 +1637,7 @@
       <c r="BD7" s="8"/>
       <c r="BE7" s="5"/>
     </row>
-    <row r="8" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B8" s="4">
         <v>79455104</v>
       </c>
@@ -1626,7 +1703,7 @@
       <c r="BD8" s="8"/>
       <c r="BE8" s="5"/>
     </row>
-    <row r="9" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B9" s="4">
         <v>17905351</v>
       </c>
@@ -1692,7 +1769,7 @@
       <c r="BD9" s="8"/>
       <c r="BE9" s="5"/>
     </row>
-    <row r="10" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B10" s="4">
         <v>16742755</v>
       </c>
@@ -1758,7 +1835,7 @@
       <c r="BD10" s="8"/>
       <c r="BE10" s="5"/>
     </row>
-    <row r="11" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B11" s="4">
         <v>17708009</v>
       </c>
@@ -1824,7 +1901,7 @@
       <c r="BD11" s="8"/>
       <c r="BE11" s="5"/>
     </row>
-    <row r="12" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B12" s="4">
         <v>16166624</v>
       </c>
@@ -1890,7 +1967,7 @@
       <c r="BD12" s="8"/>
       <c r="BE12" s="5"/>
     </row>
-    <row r="13" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B13" s="4">
         <v>16742755</v>
       </c>
@@ -1956,7 +2033,7 @@
       <c r="BD13" s="8"/>
       <c r="BE13" s="5"/>
     </row>
-    <row r="14" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B14" s="4">
         <v>17882250</v>
       </c>
@@ -2022,7 +2099,7 @@
       <c r="BD14" s="8"/>
       <c r="BE14" s="5"/>
     </row>
-    <row r="15" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>179</v>
       </c>
@@ -2091,7 +2168,7 @@
       <c r="BD15" s="8"/>
       <c r="BE15" s="5"/>
     </row>
-    <row r="16" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B16" s="4">
         <v>17933789</v>
       </c>
@@ -2157,7 +2234,7 @@
       <c r="BD16" s="8"/>
       <c r="BE16" s="5"/>
     </row>
-    <row r="17" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B17" s="4">
         <v>13576608</v>
       </c>
@@ -2223,7 +2300,7 @@
       <c r="BD17" s="8"/>
       <c r="BE17" s="5"/>
     </row>
-    <row r="18" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B18" s="4">
         <v>27076016</v>
       </c>
@@ -2289,7 +2366,7 @@
       <c r="BD18" s="8"/>
       <c r="BE18" s="5"/>
     </row>
-    <row r="19" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B19" s="4">
         <v>8868787</v>
       </c>
@@ -2355,7 +2432,7 @@
       <c r="BD19" s="8"/>
       <c r="BE19" s="5"/>
     </row>
-    <row r="20" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B20" s="4">
         <v>27076016</v>
       </c>
@@ -2421,7 +2498,7 @@
       <c r="BD20" s="8"/>
       <c r="BE20" s="5"/>
     </row>
-    <row r="21" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B21" s="4">
         <v>73149868</v>
       </c>
@@ -2487,7 +2564,7 @@
       <c r="BD21" s="8"/>
       <c r="BE21" s="5"/>
     </row>
-    <row r="22" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B22" s="4">
         <v>46682955</v>
       </c>
@@ -2553,7 +2630,7 @@
       <c r="BD22" s="8"/>
       <c r="BE22" s="5"/>
     </row>
-    <row r="23" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B23" s="4">
         <v>13259874</v>
       </c>
@@ -2619,7 +2696,7 @@
       <c r="BD23" s="8"/>
       <c r="BE23" s="5"/>
     </row>
-    <row r="24" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B24" s="4">
         <v>82354169</v>
       </c>
@@ -2685,7 +2762,7 @@
       <c r="BD24" s="8"/>
       <c r="BE24" s="5"/>
     </row>
-    <row r="25" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B25" s="4">
         <v>27076016</v>
       </c>
@@ -2751,7 +2828,7 @@
       <c r="BD25" s="8"/>
       <c r="BE25" s="5"/>
     </row>
-    <row r="26" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B26" s="4">
         <v>17826108</v>
       </c>
@@ -2817,7 +2894,7 @@
       <c r="BD26" s="8"/>
       <c r="BE26" s="5"/>
     </row>
-    <row r="27" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B27" s="4">
         <v>13558883</v>
       </c>
@@ -2883,7 +2960,7 @@
       <c r="BD27" s="8"/>
       <c r="BE27" s="5"/>
     </row>
-    <row r="28" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B28" s="4">
         <v>39477515</v>
       </c>
@@ -2949,7 +3026,7 @@
       <c r="BD28" s="8"/>
       <c r="BE28" s="5"/>
     </row>
-    <row r="29" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>178</v>
       </c>
@@ -3018,7 +3095,7 @@
       <c r="BD29" s="8"/>
       <c r="BE29" s="5"/>
     </row>
-    <row r="30" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B30" s="4">
         <v>6585550</v>
       </c>
@@ -3084,7 +3161,7 @@
       <c r="BD30" s="8"/>
       <c r="BE30" s="5"/>
     </row>
-    <row r="31" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>178</v>
       </c>
@@ -3153,7 +3230,7 @@
       <c r="BD31" s="8"/>
       <c r="BE31" s="5"/>
     </row>
-    <row r="32" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B32" s="4">
         <v>6585550</v>
       </c>
@@ -3219,7 +3296,7 @@
       <c r="BD32" s="8"/>
       <c r="BE32" s="5"/>
     </row>
-    <row r="33" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B33" s="4">
         <v>39477515</v>
       </c>
@@ -3285,7 +3362,7 @@
       <c r="BD33" s="8"/>
       <c r="BE33" s="5"/>
     </row>
-    <row r="34" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>178</v>
       </c>
@@ -3354,7 +3431,7 @@
       <c r="BD34" s="8"/>
       <c r="BE34" s="5"/>
     </row>
-    <row r="35" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B35" s="4">
         <v>27076016</v>
       </c>
@@ -3420,7 +3497,7 @@
       <c r="BD35" s="8"/>
       <c r="BE35" s="5"/>
     </row>
-    <row r="36" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B36" s="4">
         <v>17941166</v>
       </c>
@@ -3486,7 +3563,7 @@
       <c r="BD36" s="8"/>
       <c r="BE36" s="5"/>
     </row>
-    <row r="37" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B37" s="4">
         <v>9247213</v>
       </c>
@@ -3552,7 +3629,7 @@
       <c r="BD37" s="8"/>
       <c r="BE37" s="5"/>
     </row>
-    <row r="38" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B38" s="4">
         <v>86509813</v>
       </c>
@@ -3618,7 +3695,7 @@
       <c r="BD38" s="8"/>
       <c r="BE38" s="5"/>
     </row>
-    <row r="39" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B39" s="4">
         <v>42647456</v>
       </c>
@@ -3684,7 +3761,7 @@
       <c r="BD39" s="8"/>
       <c r="BE39" s="5"/>
     </row>
-    <row r="40" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B40" s="4">
         <v>46493451</v>
       </c>
@@ -3750,7 +3827,7 @@
       <c r="BD40" s="8"/>
       <c r="BE40" s="5"/>
     </row>
-    <row r="41" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B41" s="4">
         <v>42647456</v>
       </c>
@@ -3816,7 +3893,7 @@
       <c r="BD41" s="8"/>
       <c r="BE41" s="5"/>
     </row>
-    <row r="42" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B42" s="4">
         <v>46493451</v>
       </c>
@@ -3882,7 +3959,7 @@
       <c r="BD42" s="8"/>
       <c r="BE42" s="5"/>
     </row>
-    <row r="43" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B43" s="4">
         <v>17361214</v>
       </c>
@@ -3948,7 +4025,7 @@
       <c r="BD43" s="8"/>
       <c r="BE43" s="5"/>
     </row>
-    <row r="44" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B44" s="14">
         <v>17392845</v>
       </c>
@@ -4014,7 +4091,7 @@
       <c r="BD44" s="8"/>
       <c r="BE44" s="5"/>
     </row>
-    <row r="45" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B45" s="4">
         <v>15987615</v>
       </c>
@@ -4080,7 +4157,7 @@
       <c r="BD45" s="8"/>
       <c r="BE45" s="5"/>
     </row>
-    <row r="46" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B46" s="4">
         <v>17872411</v>
       </c>
@@ -4146,7 +4223,7 @@
       <c r="BD46" s="8"/>
       <c r="BE46" s="5"/>
     </row>
-    <row r="47" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B47" s="4">
         <v>16742755</v>
       </c>
@@ -4212,7 +4289,7 @@
       <c r="BD47" s="8"/>
       <c r="BE47" s="5"/>
     </row>
-    <row r="48" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B48" s="4">
         <v>46493451</v>
       </c>
@@ -4278,7 +4355,7 @@
       <c r="BD48" s="8"/>
       <c r="BE48" s="5"/>
     </row>
-    <row r="49" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B49" s="4">
         <v>24615700</v>
       </c>
@@ -4344,7 +4421,7 @@
       <c r="BD49" s="8"/>
       <c r="BE49" s="5"/>
     </row>
-    <row r="50" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B50" s="4">
         <v>56200741</v>
       </c>
@@ -4410,7 +4487,7 @@
       <c r="BD50" s="8"/>
       <c r="BE50" s="5"/>
     </row>
-    <row r="51" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B51" s="4">
         <v>16742755</v>
       </c>
@@ -4476,7 +4553,7 @@
       <c r="BD51" s="8"/>
       <c r="BE51" s="5"/>
     </row>
-    <row r="52" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>178</v>
       </c>
@@ -4545,7 +4622,7 @@
       <c r="BD52" s="8"/>
       <c r="BE52" s="5"/>
     </row>
-    <row r="53" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B53" s="4">
         <v>26156831</v>
       </c>
@@ -4611,7 +4688,7 @@
       <c r="BD53" s="8"/>
       <c r="BE53" s="5"/>
     </row>
-    <row r="54" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B54" s="4">
         <v>56200741</v>
       </c>
@@ -4677,7 +4754,7 @@
       <c r="BD54" s="8"/>
       <c r="BE54" s="5"/>
     </row>
-    <row r="55" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B55" s="4">
         <v>83505223</v>
       </c>
@@ -4743,7 +4820,7 @@
       <c r="BD55" s="8"/>
       <c r="BE55" s="5"/>
     </row>
-    <row r="56" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B56" s="4">
         <v>69380267</v>
       </c>
@@ -4809,7 +4886,7 @@
       <c r="BD56" s="8"/>
       <c r="BE56" s="5"/>
     </row>
-    <row r="57" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B57" s="4">
         <v>24615700</v>
       </c>
@@ -4875,7 +4952,7 @@
       <c r="BD57" s="8"/>
       <c r="BE57" s="5"/>
     </row>
-    <row r="58" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>178</v>
       </c>
@@ -4944,7 +5021,7 @@
       <c r="BD58" s="8"/>
       <c r="BE58" s="5"/>
     </row>
-    <row r="59" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>178</v>
       </c>
@@ -5013,7 +5090,7 @@
       <c r="BD59" s="8"/>
       <c r="BE59" s="5"/>
     </row>
-    <row r="60" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>178</v>
       </c>
@@ -5082,7 +5159,7 @@
       <c r="BD60" s="8"/>
       <c r="BE60" s="5"/>
     </row>
-    <row r="61" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>178</v>
       </c>
@@ -5151,7 +5228,7 @@
       <c r="BD61" s="8"/>
       <c r="BE61" s="5"/>
     </row>
-    <row r="62" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B62" s="4">
         <v>17260961</v>
       </c>
@@ -5217,7 +5294,7 @@
       <c r="BD62" s="8"/>
       <c r="BE62" s="5"/>
     </row>
-    <row r="63" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B63" s="4">
         <v>17260961</v>
       </c>
@@ -5283,7 +5360,7 @@
       <c r="BD63" s="8"/>
       <c r="BE63" s="5"/>
     </row>
-    <row r="64" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>178</v>
       </c>
@@ -5352,7 +5429,7 @@
       <c r="BD64" s="8"/>
       <c r="BE64" s="5"/>
     </row>
-    <row r="65" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>178</v>
       </c>
@@ -5421,7 +5498,7 @@
       <c r="BD65" s="8"/>
       <c r="BE65" s="5"/>
     </row>
-    <row r="66" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B66" s="4">
         <v>83505223</v>
       </c>
@@ -5487,7 +5564,7 @@
       <c r="BD66" s="8"/>
       <c r="BE66" s="5"/>
     </row>
-    <row r="67" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>179</v>
       </c>
@@ -5556,7 +5633,7 @@
       <c r="BD67" s="8"/>
       <c r="BE67" s="5"/>
     </row>
-    <row r="68" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B68" s="4">
         <v>42647456</v>
       </c>
@@ -5622,7 +5699,7 @@
       <c r="BD68" s="8"/>
       <c r="BE68" s="5"/>
     </row>
-    <row r="69" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B69" s="4">
         <v>86509813</v>
       </c>
@@ -5688,7 +5765,7 @@
       <c r="BD69" s="8"/>
       <c r="BE69" s="5"/>
     </row>
-    <row r="70" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B70" s="4">
         <v>42647456</v>
       </c>
@@ -5754,7 +5831,7 @@
       <c r="BD70" s="8"/>
       <c r="BE70" s="5"/>
     </row>
-    <row r="71" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B71" s="4">
         <v>24406627</v>
       </c>
@@ -5820,7 +5897,7 @@
       <c r="BD71" s="8"/>
       <c r="BE71" s="5"/>
     </row>
-    <row r="72" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B72" s="4">
         <v>42647456</v>
       </c>
@@ -5886,7 +5963,7 @@
       <c r="BD72" s="8"/>
       <c r="BE72" s="5"/>
     </row>
-    <row r="73" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>178</v>
       </c>
@@ -5955,7 +6032,7 @@
       <c r="BD73" s="8"/>
       <c r="BE73" s="5"/>
     </row>
-    <row r="74" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>178</v>
       </c>
@@ -6024,7 +6101,7 @@
       <c r="BD74" s="8"/>
       <c r="BE74" s="5"/>
     </row>
-    <row r="75" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B75" s="4">
         <v>16708822</v>
       </c>
@@ -6090,7 +6167,7 @@
       <c r="BD75" s="8"/>
       <c r="BE75" s="5"/>
     </row>
-    <row r="76" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>178</v>
       </c>
@@ -6159,7 +6236,7 @@
       <c r="BD76" s="8"/>
       <c r="BE76" s="5"/>
     </row>
-    <row r="77" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B77" s="4">
         <v>16708822</v>
       </c>
@@ -6225,7 +6302,7 @@
       <c r="BD77" s="8"/>
       <c r="BE77" s="5"/>
     </row>
-    <row r="78" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>178</v>
       </c>
@@ -6294,7 +6371,7 @@
       <c r="BD78" s="8"/>
       <c r="BE78" s="5"/>
     </row>
-    <row r="79" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>178</v>
       </c>
@@ -6363,7 +6440,7 @@
       <c r="BD79" s="8"/>
       <c r="BE79" s="5"/>
     </row>
-    <row r="80" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>178</v>
       </c>
@@ -6432,7 +6509,7 @@
       <c r="BD80" s="8"/>
       <c r="BE80" s="5"/>
     </row>
-    <row r="81" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B81" s="4">
         <v>8868787</v>
       </c>
@@ -6498,7 +6575,7 @@
       <c r="BD81" s="8"/>
       <c r="BE81" s="5"/>
     </row>
-    <row r="82" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B82" s="4">
         <v>17934256</v>
       </c>
@@ -6564,7 +6641,7 @@
       <c r="BD82" s="8"/>
       <c r="BE82" s="5"/>
     </row>
-    <row r="83" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B83" s="4">
         <v>8868787</v>
       </c>
@@ -6630,7 +6707,7 @@
       <c r="BD83" s="8"/>
       <c r="BE83" s="5"/>
     </row>
-    <row r="84" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>178</v>
       </c>
@@ -6699,7 +6776,7 @@
       <c r="BD84" s="8"/>
       <c r="BE84" s="5"/>
     </row>
-    <row r="85" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B85" s="4">
         <v>17934256</v>
       </c>
@@ -6765,7 +6842,7 @@
       <c r="BD85" s="8"/>
       <c r="BE85" s="5"/>
     </row>
-    <row r="86" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B86" s="4">
         <v>17934256</v>
       </c>
@@ -6831,7 +6908,7 @@
       <c r="BD86" s="8"/>
       <c r="BE86" s="5"/>
     </row>
-    <row r="87" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B87" s="4">
         <v>8868787</v>
       </c>
@@ -6897,7 +6974,7 @@
       <c r="BD87" s="8"/>
       <c r="BE87" s="5"/>
     </row>
-    <row r="88" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>178</v>
       </c>
@@ -6966,7 +7043,7 @@
       <c r="BD88" s="8"/>
       <c r="BE88" s="5"/>
     </row>
-    <row r="89" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B89" s="4">
         <v>66926387</v>
       </c>
@@ -7032,7 +7109,7 @@
       <c r="BD89" s="8"/>
       <c r="BE89" s="5"/>
     </row>
-    <row r="90" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B90" s="4">
         <v>83505223</v>
       </c>
@@ -7098,7 +7175,7 @@
       <c r="BD90" s="8"/>
       <c r="BE90" s="5"/>
     </row>
-    <row r="91" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B91" s="4">
         <v>17781207</v>
       </c>
@@ -7166,7 +7243,7 @@
       <c r="BD91" s="8"/>
       <c r="BE91" s="5"/>
     </row>
-    <row r="92" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B92" s="4">
         <v>37963129</v>
       </c>
@@ -7234,7 +7311,7 @@
       <c r="BD92" s="8"/>
       <c r="BE92" s="5"/>
     </row>
-    <row r="93" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>178</v>
       </c>
@@ -7303,7 +7380,7 @@
       <c r="BD93" s="8"/>
       <c r="BE93" s="5"/>
     </row>
-    <row r="94" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B94" s="4">
         <v>24615700</v>
       </c>
@@ -7369,7 +7446,7 @@
       <c r="BD94" s="8"/>
       <c r="BE94" s="5"/>
     </row>
-    <row r="95" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B95" s="4">
         <v>12273953</v>
       </c>
@@ -7441,7 +7518,7 @@
       <c r="BD95" s="8"/>
       <c r="BE95" s="5"/>
     </row>
-    <row r="96" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B96" s="4">
         <v>58943028</v>
       </c>
@@ -7513,7 +7590,7 @@
       <c r="BD96" s="8"/>
       <c r="BE96" s="5"/>
     </row>
-    <row r="97" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B97" s="4">
         <v>17033219</v>
       </c>
@@ -7585,7 +7662,7 @@
       <c r="BD97" s="8"/>
       <c r="BE97" s="5"/>
     </row>
-    <row r="98" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B98" s="4">
         <v>67354476</v>
       </c>
@@ -7653,7 +7730,7 @@
       <c r="BD98" s="8"/>
       <c r="BE98" s="5"/>
     </row>
-    <row r="99" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>178</v>
       </c>
@@ -7724,7 +7801,7 @@
       <c r="BD99" s="8"/>
       <c r="BE99" s="5"/>
     </row>
-    <row r="100" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>178</v>
       </c>
@@ -7795,7 +7872,7 @@
       <c r="BD100" s="8"/>
       <c r="BE100" s="5"/>
     </row>
-    <row r="101" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B101" s="4">
         <v>24596749</v>
       </c>
@@ -7863,7 +7940,7 @@
       <c r="BD101" s="8"/>
       <c r="BE101" s="5"/>
     </row>
-    <row r="102" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>178</v>
       </c>
@@ -7934,7 +8011,7 @@
       <c r="BD102" s="8"/>
       <c r="BE102" s="5"/>
     </row>
-    <row r="103" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B103" s="4">
         <v>68510291</v>
       </c>
@@ -8002,7 +8079,7 @@
       <c r="BD103" s="8"/>
       <c r="BE103" s="5"/>
     </row>
-    <row r="104" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B104" s="4">
         <v>27674154</v>
       </c>
@@ -8070,7 +8147,7 @@
       <c r="BD104" s="8"/>
       <c r="BE104" s="5"/>
     </row>
-    <row r="105" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>179</v>
       </c>
@@ -8141,7 +8218,7 @@
       <c r="BD105" s="8"/>
       <c r="BE105" s="5"/>
     </row>
-    <row r="106" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B106" s="4">
         <v>87809034</v>
       </c>
@@ -8209,7 +8286,7 @@
       <c r="BD106" s="8"/>
       <c r="BE106" s="5"/>
     </row>
-    <row r="107" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B107" s="4">
         <v>54451661</v>
       </c>
@@ -8277,7 +8354,7 @@
       <c r="BD107" s="8"/>
       <c r="BE107" s="5"/>
     </row>
-    <row r="108" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>179</v>
       </c>
@@ -8348,7 +8425,7 @@
       <c r="BD108" s="8"/>
       <c r="BE108" s="5"/>
     </row>
-    <row r="109" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B109" s="4">
         <v>54451661</v>
       </c>
@@ -8416,7 +8493,7 @@
       <c r="BD109" s="8"/>
       <c r="BE109" s="5"/>
     </row>
-    <row r="110" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B110" s="4">
         <v>27674154</v>
       </c>
@@ -8484,7 +8561,7 @@
       <c r="BD110" s="8"/>
       <c r="BE110" s="5"/>
     </row>
-    <row r="111" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>178</v>
       </c>
@@ -8555,7 +8632,7 @@
       <c r="BD111" s="8"/>
       <c r="BE111" s="5"/>
     </row>
-    <row r="112" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>179</v>
       </c>
@@ -8626,7 +8703,7 @@
       <c r="BD112" s="8"/>
       <c r="BE112" s="5"/>
     </row>
-    <row r="113" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B113" s="4">
         <v>17032891</v>
       </c>
@@ -8694,7 +8771,7 @@
       <c r="BD113" s="8"/>
       <c r="BE113" s="5"/>
     </row>
-    <row r="114" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B114" s="4">
         <v>87808970</v>
       </c>
@@ -8762,7 +8839,7 @@
       <c r="BD114" s="8"/>
       <c r="BE114" s="5"/>
     </row>
-    <row r="115" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B115" s="4">
         <v>56027003</v>
       </c>
@@ -8830,7 +8907,7 @@
       <c r="BD115" s="8"/>
       <c r="BE115" s="5"/>
     </row>
-    <row r="116" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>179</v>
       </c>
@@ -8901,7 +8978,7 @@
       <c r="BD116" s="8"/>
       <c r="BE116" s="5"/>
     </row>
-    <row r="117" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>179</v>
       </c>
@@ -8972,7 +9049,7 @@
       <c r="BD117" s="8"/>
       <c r="BE117" s="5"/>
     </row>
-    <row r="118" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>178</v>
       </c>
@@ -9043,7 +9120,7 @@
       <c r="BD118" s="8"/>
       <c r="BE118" s="5"/>
     </row>
-    <row r="119" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B119" s="4">
         <v>17032891</v>
       </c>
@@ -9111,7 +9188,7 @@
       <c r="BD119" s="8"/>
       <c r="BE119" s="5"/>
     </row>
-    <row r="120" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>178</v>
       </c>
@@ -9180,7 +9257,7 @@
       <c r="BD120" s="8"/>
       <c r="BE120" s="5"/>
     </row>
-    <row r="121" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>178</v>
       </c>
@@ -9249,7 +9326,7 @@
       <c r="BD121" s="8"/>
       <c r="BE121" s="5"/>
     </row>
-    <row r="122" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>179</v>
       </c>
@@ -9318,7 +9395,7 @@
       <c r="BD122" s="8"/>
       <c r="BE122" s="5"/>
     </row>
-    <row r="123" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>178</v>
       </c>
@@ -9387,7 +9464,7 @@
       <c r="BD123" s="8"/>
       <c r="BE123" s="5"/>
     </row>
-    <row r="124" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>178</v>
       </c>
@@ -9456,7 +9533,7 @@
       <c r="BD124" s="8"/>
       <c r="BE124" s="5"/>
     </row>
-    <row r="125" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>179</v>
       </c>
@@ -9527,7 +9604,7 @@
       <c r="BD125" s="8"/>
       <c r="BE125" s="5"/>
     </row>
-    <row r="126" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B126" s="4">
         <v>16944929</v>
       </c>
@@ -9595,7 +9672,7 @@
       <c r="BD126" s="8"/>
       <c r="BE126" s="5"/>
     </row>
-    <row r="127" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B127" s="4">
         <v>16746589</v>
       </c>
@@ -9663,7 +9740,7 @@
       <c r="BD127" s="8"/>
       <c r="BE127" s="5"/>
     </row>
-    <row r="128" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B128" s="4">
         <v>54976717</v>
       </c>
@@ -9731,7 +9808,7 @@
       <c r="BD128" s="8"/>
       <c r="BE128" s="5"/>
     </row>
-    <row r="129" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>178</v>
       </c>
@@ -9802,7 +9879,7 @@
       <c r="BD129" s="8"/>
       <c r="BE129" s="5"/>
     </row>
-    <row r="130" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B130" s="4">
         <v>54976717</v>
       </c>
@@ -9870,7 +9947,7 @@
       <c r="BD130" s="8"/>
       <c r="BE130" s="5"/>
     </row>
-    <row r="131" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>178</v>
       </c>
@@ -9941,7 +10018,7 @@
       <c r="BD131" s="8"/>
       <c r="BE131" s="5"/>
     </row>
-    <row r="132" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B132" s="4">
         <v>17283927</v>
       </c>
@@ -10009,7 +10086,7 @@
       <c r="BD132" s="8"/>
       <c r="BE132" s="5"/>
     </row>
-    <row r="133" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>178</v>
       </c>
@@ -10078,7 +10155,7 @@
       <c r="BD133" s="8"/>
       <c r="BE133" s="5"/>
     </row>
-    <row r="134" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>178</v>
       </c>
@@ -10147,7 +10224,7 @@
       <c r="BD134" s="8"/>
       <c r="BE134" s="5"/>
     </row>
-    <row r="135" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>178</v>
       </c>
@@ -10216,7 +10293,7 @@
       <c r="BD135" s="8"/>
       <c r="BE135" s="5"/>
     </row>
-    <row r="136" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>178</v>
       </c>
@@ -10285,7 +10362,7 @@
       <c r="BD136" s="8"/>
       <c r="BE136" s="5"/>
     </row>
-    <row r="137" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>178</v>
       </c>
@@ -10354,7 +10431,7 @@
       <c r="BD137" s="8"/>
       <c r="BE137" s="5"/>
     </row>
-    <row r="138" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B138" s="4">
         <v>86036368</v>
       </c>
@@ -10420,7 +10497,7 @@
       <c r="BD138" s="8"/>
       <c r="BE138" s="5"/>
     </row>
-    <row r="139" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B139" s="4">
         <v>28422342</v>
       </c>
@@ -10486,7 +10563,7 @@
       <c r="BD139" s="8"/>
       <c r="BE139" s="5"/>
     </row>
-    <row r="140" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B140" s="4">
         <v>28422342</v>
       </c>
@@ -10552,7 +10629,7 @@
       <c r="BD140" s="8"/>
       <c r="BE140" s="5"/>
     </row>
-    <row r="141" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B141" s="4">
         <v>58887529</v>
       </c>
@@ -10618,7 +10695,7 @@
       <c r="BD141" s="8"/>
       <c r="BE141" s="5"/>
     </row>
-    <row r="142" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B142" s="4">
         <v>7290296</v>
       </c>
@@ -10684,7 +10761,7 @@
       <c r="BD142" s="8"/>
       <c r="BE142" s="5"/>
     </row>
-    <row r="143" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B143" s="4">
         <v>16724169</v>
       </c>
@@ -10750,7 +10827,7 @@
       <c r="BD143" s="8"/>
       <c r="BE143" s="5"/>
     </row>
-    <row r="144" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B144" s="4">
         <v>7290296</v>
       </c>
@@ -10816,7 +10893,7 @@
       <c r="BD144" s="8"/>
       <c r="BE144" s="5"/>
     </row>
-    <row r="145" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B145" s="4">
         <v>16724169</v>
       </c>
@@ -10882,7 +10959,7 @@
       <c r="BD145" s="8"/>
       <c r="BE145" s="5"/>
     </row>
-    <row r="146" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B146" s="4">
         <v>70114204</v>
       </c>
@@ -10950,7 +11027,7 @@
       </c>
       <c r="BE146" s="5"/>
     </row>
-    <row r="147" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B147" s="4">
         <v>72605813</v>
       </c>
@@ -11018,7 +11095,7 @@
       </c>
       <c r="BE147" s="5"/>
     </row>
-    <row r="148" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B148" s="4">
         <v>47689648</v>
       </c>
@@ -11086,7 +11163,7 @@
       </c>
       <c r="BE148" s="5"/>
     </row>
-    <row r="149" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B149" s="4">
         <v>16663242</v>
       </c>
@@ -11154,7 +11231,7 @@
       </c>
       <c r="BE149" s="5"/>
     </row>
-    <row r="150" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B150" s="4">
         <v>13168638</v>
       </c>
@@ -11222,7 +11299,7 @@
       </c>
       <c r="BE150" s="5"/>
     </row>
-    <row r="151" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B151" s="4">
         <v>9455421</v>
       </c>
@@ -11290,7 +11367,7 @@
       </c>
       <c r="BE151" s="5"/>
     </row>
-    <row r="152" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B152" s="4">
         <v>27644421</v>
       </c>
@@ -11358,7 +11435,7 @@
       </c>
       <c r="BE152" s="5"/>
     </row>
-    <row r="153" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B153" s="4">
         <v>72605813</v>
       </c>
@@ -11426,7 +11503,7 @@
       </c>
       <c r="BE153" s="5"/>
     </row>
-    <row r="154" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B154" s="4">
         <v>26773108</v>
       </c>
@@ -11494,7 +11571,7 @@
       </c>
       <c r="BE154" s="5"/>
     </row>
-    <row r="155" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B155" s="4">
         <v>16663242</v>
       </c>
@@ -11562,7 +11639,7 @@
       </c>
       <c r="BE155" s="5"/>
     </row>
-    <row r="156" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B156" s="4">
         <v>27644421</v>
       </c>
@@ -11630,7 +11707,7 @@
       </c>
       <c r="BE156" s="5"/>
     </row>
-    <row r="157" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B157" s="4">
         <v>72605813</v>
       </c>
@@ -11698,7 +11775,7 @@
       </c>
       <c r="BE157" s="5"/>
     </row>
-    <row r="158" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B158" s="4">
         <v>78646777</v>
       </c>
@@ -11764,7 +11841,7 @@
         <v>1.0449999999999999</v>
       </c>
     </row>
-    <row r="159" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>179</v>
       </c>
@@ -11833,7 +11910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B160" s="4">
         <v>28379753</v>
       </c>
@@ -11899,7 +11976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>179</v>
       </c>
@@ -11976,6 +12053,4147 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:BL47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="29.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="38" width="8.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A2" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AO2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AR2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="AS2" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="AT2" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AU2" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AV2" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="AW2" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="AX2" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AY2" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AZ2" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="BA2" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="BB2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="BC2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="BD2" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="BE2" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="BF2" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="BG2" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="BH2" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="BI2" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="BJ2" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="BK2" s="28" t="s">
+        <v>193</v>
+      </c>
+      <c r="BL2" s="28" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="3" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A3" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C3" s="8">
+        <v>1</v>
+      </c>
+      <c r="D3" s="8">
+        <v>1</v>
+      </c>
+      <c r="E3" s="8">
+        <v>1</v>
+      </c>
+      <c r="F3" s="8">
+        <v>1</v>
+      </c>
+      <c r="G3" s="8">
+        <v>1</v>
+      </c>
+      <c r="H3" s="8">
+        <v>1</v>
+      </c>
+      <c r="I3" s="8">
+        <v>1</v>
+      </c>
+      <c r="J3" s="8">
+        <v>1</v>
+      </c>
+      <c r="K3" s="8">
+        <v>1</v>
+      </c>
+      <c r="L3" s="8">
+        <v>1</v>
+      </c>
+      <c r="M3" s="8">
+        <v>1</v>
+      </c>
+      <c r="N3" s="8">
+        <v>0</v>
+      </c>
+      <c r="O3" s="8">
+        <v>1</v>
+      </c>
+      <c r="P3" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="8">
+        <v>1</v>
+      </c>
+      <c r="R3" s="8">
+        <v>1</v>
+      </c>
+      <c r="S3" s="8">
+        <v>1</v>
+      </c>
+      <c r="T3" s="8">
+        <v>1</v>
+      </c>
+      <c r="U3" s="8">
+        <v>1</v>
+      </c>
+      <c r="V3" s="8">
+        <v>1</v>
+      </c>
+      <c r="W3" s="8">
+        <v>1</v>
+      </c>
+      <c r="X3" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="8">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="8">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="8"/>
+      <c r="AC3" s="8"/>
+      <c r="AD3" s="8">
+        <v>1</v>
+      </c>
+      <c r="AE3" s="8">
+        <v>1</v>
+      </c>
+      <c r="AF3" s="8">
+        <v>1</v>
+      </c>
+      <c r="AG3" s="8">
+        <v>1</v>
+      </c>
+      <c r="AH3" s="8">
+        <v>1</v>
+      </c>
+      <c r="AI3" s="8">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="8">
+        <v>1</v>
+      </c>
+      <c r="AK3" s="8"/>
+      <c r="AL3" s="8"/>
+      <c r="AM3" s="8"/>
+      <c r="AN3" s="8"/>
+      <c r="AO3" s="8"/>
+      <c r="AP3" s="8"/>
+      <c r="AQ3" s="8"/>
+      <c r="AR3" s="8"/>
+      <c r="AS3" s="8"/>
+      <c r="AT3" s="8"/>
+      <c r="AU3" s="8"/>
+      <c r="AV3" s="8"/>
+      <c r="AW3" s="8"/>
+      <c r="AX3" s="8"/>
+      <c r="AY3" s="8"/>
+      <c r="AZ3" s="8"/>
+      <c r="BA3" s="8"/>
+      <c r="BB3" s="8"/>
+      <c r="BC3" s="8"/>
+      <c r="BD3" s="8"/>
+      <c r="BE3" s="8"/>
+      <c r="BF3" s="8"/>
+      <c r="BG3" s="8"/>
+      <c r="BH3" s="8"/>
+      <c r="BI3" s="8"/>
+      <c r="BJ3" s="8"/>
+      <c r="BK3" s="8"/>
+      <c r="BL3" s="8"/>
+    </row>
+    <row r="4" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A4" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C4" s="8">
+        <v>1</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0</v>
+      </c>
+      <c r="E4" s="8">
+        <v>1</v>
+      </c>
+      <c r="F4" s="8">
+        <v>1</v>
+      </c>
+      <c r="G4" s="8">
+        <v>1</v>
+      </c>
+      <c r="H4" s="8">
+        <v>0</v>
+      </c>
+      <c r="I4" s="8">
+        <v>0</v>
+      </c>
+      <c r="J4" s="8">
+        <v>1</v>
+      </c>
+      <c r="K4" s="8">
+        <v>1</v>
+      </c>
+      <c r="L4" s="8">
+        <v>0</v>
+      </c>
+      <c r="M4" s="8">
+        <v>1</v>
+      </c>
+      <c r="N4" s="8">
+        <v>0</v>
+      </c>
+      <c r="O4" s="8">
+        <v>1</v>
+      </c>
+      <c r="P4" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="8">
+        <v>1</v>
+      </c>
+      <c r="R4" s="8">
+        <v>1</v>
+      </c>
+      <c r="S4" s="8">
+        <v>1</v>
+      </c>
+      <c r="T4" s="8">
+        <v>1</v>
+      </c>
+      <c r="U4" s="8">
+        <v>1</v>
+      </c>
+      <c r="V4" s="8">
+        <v>1</v>
+      </c>
+      <c r="W4" s="8">
+        <v>1</v>
+      </c>
+      <c r="X4" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="8">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="8">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="8"/>
+      <c r="AC4" s="8"/>
+      <c r="AD4" s="8">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="8">
+        <v>1</v>
+      </c>
+      <c r="AF4" s="8">
+        <v>1</v>
+      </c>
+      <c r="AG4" s="8">
+        <v>1</v>
+      </c>
+      <c r="AH4" s="8">
+        <v>1</v>
+      </c>
+      <c r="AI4" s="8">
+        <v>1</v>
+      </c>
+      <c r="AJ4" s="8">
+        <v>1</v>
+      </c>
+      <c r="AK4" s="8"/>
+      <c r="AL4" s="8"/>
+      <c r="AM4" s="8"/>
+      <c r="AN4" s="8"/>
+      <c r="AO4" s="8"/>
+      <c r="AP4" s="8"/>
+      <c r="AQ4" s="8"/>
+      <c r="AR4" s="8"/>
+      <c r="AS4" s="8"/>
+      <c r="AT4" s="8"/>
+      <c r="AU4" s="8"/>
+      <c r="AV4" s="8"/>
+      <c r="AW4" s="8"/>
+      <c r="AX4" s="8"/>
+      <c r="AY4" s="8"/>
+      <c r="AZ4" s="8"/>
+      <c r="BA4" s="8"/>
+      <c r="BB4" s="8"/>
+      <c r="BC4" s="8"/>
+      <c r="BD4" s="8"/>
+      <c r="BE4" s="8"/>
+      <c r="BF4" s="8"/>
+      <c r="BG4" s="8"/>
+      <c r="BH4" s="8"/>
+      <c r="BI4" s="8"/>
+      <c r="BJ4" s="8"/>
+      <c r="BK4" s="8"/>
+      <c r="BL4" s="8"/>
+    </row>
+    <row r="5" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A5" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C5" s="8">
+        <v>0</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0</v>
+      </c>
+      <c r="E5" s="8">
+        <v>0</v>
+      </c>
+      <c r="F5" s="8">
+        <v>0</v>
+      </c>
+      <c r="G5" s="8">
+        <v>0</v>
+      </c>
+      <c r="H5" s="8">
+        <v>0</v>
+      </c>
+      <c r="I5" s="8">
+        <v>0</v>
+      </c>
+      <c r="J5" s="8">
+        <v>0</v>
+      </c>
+      <c r="K5" s="8">
+        <v>0</v>
+      </c>
+      <c r="L5" s="8">
+        <v>0</v>
+      </c>
+      <c r="M5" s="8">
+        <v>0</v>
+      </c>
+      <c r="N5" s="8">
+        <v>1</v>
+      </c>
+      <c r="O5" s="8">
+        <v>0</v>
+      </c>
+      <c r="P5" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="8">
+        <v>0</v>
+      </c>
+      <c r="R5" s="8">
+        <v>0</v>
+      </c>
+      <c r="S5" s="8">
+        <v>0</v>
+      </c>
+      <c r="T5" s="8">
+        <v>0</v>
+      </c>
+      <c r="U5" s="8">
+        <v>0</v>
+      </c>
+      <c r="V5" s="8">
+        <v>0</v>
+      </c>
+      <c r="W5" s="8">
+        <v>0</v>
+      </c>
+      <c r="X5" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="8"/>
+      <c r="AC5" s="8"/>
+      <c r="AD5" s="8">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="8">
+        <v>1</v>
+      </c>
+      <c r="AG5" s="8">
+        <v>1</v>
+      </c>
+      <c r="AH5" s="8">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="8">
+        <v>1</v>
+      </c>
+      <c r="AJ5" s="8">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="8"/>
+      <c r="AL5" s="8"/>
+      <c r="AM5" s="8"/>
+      <c r="AN5" s="8"/>
+      <c r="AO5" s="8"/>
+      <c r="AP5" s="8"/>
+      <c r="AQ5" s="8"/>
+      <c r="AR5" s="8"/>
+      <c r="AS5" s="8"/>
+      <c r="AT5" s="8"/>
+      <c r="AU5" s="8"/>
+      <c r="AV5" s="8"/>
+      <c r="AW5" s="8"/>
+      <c r="AX5" s="8"/>
+      <c r="AY5" s="8"/>
+      <c r="AZ5" s="8"/>
+      <c r="BA5" s="8"/>
+      <c r="BB5" s="8"/>
+      <c r="BC5" s="8"/>
+      <c r="BD5" s="8"/>
+      <c r="BE5" s="8"/>
+      <c r="BF5" s="8"/>
+      <c r="BG5" s="8"/>
+      <c r="BH5" s="8"/>
+      <c r="BI5" s="8"/>
+      <c r="BJ5" s="8"/>
+      <c r="BK5" s="8"/>
+      <c r="BL5" s="8"/>
+    </row>
+    <row r="6" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A6" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C6" s="8">
+        <v>1</v>
+      </c>
+      <c r="D6" s="8">
+        <v>1</v>
+      </c>
+      <c r="E6" s="8">
+        <v>0</v>
+      </c>
+      <c r="F6" s="8">
+        <v>0</v>
+      </c>
+      <c r="G6" s="8">
+        <v>0</v>
+      </c>
+      <c r="H6" s="8">
+        <v>0</v>
+      </c>
+      <c r="I6" s="8">
+        <v>0</v>
+      </c>
+      <c r="J6" s="8">
+        <v>0</v>
+      </c>
+      <c r="K6" s="8">
+        <v>0</v>
+      </c>
+      <c r="L6" s="8">
+        <v>0</v>
+      </c>
+      <c r="M6" s="8">
+        <v>0</v>
+      </c>
+      <c r="N6" s="8">
+        <v>1</v>
+      </c>
+      <c r="O6" s="8">
+        <v>0</v>
+      </c>
+      <c r="P6" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="8">
+        <v>0</v>
+      </c>
+      <c r="R6" s="8">
+        <v>0</v>
+      </c>
+      <c r="S6" s="8">
+        <v>0</v>
+      </c>
+      <c r="T6" s="8">
+        <v>0</v>
+      </c>
+      <c r="U6" s="8">
+        <v>0</v>
+      </c>
+      <c r="V6" s="8">
+        <v>0</v>
+      </c>
+      <c r="W6" s="8">
+        <v>0</v>
+      </c>
+      <c r="X6" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="8"/>
+      <c r="AC6" s="8"/>
+      <c r="AD6" s="8">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="8">
+        <v>1</v>
+      </c>
+      <c r="AG6" s="8">
+        <v>1</v>
+      </c>
+      <c r="AH6" s="8">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="8">
+        <v>1</v>
+      </c>
+      <c r="AJ6" s="8">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="8"/>
+      <c r="AL6" s="8"/>
+      <c r="AM6" s="8"/>
+      <c r="AN6" s="8"/>
+      <c r="AO6" s="8"/>
+      <c r="AP6" s="8"/>
+      <c r="AQ6" s="8"/>
+      <c r="AR6" s="8"/>
+      <c r="AS6" s="8"/>
+      <c r="AT6" s="8"/>
+      <c r="AU6" s="8"/>
+      <c r="AV6" s="8"/>
+      <c r="AW6" s="8"/>
+      <c r="AX6" s="8"/>
+      <c r="AY6" s="8"/>
+      <c r="AZ6" s="8"/>
+      <c r="BA6" s="8"/>
+      <c r="BB6" s="8"/>
+      <c r="BC6" s="8"/>
+      <c r="BD6" s="8"/>
+      <c r="BE6" s="8"/>
+      <c r="BF6" s="8"/>
+      <c r="BG6" s="8"/>
+      <c r="BH6" s="8"/>
+      <c r="BI6" s="8"/>
+      <c r="BJ6" s="8"/>
+      <c r="BK6" s="8"/>
+      <c r="BL6" s="8"/>
+    </row>
+    <row r="7" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A7" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C7" s="8">
+        <v>1</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0</v>
+      </c>
+      <c r="E7" s="8">
+        <v>0</v>
+      </c>
+      <c r="F7" s="8">
+        <v>0</v>
+      </c>
+      <c r="G7" s="8">
+        <v>0</v>
+      </c>
+      <c r="H7" s="8">
+        <v>0</v>
+      </c>
+      <c r="I7" s="8">
+        <v>0</v>
+      </c>
+      <c r="J7" s="8">
+        <v>0</v>
+      </c>
+      <c r="K7" s="8">
+        <v>0</v>
+      </c>
+      <c r="L7" s="8">
+        <v>0</v>
+      </c>
+      <c r="M7" s="8">
+        <v>0</v>
+      </c>
+      <c r="N7" s="8">
+        <v>1</v>
+      </c>
+      <c r="O7" s="8">
+        <v>0</v>
+      </c>
+      <c r="P7" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="8">
+        <v>0</v>
+      </c>
+      <c r="R7" s="8">
+        <v>0</v>
+      </c>
+      <c r="S7" s="8">
+        <v>0</v>
+      </c>
+      <c r="T7" s="8">
+        <v>1</v>
+      </c>
+      <c r="U7" s="8">
+        <v>0</v>
+      </c>
+      <c r="V7" s="8">
+        <v>0</v>
+      </c>
+      <c r="W7" s="8">
+        <v>0</v>
+      </c>
+      <c r="X7" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="8"/>
+      <c r="AC7" s="8"/>
+      <c r="AD7" s="8">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="8">
+        <v>1</v>
+      </c>
+      <c r="AG7" s="8">
+        <v>1</v>
+      </c>
+      <c r="AH7" s="8">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="8">
+        <v>1</v>
+      </c>
+      <c r="AJ7" s="8">
+        <v>1</v>
+      </c>
+      <c r="AK7" s="8"/>
+      <c r="AL7" s="8"/>
+      <c r="AM7" s="8"/>
+      <c r="AN7" s="8"/>
+      <c r="AO7" s="8"/>
+      <c r="AP7" s="8"/>
+      <c r="AQ7" s="8"/>
+      <c r="AR7" s="8"/>
+      <c r="AS7" s="8"/>
+      <c r="AT7" s="8"/>
+      <c r="AU7" s="8"/>
+      <c r="AV7" s="8"/>
+      <c r="AW7" s="8"/>
+      <c r="AX7" s="8"/>
+      <c r="AY7" s="8"/>
+      <c r="AZ7" s="8"/>
+      <c r="BA7" s="8"/>
+      <c r="BB7" s="8"/>
+      <c r="BC7" s="8"/>
+      <c r="BD7" s="8"/>
+      <c r="BE7" s="8"/>
+      <c r="BF7" s="8"/>
+      <c r="BG7" s="8"/>
+      <c r="BH7" s="8"/>
+      <c r="BI7" s="8"/>
+      <c r="BJ7" s="8"/>
+      <c r="BK7" s="8"/>
+      <c r="BL7" s="8"/>
+    </row>
+    <row r="8" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A8" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C8" s="8">
+        <v>0</v>
+      </c>
+      <c r="D8" s="8">
+        <v>0</v>
+      </c>
+      <c r="E8" s="8">
+        <v>0</v>
+      </c>
+      <c r="F8" s="8">
+        <v>0</v>
+      </c>
+      <c r="G8" s="8">
+        <v>0</v>
+      </c>
+      <c r="H8" s="8">
+        <v>0</v>
+      </c>
+      <c r="I8" s="8">
+        <v>0</v>
+      </c>
+      <c r="J8" s="8">
+        <v>0</v>
+      </c>
+      <c r="K8" s="8">
+        <v>0</v>
+      </c>
+      <c r="L8" s="8">
+        <v>0</v>
+      </c>
+      <c r="M8" s="8">
+        <v>0</v>
+      </c>
+      <c r="N8" s="8">
+        <v>0</v>
+      </c>
+      <c r="O8" s="8">
+        <v>0</v>
+      </c>
+      <c r="P8" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="8">
+        <v>0</v>
+      </c>
+      <c r="R8" s="8">
+        <v>0</v>
+      </c>
+      <c r="S8" s="8">
+        <v>0</v>
+      </c>
+      <c r="T8" s="8">
+        <v>0</v>
+      </c>
+      <c r="U8" s="8">
+        <v>0</v>
+      </c>
+      <c r="V8" s="8">
+        <v>0</v>
+      </c>
+      <c r="W8" s="8">
+        <v>0</v>
+      </c>
+      <c r="X8" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="8"/>
+      <c r="AC8" s="8"/>
+      <c r="AD8" s="8">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="8">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="8">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="8">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="8">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="8"/>
+      <c r="AL8" s="8"/>
+      <c r="AM8" s="8"/>
+      <c r="AN8" s="8"/>
+      <c r="AO8" s="8"/>
+      <c r="AP8" s="8"/>
+      <c r="AQ8" s="8"/>
+      <c r="AR8" s="8"/>
+      <c r="AS8" s="8"/>
+      <c r="AT8" s="8"/>
+      <c r="AU8" s="8"/>
+      <c r="AV8" s="8"/>
+      <c r="AW8" s="8"/>
+      <c r="AX8" s="8"/>
+      <c r="AY8" s="8"/>
+      <c r="AZ8" s="8"/>
+      <c r="BA8" s="8"/>
+      <c r="BB8" s="8"/>
+      <c r="BC8" s="8"/>
+      <c r="BD8" s="8"/>
+      <c r="BE8" s="8"/>
+      <c r="BF8" s="8"/>
+      <c r="BG8" s="8"/>
+      <c r="BH8" s="8"/>
+      <c r="BI8" s="8"/>
+      <c r="BJ8" s="8"/>
+      <c r="BK8" s="8"/>
+      <c r="BL8" s="8"/>
+    </row>
+    <row r="9" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A9" s="29" t="s">
+        <v>195</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="8"/>
+      <c r="X9" s="8"/>
+      <c r="Y9" s="8"/>
+      <c r="Z9" s="8"/>
+      <c r="AA9" s="8"/>
+      <c r="AB9" s="8">
+        <v>1</v>
+      </c>
+      <c r="AC9" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="8"/>
+      <c r="AE9" s="8"/>
+      <c r="AF9" s="8"/>
+      <c r="AG9" s="8"/>
+      <c r="AH9" s="8"/>
+      <c r="AI9" s="8"/>
+      <c r="AJ9" s="8"/>
+      <c r="AK9" s="8"/>
+      <c r="AL9" s="8"/>
+      <c r="AM9" s="8"/>
+      <c r="AN9" s="8"/>
+      <c r="AO9" s="8"/>
+      <c r="AP9" s="8"/>
+      <c r="AQ9" s="8"/>
+      <c r="AR9" s="8"/>
+      <c r="AS9" s="8"/>
+      <c r="AT9" s="8"/>
+      <c r="AU9" s="8"/>
+      <c r="AV9" s="8"/>
+      <c r="AW9" s="8"/>
+      <c r="AX9" s="8"/>
+      <c r="AY9" s="8"/>
+      <c r="AZ9" s="8"/>
+      <c r="BA9" s="8"/>
+      <c r="BB9" s="8"/>
+      <c r="BC9" s="8"/>
+      <c r="BD9" s="8"/>
+      <c r="BE9" s="8"/>
+      <c r="BF9" s="8"/>
+      <c r="BG9" s="8"/>
+      <c r="BH9" s="8"/>
+      <c r="BI9" s="8"/>
+      <c r="BJ9" s="8"/>
+      <c r="BK9" s="8"/>
+      <c r="BL9" s="8"/>
+    </row>
+    <row r="10" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A10" s="29" t="s">
+        <v>195</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="8"/>
+      <c r="X10" s="8"/>
+      <c r="Y10" s="8"/>
+      <c r="Z10" s="8"/>
+      <c r="AA10" s="8"/>
+      <c r="AB10" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="8">
+        <v>1</v>
+      </c>
+      <c r="AD10" s="8"/>
+      <c r="AE10" s="8"/>
+      <c r="AF10" s="8"/>
+      <c r="AG10" s="8"/>
+      <c r="AH10" s="8"/>
+      <c r="AI10" s="8"/>
+      <c r="AJ10" s="8"/>
+      <c r="AK10" s="8"/>
+      <c r="AL10" s="8"/>
+      <c r="AM10" s="8"/>
+      <c r="AN10" s="8"/>
+      <c r="AO10" s="8"/>
+      <c r="AP10" s="8"/>
+      <c r="AQ10" s="8"/>
+      <c r="AR10" s="8"/>
+      <c r="AS10" s="8"/>
+      <c r="AT10" s="8"/>
+      <c r="AU10" s="8"/>
+      <c r="AV10" s="8"/>
+      <c r="AW10" s="8"/>
+      <c r="AX10" s="8"/>
+      <c r="AY10" s="8"/>
+      <c r="AZ10" s="8"/>
+      <c r="BA10" s="8"/>
+      <c r="BB10" s="8"/>
+      <c r="BC10" s="8"/>
+      <c r="BD10" s="8"/>
+      <c r="BE10" s="8"/>
+      <c r="BF10" s="8"/>
+      <c r="BG10" s="8"/>
+      <c r="BH10" s="8"/>
+      <c r="BI10" s="8"/>
+      <c r="BJ10" s="8"/>
+      <c r="BK10" s="8"/>
+      <c r="BL10" s="8"/>
+    </row>
+    <row r="11" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A11" s="29" t="s">
+        <v>195</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="8"/>
+      <c r="X11" s="8"/>
+      <c r="Y11" s="8"/>
+      <c r="Z11" s="8"/>
+      <c r="AA11" s="8"/>
+      <c r="AB11" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="8"/>
+      <c r="AE11" s="8"/>
+      <c r="AF11" s="8"/>
+      <c r="AG11" s="8"/>
+      <c r="AH11" s="8"/>
+      <c r="AI11" s="8"/>
+      <c r="AJ11" s="8"/>
+      <c r="AK11" s="8"/>
+      <c r="AL11" s="8"/>
+      <c r="AM11" s="8"/>
+      <c r="AN11" s="8"/>
+      <c r="AO11" s="8"/>
+      <c r="AP11" s="8"/>
+      <c r="AQ11" s="8"/>
+      <c r="AR11" s="8"/>
+      <c r="AS11" s="8"/>
+      <c r="AT11" s="8"/>
+      <c r="AU11" s="8"/>
+      <c r="AV11" s="8"/>
+      <c r="AW11" s="8"/>
+      <c r="AX11" s="8"/>
+      <c r="AY11" s="8"/>
+      <c r="AZ11" s="8"/>
+      <c r="BA11" s="8"/>
+      <c r="BB11" s="8"/>
+      <c r="BC11" s="8"/>
+      <c r="BD11" s="8"/>
+      <c r="BE11" s="8"/>
+      <c r="BF11" s="8"/>
+      <c r="BG11" s="8"/>
+      <c r="BH11" s="8"/>
+      <c r="BI11" s="8"/>
+      <c r="BJ11" s="8"/>
+      <c r="BK11" s="8"/>
+      <c r="BL11" s="8"/>
+    </row>
+    <row r="12" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A12" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="8"/>
+      <c r="X12" s="8"/>
+      <c r="Y12" s="8"/>
+      <c r="Z12" s="8"/>
+      <c r="AA12" s="8"/>
+      <c r="AB12" s="8"/>
+      <c r="AC12" s="8"/>
+      <c r="AD12" s="8"/>
+      <c r="AE12" s="8"/>
+      <c r="AF12" s="8"/>
+      <c r="AG12" s="8"/>
+      <c r="AH12" s="8"/>
+      <c r="AI12" s="8"/>
+      <c r="AJ12" s="8"/>
+      <c r="AK12" s="8">
+        <v>1</v>
+      </c>
+      <c r="AL12" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM12" s="8">
+        <v>1</v>
+      </c>
+      <c r="AN12" s="8">
+        <v>1</v>
+      </c>
+      <c r="AO12" s="8">
+        <v>1</v>
+      </c>
+      <c r="AP12" s="8">
+        <v>1</v>
+      </c>
+      <c r="AQ12" s="8">
+        <v>1</v>
+      </c>
+      <c r="AR12" s="8">
+        <v>1</v>
+      </c>
+      <c r="AS12" s="8"/>
+      <c r="AT12" s="8"/>
+      <c r="AU12" s="8"/>
+      <c r="AV12" s="8"/>
+      <c r="AW12" s="8"/>
+      <c r="AX12" s="8"/>
+      <c r="AY12" s="8"/>
+      <c r="AZ12" s="8"/>
+      <c r="BA12" s="8"/>
+      <c r="BB12" s="8"/>
+      <c r="BC12" s="8"/>
+      <c r="BD12" s="8"/>
+      <c r="BE12" s="8"/>
+      <c r="BF12" s="8"/>
+      <c r="BG12" s="8"/>
+      <c r="BH12" s="8"/>
+      <c r="BI12" s="8"/>
+      <c r="BJ12" s="8"/>
+      <c r="BK12" s="8"/>
+      <c r="BL12" s="8"/>
+    </row>
+    <row r="13" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A13" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="8"/>
+      <c r="X13" s="8"/>
+      <c r="Y13" s="8"/>
+      <c r="Z13" s="8"/>
+      <c r="AA13" s="8"/>
+      <c r="AB13" s="8"/>
+      <c r="AC13" s="8"/>
+      <c r="AD13" s="8"/>
+      <c r="AE13" s="8"/>
+      <c r="AF13" s="8"/>
+      <c r="AG13" s="8"/>
+      <c r="AH13" s="8"/>
+      <c r="AI13" s="8"/>
+      <c r="AJ13" s="8"/>
+      <c r="AK13" s="8">
+        <v>1</v>
+      </c>
+      <c r="AL13" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM13" s="8">
+        <v>1</v>
+      </c>
+      <c r="AN13" s="8">
+        <v>1</v>
+      </c>
+      <c r="AO13" s="8">
+        <v>0</v>
+      </c>
+      <c r="AP13" s="8">
+        <v>1</v>
+      </c>
+      <c r="AQ13" s="8">
+        <v>1</v>
+      </c>
+      <c r="AR13" s="8">
+        <v>1</v>
+      </c>
+      <c r="AS13" s="8"/>
+      <c r="AT13" s="8"/>
+      <c r="AU13" s="8"/>
+      <c r="AV13" s="8"/>
+      <c r="AW13" s="8"/>
+      <c r="AX13" s="8"/>
+      <c r="AY13" s="8"/>
+      <c r="AZ13" s="8"/>
+      <c r="BA13" s="8"/>
+      <c r="BB13" s="8"/>
+      <c r="BC13" s="8"/>
+      <c r="BD13" s="8"/>
+      <c r="BE13" s="8"/>
+      <c r="BF13" s="8"/>
+      <c r="BG13" s="8"/>
+      <c r="BH13" s="8"/>
+      <c r="BI13" s="8"/>
+      <c r="BJ13" s="8"/>
+      <c r="BK13" s="8"/>
+      <c r="BL13" s="8"/>
+    </row>
+    <row r="14" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A14" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="8"/>
+      <c r="X14" s="8"/>
+      <c r="Y14" s="8"/>
+      <c r="Z14" s="8"/>
+      <c r="AA14" s="8"/>
+      <c r="AB14" s="8"/>
+      <c r="AC14" s="8"/>
+      <c r="AD14" s="8"/>
+      <c r="AE14" s="8"/>
+      <c r="AF14" s="8"/>
+      <c r="AG14" s="8"/>
+      <c r="AH14" s="8"/>
+      <c r="AI14" s="8"/>
+      <c r="AJ14" s="8"/>
+      <c r="AK14" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL14" s="8">
+        <v>1</v>
+      </c>
+      <c r="AM14" s="8">
+        <v>0</v>
+      </c>
+      <c r="AN14" s="8">
+        <v>0</v>
+      </c>
+      <c r="AO14" s="8">
+        <v>0</v>
+      </c>
+      <c r="AP14" s="8">
+        <v>1</v>
+      </c>
+      <c r="AQ14" s="8">
+        <v>1</v>
+      </c>
+      <c r="AR14" s="8">
+        <v>0</v>
+      </c>
+      <c r="AS14" s="8"/>
+      <c r="AT14" s="8"/>
+      <c r="AU14" s="8"/>
+      <c r="AV14" s="8"/>
+      <c r="AW14" s="8"/>
+      <c r="AX14" s="8"/>
+      <c r="AY14" s="8"/>
+      <c r="AZ14" s="8"/>
+      <c r="BA14" s="8"/>
+      <c r="BB14" s="8"/>
+      <c r="BC14" s="8"/>
+      <c r="BD14" s="8"/>
+      <c r="BE14" s="8"/>
+      <c r="BF14" s="8"/>
+      <c r="BG14" s="8"/>
+      <c r="BH14" s="8"/>
+      <c r="BI14" s="8"/>
+      <c r="BJ14" s="8"/>
+      <c r="BK14" s="8"/>
+      <c r="BL14" s="8"/>
+    </row>
+    <row r="15" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A15" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="8"/>
+      <c r="W15" s="8"/>
+      <c r="X15" s="8"/>
+      <c r="Y15" s="8"/>
+      <c r="Z15" s="8"/>
+      <c r="AA15" s="8"/>
+      <c r="AB15" s="8"/>
+      <c r="AC15" s="8"/>
+      <c r="AD15" s="8"/>
+      <c r="AE15" s="8"/>
+      <c r="AF15" s="8"/>
+      <c r="AG15" s="8"/>
+      <c r="AH15" s="8"/>
+      <c r="AI15" s="8"/>
+      <c r="AJ15" s="8"/>
+      <c r="AK15" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL15" s="8">
+        <v>1</v>
+      </c>
+      <c r="AM15" s="8">
+        <v>0</v>
+      </c>
+      <c r="AN15" s="8">
+        <v>0</v>
+      </c>
+      <c r="AO15" s="8">
+        <v>0</v>
+      </c>
+      <c r="AP15" s="8">
+        <v>0</v>
+      </c>
+      <c r="AQ15" s="8">
+        <v>0</v>
+      </c>
+      <c r="AR15" s="8">
+        <v>0</v>
+      </c>
+      <c r="AS15" s="8"/>
+      <c r="AT15" s="8"/>
+      <c r="AU15" s="8"/>
+      <c r="AV15" s="8"/>
+      <c r="AW15" s="8"/>
+      <c r="AX15" s="8"/>
+      <c r="AY15" s="8"/>
+      <c r="AZ15" s="8"/>
+      <c r="BA15" s="8"/>
+      <c r="BB15" s="8"/>
+      <c r="BC15" s="8"/>
+      <c r="BD15" s="8"/>
+      <c r="BE15" s="8"/>
+      <c r="BF15" s="8"/>
+      <c r="BG15" s="8"/>
+      <c r="BH15" s="8"/>
+      <c r="BI15" s="8"/>
+      <c r="BJ15" s="8"/>
+      <c r="BK15" s="8"/>
+      <c r="BL15" s="8"/>
+    </row>
+    <row r="16" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A16" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="8"/>
+      <c r="X16" s="8"/>
+      <c r="Y16" s="8"/>
+      <c r="Z16" s="8"/>
+      <c r="AA16" s="8"/>
+      <c r="AB16" s="8"/>
+      <c r="AC16" s="8"/>
+      <c r="AD16" s="8"/>
+      <c r="AE16" s="8"/>
+      <c r="AF16" s="8"/>
+      <c r="AG16" s="8"/>
+      <c r="AH16" s="8"/>
+      <c r="AI16" s="8"/>
+      <c r="AJ16" s="8"/>
+      <c r="AK16" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL16" s="8">
+        <v>1</v>
+      </c>
+      <c r="AM16" s="8">
+        <v>0</v>
+      </c>
+      <c r="AN16" s="8">
+        <v>0</v>
+      </c>
+      <c r="AO16" s="8">
+        <v>1</v>
+      </c>
+      <c r="AP16" s="8">
+        <v>0</v>
+      </c>
+      <c r="AQ16" s="8">
+        <v>0</v>
+      </c>
+      <c r="AR16" s="8">
+        <v>0</v>
+      </c>
+      <c r="AS16" s="8"/>
+      <c r="AT16" s="8"/>
+      <c r="AU16" s="8"/>
+      <c r="AV16" s="8"/>
+      <c r="AW16" s="8"/>
+      <c r="AX16" s="8"/>
+      <c r="AY16" s="8"/>
+      <c r="AZ16" s="8"/>
+      <c r="BA16" s="8"/>
+      <c r="BB16" s="8"/>
+      <c r="BC16" s="8"/>
+      <c r="BD16" s="8"/>
+      <c r="BE16" s="8"/>
+      <c r="BF16" s="8"/>
+      <c r="BG16" s="8"/>
+      <c r="BH16" s="8"/>
+      <c r="BI16" s="8"/>
+      <c r="BJ16" s="8"/>
+      <c r="BK16" s="8"/>
+      <c r="BL16" s="8"/>
+    </row>
+    <row r="17" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A17" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="8"/>
+      <c r="T17" s="8"/>
+      <c r="U17" s="8"/>
+      <c r="V17" s="8"/>
+      <c r="W17" s="8"/>
+      <c r="X17" s="8"/>
+      <c r="Y17" s="8"/>
+      <c r="Z17" s="8"/>
+      <c r="AA17" s="8"/>
+      <c r="AB17" s="8"/>
+      <c r="AC17" s="8"/>
+      <c r="AD17" s="8"/>
+      <c r="AE17" s="8"/>
+      <c r="AF17" s="8"/>
+      <c r="AG17" s="8"/>
+      <c r="AH17" s="8"/>
+      <c r="AI17" s="8"/>
+      <c r="AJ17" s="8"/>
+      <c r="AK17" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL17" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM17" s="8">
+        <v>0</v>
+      </c>
+      <c r="AN17" s="8">
+        <v>0</v>
+      </c>
+      <c r="AO17" s="8">
+        <v>0</v>
+      </c>
+      <c r="AP17" s="8">
+        <v>0</v>
+      </c>
+      <c r="AQ17" s="8">
+        <v>0</v>
+      </c>
+      <c r="AR17" s="8">
+        <v>0</v>
+      </c>
+      <c r="AS17" s="8"/>
+      <c r="AT17" s="8"/>
+      <c r="AU17" s="8"/>
+      <c r="AV17" s="8"/>
+      <c r="AW17" s="8"/>
+      <c r="AX17" s="8"/>
+      <c r="AY17" s="8"/>
+      <c r="AZ17" s="8"/>
+      <c r="BA17" s="8"/>
+      <c r="BB17" s="8"/>
+      <c r="BC17" s="8"/>
+      <c r="BD17" s="8"/>
+      <c r="BE17" s="8"/>
+      <c r="BF17" s="8"/>
+      <c r="BG17" s="8"/>
+      <c r="BH17" s="8"/>
+      <c r="BI17" s="8"/>
+      <c r="BJ17" s="8"/>
+      <c r="BK17" s="8"/>
+      <c r="BL17" s="8"/>
+    </row>
+    <row r="18" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A18" s="29" t="s">
+        <v>196</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="8"/>
+      <c r="T18" s="8"/>
+      <c r="U18" s="8"/>
+      <c r="V18" s="8"/>
+      <c r="W18" s="8"/>
+      <c r="X18" s="8"/>
+      <c r="Y18" s="8"/>
+      <c r="Z18" s="8"/>
+      <c r="AA18" s="8"/>
+      <c r="AB18" s="8"/>
+      <c r="AC18" s="8"/>
+      <c r="AD18" s="8"/>
+      <c r="AE18" s="8"/>
+      <c r="AF18" s="8"/>
+      <c r="AG18" s="8"/>
+      <c r="AH18" s="8"/>
+      <c r="AI18" s="8"/>
+      <c r="AJ18" s="8"/>
+      <c r="AK18" s="8"/>
+      <c r="AL18" s="8"/>
+      <c r="AM18" s="8"/>
+      <c r="AN18" s="8"/>
+      <c r="AO18" s="8"/>
+      <c r="AP18" s="8"/>
+      <c r="AQ18" s="8"/>
+      <c r="AR18" s="8"/>
+      <c r="AS18" s="8">
+        <v>0</v>
+      </c>
+      <c r="AT18" s="8">
+        <v>1</v>
+      </c>
+      <c r="AU18" s="8">
+        <v>0</v>
+      </c>
+      <c r="AV18" s="8">
+        <v>1</v>
+      </c>
+      <c r="AW18" s="8">
+        <v>0</v>
+      </c>
+      <c r="AX18" s="8">
+        <v>0</v>
+      </c>
+      <c r="AY18" s="8">
+        <v>0</v>
+      </c>
+      <c r="AZ18" s="8">
+        <v>1</v>
+      </c>
+      <c r="BA18" s="8">
+        <v>0</v>
+      </c>
+      <c r="BB18" s="8">
+        <v>0</v>
+      </c>
+      <c r="BC18" s="8">
+        <v>1</v>
+      </c>
+      <c r="BD18" s="8">
+        <v>0</v>
+      </c>
+      <c r="BE18" s="8">
+        <v>0</v>
+      </c>
+      <c r="BF18" s="8">
+        <v>0</v>
+      </c>
+      <c r="BG18" s="8">
+        <v>0</v>
+      </c>
+      <c r="BH18" s="8">
+        <v>1</v>
+      </c>
+      <c r="BI18" s="8"/>
+      <c r="BJ18" s="8"/>
+      <c r="BK18" s="8"/>
+      <c r="BL18" s="8"/>
+    </row>
+    <row r="19" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A19" s="29" t="s">
+        <v>196</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="8"/>
+      <c r="T19" s="8"/>
+      <c r="U19" s="8"/>
+      <c r="V19" s="8"/>
+      <c r="W19" s="8"/>
+      <c r="X19" s="8"/>
+      <c r="Y19" s="8"/>
+      <c r="Z19" s="8"/>
+      <c r="AA19" s="8"/>
+      <c r="AB19" s="8"/>
+      <c r="AC19" s="8"/>
+      <c r="AD19" s="8"/>
+      <c r="AE19" s="8"/>
+      <c r="AF19" s="8"/>
+      <c r="AG19" s="8"/>
+      <c r="AH19" s="8"/>
+      <c r="AI19" s="8"/>
+      <c r="AJ19" s="8"/>
+      <c r="AK19" s="8"/>
+      <c r="AL19" s="8"/>
+      <c r="AM19" s="8"/>
+      <c r="AN19" s="8"/>
+      <c r="AO19" s="8"/>
+      <c r="AP19" s="8"/>
+      <c r="AQ19" s="8"/>
+      <c r="AR19" s="8"/>
+      <c r="AS19" s="8">
+        <v>1</v>
+      </c>
+      <c r="AT19" s="8">
+        <v>0</v>
+      </c>
+      <c r="AU19" s="8">
+        <v>1</v>
+      </c>
+      <c r="AV19" s="8">
+        <v>0</v>
+      </c>
+      <c r="AW19" s="8">
+        <v>0</v>
+      </c>
+      <c r="AX19" s="8">
+        <v>0</v>
+      </c>
+      <c r="AY19" s="8">
+        <v>1</v>
+      </c>
+      <c r="AZ19" s="8">
+        <v>0</v>
+      </c>
+      <c r="BA19" s="8">
+        <v>0</v>
+      </c>
+      <c r="BB19" s="8">
+        <v>0</v>
+      </c>
+      <c r="BC19" s="8">
+        <v>1</v>
+      </c>
+      <c r="BD19" s="8">
+        <v>0</v>
+      </c>
+      <c r="BE19" s="8">
+        <v>0</v>
+      </c>
+      <c r="BF19" s="8">
+        <v>1</v>
+      </c>
+      <c r="BG19" s="8">
+        <v>0</v>
+      </c>
+      <c r="BH19" s="8">
+        <v>0</v>
+      </c>
+      <c r="BI19" s="8"/>
+      <c r="BJ19" s="8"/>
+      <c r="BK19" s="8"/>
+      <c r="BL19" s="8"/>
+    </row>
+    <row r="20" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A20" s="29" t="s">
+        <v>196</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="8"/>
+      <c r="S20" s="8"/>
+      <c r="T20" s="8"/>
+      <c r="U20" s="8"/>
+      <c r="V20" s="8"/>
+      <c r="W20" s="8"/>
+      <c r="X20" s="8"/>
+      <c r="Y20" s="8"/>
+      <c r="Z20" s="8"/>
+      <c r="AA20" s="8"/>
+      <c r="AB20" s="8"/>
+      <c r="AC20" s="8"/>
+      <c r="AD20" s="8"/>
+      <c r="AE20" s="8"/>
+      <c r="AF20" s="8"/>
+      <c r="AG20" s="8"/>
+      <c r="AH20" s="8"/>
+      <c r="AI20" s="8"/>
+      <c r="AJ20" s="8"/>
+      <c r="AK20" s="8"/>
+      <c r="AL20" s="8"/>
+      <c r="AM20" s="8"/>
+      <c r="AN20" s="8"/>
+      <c r="AO20" s="8"/>
+      <c r="AP20" s="8"/>
+      <c r="AQ20" s="8"/>
+      <c r="AR20" s="8"/>
+      <c r="AS20" s="8">
+        <v>0</v>
+      </c>
+      <c r="AT20" s="8">
+        <v>1</v>
+      </c>
+      <c r="AU20" s="8">
+        <v>1</v>
+      </c>
+      <c r="AV20" s="8">
+        <v>0</v>
+      </c>
+      <c r="AW20" s="8">
+        <v>0</v>
+      </c>
+      <c r="AX20" s="8">
+        <v>0</v>
+      </c>
+      <c r="AY20" s="8">
+        <v>1</v>
+      </c>
+      <c r="AZ20" s="8">
+        <v>0</v>
+      </c>
+      <c r="BA20" s="8">
+        <v>0</v>
+      </c>
+      <c r="BB20" s="8">
+        <v>0</v>
+      </c>
+      <c r="BC20" s="8">
+        <v>1</v>
+      </c>
+      <c r="BD20" s="8">
+        <v>0</v>
+      </c>
+      <c r="BE20" s="8">
+        <v>0</v>
+      </c>
+      <c r="BF20" s="8">
+        <v>1</v>
+      </c>
+      <c r="BG20" s="8">
+        <v>0</v>
+      </c>
+      <c r="BH20" s="8">
+        <v>0</v>
+      </c>
+      <c r="BI20" s="8"/>
+      <c r="BJ20" s="8"/>
+      <c r="BK20" s="8"/>
+      <c r="BL20" s="8"/>
+    </row>
+    <row r="21" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A21" s="29" t="s">
+        <v>196</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="8"/>
+      <c r="T21" s="8"/>
+      <c r="U21" s="8"/>
+      <c r="V21" s="8"/>
+      <c r="W21" s="8"/>
+      <c r="X21" s="8"/>
+      <c r="Y21" s="8"/>
+      <c r="Z21" s="8"/>
+      <c r="AA21" s="8"/>
+      <c r="AB21" s="8"/>
+      <c r="AC21" s="8"/>
+      <c r="AD21" s="8"/>
+      <c r="AE21" s="8"/>
+      <c r="AF21" s="8"/>
+      <c r="AG21" s="8"/>
+      <c r="AH21" s="8"/>
+      <c r="AI21" s="8"/>
+      <c r="AJ21" s="8"/>
+      <c r="AK21" s="8"/>
+      <c r="AL21" s="8"/>
+      <c r="AM21" s="8"/>
+      <c r="AN21" s="8"/>
+      <c r="AO21" s="8"/>
+      <c r="AP21" s="8"/>
+      <c r="AQ21" s="8"/>
+      <c r="AR21" s="8"/>
+      <c r="AS21" s="8">
+        <v>0</v>
+      </c>
+      <c r="AT21" s="8">
+        <v>0</v>
+      </c>
+      <c r="AU21" s="8">
+        <v>0</v>
+      </c>
+      <c r="AV21" s="8">
+        <v>0</v>
+      </c>
+      <c r="AW21" s="8">
+        <v>1</v>
+      </c>
+      <c r="AX21" s="8">
+        <v>0</v>
+      </c>
+      <c r="AY21" s="8">
+        <v>0</v>
+      </c>
+      <c r="AZ21" s="8">
+        <v>0</v>
+      </c>
+      <c r="BA21" s="8">
+        <v>1</v>
+      </c>
+      <c r="BB21" s="8">
+        <v>0</v>
+      </c>
+      <c r="BC21" s="8">
+        <v>0</v>
+      </c>
+      <c r="BD21" s="8">
+        <v>1</v>
+      </c>
+      <c r="BE21" s="8">
+        <v>0</v>
+      </c>
+      <c r="BF21" s="8">
+        <v>0</v>
+      </c>
+      <c r="BG21" s="8">
+        <v>0</v>
+      </c>
+      <c r="BH21" s="8">
+        <v>0</v>
+      </c>
+      <c r="BI21" s="8"/>
+      <c r="BJ21" s="8"/>
+      <c r="BK21" s="8"/>
+      <c r="BL21" s="8"/>
+    </row>
+    <row r="22" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A22" s="29" t="s">
+        <v>196</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="8"/>
+      <c r="T22" s="8"/>
+      <c r="U22" s="8"/>
+      <c r="V22" s="8"/>
+      <c r="W22" s="8"/>
+      <c r="X22" s="8"/>
+      <c r="Y22" s="8"/>
+      <c r="Z22" s="8"/>
+      <c r="AA22" s="8"/>
+      <c r="AB22" s="8"/>
+      <c r="AC22" s="8"/>
+      <c r="AD22" s="8"/>
+      <c r="AE22" s="8"/>
+      <c r="AF22" s="8"/>
+      <c r="AG22" s="8"/>
+      <c r="AH22" s="8"/>
+      <c r="AI22" s="8"/>
+      <c r="AJ22" s="8"/>
+      <c r="AK22" s="8"/>
+      <c r="AL22" s="8"/>
+      <c r="AM22" s="8"/>
+      <c r="AN22" s="8"/>
+      <c r="AO22" s="8"/>
+      <c r="AP22" s="8"/>
+      <c r="AQ22" s="8"/>
+      <c r="AR22" s="8"/>
+      <c r="AS22" s="8">
+        <v>0</v>
+      </c>
+      <c r="AT22" s="8">
+        <v>0</v>
+      </c>
+      <c r="AU22" s="8">
+        <v>0</v>
+      </c>
+      <c r="AV22" s="8">
+        <v>0</v>
+      </c>
+      <c r="AW22" s="8">
+        <v>0</v>
+      </c>
+      <c r="AX22" s="8">
+        <v>1</v>
+      </c>
+      <c r="AY22" s="8">
+        <v>0</v>
+      </c>
+      <c r="AZ22" s="8">
+        <v>0</v>
+      </c>
+      <c r="BA22" s="8">
+        <v>0</v>
+      </c>
+      <c r="BB22" s="8">
+        <v>1</v>
+      </c>
+      <c r="BC22" s="8">
+        <v>0</v>
+      </c>
+      <c r="BD22" s="8">
+        <v>0</v>
+      </c>
+      <c r="BE22" s="8">
+        <v>1</v>
+      </c>
+      <c r="BF22" s="8">
+        <v>0</v>
+      </c>
+      <c r="BG22" s="8">
+        <v>0</v>
+      </c>
+      <c r="BH22" s="8">
+        <v>0</v>
+      </c>
+      <c r="BI22" s="8"/>
+      <c r="BJ22" s="8"/>
+      <c r="BK22" s="8"/>
+      <c r="BL22" s="8"/>
+    </row>
+    <row r="23" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A23" s="29" t="s">
+        <v>196</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="8"/>
+      <c r="S23" s="8"/>
+      <c r="T23" s="8"/>
+      <c r="U23" s="8"/>
+      <c r="V23" s="8"/>
+      <c r="W23" s="8"/>
+      <c r="X23" s="8"/>
+      <c r="Y23" s="8"/>
+      <c r="Z23" s="8"/>
+      <c r="AA23" s="8"/>
+      <c r="AB23" s="8"/>
+      <c r="AC23" s="8"/>
+      <c r="AD23" s="8"/>
+      <c r="AE23" s="8"/>
+      <c r="AF23" s="8"/>
+      <c r="AG23" s="8"/>
+      <c r="AH23" s="8"/>
+      <c r="AI23" s="8"/>
+      <c r="AJ23" s="8"/>
+      <c r="AK23" s="8"/>
+      <c r="AL23" s="8"/>
+      <c r="AM23" s="8"/>
+      <c r="AN23" s="8"/>
+      <c r="AO23" s="8"/>
+      <c r="AP23" s="8"/>
+      <c r="AQ23" s="8"/>
+      <c r="AR23" s="8"/>
+      <c r="AS23" s="8">
+        <v>0</v>
+      </c>
+      <c r="AT23" s="8">
+        <v>0</v>
+      </c>
+      <c r="AU23" s="8">
+        <v>0</v>
+      </c>
+      <c r="AV23" s="8">
+        <v>0</v>
+      </c>
+      <c r="AW23" s="8">
+        <v>0</v>
+      </c>
+      <c r="AX23" s="8">
+        <v>0</v>
+      </c>
+      <c r="AY23" s="8">
+        <v>0</v>
+      </c>
+      <c r="AZ23" s="8">
+        <v>0</v>
+      </c>
+      <c r="BA23" s="8">
+        <v>0</v>
+      </c>
+      <c r="BB23" s="8">
+        <v>0</v>
+      </c>
+      <c r="BC23" s="8">
+        <v>0</v>
+      </c>
+      <c r="BD23" s="8">
+        <v>0</v>
+      </c>
+      <c r="BE23" s="8">
+        <v>0</v>
+      </c>
+      <c r="BF23" s="8">
+        <v>0</v>
+      </c>
+      <c r="BG23" s="8">
+        <v>0</v>
+      </c>
+      <c r="BH23" s="8">
+        <v>0</v>
+      </c>
+      <c r="BI23" s="8"/>
+      <c r="BJ23" s="8"/>
+      <c r="BK23" s="8"/>
+      <c r="BL23" s="8"/>
+    </row>
+    <row r="24" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A24" s="29" t="s">
+        <v>197</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="8"/>
+      <c r="U24" s="8"/>
+      <c r="V24" s="8"/>
+      <c r="W24" s="8"/>
+      <c r="X24" s="8"/>
+      <c r="Y24" s="8"/>
+      <c r="Z24" s="8"/>
+      <c r="AA24" s="8"/>
+      <c r="AB24" s="8"/>
+      <c r="AC24" s="8"/>
+      <c r="AD24" s="8"/>
+      <c r="AE24" s="8"/>
+      <c r="AF24" s="8"/>
+      <c r="AG24" s="8"/>
+      <c r="AH24" s="8"/>
+      <c r="AI24" s="8"/>
+      <c r="AJ24" s="8"/>
+      <c r="AK24" s="8"/>
+      <c r="AL24" s="8"/>
+      <c r="AM24" s="8"/>
+      <c r="AN24" s="8"/>
+      <c r="AO24" s="8"/>
+      <c r="AP24" s="8"/>
+      <c r="AQ24" s="8"/>
+      <c r="AR24" s="8"/>
+      <c r="AS24" s="8"/>
+      <c r="AT24" s="8"/>
+      <c r="AU24" s="8"/>
+      <c r="AV24" s="8"/>
+      <c r="AW24" s="8"/>
+      <c r="AX24" s="8"/>
+      <c r="AY24" s="8"/>
+      <c r="AZ24" s="8"/>
+      <c r="BA24" s="8"/>
+      <c r="BB24" s="8"/>
+      <c r="BC24" s="8"/>
+      <c r="BD24" s="8"/>
+      <c r="BE24" s="8"/>
+      <c r="BF24" s="8"/>
+      <c r="BG24" s="8"/>
+      <c r="BH24" s="8"/>
+      <c r="BI24" s="8">
+        <v>1</v>
+      </c>
+      <c r="BJ24" s="8">
+        <v>0</v>
+      </c>
+      <c r="BK24" s="8"/>
+      <c r="BL24" s="8"/>
+    </row>
+    <row r="25" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A25" s="29" t="s">
+        <v>197</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8"/>
+      <c r="S25" s="8"/>
+      <c r="T25" s="8"/>
+      <c r="U25" s="8"/>
+      <c r="V25" s="8"/>
+      <c r="W25" s="8"/>
+      <c r="X25" s="8"/>
+      <c r="Y25" s="8"/>
+      <c r="Z25" s="8"/>
+      <c r="AA25" s="8"/>
+      <c r="AB25" s="8"/>
+      <c r="AC25" s="8"/>
+      <c r="AD25" s="8"/>
+      <c r="AE25" s="8"/>
+      <c r="AF25" s="8"/>
+      <c r="AG25" s="8"/>
+      <c r="AH25" s="8"/>
+      <c r="AI25" s="8"/>
+      <c r="AJ25" s="8"/>
+      <c r="AK25" s="8"/>
+      <c r="AL25" s="8"/>
+      <c r="AM25" s="8"/>
+      <c r="AN25" s="8"/>
+      <c r="AO25" s="8"/>
+      <c r="AP25" s="8"/>
+      <c r="AQ25" s="8"/>
+      <c r="AR25" s="8"/>
+      <c r="AS25" s="8"/>
+      <c r="AT25" s="8"/>
+      <c r="AU25" s="8"/>
+      <c r="AV25" s="8"/>
+      <c r="AW25" s="8"/>
+      <c r="AX25" s="8"/>
+      <c r="AY25" s="8"/>
+      <c r="AZ25" s="8"/>
+      <c r="BA25" s="8"/>
+      <c r="BB25" s="8"/>
+      <c r="BC25" s="8"/>
+      <c r="BD25" s="8"/>
+      <c r="BE25" s="8"/>
+      <c r="BF25" s="8"/>
+      <c r="BG25" s="8"/>
+      <c r="BH25" s="8"/>
+      <c r="BI25" s="8">
+        <v>0</v>
+      </c>
+      <c r="BJ25" s="8">
+        <v>1</v>
+      </c>
+      <c r="BK25" s="8"/>
+      <c r="BL25" s="8"/>
+    </row>
+    <row r="26" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A26" s="29" t="s">
+        <v>197</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
+      <c r="Q26" s="8"/>
+      <c r="R26" s="8"/>
+      <c r="S26" s="8"/>
+      <c r="T26" s="8"/>
+      <c r="U26" s="8"/>
+      <c r="V26" s="8"/>
+      <c r="W26" s="8"/>
+      <c r="X26" s="8"/>
+      <c r="Y26" s="8"/>
+      <c r="Z26" s="8"/>
+      <c r="AA26" s="8"/>
+      <c r="AB26" s="8"/>
+      <c r="AC26" s="8"/>
+      <c r="AD26" s="8"/>
+      <c r="AE26" s="8"/>
+      <c r="AF26" s="8"/>
+      <c r="AG26" s="8"/>
+      <c r="AH26" s="8"/>
+      <c r="AI26" s="8"/>
+      <c r="AJ26" s="8"/>
+      <c r="AK26" s="8"/>
+      <c r="AL26" s="8"/>
+      <c r="AM26" s="8"/>
+      <c r="AN26" s="8"/>
+      <c r="AO26" s="8"/>
+      <c r="AP26" s="8"/>
+      <c r="AQ26" s="8"/>
+      <c r="AR26" s="8"/>
+      <c r="AS26" s="8"/>
+      <c r="AT26" s="8"/>
+      <c r="AU26" s="8"/>
+      <c r="AV26" s="8"/>
+      <c r="AW26" s="8"/>
+      <c r="AX26" s="8"/>
+      <c r="AY26" s="8"/>
+      <c r="AZ26" s="8"/>
+      <c r="BA26" s="8"/>
+      <c r="BB26" s="8"/>
+      <c r="BC26" s="8"/>
+      <c r="BD26" s="8"/>
+      <c r="BE26" s="8"/>
+      <c r="BF26" s="8"/>
+      <c r="BG26" s="8"/>
+      <c r="BH26" s="8"/>
+      <c r="BI26" s="8">
+        <v>0</v>
+      </c>
+      <c r="BJ26" s="8">
+        <v>0</v>
+      </c>
+      <c r="BK26" s="8"/>
+      <c r="BL26" s="8"/>
+    </row>
+    <row r="27" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A27" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="8"/>
+      <c r="Q27" s="8"/>
+      <c r="R27" s="8"/>
+      <c r="S27" s="8"/>
+      <c r="T27" s="8"/>
+      <c r="U27" s="8"/>
+      <c r="V27" s="8"/>
+      <c r="W27" s="8"/>
+      <c r="X27" s="8"/>
+      <c r="Y27" s="8"/>
+      <c r="Z27" s="8"/>
+      <c r="AA27" s="8"/>
+      <c r="AB27" s="8"/>
+      <c r="AC27" s="8"/>
+      <c r="AD27" s="8"/>
+      <c r="AE27" s="8"/>
+      <c r="AF27" s="8"/>
+      <c r="AG27" s="8"/>
+      <c r="AH27" s="8"/>
+      <c r="AI27" s="8"/>
+      <c r="AJ27" s="8">
+        <v>1</v>
+      </c>
+      <c r="AK27" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL27" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM27" s="8"/>
+      <c r="AN27" s="8"/>
+      <c r="AO27" s="8"/>
+      <c r="AP27" s="8"/>
+      <c r="AQ27" s="8"/>
+      <c r="AR27" s="8"/>
+      <c r="AS27" s="8"/>
+      <c r="AT27" s="8"/>
+      <c r="AU27" s="8"/>
+      <c r="AV27" s="8"/>
+      <c r="AW27" s="8"/>
+      <c r="AX27" s="8"/>
+      <c r="AY27" s="8"/>
+      <c r="AZ27" s="8"/>
+      <c r="BA27" s="8"/>
+      <c r="BB27" s="8"/>
+      <c r="BC27" s="8"/>
+      <c r="BD27" s="8"/>
+      <c r="BE27" s="8"/>
+      <c r="BF27" s="8"/>
+      <c r="BG27" s="8"/>
+      <c r="BH27" s="8"/>
+      <c r="BI27" s="8"/>
+      <c r="BJ27" s="8"/>
+      <c r="BK27" s="8"/>
+      <c r="BL27" s="8"/>
+    </row>
+    <row r="28" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A28" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="8"/>
+      <c r="Q28" s="8"/>
+      <c r="R28" s="8"/>
+      <c r="S28" s="8"/>
+      <c r="T28" s="8"/>
+      <c r="U28" s="8"/>
+      <c r="V28" s="8"/>
+      <c r="W28" s="8"/>
+      <c r="X28" s="8"/>
+      <c r="Y28" s="8"/>
+      <c r="Z28" s="8"/>
+      <c r="AA28" s="8"/>
+      <c r="AB28" s="8"/>
+      <c r="AC28" s="8"/>
+      <c r="AD28" s="8"/>
+      <c r="AE28" s="8"/>
+      <c r="AF28" s="8"/>
+      <c r="AG28" s="8"/>
+      <c r="AH28" s="8"/>
+      <c r="AI28" s="8"/>
+      <c r="AJ28" s="8">
+        <v>0</v>
+      </c>
+      <c r="AK28" s="8">
+        <v>1</v>
+      </c>
+      <c r="AL28" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM28" s="8"/>
+      <c r="AN28" s="8"/>
+      <c r="AO28" s="8"/>
+      <c r="AP28" s="8"/>
+      <c r="AQ28" s="8"/>
+      <c r="AR28" s="8"/>
+      <c r="AS28" s="8"/>
+      <c r="AT28" s="8"/>
+      <c r="AU28" s="8"/>
+      <c r="AV28" s="8"/>
+      <c r="AW28" s="8"/>
+      <c r="AX28" s="8"/>
+      <c r="AY28" s="8"/>
+      <c r="AZ28" s="8"/>
+      <c r="BA28" s="8"/>
+      <c r="BB28" s="8"/>
+      <c r="BC28" s="8"/>
+      <c r="BD28" s="8"/>
+      <c r="BE28" s="8"/>
+      <c r="BF28" s="8"/>
+      <c r="BG28" s="8"/>
+      <c r="BH28" s="8"/>
+      <c r="BI28" s="8"/>
+      <c r="BJ28" s="8"/>
+      <c r="BK28" s="8"/>
+      <c r="BL28" s="8"/>
+    </row>
+    <row r="29" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A29" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="8"/>
+      <c r="P29" s="8"/>
+      <c r="Q29" s="8"/>
+      <c r="R29" s="8"/>
+      <c r="S29" s="8"/>
+      <c r="T29" s="8"/>
+      <c r="U29" s="8"/>
+      <c r="V29" s="8"/>
+      <c r="W29" s="8"/>
+      <c r="X29" s="8"/>
+      <c r="Y29" s="8"/>
+      <c r="Z29" s="8"/>
+      <c r="AA29" s="8"/>
+      <c r="AB29" s="8"/>
+      <c r="AC29" s="8"/>
+      <c r="AD29" s="8"/>
+      <c r="AE29" s="8"/>
+      <c r="AF29" s="8"/>
+      <c r="AG29" s="8"/>
+      <c r="AH29" s="8"/>
+      <c r="AI29" s="8"/>
+      <c r="AJ29" s="8">
+        <v>0</v>
+      </c>
+      <c r="AK29" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL29" s="8">
+        <v>1</v>
+      </c>
+      <c r="AM29" s="8"/>
+      <c r="AN29" s="8"/>
+      <c r="AO29" s="8"/>
+      <c r="AP29" s="8"/>
+      <c r="AQ29" s="8"/>
+      <c r="AR29" s="8"/>
+      <c r="AS29" s="8"/>
+      <c r="AT29" s="8"/>
+      <c r="AU29" s="8"/>
+      <c r="AV29" s="8"/>
+      <c r="AW29" s="8"/>
+      <c r="AX29" s="8"/>
+      <c r="AY29" s="8"/>
+      <c r="AZ29" s="8"/>
+      <c r="BA29" s="8"/>
+      <c r="BB29" s="8"/>
+      <c r="BC29" s="8"/>
+      <c r="BD29" s="8"/>
+      <c r="BE29" s="8"/>
+      <c r="BF29" s="8"/>
+      <c r="BG29" s="8"/>
+      <c r="BH29" s="8"/>
+      <c r="BI29" s="8"/>
+      <c r="BJ29" s="8"/>
+      <c r="BK29" s="8"/>
+      <c r="BL29" s="8"/>
+    </row>
+    <row r="30" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A30" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="8"/>
+      <c r="Q30" s="8"/>
+      <c r="R30" s="8"/>
+      <c r="S30" s="8"/>
+      <c r="T30" s="8"/>
+      <c r="U30" s="8"/>
+      <c r="V30" s="8"/>
+      <c r="W30" s="8"/>
+      <c r="X30" s="8"/>
+      <c r="Y30" s="8"/>
+      <c r="Z30" s="8"/>
+      <c r="AA30" s="8"/>
+      <c r="AB30" s="8"/>
+      <c r="AC30" s="8"/>
+      <c r="AD30" s="8"/>
+      <c r="AE30" s="8"/>
+      <c r="AF30" s="8"/>
+      <c r="AG30" s="8"/>
+      <c r="AH30" s="8"/>
+      <c r="AI30" s="8"/>
+      <c r="AJ30" s="8">
+        <v>0</v>
+      </c>
+      <c r="AK30" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL30" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM30" s="8"/>
+      <c r="AN30" s="8"/>
+      <c r="AO30" s="8"/>
+      <c r="AP30" s="8"/>
+      <c r="AQ30" s="8"/>
+      <c r="AR30" s="8"/>
+      <c r="AS30" s="8"/>
+      <c r="AT30" s="8"/>
+      <c r="AU30" s="8"/>
+      <c r="AV30" s="8"/>
+      <c r="AW30" s="8"/>
+      <c r="AX30" s="8"/>
+      <c r="AY30" s="8"/>
+      <c r="AZ30" s="8"/>
+      <c r="BA30" s="8"/>
+      <c r="BB30" s="8"/>
+      <c r="BC30" s="8"/>
+      <c r="BD30" s="8"/>
+      <c r="BE30" s="8"/>
+      <c r="BF30" s="8"/>
+      <c r="BG30" s="8"/>
+      <c r="BH30" s="8"/>
+      <c r="BI30" s="8"/>
+      <c r="BJ30" s="8"/>
+      <c r="BK30" s="8"/>
+      <c r="BL30" s="8"/>
+    </row>
+    <row r="31" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A31" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="8"/>
+      <c r="Q31" s="8"/>
+      <c r="R31" s="8"/>
+      <c r="S31" s="8"/>
+      <c r="T31" s="8"/>
+      <c r="U31" s="8"/>
+      <c r="V31" s="8"/>
+      <c r="W31" s="8"/>
+      <c r="X31" s="8"/>
+      <c r="Y31" s="8"/>
+      <c r="Z31" s="8"/>
+      <c r="AA31" s="8"/>
+      <c r="AB31" s="8"/>
+      <c r="AC31" s="8"/>
+      <c r="AD31" s="8"/>
+      <c r="AE31" s="8"/>
+      <c r="AF31" s="8"/>
+      <c r="AG31" s="8"/>
+      <c r="AH31" s="8"/>
+      <c r="AI31" s="8"/>
+      <c r="AJ31" s="8"/>
+      <c r="AK31" s="8"/>
+      <c r="AL31" s="8"/>
+      <c r="AM31" s="8">
+        <v>1</v>
+      </c>
+      <c r="AN31" s="8">
+        <v>1</v>
+      </c>
+      <c r="AO31" s="8">
+        <v>1</v>
+      </c>
+      <c r="AP31" s="8"/>
+      <c r="AQ31" s="8"/>
+      <c r="AR31" s="8"/>
+      <c r="AS31" s="8"/>
+      <c r="AT31" s="8"/>
+      <c r="AU31" s="8"/>
+      <c r="AV31" s="8"/>
+      <c r="AW31" s="8"/>
+      <c r="AX31" s="8"/>
+      <c r="AY31" s="8"/>
+      <c r="AZ31" s="8"/>
+      <c r="BA31" s="8"/>
+      <c r="BB31" s="8"/>
+      <c r="BC31" s="8"/>
+      <c r="BD31" s="8"/>
+      <c r="BE31" s="8"/>
+      <c r="BF31" s="8"/>
+      <c r="BG31" s="8"/>
+      <c r="BH31" s="8"/>
+      <c r="BI31" s="8"/>
+      <c r="BJ31" s="8"/>
+      <c r="BK31" s="8"/>
+      <c r="BL31" s="8"/>
+    </row>
+    <row r="32" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A32" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="8"/>
+      <c r="P32" s="8"/>
+      <c r="Q32" s="8"/>
+      <c r="R32" s="8"/>
+      <c r="S32" s="8"/>
+      <c r="T32" s="8"/>
+      <c r="U32" s="8"/>
+      <c r="V32" s="8"/>
+      <c r="W32" s="8"/>
+      <c r="X32" s="8"/>
+      <c r="Y32" s="8"/>
+      <c r="Z32" s="8"/>
+      <c r="AA32" s="8"/>
+      <c r="AB32" s="8"/>
+      <c r="AC32" s="8"/>
+      <c r="AD32" s="8"/>
+      <c r="AE32" s="8"/>
+      <c r="AF32" s="8"/>
+      <c r="AG32" s="8"/>
+      <c r="AH32" s="8"/>
+      <c r="AI32" s="8"/>
+      <c r="AJ32" s="8"/>
+      <c r="AK32" s="8"/>
+      <c r="AL32" s="8"/>
+      <c r="AM32" s="8">
+        <v>0</v>
+      </c>
+      <c r="AN32" s="8">
+        <v>1</v>
+      </c>
+      <c r="AO32" s="8">
+        <v>1</v>
+      </c>
+      <c r="AP32" s="8"/>
+      <c r="AQ32" s="8"/>
+      <c r="AR32" s="8"/>
+      <c r="AS32" s="8"/>
+      <c r="AT32" s="8"/>
+      <c r="AU32" s="8"/>
+      <c r="AV32" s="8"/>
+      <c r="AW32" s="8"/>
+      <c r="AX32" s="8"/>
+      <c r="AY32" s="8"/>
+      <c r="AZ32" s="8"/>
+      <c r="BA32" s="8"/>
+      <c r="BB32" s="8"/>
+      <c r="BC32" s="8"/>
+      <c r="BD32" s="8"/>
+      <c r="BE32" s="8"/>
+      <c r="BF32" s="8"/>
+      <c r="BG32" s="8"/>
+      <c r="BH32" s="8"/>
+      <c r="BI32" s="8"/>
+      <c r="BJ32" s="8"/>
+      <c r="BK32" s="8"/>
+      <c r="BL32" s="8"/>
+    </row>
+    <row r="33" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A33" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="8"/>
+      <c r="P33" s="8"/>
+      <c r="Q33" s="8"/>
+      <c r="R33" s="8"/>
+      <c r="S33" s="8"/>
+      <c r="T33" s="8"/>
+      <c r="U33" s="8"/>
+      <c r="V33" s="8"/>
+      <c r="W33" s="8"/>
+      <c r="X33" s="8"/>
+      <c r="Y33" s="8"/>
+      <c r="Z33" s="8"/>
+      <c r="AA33" s="8"/>
+      <c r="AB33" s="8"/>
+      <c r="AC33" s="8"/>
+      <c r="AD33" s="8"/>
+      <c r="AE33" s="8"/>
+      <c r="AF33" s="8"/>
+      <c r="AG33" s="8"/>
+      <c r="AH33" s="8"/>
+      <c r="AI33" s="8"/>
+      <c r="AJ33" s="8"/>
+      <c r="AK33" s="8"/>
+      <c r="AL33" s="8"/>
+      <c r="AM33" s="8">
+        <v>0</v>
+      </c>
+      <c r="AN33" s="8">
+        <v>0</v>
+      </c>
+      <c r="AO33" s="8">
+        <v>1</v>
+      </c>
+      <c r="AP33" s="8"/>
+      <c r="AQ33" s="8"/>
+      <c r="AR33" s="8"/>
+      <c r="AS33" s="8"/>
+      <c r="AT33" s="8"/>
+      <c r="AU33" s="8"/>
+      <c r="AV33" s="8"/>
+      <c r="AW33" s="8"/>
+      <c r="AX33" s="8"/>
+      <c r="AY33" s="8"/>
+      <c r="AZ33" s="8"/>
+      <c r="BA33" s="8"/>
+      <c r="BB33" s="8"/>
+      <c r="BC33" s="8"/>
+      <c r="BD33" s="8"/>
+      <c r="BE33" s="8"/>
+      <c r="BF33" s="8"/>
+      <c r="BG33" s="8"/>
+      <c r="BH33" s="8"/>
+      <c r="BI33" s="8"/>
+      <c r="BJ33" s="8"/>
+      <c r="BK33" s="8"/>
+      <c r="BL33" s="8"/>
+    </row>
+    <row r="34" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A34" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="8"/>
+      <c r="O34" s="8"/>
+      <c r="P34" s="8"/>
+      <c r="Q34" s="8"/>
+      <c r="R34" s="8"/>
+      <c r="S34" s="8"/>
+      <c r="T34" s="8"/>
+      <c r="U34" s="8"/>
+      <c r="V34" s="8"/>
+      <c r="W34" s="8"/>
+      <c r="X34" s="8"/>
+      <c r="Y34" s="8"/>
+      <c r="Z34" s="8"/>
+      <c r="AA34" s="8"/>
+      <c r="AB34" s="8"/>
+      <c r="AC34" s="8"/>
+      <c r="AD34" s="8"/>
+      <c r="AE34" s="8"/>
+      <c r="AF34" s="8"/>
+      <c r="AG34" s="8"/>
+      <c r="AH34" s="8"/>
+      <c r="AI34" s="8"/>
+      <c r="AJ34" s="8"/>
+      <c r="AK34" s="8"/>
+      <c r="AL34" s="8"/>
+      <c r="AM34" s="8">
+        <v>0</v>
+      </c>
+      <c r="AN34" s="8">
+        <v>1</v>
+      </c>
+      <c r="AO34" s="8">
+        <v>0</v>
+      </c>
+      <c r="AP34" s="8"/>
+      <c r="AQ34" s="8"/>
+      <c r="AR34" s="8"/>
+      <c r="AS34" s="8"/>
+      <c r="AT34" s="8"/>
+      <c r="AU34" s="8"/>
+      <c r="AV34" s="8"/>
+      <c r="AW34" s="8"/>
+      <c r="AX34" s="8"/>
+      <c r="AY34" s="8"/>
+      <c r="AZ34" s="8"/>
+      <c r="BA34" s="8"/>
+      <c r="BB34" s="8"/>
+      <c r="BC34" s="8"/>
+      <c r="BD34" s="8"/>
+      <c r="BE34" s="8"/>
+      <c r="BF34" s="8"/>
+      <c r="BG34" s="8"/>
+      <c r="BH34" s="8"/>
+      <c r="BI34" s="8"/>
+      <c r="BJ34" s="8"/>
+      <c r="BK34" s="8"/>
+      <c r="BL34" s="8"/>
+    </row>
+    <row r="35" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A35" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="8"/>
+      <c r="O35" s="8"/>
+      <c r="P35" s="8"/>
+      <c r="Q35" s="8"/>
+      <c r="R35" s="8"/>
+      <c r="S35" s="8"/>
+      <c r="T35" s="8"/>
+      <c r="U35" s="8"/>
+      <c r="V35" s="8"/>
+      <c r="W35" s="8"/>
+      <c r="X35" s="8"/>
+      <c r="Y35" s="8"/>
+      <c r="Z35" s="8"/>
+      <c r="AA35" s="8"/>
+      <c r="AB35" s="8"/>
+      <c r="AC35" s="8"/>
+      <c r="AD35" s="8"/>
+      <c r="AE35" s="8"/>
+      <c r="AF35" s="8"/>
+      <c r="AG35" s="8"/>
+      <c r="AH35" s="8"/>
+      <c r="AI35" s="8"/>
+      <c r="AJ35" s="8"/>
+      <c r="AK35" s="8"/>
+      <c r="AL35" s="8"/>
+      <c r="AM35" s="8">
+        <v>0</v>
+      </c>
+      <c r="AN35" s="8">
+        <v>0</v>
+      </c>
+      <c r="AO35" s="8">
+        <v>0</v>
+      </c>
+      <c r="AP35" s="8"/>
+      <c r="AQ35" s="8"/>
+      <c r="AR35" s="8"/>
+      <c r="AS35" s="8"/>
+      <c r="AT35" s="8"/>
+      <c r="AU35" s="8"/>
+      <c r="AV35" s="8"/>
+      <c r="AW35" s="8"/>
+      <c r="AX35" s="8"/>
+      <c r="AY35" s="8"/>
+      <c r="AZ35" s="8"/>
+      <c r="BA35" s="8"/>
+      <c r="BB35" s="8"/>
+      <c r="BC35" s="8"/>
+      <c r="BD35" s="8"/>
+      <c r="BE35" s="8"/>
+      <c r="BF35" s="8"/>
+      <c r="BG35" s="8"/>
+      <c r="BH35" s="8"/>
+      <c r="BI35" s="8"/>
+      <c r="BJ35" s="8"/>
+      <c r="BK35" s="8"/>
+      <c r="BL35" s="8"/>
+    </row>
+    <row r="36" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A36" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
+      <c r="N36" s="8"/>
+      <c r="O36" s="8"/>
+      <c r="P36" s="8"/>
+      <c r="Q36" s="8"/>
+      <c r="R36" s="8"/>
+      <c r="S36" s="8"/>
+      <c r="T36" s="8"/>
+      <c r="U36" s="8"/>
+      <c r="V36" s="8"/>
+      <c r="W36" s="8"/>
+      <c r="X36" s="8"/>
+      <c r="Y36" s="8"/>
+      <c r="Z36" s="8"/>
+      <c r="AA36" s="8"/>
+      <c r="AB36" s="8"/>
+      <c r="AC36" s="8"/>
+      <c r="AD36" s="8"/>
+      <c r="AE36" s="8"/>
+      <c r="AF36" s="8"/>
+      <c r="AG36" s="8"/>
+      <c r="AH36" s="8"/>
+      <c r="AI36" s="8"/>
+      <c r="AJ36" s="8"/>
+      <c r="AK36" s="8"/>
+      <c r="AL36" s="8"/>
+      <c r="AM36" s="8">
+        <v>1</v>
+      </c>
+      <c r="AN36" s="8"/>
+      <c r="AO36" s="8"/>
+      <c r="AP36" s="8"/>
+      <c r="AQ36" s="8"/>
+      <c r="AR36" s="8"/>
+      <c r="AS36" s="8"/>
+      <c r="AT36" s="8"/>
+      <c r="AU36" s="8"/>
+      <c r="AV36" s="8"/>
+      <c r="AW36" s="8"/>
+      <c r="AX36" s="8"/>
+      <c r="AY36" s="8"/>
+      <c r="AZ36" s="8"/>
+      <c r="BA36" s="8"/>
+      <c r="BB36" s="8"/>
+      <c r="BC36" s="8"/>
+      <c r="BD36" s="8"/>
+      <c r="BE36" s="8"/>
+      <c r="BF36" s="8"/>
+      <c r="BG36" s="8"/>
+      <c r="BH36" s="8"/>
+      <c r="BI36" s="8"/>
+      <c r="BJ36" s="8"/>
+      <c r="BK36" s="8"/>
+      <c r="BL36" s="8"/>
+    </row>
+    <row r="37" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A37" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
+      <c r="N37" s="8"/>
+      <c r="O37" s="8"/>
+      <c r="P37" s="8"/>
+      <c r="Q37" s="8"/>
+      <c r="R37" s="8"/>
+      <c r="S37" s="8"/>
+      <c r="T37" s="8"/>
+      <c r="U37" s="8"/>
+      <c r="V37" s="8"/>
+      <c r="W37" s="8"/>
+      <c r="X37" s="8"/>
+      <c r="Y37" s="8"/>
+      <c r="Z37" s="8"/>
+      <c r="AA37" s="8"/>
+      <c r="AB37" s="8"/>
+      <c r="AC37" s="8"/>
+      <c r="AD37" s="8"/>
+      <c r="AE37" s="8"/>
+      <c r="AF37" s="8"/>
+      <c r="AG37" s="8"/>
+      <c r="AH37" s="8"/>
+      <c r="AI37" s="8"/>
+      <c r="AJ37" s="8"/>
+      <c r="AK37" s="8"/>
+      <c r="AL37" s="8"/>
+      <c r="AM37" s="8">
+        <v>0</v>
+      </c>
+      <c r="AN37" s="8"/>
+      <c r="AO37" s="8"/>
+      <c r="AP37" s="8"/>
+      <c r="AQ37" s="8"/>
+      <c r="AR37" s="8"/>
+      <c r="AS37" s="8"/>
+      <c r="AT37" s="8"/>
+      <c r="AU37" s="8"/>
+      <c r="AV37" s="8"/>
+      <c r="AW37" s="8"/>
+      <c r="AX37" s="8"/>
+      <c r="AY37" s="8"/>
+      <c r="AZ37" s="8"/>
+      <c r="BA37" s="8"/>
+      <c r="BB37" s="8"/>
+      <c r="BC37" s="8"/>
+      <c r="BD37" s="8"/>
+      <c r="BE37" s="8"/>
+      <c r="BF37" s="8"/>
+      <c r="BG37" s="8"/>
+      <c r="BH37" s="8"/>
+      <c r="BI37" s="8"/>
+      <c r="BJ37" s="8"/>
+      <c r="BK37" s="8"/>
+      <c r="BL37" s="8"/>
+    </row>
+    <row r="38" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A38" s="29" t="s">
+        <v>199</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="8"/>
+      <c r="O38" s="8"/>
+      <c r="P38" s="8"/>
+      <c r="Q38" s="8"/>
+      <c r="R38" s="8"/>
+      <c r="S38" s="8"/>
+      <c r="T38" s="8"/>
+      <c r="U38" s="8"/>
+      <c r="V38" s="8"/>
+      <c r="W38" s="8"/>
+      <c r="X38" s="8"/>
+      <c r="Y38" s="8"/>
+      <c r="Z38" s="8"/>
+      <c r="AA38" s="8"/>
+      <c r="AB38" s="8"/>
+      <c r="AC38" s="8"/>
+      <c r="AD38" s="8"/>
+      <c r="AE38" s="8"/>
+      <c r="AF38" s="8"/>
+      <c r="AG38" s="8"/>
+      <c r="AH38" s="8"/>
+      <c r="AI38" s="8"/>
+      <c r="AJ38" s="8"/>
+      <c r="AK38" s="8"/>
+      <c r="AL38" s="8"/>
+      <c r="AM38" s="8"/>
+      <c r="AN38" s="8">
+        <v>1</v>
+      </c>
+      <c r="AO38" s="8"/>
+      <c r="AP38" s="8"/>
+      <c r="AQ38" s="8"/>
+      <c r="AR38" s="8"/>
+      <c r="AS38" s="8"/>
+      <c r="AT38" s="8"/>
+      <c r="AU38" s="8"/>
+      <c r="AV38" s="8"/>
+      <c r="AW38" s="8"/>
+      <c r="AX38" s="8"/>
+      <c r="AY38" s="8"/>
+      <c r="AZ38" s="8"/>
+      <c r="BA38" s="8"/>
+      <c r="BB38" s="8"/>
+      <c r="BC38" s="8"/>
+      <c r="BD38" s="8"/>
+      <c r="BE38" s="8"/>
+      <c r="BF38" s="8"/>
+      <c r="BG38" s="8"/>
+      <c r="BH38" s="8"/>
+      <c r="BI38" s="8"/>
+      <c r="BJ38" s="8"/>
+      <c r="BK38" s="8"/>
+      <c r="BL38" s="8"/>
+    </row>
+    <row r="39" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A39" s="29" t="s">
+        <v>199</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8"/>
+      <c r="N39" s="8"/>
+      <c r="O39" s="8"/>
+      <c r="P39" s="8"/>
+      <c r="Q39" s="8"/>
+      <c r="R39" s="8"/>
+      <c r="S39" s="8"/>
+      <c r="T39" s="8"/>
+      <c r="U39" s="8"/>
+      <c r="V39" s="8"/>
+      <c r="W39" s="8"/>
+      <c r="X39" s="8"/>
+      <c r="Y39" s="8"/>
+      <c r="Z39" s="8"/>
+      <c r="AA39" s="8"/>
+      <c r="AB39" s="8"/>
+      <c r="AC39" s="8"/>
+      <c r="AD39" s="8"/>
+      <c r="AE39" s="8"/>
+      <c r="AF39" s="8"/>
+      <c r="AG39" s="8"/>
+      <c r="AH39" s="8"/>
+      <c r="AI39" s="8"/>
+      <c r="AJ39" s="8"/>
+      <c r="AK39" s="8"/>
+      <c r="AL39" s="8"/>
+      <c r="AM39" s="8"/>
+      <c r="AN39" s="8">
+        <v>0</v>
+      </c>
+      <c r="AO39" s="8"/>
+      <c r="AP39" s="8"/>
+      <c r="AQ39" s="8"/>
+      <c r="AR39" s="8"/>
+      <c r="AS39" s="8"/>
+      <c r="AT39" s="8"/>
+      <c r="AU39" s="8"/>
+      <c r="AV39" s="8"/>
+      <c r="AW39" s="8"/>
+      <c r="AX39" s="8"/>
+      <c r="AY39" s="8"/>
+      <c r="AZ39" s="8"/>
+      <c r="BA39" s="8"/>
+      <c r="BB39" s="8"/>
+      <c r="BC39" s="8"/>
+      <c r="BD39" s="8"/>
+      <c r="BE39" s="8"/>
+      <c r="BF39" s="8"/>
+      <c r="BG39" s="8"/>
+      <c r="BH39" s="8"/>
+      <c r="BI39" s="8"/>
+      <c r="BJ39" s="8"/>
+      <c r="BK39" s="8"/>
+      <c r="BL39" s="8"/>
+    </row>
+    <row r="40" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A40" s="29" t="s">
+        <v>200</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="8"/>
+      <c r="M40" s="8"/>
+      <c r="N40" s="8"/>
+      <c r="O40" s="8"/>
+      <c r="P40" s="8"/>
+      <c r="Q40" s="8"/>
+      <c r="R40" s="8"/>
+      <c r="S40" s="8"/>
+      <c r="T40" s="8"/>
+      <c r="U40" s="8"/>
+      <c r="V40" s="8"/>
+      <c r="W40" s="8"/>
+      <c r="X40" s="8"/>
+      <c r="Y40" s="8"/>
+      <c r="Z40" s="8"/>
+      <c r="AA40" s="8"/>
+      <c r="AB40" s="8"/>
+      <c r="AC40" s="8"/>
+      <c r="AD40" s="8"/>
+      <c r="AE40" s="8"/>
+      <c r="AF40" s="8"/>
+      <c r="AG40" s="8"/>
+      <c r="AH40" s="8"/>
+      <c r="AI40" s="8"/>
+      <c r="AJ40" s="8"/>
+      <c r="AK40" s="8"/>
+      <c r="AL40" s="8"/>
+      <c r="AM40" s="8"/>
+      <c r="AN40" s="8"/>
+      <c r="AO40" s="8">
+        <v>1</v>
+      </c>
+      <c r="AP40" s="8"/>
+      <c r="AQ40" s="8"/>
+      <c r="AR40" s="8"/>
+      <c r="AS40" s="8"/>
+      <c r="AT40" s="8"/>
+      <c r="AU40" s="8"/>
+      <c r="AV40" s="8"/>
+      <c r="AW40" s="8"/>
+      <c r="AX40" s="8"/>
+      <c r="AY40" s="8"/>
+      <c r="AZ40" s="8"/>
+      <c r="BA40" s="8"/>
+      <c r="BB40" s="8"/>
+      <c r="BC40" s="8"/>
+      <c r="BD40" s="8"/>
+      <c r="BE40" s="8"/>
+      <c r="BF40" s="8"/>
+      <c r="BG40" s="8"/>
+      <c r="BH40" s="8"/>
+      <c r="BI40" s="8"/>
+      <c r="BJ40" s="8"/>
+      <c r="BK40" s="8"/>
+      <c r="BL40" s="8"/>
+    </row>
+    <row r="41" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A41" s="29" t="s">
+        <v>200</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="8"/>
+      <c r="M41" s="8"/>
+      <c r="N41" s="8"/>
+      <c r="O41" s="8"/>
+      <c r="P41" s="8"/>
+      <c r="Q41" s="8"/>
+      <c r="R41" s="8"/>
+      <c r="S41" s="8"/>
+      <c r="T41" s="8"/>
+      <c r="U41" s="8"/>
+      <c r="V41" s="8"/>
+      <c r="W41" s="8"/>
+      <c r="X41" s="8"/>
+      <c r="Y41" s="8"/>
+      <c r="Z41" s="8"/>
+      <c r="AA41" s="8"/>
+      <c r="AB41" s="8"/>
+      <c r="AC41" s="8"/>
+      <c r="AD41" s="8"/>
+      <c r="AE41" s="8"/>
+      <c r="AF41" s="8"/>
+      <c r="AG41" s="8"/>
+      <c r="AH41" s="8"/>
+      <c r="AI41" s="8"/>
+      <c r="AJ41" s="8"/>
+      <c r="AK41" s="8"/>
+      <c r="AL41" s="8"/>
+      <c r="AM41" s="8"/>
+      <c r="AN41" s="8"/>
+      <c r="AO41" s="8">
+        <v>0</v>
+      </c>
+      <c r="AP41" s="8"/>
+      <c r="AQ41" s="8"/>
+      <c r="AR41" s="8"/>
+      <c r="AS41" s="8"/>
+      <c r="AT41" s="8"/>
+      <c r="AU41" s="8"/>
+      <c r="AV41" s="8"/>
+      <c r="AW41" s="8"/>
+      <c r="AX41" s="8"/>
+      <c r="AY41" s="8"/>
+      <c r="AZ41" s="8"/>
+      <c r="BA41" s="8"/>
+      <c r="BB41" s="8"/>
+      <c r="BC41" s="8"/>
+      <c r="BD41" s="8"/>
+      <c r="BE41" s="8"/>
+      <c r="BF41" s="8"/>
+      <c r="BG41" s="8"/>
+      <c r="BH41" s="8"/>
+      <c r="BI41" s="8"/>
+      <c r="BJ41" s="8"/>
+      <c r="BK41" s="8"/>
+      <c r="BL41" s="8"/>
+    </row>
+    <row r="42" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A42" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="8"/>
+      <c r="M42" s="8"/>
+      <c r="N42" s="8"/>
+      <c r="O42" s="8"/>
+      <c r="P42" s="8"/>
+      <c r="Q42" s="8"/>
+      <c r="R42" s="8"/>
+      <c r="S42" s="8"/>
+      <c r="T42" s="8"/>
+      <c r="U42" s="8"/>
+      <c r="V42" s="8"/>
+      <c r="W42" s="8"/>
+      <c r="X42" s="8"/>
+      <c r="Y42" s="8"/>
+      <c r="Z42" s="8"/>
+      <c r="AA42" s="8"/>
+      <c r="AB42" s="8"/>
+      <c r="AC42" s="8"/>
+      <c r="AD42" s="8"/>
+      <c r="AE42" s="8"/>
+      <c r="AF42" s="8"/>
+      <c r="AG42" s="8"/>
+      <c r="AH42" s="8"/>
+      <c r="AI42" s="8"/>
+      <c r="AJ42" s="8"/>
+      <c r="AK42" s="8"/>
+      <c r="AL42" s="8"/>
+      <c r="AM42" s="8"/>
+      <c r="AN42" s="8"/>
+      <c r="AO42" s="8"/>
+      <c r="AP42" s="8">
+        <v>1</v>
+      </c>
+      <c r="AQ42" s="8"/>
+      <c r="AR42" s="8"/>
+      <c r="AS42" s="8"/>
+      <c r="AT42" s="8"/>
+      <c r="AU42" s="8"/>
+      <c r="AV42" s="8"/>
+      <c r="AW42" s="8"/>
+      <c r="AX42" s="8"/>
+      <c r="AY42" s="8"/>
+      <c r="AZ42" s="8"/>
+      <c r="BA42" s="8"/>
+      <c r="BB42" s="8"/>
+      <c r="BC42" s="8"/>
+      <c r="BD42" s="8"/>
+      <c r="BE42" s="8"/>
+      <c r="BF42" s="8"/>
+      <c r="BG42" s="8"/>
+      <c r="BH42" s="8"/>
+      <c r="BI42" s="8"/>
+      <c r="BJ42" s="8"/>
+      <c r="BK42" s="8"/>
+      <c r="BL42" s="8"/>
+    </row>
+    <row r="43" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A43" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="8"/>
+      <c r="M43" s="8"/>
+      <c r="N43" s="8"/>
+      <c r="O43" s="8"/>
+      <c r="P43" s="8"/>
+      <c r="Q43" s="8"/>
+      <c r="R43" s="8"/>
+      <c r="S43" s="8"/>
+      <c r="T43" s="8"/>
+      <c r="U43" s="8"/>
+      <c r="V43" s="8"/>
+      <c r="W43" s="8"/>
+      <c r="X43" s="8"/>
+      <c r="Y43" s="8"/>
+      <c r="Z43" s="8"/>
+      <c r="AA43" s="8"/>
+      <c r="AB43" s="8"/>
+      <c r="AC43" s="8"/>
+      <c r="AD43" s="8"/>
+      <c r="AE43" s="8"/>
+      <c r="AF43" s="8"/>
+      <c r="AG43" s="8"/>
+      <c r="AH43" s="8"/>
+      <c r="AI43" s="8"/>
+      <c r="AJ43" s="8"/>
+      <c r="AK43" s="8"/>
+      <c r="AL43" s="8"/>
+      <c r="AM43" s="8"/>
+      <c r="AN43" s="8"/>
+      <c r="AO43" s="8"/>
+      <c r="AP43" s="8">
+        <v>0</v>
+      </c>
+      <c r="AQ43" s="8"/>
+      <c r="AR43" s="8"/>
+      <c r="AS43" s="8"/>
+      <c r="AT43" s="8"/>
+      <c r="AU43" s="8"/>
+      <c r="AV43" s="8"/>
+      <c r="AW43" s="8"/>
+      <c r="AX43" s="8"/>
+      <c r="AY43" s="8"/>
+      <c r="AZ43" s="8"/>
+      <c r="BA43" s="8"/>
+      <c r="BB43" s="8"/>
+      <c r="BC43" s="8"/>
+      <c r="BD43" s="8"/>
+      <c r="BE43" s="8"/>
+      <c r="BF43" s="8"/>
+      <c r="BG43" s="8"/>
+      <c r="BH43" s="8"/>
+      <c r="BI43" s="8"/>
+      <c r="BJ43" s="8"/>
+      <c r="BK43" s="8"/>
+      <c r="BL43" s="8"/>
+    </row>
+    <row r="44" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A44" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="8"/>
+      <c r="M44" s="8"/>
+      <c r="N44" s="8"/>
+      <c r="O44" s="8"/>
+      <c r="P44" s="8"/>
+      <c r="Q44" s="8"/>
+      <c r="R44" s="8"/>
+      <c r="S44" s="8"/>
+      <c r="T44" s="8"/>
+      <c r="U44" s="8"/>
+      <c r="V44" s="8"/>
+      <c r="W44" s="8"/>
+      <c r="X44" s="8"/>
+      <c r="Y44" s="8"/>
+      <c r="Z44" s="8"/>
+      <c r="AA44" s="8"/>
+      <c r="AB44" s="8"/>
+      <c r="AC44" s="8"/>
+      <c r="AD44" s="8"/>
+      <c r="AE44" s="8"/>
+      <c r="AF44" s="8"/>
+      <c r="AG44" s="8"/>
+      <c r="AH44" s="8"/>
+      <c r="AI44" s="8"/>
+      <c r="AJ44" s="8"/>
+      <c r="AK44" s="8"/>
+      <c r="AL44" s="8"/>
+      <c r="AM44" s="8"/>
+      <c r="AN44" s="8"/>
+      <c r="AO44" s="8"/>
+      <c r="AP44" s="8"/>
+      <c r="AQ44" s="8">
+        <v>1</v>
+      </c>
+      <c r="AR44" s="8"/>
+      <c r="AS44" s="8"/>
+      <c r="AT44" s="8"/>
+      <c r="AU44" s="8"/>
+      <c r="AV44" s="8"/>
+      <c r="AW44" s="8"/>
+      <c r="AX44" s="8"/>
+      <c r="AY44" s="8"/>
+      <c r="AZ44" s="8"/>
+      <c r="BA44" s="8"/>
+      <c r="BB44" s="8"/>
+      <c r="BC44" s="8"/>
+      <c r="BD44" s="8"/>
+      <c r="BE44" s="8"/>
+      <c r="BF44" s="8"/>
+      <c r="BG44" s="8"/>
+      <c r="BH44" s="8"/>
+      <c r="BI44" s="8"/>
+      <c r="BJ44" s="8"/>
+      <c r="BK44" s="8"/>
+      <c r="BL44" s="8"/>
+    </row>
+    <row r="45" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A45" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="8"/>
+      <c r="K45" s="8"/>
+      <c r="L45" s="8"/>
+      <c r="M45" s="8"/>
+      <c r="N45" s="8"/>
+      <c r="O45" s="8"/>
+      <c r="P45" s="8"/>
+      <c r="Q45" s="8"/>
+      <c r="R45" s="8"/>
+      <c r="S45" s="8"/>
+      <c r="T45" s="8"/>
+      <c r="U45" s="8"/>
+      <c r="V45" s="8"/>
+      <c r="W45" s="8"/>
+      <c r="X45" s="8"/>
+      <c r="Y45" s="8"/>
+      <c r="Z45" s="8"/>
+      <c r="AA45" s="8"/>
+      <c r="AB45" s="8"/>
+      <c r="AC45" s="8"/>
+      <c r="AD45" s="8"/>
+      <c r="AE45" s="8"/>
+      <c r="AF45" s="8"/>
+      <c r="AG45" s="8"/>
+      <c r="AH45" s="8"/>
+      <c r="AI45" s="8"/>
+      <c r="AJ45" s="8"/>
+      <c r="AK45" s="8"/>
+      <c r="AL45" s="8"/>
+      <c r="AM45" s="8"/>
+      <c r="AN45" s="8"/>
+      <c r="AO45" s="8"/>
+      <c r="AP45" s="8"/>
+      <c r="AQ45" s="8">
+        <v>0</v>
+      </c>
+      <c r="AR45" s="8"/>
+      <c r="AS45" s="8"/>
+      <c r="AT45" s="8"/>
+      <c r="AU45" s="8"/>
+      <c r="AV45" s="8"/>
+      <c r="AW45" s="8"/>
+      <c r="AX45" s="8"/>
+      <c r="AY45" s="8"/>
+      <c r="AZ45" s="8"/>
+      <c r="BA45" s="8"/>
+      <c r="BB45" s="8"/>
+      <c r="BC45" s="8"/>
+      <c r="BD45" s="8"/>
+      <c r="BE45" s="8"/>
+      <c r="BF45" s="8"/>
+      <c r="BG45" s="8"/>
+      <c r="BH45" s="8"/>
+      <c r="BI45" s="8"/>
+      <c r="BJ45" s="8"/>
+      <c r="BK45" s="8"/>
+      <c r="BL45" s="8"/>
+    </row>
+    <row r="46" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A46" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
+      <c r="J46" s="8"/>
+      <c r="K46" s="8"/>
+      <c r="L46" s="8"/>
+      <c r="M46" s="8"/>
+      <c r="N46" s="8"/>
+      <c r="O46" s="8"/>
+      <c r="P46" s="8"/>
+      <c r="Q46" s="8"/>
+      <c r="R46" s="8"/>
+      <c r="S46" s="8"/>
+      <c r="T46" s="8"/>
+      <c r="U46" s="8"/>
+      <c r="V46" s="8"/>
+      <c r="W46" s="8"/>
+      <c r="X46" s="8"/>
+      <c r="Y46" s="8"/>
+      <c r="Z46" s="8"/>
+      <c r="AA46" s="8"/>
+      <c r="AB46" s="8"/>
+      <c r="AC46" s="8"/>
+      <c r="AD46" s="8"/>
+      <c r="AE46" s="8"/>
+      <c r="AF46" s="8"/>
+      <c r="AG46" s="8"/>
+      <c r="AH46" s="8"/>
+      <c r="AI46" s="8"/>
+      <c r="AJ46" s="8"/>
+      <c r="AK46" s="8"/>
+      <c r="AL46" s="8"/>
+      <c r="AM46" s="8"/>
+      <c r="AN46" s="8"/>
+      <c r="AO46" s="8"/>
+      <c r="AP46" s="8"/>
+      <c r="AQ46" s="8"/>
+      <c r="AR46" s="8">
+        <v>1</v>
+      </c>
+      <c r="AS46" s="8"/>
+      <c r="AT46" s="8"/>
+      <c r="AU46" s="8"/>
+      <c r="AV46" s="8"/>
+      <c r="AW46" s="8"/>
+      <c r="AX46" s="8"/>
+      <c r="AY46" s="8"/>
+      <c r="AZ46" s="8"/>
+      <c r="BA46" s="8"/>
+      <c r="BB46" s="8"/>
+      <c r="BC46" s="8"/>
+      <c r="BD46" s="8"/>
+      <c r="BE46" s="8"/>
+      <c r="BF46" s="8"/>
+      <c r="BG46" s="8"/>
+      <c r="BH46" s="8"/>
+      <c r="BI46" s="8"/>
+      <c r="BJ46" s="8"/>
+      <c r="BK46" s="8"/>
+      <c r="BL46" s="8"/>
+    </row>
+    <row r="47" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A47" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="8"/>
+      <c r="J47" s="8"/>
+      <c r="K47" s="8"/>
+      <c r="L47" s="8"/>
+      <c r="M47" s="8"/>
+      <c r="N47" s="8"/>
+      <c r="O47" s="8"/>
+      <c r="P47" s="8"/>
+      <c r="Q47" s="8"/>
+      <c r="R47" s="8"/>
+      <c r="S47" s="8"/>
+      <c r="T47" s="8"/>
+      <c r="U47" s="8"/>
+      <c r="V47" s="8"/>
+      <c r="W47" s="8"/>
+      <c r="X47" s="8"/>
+      <c r="Y47" s="8"/>
+      <c r="Z47" s="8"/>
+      <c r="AA47" s="8"/>
+      <c r="AB47" s="8"/>
+      <c r="AC47" s="8"/>
+      <c r="AD47" s="8"/>
+      <c r="AE47" s="8"/>
+      <c r="AF47" s="8"/>
+      <c r="AG47" s="8"/>
+      <c r="AH47" s="8"/>
+      <c r="AI47" s="8"/>
+      <c r="AJ47" s="8"/>
+      <c r="AK47" s="8"/>
+      <c r="AL47" s="8"/>
+      <c r="AM47" s="8"/>
+      <c r="AN47" s="8"/>
+      <c r="AO47" s="8"/>
+      <c r="AP47" s="8"/>
+      <c r="AQ47" s="8"/>
+      <c r="AR47" s="8">
+        <v>0</v>
+      </c>
+      <c r="AS47" s="8"/>
+      <c r="AT47" s="8"/>
+      <c r="AU47" s="8"/>
+      <c r="AV47" s="8"/>
+      <c r="AW47" s="8"/>
+      <c r="AX47" s="8"/>
+      <c r="AY47" s="8"/>
+      <c r="AZ47" s="8"/>
+      <c r="BA47" s="8"/>
+      <c r="BB47" s="8"/>
+      <c r="BC47" s="8"/>
+      <c r="BD47" s="8"/>
+      <c r="BE47" s="8"/>
+      <c r="BF47" s="8"/>
+      <c r="BG47" s="8"/>
+      <c r="BH47" s="8"/>
+      <c r="BI47" s="8"/>
+      <c r="BJ47" s="8"/>
+      <c r="BK47" s="8"/>
+      <c r="BL47" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11985,9 +16203,9 @@
       <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -12118,7 +16336,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A2" s="23">
         <v>56164236</v>
       </c>
@@ -12249,7 +16467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A3" s="23">
         <v>56200741</v>
       </c>
@@ -12380,7 +16598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A4" s="23">
         <v>46493451</v>
       </c>
@@ -12511,7 +16729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A5" s="23">
         <v>69380267</v>
       </c>
@@ -12642,7 +16860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A6" s="23">
         <v>1096498</v>
       </c>
@@ -12773,7 +16991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A7" s="23">
         <v>51426635</v>
       </c>
@@ -12904,7 +17122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A8" s="23">
         <v>46944197</v>
       </c>
@@ -13035,7 +17253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A9" s="23">
         <v>28795409</v>
       </c>
@@ -13166,7 +17384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A10" s="23">
         <v>47571290</v>
       </c>
@@ -13297,7 +17515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A11" s="23">
         <v>11413968</v>
       </c>
@@ -13428,7 +17646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A12" s="23">
         <v>4344010</v>
       </c>
@@ -13559,7 +17777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A13" s="23">
         <v>74542559</v>
       </c>
@@ -13690,7 +17908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A14" s="23">
         <v>46934027</v>
       </c>
@@ -13821,7 +18039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A15" s="23">
         <v>75006472</v>
       </c>
@@ -13952,7 +18170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A16" s="23">
         <v>66951485</v>
       </c>
@@ -14083,7 +18301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A17" s="23">
         <v>28108866</v>
       </c>
@@ -14214,7 +18432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A18" s="23">
         <v>17519585</v>
       </c>
@@ -14345,7 +18563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A19" s="23">
         <v>68917819</v>
       </c>
@@ -14476,7 +18694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A20" s="23">
         <v>48382038</v>
       </c>
@@ -14607,7 +18825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A21" s="23">
         <v>73710974</v>
       </c>
@@ -14738,7 +18956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A22" s="23">
         <v>55165266</v>
       </c>
@@ -14869,7 +19087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A23" s="23">
         <v>42492903</v>
       </c>
@@ -15000,7 +19218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A24" s="23">
         <v>47124308</v>
       </c>
@@ -15131,7 +19349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A25" s="23">
         <v>90797565</v>
       </c>
@@ -15262,7 +19480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A26" s="23">
         <v>15164879</v>
       </c>
@@ -15393,7 +19611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A27" s="23">
         <v>46413030</v>
       </c>
@@ -15524,7 +19742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A28" s="23">
         <v>91345613</v>
       </c>
@@ -15655,7 +19873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A29" s="23">
         <v>64188683</v>
       </c>
@@ -15786,7 +20004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A30" s="23">
         <v>73117537</v>
       </c>
@@ -15917,7 +20135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A31" s="23">
         <v>13279902</v>
       </c>
@@ -16048,7 +20266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A32" s="23">
         <v>84792928</v>
       </c>
@@ -16179,7 +20397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A33" s="23">
         <v>17390759</v>
       </c>
@@ -16310,7 +20528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A34" s="23">
         <v>64014417</v>
       </c>
@@ -16441,7 +20659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A35" s="23">
         <v>85910106</v>
       </c>
@@ -16572,7 +20790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A36" s="23">
         <v>79435129</v>
       </c>
@@ -16708,23 +20926,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BH36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -16906,7 +21124,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="2" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A2" s="23">
         <v>47124308</v>
       </c>
@@ -17088,7 +21306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A3" s="23">
         <v>4344010</v>
       </c>
@@ -17270,7 +21488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A4" s="23">
         <v>46493451</v>
       </c>
@@ -17452,7 +21670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A5" s="23">
         <v>13279902</v>
       </c>
@@ -17634,7 +21852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A6" s="23">
         <v>28108866</v>
       </c>
@@ -17816,7 +22034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A7" s="23">
         <v>85910106</v>
       </c>
@@ -17998,7 +22216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A8" s="23">
         <v>17519585</v>
       </c>
@@ -18180,7 +22398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A9" s="23">
         <v>46934027</v>
       </c>
@@ -18362,7 +22580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A10" s="23">
         <v>64014417</v>
       </c>
@@ -18544,7 +22762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A11" s="23">
         <v>51426635</v>
       </c>
@@ -18726,7 +22944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A12" s="23">
         <v>11413968</v>
       </c>
@@ -18908,7 +23126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A13" s="23">
         <v>84792928</v>
       </c>
@@ -19090,7 +23308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A14" s="23">
         <v>56200741</v>
       </c>
@@ -19272,7 +23490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A15" s="23">
         <v>48382038</v>
       </c>
@@ -19454,7 +23672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A16" s="23">
         <v>91345613</v>
       </c>
@@ -19636,7 +23854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A17" s="23">
         <v>69380267</v>
       </c>
@@ -19818,7 +24036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A18" s="23">
         <v>73710974</v>
       </c>
@@ -20000,7 +24218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A19" s="23">
         <v>68917819</v>
       </c>
@@ -20182,7 +24400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A20" s="23">
         <v>66951485</v>
       </c>
@@ -20364,7 +24582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A21" s="23">
         <v>64188683</v>
       </c>
@@ -20546,7 +24764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A22" s="23">
         <v>79435129</v>
       </c>
@@ -20728,7 +24946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A23" s="23">
         <v>1096498</v>
       </c>
@@ -20910,7 +25128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A24" s="23">
         <v>73117537</v>
       </c>
@@ -21092,7 +25310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A25" s="23">
         <v>55165266</v>
       </c>
@@ -21274,7 +25492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A26" s="23">
         <v>15164879</v>
       </c>
@@ -21456,7 +25674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A27" s="23">
         <v>75006472</v>
       </c>
@@ -21638,7 +25856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A28" s="23">
         <v>46413030</v>
       </c>
@@ -21820,7 +26038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A29" s="23">
         <v>90797565</v>
       </c>
@@ -22002,7 +26220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A30" s="23">
         <v>46944197</v>
       </c>
@@ -22184,7 +26402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A31" s="23">
         <v>74542559</v>
       </c>
@@ -22366,7 +26584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A32" s="23">
         <v>17390759</v>
       </c>
@@ -22548,7 +26766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A33" s="23">
         <v>56164236</v>
       </c>
@@ -22730,7 +26948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A34" s="23">
         <v>28795409</v>
       </c>
@@ -22912,7 +27130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A35" s="23">
         <v>42492903</v>
       </c>
@@ -23094,7 +27312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A36" s="23">
         <v>47571290</v>
       </c>

--- a/earlywarning-pom/Document/test/SME RETAIL/test_BR_SME_Retail.xlsx
+++ b/earlywarning-pom/Document/test/SME RETAIL/test_BR_SME_Retail.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="LOGICA BR" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="202">
   <si>
     <t>SNDG</t>
   </si>
@@ -579,9 +579,6 @@
     <t>S20</t>
   </si>
   <si>
-    <t>Qualitativo</t>
-  </si>
-  <si>
     <t>S01</t>
   </si>
   <si>
@@ -612,12 +609,6 @@
     <t>Covenant</t>
   </si>
   <si>
-    <t>Carta Commerciale</t>
-  </si>
-  <si>
-    <t>Preammortamenti</t>
-  </si>
-  <si>
     <t>SEMAFORO_GARAttEsitoNeg</t>
   </si>
   <si>
@@ -625,6 +616,18 @@
   </si>
   <si>
     <t>SEMAFORO_SocioSocietaSoff</t>
+  </si>
+  <si>
+    <t>sndg</t>
+  </si>
+  <si>
+    <t>semaforo_Qualitativo</t>
+  </si>
+  <si>
+    <t>semaforo_Carta_Commerciale</t>
+  </si>
+  <si>
+    <t>semaforo_Preammortamenti</t>
   </si>
 </sst>
 </file>
@@ -738,7 +741,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -821,9 +824,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1110,25 +1115,25 @@
       <selection pane="bottomRight" activeCell="C2" sqref="C2:C161"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="15.6640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" style="13" customWidth="1"/>
-    <col min="6" max="17" width="15.6640625" style="3" customWidth="1"/>
-    <col min="18" max="25" width="14.6640625" customWidth="1"/>
-    <col min="26" max="34" width="8.88671875" customWidth="1"/>
-    <col min="35" max="35" width="8.88671875" style="3" customWidth="1"/>
-    <col min="36" max="38" width="8.88671875" customWidth="1"/>
-    <col min="39" max="39" width="13.5546875" customWidth="1"/>
-    <col min="40" max="50" width="8.88671875" style="3"/>
-    <col min="51" max="51" width="9.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="8.88671875" style="3"/>
-    <col min="57" max="57" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="15.7109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" style="13" customWidth="1"/>
+    <col min="6" max="17" width="15.7109375" style="3" customWidth="1"/>
+    <col min="18" max="25" width="14.7109375" customWidth="1"/>
+    <col min="26" max="34" width="8.85546875" customWidth="1"/>
+    <col min="35" max="35" width="8.85546875" style="3" customWidth="1"/>
+    <col min="36" max="38" width="8.85546875" customWidth="1"/>
+    <col min="39" max="39" width="13.5703125" customWidth="1"/>
+    <col min="40" max="50" width="8.85546875" style="3"/>
+    <col min="51" max="51" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="8.85546875" style="3"/>
+    <col min="57" max="57" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>180</v>
       </c>
@@ -1301,7 +1306,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B3" s="4">
         <v>43402427</v>
       </c>
@@ -1369,7 +1374,7 @@
       <c r="BD3" s="8"/>
       <c r="BE3" s="5"/>
     </row>
-    <row r="4" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B4" s="5">
         <v>27076016</v>
       </c>
@@ -1437,7 +1442,7 @@
       <c r="BD4" s="8"/>
       <c r="BE4" s="5"/>
     </row>
-    <row r="5" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B5" s="4">
         <v>72859647</v>
       </c>
@@ -1505,7 +1510,7 @@
       <c r="BD5" s="8"/>
       <c r="BE5" s="5"/>
     </row>
-    <row r="6" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B6" s="4">
         <v>27076016</v>
       </c>
@@ -1571,7 +1576,7 @@
       <c r="BD6" s="8"/>
       <c r="BE6" s="5"/>
     </row>
-    <row r="7" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B7" s="4">
         <v>9247213</v>
       </c>
@@ -1637,7 +1642,7 @@
       <c r="BD7" s="8"/>
       <c r="BE7" s="5"/>
     </row>
-    <row r="8" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B8" s="4">
         <v>79455104</v>
       </c>
@@ -1703,7 +1708,7 @@
       <c r="BD8" s="8"/>
       <c r="BE8" s="5"/>
     </row>
-    <row r="9" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B9" s="4">
         <v>17905351</v>
       </c>
@@ -1769,7 +1774,7 @@
       <c r="BD9" s="8"/>
       <c r="BE9" s="5"/>
     </row>
-    <row r="10" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B10" s="4">
         <v>16742755</v>
       </c>
@@ -1835,7 +1840,7 @@
       <c r="BD10" s="8"/>
       <c r="BE10" s="5"/>
     </row>
-    <row r="11" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B11" s="4">
         <v>17708009</v>
       </c>
@@ -1901,7 +1906,7 @@
       <c r="BD11" s="8"/>
       <c r="BE11" s="5"/>
     </row>
-    <row r="12" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B12" s="4">
         <v>16166624</v>
       </c>
@@ -1967,7 +1972,7 @@
       <c r="BD12" s="8"/>
       <c r="BE12" s="5"/>
     </row>
-    <row r="13" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B13" s="4">
         <v>16742755</v>
       </c>
@@ -2033,7 +2038,7 @@
       <c r="BD13" s="8"/>
       <c r="BE13" s="5"/>
     </row>
-    <row r="14" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B14" s="4">
         <v>17882250</v>
       </c>
@@ -2099,7 +2104,7 @@
       <c r="BD14" s="8"/>
       <c r="BE14" s="5"/>
     </row>
-    <row r="15" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>179</v>
       </c>
@@ -2168,7 +2173,7 @@
       <c r="BD15" s="8"/>
       <c r="BE15" s="5"/>
     </row>
-    <row r="16" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B16" s="4">
         <v>17933789</v>
       </c>
@@ -2234,7 +2239,7 @@
       <c r="BD16" s="8"/>
       <c r="BE16" s="5"/>
     </row>
-    <row r="17" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B17" s="4">
         <v>13576608</v>
       </c>
@@ -2300,7 +2305,7 @@
       <c r="BD17" s="8"/>
       <c r="BE17" s="5"/>
     </row>
-    <row r="18" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B18" s="4">
         <v>27076016</v>
       </c>
@@ -2366,7 +2371,7 @@
       <c r="BD18" s="8"/>
       <c r="BE18" s="5"/>
     </row>
-    <row r="19" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B19" s="4">
         <v>8868787</v>
       </c>
@@ -2432,7 +2437,7 @@
       <c r="BD19" s="8"/>
       <c r="BE19" s="5"/>
     </row>
-    <row r="20" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B20" s="4">
         <v>27076016</v>
       </c>
@@ -2498,7 +2503,7 @@
       <c r="BD20" s="8"/>
       <c r="BE20" s="5"/>
     </row>
-    <row r="21" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B21" s="4">
         <v>73149868</v>
       </c>
@@ -2564,7 +2569,7 @@
       <c r="BD21" s="8"/>
       <c r="BE21" s="5"/>
     </row>
-    <row r="22" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B22" s="4">
         <v>46682955</v>
       </c>
@@ -2630,7 +2635,7 @@
       <c r="BD22" s="8"/>
       <c r="BE22" s="5"/>
     </row>
-    <row r="23" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B23" s="4">
         <v>13259874</v>
       </c>
@@ -2696,7 +2701,7 @@
       <c r="BD23" s="8"/>
       <c r="BE23" s="5"/>
     </row>
-    <row r="24" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B24" s="4">
         <v>82354169</v>
       </c>
@@ -2762,7 +2767,7 @@
       <c r="BD24" s="8"/>
       <c r="BE24" s="5"/>
     </row>
-    <row r="25" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B25" s="4">
         <v>27076016</v>
       </c>
@@ -2828,7 +2833,7 @@
       <c r="BD25" s="8"/>
       <c r="BE25" s="5"/>
     </row>
-    <row r="26" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B26" s="4">
         <v>17826108</v>
       </c>
@@ -2894,7 +2899,7 @@
       <c r="BD26" s="8"/>
       <c r="BE26" s="5"/>
     </row>
-    <row r="27" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B27" s="4">
         <v>13558883</v>
       </c>
@@ -2960,7 +2965,7 @@
       <c r="BD27" s="8"/>
       <c r="BE27" s="5"/>
     </row>
-    <row r="28" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B28" s="4">
         <v>39477515</v>
       </c>
@@ -3026,7 +3031,7 @@
       <c r="BD28" s="8"/>
       <c r="BE28" s="5"/>
     </row>
-    <row r="29" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>178</v>
       </c>
@@ -3095,7 +3100,7 @@
       <c r="BD29" s="8"/>
       <c r="BE29" s="5"/>
     </row>
-    <row r="30" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B30" s="4">
         <v>6585550</v>
       </c>
@@ -3161,7 +3166,7 @@
       <c r="BD30" s="8"/>
       <c r="BE30" s="5"/>
     </row>
-    <row r="31" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>178</v>
       </c>
@@ -3230,7 +3235,7 @@
       <c r="BD31" s="8"/>
       <c r="BE31" s="5"/>
     </row>
-    <row r="32" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B32" s="4">
         <v>6585550</v>
       </c>
@@ -3296,7 +3301,7 @@
       <c r="BD32" s="8"/>
       <c r="BE32" s="5"/>
     </row>
-    <row r="33" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B33" s="4">
         <v>39477515</v>
       </c>
@@ -3362,7 +3367,7 @@
       <c r="BD33" s="8"/>
       <c r="BE33" s="5"/>
     </row>
-    <row r="34" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>178</v>
       </c>
@@ -3431,7 +3436,7 @@
       <c r="BD34" s="8"/>
       <c r="BE34" s="5"/>
     </row>
-    <row r="35" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B35" s="4">
         <v>27076016</v>
       </c>
@@ -3497,7 +3502,7 @@
       <c r="BD35" s="8"/>
       <c r="BE35" s="5"/>
     </row>
-    <row r="36" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B36" s="4">
         <v>17941166</v>
       </c>
@@ -3563,7 +3568,7 @@
       <c r="BD36" s="8"/>
       <c r="BE36" s="5"/>
     </row>
-    <row r="37" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B37" s="4">
         <v>9247213</v>
       </c>
@@ -3629,7 +3634,7 @@
       <c r="BD37" s="8"/>
       <c r="BE37" s="5"/>
     </row>
-    <row r="38" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B38" s="4">
         <v>86509813</v>
       </c>
@@ -3695,7 +3700,7 @@
       <c r="BD38" s="8"/>
       <c r="BE38" s="5"/>
     </row>
-    <row r="39" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B39" s="4">
         <v>42647456</v>
       </c>
@@ -3761,7 +3766,7 @@
       <c r="BD39" s="8"/>
       <c r="BE39" s="5"/>
     </row>
-    <row r="40" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B40" s="4">
         <v>46493451</v>
       </c>
@@ -3827,7 +3832,7 @@
       <c r="BD40" s="8"/>
       <c r="BE40" s="5"/>
     </row>
-    <row r="41" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B41" s="4">
         <v>42647456</v>
       </c>
@@ -3893,7 +3898,7 @@
       <c r="BD41" s="8"/>
       <c r="BE41" s="5"/>
     </row>
-    <row r="42" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B42" s="4">
         <v>46493451</v>
       </c>
@@ -3959,7 +3964,7 @@
       <c r="BD42" s="8"/>
       <c r="BE42" s="5"/>
     </row>
-    <row r="43" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B43" s="4">
         <v>17361214</v>
       </c>
@@ -4025,7 +4030,7 @@
       <c r="BD43" s="8"/>
       <c r="BE43" s="5"/>
     </row>
-    <row r="44" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B44" s="14">
         <v>17392845</v>
       </c>
@@ -4091,7 +4096,7 @@
       <c r="BD44" s="8"/>
       <c r="BE44" s="5"/>
     </row>
-    <row r="45" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B45" s="4">
         <v>15987615</v>
       </c>
@@ -4157,7 +4162,7 @@
       <c r="BD45" s="8"/>
       <c r="BE45" s="5"/>
     </row>
-    <row r="46" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B46" s="4">
         <v>17872411</v>
       </c>
@@ -4223,7 +4228,7 @@
       <c r="BD46" s="8"/>
       <c r="BE46" s="5"/>
     </row>
-    <row r="47" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B47" s="4">
         <v>16742755</v>
       </c>
@@ -4289,7 +4294,7 @@
       <c r="BD47" s="8"/>
       <c r="BE47" s="5"/>
     </row>
-    <row r="48" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B48" s="4">
         <v>46493451</v>
       </c>
@@ -4355,7 +4360,7 @@
       <c r="BD48" s="8"/>
       <c r="BE48" s="5"/>
     </row>
-    <row r="49" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B49" s="4">
         <v>24615700</v>
       </c>
@@ -4421,7 +4426,7 @@
       <c r="BD49" s="8"/>
       <c r="BE49" s="5"/>
     </row>
-    <row r="50" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B50" s="4">
         <v>56200741</v>
       </c>
@@ -4487,7 +4492,7 @@
       <c r="BD50" s="8"/>
       <c r="BE50" s="5"/>
     </row>
-    <row r="51" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B51" s="4">
         <v>16742755</v>
       </c>
@@ -4553,7 +4558,7 @@
       <c r="BD51" s="8"/>
       <c r="BE51" s="5"/>
     </row>
-    <row r="52" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>178</v>
       </c>
@@ -4622,7 +4627,7 @@
       <c r="BD52" s="8"/>
       <c r="BE52" s="5"/>
     </row>
-    <row r="53" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B53" s="4">
         <v>26156831</v>
       </c>
@@ -4688,7 +4693,7 @@
       <c r="BD53" s="8"/>
       <c r="BE53" s="5"/>
     </row>
-    <row r="54" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B54" s="4">
         <v>56200741</v>
       </c>
@@ -4754,7 +4759,7 @@
       <c r="BD54" s="8"/>
       <c r="BE54" s="5"/>
     </row>
-    <row r="55" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B55" s="4">
         <v>83505223</v>
       </c>
@@ -4820,7 +4825,7 @@
       <c r="BD55" s="8"/>
       <c r="BE55" s="5"/>
     </row>
-    <row r="56" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B56" s="4">
         <v>69380267</v>
       </c>
@@ -4886,7 +4891,7 @@
       <c r="BD56" s="8"/>
       <c r="BE56" s="5"/>
     </row>
-    <row r="57" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B57" s="4">
         <v>24615700</v>
       </c>
@@ -4952,7 +4957,7 @@
       <c r="BD57" s="8"/>
       <c r="BE57" s="5"/>
     </row>
-    <row r="58" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>178</v>
       </c>
@@ -5021,7 +5026,7 @@
       <c r="BD58" s="8"/>
       <c r="BE58" s="5"/>
     </row>
-    <row r="59" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>178</v>
       </c>
@@ -5090,7 +5095,7 @@
       <c r="BD59" s="8"/>
       <c r="BE59" s="5"/>
     </row>
-    <row r="60" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>178</v>
       </c>
@@ -5159,7 +5164,7 @@
       <c r="BD60" s="8"/>
       <c r="BE60" s="5"/>
     </row>
-    <row r="61" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>178</v>
       </c>
@@ -5228,7 +5233,7 @@
       <c r="BD61" s="8"/>
       <c r="BE61" s="5"/>
     </row>
-    <row r="62" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B62" s="4">
         <v>17260961</v>
       </c>
@@ -5294,7 +5299,7 @@
       <c r="BD62" s="8"/>
       <c r="BE62" s="5"/>
     </row>
-    <row r="63" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B63" s="4">
         <v>17260961</v>
       </c>
@@ -5360,7 +5365,7 @@
       <c r="BD63" s="8"/>
       <c r="BE63" s="5"/>
     </row>
-    <row r="64" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>178</v>
       </c>
@@ -5429,7 +5434,7 @@
       <c r="BD64" s="8"/>
       <c r="BE64" s="5"/>
     </row>
-    <row r="65" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>178</v>
       </c>
@@ -5498,7 +5503,7 @@
       <c r="BD65" s="8"/>
       <c r="BE65" s="5"/>
     </row>
-    <row r="66" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B66" s="4">
         <v>83505223</v>
       </c>
@@ -5564,7 +5569,7 @@
       <c r="BD66" s="8"/>
       <c r="BE66" s="5"/>
     </row>
-    <row r="67" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>179</v>
       </c>
@@ -5633,7 +5638,7 @@
       <c r="BD67" s="8"/>
       <c r="BE67" s="5"/>
     </row>
-    <row r="68" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B68" s="4">
         <v>42647456</v>
       </c>
@@ -5699,7 +5704,7 @@
       <c r="BD68" s="8"/>
       <c r="BE68" s="5"/>
     </row>
-    <row r="69" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B69" s="4">
         <v>86509813</v>
       </c>
@@ -5765,7 +5770,7 @@
       <c r="BD69" s="8"/>
       <c r="BE69" s="5"/>
     </row>
-    <row r="70" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B70" s="4">
         <v>42647456</v>
       </c>
@@ -5831,7 +5836,7 @@
       <c r="BD70" s="8"/>
       <c r="BE70" s="5"/>
     </row>
-    <row r="71" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B71" s="4">
         <v>24406627</v>
       </c>
@@ -5897,7 +5902,7 @@
       <c r="BD71" s="8"/>
       <c r="BE71" s="5"/>
     </row>
-    <row r="72" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B72" s="4">
         <v>42647456</v>
       </c>
@@ -5963,7 +5968,7 @@
       <c r="BD72" s="8"/>
       <c r="BE72" s="5"/>
     </row>
-    <row r="73" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>178</v>
       </c>
@@ -6032,7 +6037,7 @@
       <c r="BD73" s="8"/>
       <c r="BE73" s="5"/>
     </row>
-    <row r="74" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>178</v>
       </c>
@@ -6101,7 +6106,7 @@
       <c r="BD74" s="8"/>
       <c r="BE74" s="5"/>
     </row>
-    <row r="75" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B75" s="4">
         <v>16708822</v>
       </c>
@@ -6167,7 +6172,7 @@
       <c r="BD75" s="8"/>
       <c r="BE75" s="5"/>
     </row>
-    <row r="76" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>178</v>
       </c>
@@ -6236,7 +6241,7 @@
       <c r="BD76" s="8"/>
       <c r="BE76" s="5"/>
     </row>
-    <row r="77" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B77" s="4">
         <v>16708822</v>
       </c>
@@ -6302,7 +6307,7 @@
       <c r="BD77" s="8"/>
       <c r="BE77" s="5"/>
     </row>
-    <row r="78" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>178</v>
       </c>
@@ -6371,7 +6376,7 @@
       <c r="BD78" s="8"/>
       <c r="BE78" s="5"/>
     </row>
-    <row r="79" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>178</v>
       </c>
@@ -6440,7 +6445,7 @@
       <c r="BD79" s="8"/>
       <c r="BE79" s="5"/>
     </row>
-    <row r="80" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>178</v>
       </c>
@@ -6509,7 +6514,7 @@
       <c r="BD80" s="8"/>
       <c r="BE80" s="5"/>
     </row>
-    <row r="81" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B81" s="4">
         <v>8868787</v>
       </c>
@@ -6575,7 +6580,7 @@
       <c r="BD81" s="8"/>
       <c r="BE81" s="5"/>
     </row>
-    <row r="82" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B82" s="4">
         <v>17934256</v>
       </c>
@@ -6641,7 +6646,7 @@
       <c r="BD82" s="8"/>
       <c r="BE82" s="5"/>
     </row>
-    <row r="83" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B83" s="4">
         <v>8868787</v>
       </c>
@@ -6707,7 +6712,7 @@
       <c r="BD83" s="8"/>
       <c r="BE83" s="5"/>
     </row>
-    <row r="84" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>178</v>
       </c>
@@ -6776,7 +6781,7 @@
       <c r="BD84" s="8"/>
       <c r="BE84" s="5"/>
     </row>
-    <row r="85" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B85" s="4">
         <v>17934256</v>
       </c>
@@ -6842,7 +6847,7 @@
       <c r="BD85" s="8"/>
       <c r="BE85" s="5"/>
     </row>
-    <row r="86" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B86" s="4">
         <v>17934256</v>
       </c>
@@ -6908,7 +6913,7 @@
       <c r="BD86" s="8"/>
       <c r="BE86" s="5"/>
     </row>
-    <row r="87" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B87" s="4">
         <v>8868787</v>
       </c>
@@ -6974,7 +6979,7 @@
       <c r="BD87" s="8"/>
       <c r="BE87" s="5"/>
     </row>
-    <row r="88" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>178</v>
       </c>
@@ -7043,7 +7048,7 @@
       <c r="BD88" s="8"/>
       <c r="BE88" s="5"/>
     </row>
-    <row r="89" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B89" s="4">
         <v>66926387</v>
       </c>
@@ -7109,7 +7114,7 @@
       <c r="BD89" s="8"/>
       <c r="BE89" s="5"/>
     </row>
-    <row r="90" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B90" s="4">
         <v>83505223</v>
       </c>
@@ -7175,7 +7180,7 @@
       <c r="BD90" s="8"/>
       <c r="BE90" s="5"/>
     </row>
-    <row r="91" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B91" s="4">
         <v>17781207</v>
       </c>
@@ -7243,7 +7248,7 @@
       <c r="BD91" s="8"/>
       <c r="BE91" s="5"/>
     </row>
-    <row r="92" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B92" s="4">
         <v>37963129</v>
       </c>
@@ -7311,7 +7316,7 @@
       <c r="BD92" s="8"/>
       <c r="BE92" s="5"/>
     </row>
-    <row r="93" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>178</v>
       </c>
@@ -7380,7 +7385,7 @@
       <c r="BD93" s="8"/>
       <c r="BE93" s="5"/>
     </row>
-    <row r="94" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B94" s="4">
         <v>24615700</v>
       </c>
@@ -7446,7 +7451,7 @@
       <c r="BD94" s="8"/>
       <c r="BE94" s="5"/>
     </row>
-    <row r="95" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B95" s="4">
         <v>12273953</v>
       </c>
@@ -7518,7 +7523,7 @@
       <c r="BD95" s="8"/>
       <c r="BE95" s="5"/>
     </row>
-    <row r="96" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B96" s="4">
         <v>58943028</v>
       </c>
@@ -7590,7 +7595,7 @@
       <c r="BD96" s="8"/>
       <c r="BE96" s="5"/>
     </row>
-    <row r="97" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B97" s="4">
         <v>17033219</v>
       </c>
@@ -7662,7 +7667,7 @@
       <c r="BD97" s="8"/>
       <c r="BE97" s="5"/>
     </row>
-    <row r="98" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B98" s="4">
         <v>67354476</v>
       </c>
@@ -7730,7 +7735,7 @@
       <c r="BD98" s="8"/>
       <c r="BE98" s="5"/>
     </row>
-    <row r="99" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>178</v>
       </c>
@@ -7801,7 +7806,7 @@
       <c r="BD99" s="8"/>
       <c r="BE99" s="5"/>
     </row>
-    <row r="100" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>178</v>
       </c>
@@ -7872,7 +7877,7 @@
       <c r="BD100" s="8"/>
       <c r="BE100" s="5"/>
     </row>
-    <row r="101" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B101" s="4">
         <v>24596749</v>
       </c>
@@ -7940,7 +7945,7 @@
       <c r="BD101" s="8"/>
       <c r="BE101" s="5"/>
     </row>
-    <row r="102" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>178</v>
       </c>
@@ -8011,7 +8016,7 @@
       <c r="BD102" s="8"/>
       <c r="BE102" s="5"/>
     </row>
-    <row r="103" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B103" s="4">
         <v>68510291</v>
       </c>
@@ -8079,7 +8084,7 @@
       <c r="BD103" s="8"/>
       <c r="BE103" s="5"/>
     </row>
-    <row r="104" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B104" s="4">
         <v>27674154</v>
       </c>
@@ -8147,7 +8152,7 @@
       <c r="BD104" s="8"/>
       <c r="BE104" s="5"/>
     </row>
-    <row r="105" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>179</v>
       </c>
@@ -8218,7 +8223,7 @@
       <c r="BD105" s="8"/>
       <c r="BE105" s="5"/>
     </row>
-    <row r="106" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B106" s="4">
         <v>87809034</v>
       </c>
@@ -8286,7 +8291,7 @@
       <c r="BD106" s="8"/>
       <c r="BE106" s="5"/>
     </row>
-    <row r="107" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B107" s="4">
         <v>54451661</v>
       </c>
@@ -8354,7 +8359,7 @@
       <c r="BD107" s="8"/>
       <c r="BE107" s="5"/>
     </row>
-    <row r="108" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>179</v>
       </c>
@@ -8425,7 +8430,7 @@
       <c r="BD108" s="8"/>
       <c r="BE108" s="5"/>
     </row>
-    <row r="109" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B109" s="4">
         <v>54451661</v>
       </c>
@@ -8493,7 +8498,7 @@
       <c r="BD109" s="8"/>
       <c r="BE109" s="5"/>
     </row>
-    <row r="110" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B110" s="4">
         <v>27674154</v>
       </c>
@@ -8561,7 +8566,7 @@
       <c r="BD110" s="8"/>
       <c r="BE110" s="5"/>
     </row>
-    <row r="111" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>178</v>
       </c>
@@ -8632,7 +8637,7 @@
       <c r="BD111" s="8"/>
       <c r="BE111" s="5"/>
     </row>
-    <row r="112" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>179</v>
       </c>
@@ -8703,7 +8708,7 @@
       <c r="BD112" s="8"/>
       <c r="BE112" s="5"/>
     </row>
-    <row r="113" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B113" s="4">
         <v>17032891</v>
       </c>
@@ -8771,7 +8776,7 @@
       <c r="BD113" s="8"/>
       <c r="BE113" s="5"/>
     </row>
-    <row r="114" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B114" s="4">
         <v>87808970</v>
       </c>
@@ -8839,7 +8844,7 @@
       <c r="BD114" s="8"/>
       <c r="BE114" s="5"/>
     </row>
-    <row r="115" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B115" s="4">
         <v>56027003</v>
       </c>
@@ -8907,7 +8912,7 @@
       <c r="BD115" s="8"/>
       <c r="BE115" s="5"/>
     </row>
-    <row r="116" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>179</v>
       </c>
@@ -8978,7 +8983,7 @@
       <c r="BD116" s="8"/>
       <c r="BE116" s="5"/>
     </row>
-    <row r="117" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>179</v>
       </c>
@@ -9049,7 +9054,7 @@
       <c r="BD117" s="8"/>
       <c r="BE117" s="5"/>
     </row>
-    <row r="118" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>178</v>
       </c>
@@ -9120,7 +9125,7 @@
       <c r="BD118" s="8"/>
       <c r="BE118" s="5"/>
     </row>
-    <row r="119" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B119" s="4">
         <v>17032891</v>
       </c>
@@ -9188,7 +9193,7 @@
       <c r="BD119" s="8"/>
       <c r="BE119" s="5"/>
     </row>
-    <row r="120" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>178</v>
       </c>
@@ -9257,7 +9262,7 @@
       <c r="BD120" s="8"/>
       <c r="BE120" s="5"/>
     </row>
-    <row r="121" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>178</v>
       </c>
@@ -9326,7 +9331,7 @@
       <c r="BD121" s="8"/>
       <c r="BE121" s="5"/>
     </row>
-    <row r="122" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>179</v>
       </c>
@@ -9395,7 +9400,7 @@
       <c r="BD122" s="8"/>
       <c r="BE122" s="5"/>
     </row>
-    <row r="123" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>178</v>
       </c>
@@ -9464,7 +9469,7 @@
       <c r="BD123" s="8"/>
       <c r="BE123" s="5"/>
     </row>
-    <row r="124" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>178</v>
       </c>
@@ -9533,7 +9538,7 @@
       <c r="BD124" s="8"/>
       <c r="BE124" s="5"/>
     </row>
-    <row r="125" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>179</v>
       </c>
@@ -9604,7 +9609,7 @@
       <c r="BD125" s="8"/>
       <c r="BE125" s="5"/>
     </row>
-    <row r="126" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B126" s="4">
         <v>16944929</v>
       </c>
@@ -9672,7 +9677,7 @@
       <c r="BD126" s="8"/>
       <c r="BE126" s="5"/>
     </row>
-    <row r="127" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B127" s="4">
         <v>16746589</v>
       </c>
@@ -9740,7 +9745,7 @@
       <c r="BD127" s="8"/>
       <c r="BE127" s="5"/>
     </row>
-    <row r="128" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B128" s="4">
         <v>54976717</v>
       </c>
@@ -9808,7 +9813,7 @@
       <c r="BD128" s="8"/>
       <c r="BE128" s="5"/>
     </row>
-    <row r="129" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>178</v>
       </c>
@@ -9879,7 +9884,7 @@
       <c r="BD129" s="8"/>
       <c r="BE129" s="5"/>
     </row>
-    <row r="130" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B130" s="4">
         <v>54976717</v>
       </c>
@@ -9947,7 +9952,7 @@
       <c r="BD130" s="8"/>
       <c r="BE130" s="5"/>
     </row>
-    <row r="131" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>178</v>
       </c>
@@ -10018,7 +10023,7 @@
       <c r="BD131" s="8"/>
       <c r="BE131" s="5"/>
     </row>
-    <row r="132" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B132" s="4">
         <v>17283927</v>
       </c>
@@ -10086,7 +10091,7 @@
       <c r="BD132" s="8"/>
       <c r="BE132" s="5"/>
     </row>
-    <row r="133" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>178</v>
       </c>
@@ -10155,7 +10160,7 @@
       <c r="BD133" s="8"/>
       <c r="BE133" s="5"/>
     </row>
-    <row r="134" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>178</v>
       </c>
@@ -10224,7 +10229,7 @@
       <c r="BD134" s="8"/>
       <c r="BE134" s="5"/>
     </row>
-    <row r="135" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>178</v>
       </c>
@@ -10293,7 +10298,7 @@
       <c r="BD135" s="8"/>
       <c r="BE135" s="5"/>
     </row>
-    <row r="136" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>178</v>
       </c>
@@ -10362,7 +10367,7 @@
       <c r="BD136" s="8"/>
       <c r="BE136" s="5"/>
     </row>
-    <row r="137" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>178</v>
       </c>
@@ -10431,7 +10436,7 @@
       <c r="BD137" s="8"/>
       <c r="BE137" s="5"/>
     </row>
-    <row r="138" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B138" s="4">
         <v>86036368</v>
       </c>
@@ -10497,7 +10502,7 @@
       <c r="BD138" s="8"/>
       <c r="BE138" s="5"/>
     </row>
-    <row r="139" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B139" s="4">
         <v>28422342</v>
       </c>
@@ -10563,7 +10568,7 @@
       <c r="BD139" s="8"/>
       <c r="BE139" s="5"/>
     </row>
-    <row r="140" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B140" s="4">
         <v>28422342</v>
       </c>
@@ -10629,7 +10634,7 @@
       <c r="BD140" s="8"/>
       <c r="BE140" s="5"/>
     </row>
-    <row r="141" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B141" s="4">
         <v>58887529</v>
       </c>
@@ -10695,7 +10700,7 @@
       <c r="BD141" s="8"/>
       <c r="BE141" s="5"/>
     </row>
-    <row r="142" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B142" s="4">
         <v>7290296</v>
       </c>
@@ -10761,7 +10766,7 @@
       <c r="BD142" s="8"/>
       <c r="BE142" s="5"/>
     </row>
-    <row r="143" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B143" s="4">
         <v>16724169</v>
       </c>
@@ -10827,7 +10832,7 @@
       <c r="BD143" s="8"/>
       <c r="BE143" s="5"/>
     </row>
-    <row r="144" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B144" s="4">
         <v>7290296</v>
       </c>
@@ -10893,7 +10898,7 @@
       <c r="BD144" s="8"/>
       <c r="BE144" s="5"/>
     </row>
-    <row r="145" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B145" s="4">
         <v>16724169</v>
       </c>
@@ -10959,7 +10964,7 @@
       <c r="BD145" s="8"/>
       <c r="BE145" s="5"/>
     </row>
-    <row r="146" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B146" s="4">
         <v>70114204</v>
       </c>
@@ -11027,7 +11032,7 @@
       </c>
       <c r="BE146" s="5"/>
     </row>
-    <row r="147" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B147" s="4">
         <v>72605813</v>
       </c>
@@ -11095,7 +11100,7 @@
       </c>
       <c r="BE147" s="5"/>
     </row>
-    <row r="148" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B148" s="4">
         <v>47689648</v>
       </c>
@@ -11163,7 +11168,7 @@
       </c>
       <c r="BE148" s="5"/>
     </row>
-    <row r="149" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B149" s="4">
         <v>16663242</v>
       </c>
@@ -11231,7 +11236,7 @@
       </c>
       <c r="BE149" s="5"/>
     </row>
-    <row r="150" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B150" s="4">
         <v>13168638</v>
       </c>
@@ -11299,7 +11304,7 @@
       </c>
       <c r="BE150" s="5"/>
     </row>
-    <row r="151" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B151" s="4">
         <v>9455421</v>
       </c>
@@ -11367,7 +11372,7 @@
       </c>
       <c r="BE151" s="5"/>
     </row>
-    <row r="152" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B152" s="4">
         <v>27644421</v>
       </c>
@@ -11435,7 +11440,7 @@
       </c>
       <c r="BE152" s="5"/>
     </row>
-    <row r="153" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B153" s="4">
         <v>72605813</v>
       </c>
@@ -11503,7 +11508,7 @@
       </c>
       <c r="BE153" s="5"/>
     </row>
-    <row r="154" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B154" s="4">
         <v>26773108</v>
       </c>
@@ -11571,7 +11576,7 @@
       </c>
       <c r="BE154" s="5"/>
     </row>
-    <row r="155" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B155" s="4">
         <v>16663242</v>
       </c>
@@ -11639,7 +11644,7 @@
       </c>
       <c r="BE155" s="5"/>
     </row>
-    <row r="156" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B156" s="4">
         <v>27644421</v>
       </c>
@@ -11707,7 +11712,7 @@
       </c>
       <c r="BE156" s="5"/>
     </row>
-    <row r="157" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B157" s="4">
         <v>72605813</v>
       </c>
@@ -11775,7 +11780,7 @@
       </c>
       <c r="BE157" s="5"/>
     </row>
-    <row r="158" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B158" s="4">
         <v>78646777</v>
       </c>
@@ -11841,7 +11846,7 @@
         <v>1.0449999999999999</v>
       </c>
     </row>
-    <row r="159" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>179</v>
       </c>
@@ -11910,7 +11915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B160" s="4">
         <v>28379753</v>
       </c>
@@ -11976,7 +11981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>179</v>
       </c>
@@ -12053,230 +12058,234 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:BL47"/>
+  <dimension ref="A2:BM47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="AM33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G16" sqref="G16"/>
+      <selection pane="bottomRight" activeCell="AS46" sqref="AS46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.5546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="38" width="8.88671875" customWidth="1"/>
+    <col min="1" max="1" width="31.5703125" style="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.5703125" style="27" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="39" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
         <v>181</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="X2" s="2" t="s">
         <v>43</v>
       </c>
       <c r="Y2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="AA2" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="AA2" s="2" t="s">
+      <c r="AB2" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="AB2" s="2" t="s">
+      <c r="AC2" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AC2" s="2" t="s">
+      <c r="AD2" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="AD2" s="2" t="s">
+      <c r="AE2" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="AE2" s="2" t="s">
+      <c r="AF2" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="AF2" s="2" t="s">
+      <c r="AG2" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="AG2" s="2" t="s">
+      <c r="AH2" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="AH2" s="2" t="s">
+      <c r="AI2" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="AI2" s="2" t="s">
+      <c r="AJ2" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="AJ2" s="2" t="s">
+      <c r="AK2" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="AK2" s="2" t="s">
+      <c r="AL2" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="AL2" s="2" t="s">
+      <c r="AM2" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="AM2" s="2" t="s">
+      <c r="AN2" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="AN2" s="2" t="s">
+      <c r="AO2" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="AO2" s="2" t="s">
+      <c r="AP2" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="AP2" s="2" t="s">
+      <c r="AQ2" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="AQ2" s="2" t="s">
+      <c r="AR2" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="AR2" s="2" t="s">
+      <c r="AS2" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="AS2" s="2" t="s">
+      <c r="AT2" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="AT2" s="2" t="s">
+      <c r="AU2" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="AU2" s="2" t="s">
+      <c r="AV2" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="AV2" s="2" t="s">
+      <c r="AW2" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="AW2" s="2" t="s">
+      <c r="AX2" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="AX2" s="2" t="s">
+      <c r="AY2" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="AY2" s="2" t="s">
+      <c r="AZ2" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="AZ2" s="2" t="s">
+      <c r="BA2" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="BA2" s="2" t="s">
+      <c r="BB2" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="BB2" s="2" t="s">
+      <c r="BC2" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="BC2" s="2" t="s">
+      <c r="BD2" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="BD2" s="2" t="s">
+      <c r="BE2" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="BE2" s="2" t="s">
+      <c r="BF2" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="BF2" s="2" t="s">
+      <c r="BG2" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="BG2" s="2" t="s">
+      <c r="BH2" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="BH2" s="2" t="s">
+      <c r="BI2" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="BI2" s="2" t="s">
+      <c r="BJ2" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="BJ2" s="2" t="s">
+      <c r="BK2" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="BK2" s="28" t="s">
+      <c r="BL2" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="BM2" s="28" t="s">
         <v>193</v>
       </c>
-      <c r="BL2" s="28" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="3" spans="1:64" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>182</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="29">
+        <v>8868787</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="C3" s="8">
-        <v>1</v>
-      </c>
       <c r="D3" s="8">
         <v>1</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="30">
         <v>1</v>
       </c>
       <c r="F3" s="8">
@@ -12291,7 +12300,7 @@
       <c r="I3" s="8">
         <v>1</v>
       </c>
-      <c r="J3" s="8">
+      <c r="J3" s="30">
         <v>1</v>
       </c>
       <c r="K3" s="8">
@@ -12304,10 +12313,10 @@
         <v>1</v>
       </c>
       <c r="N3" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O3" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P3" s="8">
         <v>1</v>
@@ -12345,11 +12354,11 @@
       <c r="AA3" s="8">
         <v>1</v>
       </c>
-      <c r="AB3" s="8"/>
+      <c r="AB3" s="8">
+        <v>1</v>
+      </c>
       <c r="AC3" s="8"/>
-      <c r="AD3" s="8">
-        <v>1</v>
-      </c>
+      <c r="AD3" s="8"/>
       <c r="AE3" s="8">
         <v>1</v>
       </c>
@@ -12363,12 +12372,14 @@
         <v>1</v>
       </c>
       <c r="AI3" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ3" s="8">
-        <v>1</v>
-      </c>
-      <c r="AK3" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="AK3" s="8">
+        <v>1</v>
+      </c>
       <c r="AL3" s="8"/>
       <c r="AM3" s="8"/>
       <c r="AN3" s="8"/>
@@ -12396,22 +12407,23 @@
       <c r="BJ3" s="8"/>
       <c r="BK3" s="8"/>
       <c r="BL3" s="8"/>
-    </row>
-    <row r="4" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="BM3" s="8"/>
+    </row>
+    <row r="4" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>182</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="29">
+        <v>7662271</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="C4" s="8">
-        <v>1</v>
-      </c>
       <c r="D4" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="8">
         <v>1</v>
@@ -12420,34 +12432,34 @@
         <v>1</v>
       </c>
       <c r="H4" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" s="8">
         <v>0</v>
       </c>
       <c r="J4" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" s="8">
         <v>1</v>
       </c>
       <c r="L4" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4" s="8">
-        <v>1</v>
-      </c>
-      <c r="N4" s="8">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="N4" s="30">
+        <v>1</v>
       </c>
       <c r="O4" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P4" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4" s="8">
         <v>1</v>
@@ -12479,11 +12491,11 @@
       <c r="AA4" s="8">
         <v>1</v>
       </c>
-      <c r="AB4" s="8"/>
+      <c r="AB4" s="8">
+        <v>1</v>
+      </c>
       <c r="AC4" s="8"/>
-      <c r="AD4" s="8">
-        <v>1</v>
-      </c>
+      <c r="AD4" s="8"/>
       <c r="AE4" s="8">
         <v>1</v>
       </c>
@@ -12502,7 +12514,9 @@
       <c r="AJ4" s="8">
         <v>1</v>
       </c>
-      <c r="AK4" s="8"/>
+      <c r="AK4" s="8">
+        <v>1</v>
+      </c>
       <c r="AL4" s="8"/>
       <c r="AM4" s="8"/>
       <c r="AN4" s="8"/>
@@ -12530,17 +12544,16 @@
       <c r="BJ4" s="8"/>
       <c r="BK4" s="8"/>
       <c r="BL4" s="8"/>
-    </row>
-    <row r="5" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="BM4" s="8"/>
+    </row>
+    <row r="5" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>182</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="29"/>
+      <c r="C5" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="C5" s="8">
-        <v>0</v>
-      </c>
       <c r="D5" s="8">
         <v>0</v>
       </c>
@@ -12572,10 +12585,10 @@
         <v>0</v>
       </c>
       <c r="N5" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O5" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5" s="8">
         <v>0</v>
@@ -12613,30 +12626,32 @@
       <c r="AA5" s="8">
         <v>0</v>
       </c>
-      <c r="AB5" s="8"/>
+      <c r="AB5" s="8">
+        <v>0</v>
+      </c>
       <c r="AC5" s="8"/>
-      <c r="AD5" s="8">
-        <v>0</v>
-      </c>
+      <c r="AD5" s="8"/>
       <c r="AE5" s="8">
         <v>0</v>
       </c>
       <c r="AF5" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG5" s="8">
         <v>1</v>
       </c>
       <c r="AH5" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI5" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="8">
-        <v>0</v>
-      </c>
-      <c r="AK5" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="AK5" s="8">
+        <v>0</v>
+      </c>
       <c r="AL5" s="8"/>
       <c r="AM5" s="8"/>
       <c r="AN5" s="8"/>
@@ -12664,22 +12679,23 @@
       <c r="BJ5" s="8"/>
       <c r="BK5" s="8"/>
       <c r="BL5" s="8"/>
-    </row>
-    <row r="6" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="BM5" s="8"/>
+    </row>
+    <row r="6" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>182</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="29">
+        <v>24406627</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="C6" s="8">
-        <v>1</v>
-      </c>
       <c r="D6" s="8">
         <v>1</v>
       </c>
-      <c r="E6" s="8">
-        <v>0</v>
+      <c r="E6" s="30">
+        <v>1</v>
       </c>
       <c r="F6" s="8">
         <v>0</v>
@@ -12706,10 +12722,10 @@
         <v>0</v>
       </c>
       <c r="N6" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O6" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6" s="8">
         <v>0</v>
@@ -12747,30 +12763,32 @@
       <c r="AA6" s="8">
         <v>0</v>
       </c>
-      <c r="AB6" s="8"/>
+      <c r="AB6" s="8">
+        <v>0</v>
+      </c>
       <c r="AC6" s="8"/>
-      <c r="AD6" s="8">
-        <v>0</v>
-      </c>
+      <c r="AD6" s="8"/>
       <c r="AE6" s="8">
         <v>0</v>
       </c>
       <c r="AF6" s="8">
-        <v>1</v>
-      </c>
-      <c r="AG6" s="8">
-        <v>1</v>
-      </c>
-      <c r="AH6" s="8">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AG6" s="30">
+        <v>1</v>
+      </c>
+      <c r="AH6" s="30">
+        <v>1</v>
       </c>
       <c r="AI6" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="8">
-        <v>0</v>
-      </c>
-      <c r="AK6" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="AK6" s="8">
+        <v>0</v>
+      </c>
       <c r="AL6" s="8"/>
       <c r="AM6" s="8"/>
       <c r="AN6" s="8"/>
@@ -12798,19 +12816,20 @@
       <c r="BJ6" s="8"/>
       <c r="BK6" s="8"/>
       <c r="BL6" s="8"/>
-    </row>
-    <row r="7" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="BM6" s="8"/>
+    </row>
+    <row r="7" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>182</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="29">
+        <v>86509813</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="C7" s="8">
-        <v>1</v>
-      </c>
-      <c r="D7" s="8">
-        <v>0</v>
+      <c r="D7" s="31">
+        <v>1</v>
       </c>
       <c r="E7" s="8">
         <v>0</v>
@@ -12840,10 +12859,10 @@
         <v>0</v>
       </c>
       <c r="N7" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O7" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7" s="8">
         <v>0</v>
@@ -12851,17 +12870,17 @@
       <c r="Q7" s="8">
         <v>0</v>
       </c>
-      <c r="R7" s="8">
-        <v>0</v>
+      <c r="R7" s="30">
+        <v>1</v>
       </c>
       <c r="S7" s="8">
         <v>0</v>
       </c>
       <c r="T7" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U7" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V7" s="8">
         <v>0</v>
@@ -12881,30 +12900,32 @@
       <c r="AA7" s="8">
         <v>0</v>
       </c>
-      <c r="AB7" s="8"/>
+      <c r="AB7" s="8">
+        <v>0</v>
+      </c>
       <c r="AC7" s="8"/>
-      <c r="AD7" s="8">
-        <v>0</v>
-      </c>
+      <c r="AD7" s="8"/>
       <c r="AE7" s="8">
         <v>0</v>
       </c>
       <c r="AF7" s="8">
-        <v>1</v>
-      </c>
-      <c r="AG7" s="8">
-        <v>1</v>
-      </c>
-      <c r="AH7" s="8">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AG7" s="30">
+        <v>1</v>
+      </c>
+      <c r="AH7" s="30">
+        <v>1</v>
       </c>
       <c r="AI7" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="8">
         <v>1</v>
       </c>
-      <c r="AK7" s="8"/>
+      <c r="AK7" s="8">
+        <v>1</v>
+      </c>
       <c r="AL7" s="8"/>
       <c r="AM7" s="8"/>
       <c r="AN7" s="8"/>
@@ -12932,17 +12953,18 @@
       <c r="BJ7" s="8"/>
       <c r="BK7" s="8"/>
       <c r="BL7" s="8"/>
-    </row>
-    <row r="8" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="BM7" s="8"/>
+    </row>
+    <row r="8" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>182</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="29">
+        <v>24403832</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="C8" s="8">
-        <v>0</v>
-      </c>
       <c r="D8" s="8">
         <v>0</v>
       </c>
@@ -13015,11 +13037,11 @@
       <c r="AA8" s="8">
         <v>0</v>
       </c>
-      <c r="AB8" s="8"/>
+      <c r="AB8" s="8">
+        <v>0</v>
+      </c>
       <c r="AC8" s="8"/>
-      <c r="AD8" s="8">
-        <v>0</v>
-      </c>
+      <c r="AD8" s="8"/>
       <c r="AE8" s="8">
         <v>0</v>
       </c>
@@ -13038,7 +13060,9 @@
       <c r="AJ8" s="8">
         <v>0</v>
       </c>
-      <c r="AK8" s="8"/>
+      <c r="AK8" s="8">
+        <v>0</v>
+      </c>
       <c r="AL8" s="8"/>
       <c r="AM8" s="8"/>
       <c r="AN8" s="8"/>
@@ -13066,15 +13090,16 @@
       <c r="BJ8" s="8"/>
       <c r="BK8" s="8"/>
       <c r="BL8" s="8"/>
-    </row>
-    <row r="9" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="BM8" s="8"/>
+    </row>
+    <row r="9" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
-        <v>195</v>
-      </c>
-      <c r="B9" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B9" s="29"/>
+      <c r="C9" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
@@ -13099,13 +13124,13 @@
       <c r="Y9" s="8"/>
       <c r="Z9" s="8"/>
       <c r="AA9" s="8"/>
-      <c r="AB9" s="8">
-        <v>1</v>
-      </c>
+      <c r="AB9" s="8"/>
       <c r="AC9" s="8">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="AD9" s="8">
+        <v>0</v>
+      </c>
       <c r="AE9" s="8"/>
       <c r="AF9" s="8"/>
       <c r="AG9" s="8"/>
@@ -13140,15 +13165,18 @@
       <c r="BJ9" s="8"/>
       <c r="BK9" s="8"/>
       <c r="BL9" s="8"/>
-    </row>
-    <row r="10" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="BM9" s="8"/>
+    </row>
+    <row r="10" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
-        <v>195</v>
-      </c>
-      <c r="B10" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B10" s="29">
+        <v>17444264</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
@@ -13173,13 +13201,13 @@
       <c r="Y10" s="8"/>
       <c r="Z10" s="8"/>
       <c r="AA10" s="8"/>
-      <c r="AB10" s="8">
-        <v>0</v>
-      </c>
+      <c r="AB10" s="8"/>
       <c r="AC10" s="8">
-        <v>1</v>
-      </c>
-      <c r="AD10" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="AD10" s="30">
+        <v>1</v>
+      </c>
       <c r="AE10" s="8"/>
       <c r="AF10" s="8"/>
       <c r="AG10" s="8"/>
@@ -13214,15 +13242,18 @@
       <c r="BJ10" s="8"/>
       <c r="BK10" s="8"/>
       <c r="BL10" s="8"/>
-    </row>
-    <row r="11" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="BM10" s="8"/>
+    </row>
+    <row r="11" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
-        <v>195</v>
-      </c>
-      <c r="B11" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B11" s="29">
+        <v>16433111</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
@@ -13247,13 +13278,13 @@
       <c r="Y11" s="8"/>
       <c r="Z11" s="8"/>
       <c r="AA11" s="8"/>
-      <c r="AB11" s="8">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="8">
-        <v>0</v>
-      </c>
-      <c r="AD11" s="8"/>
+      <c r="AB11" s="8"/>
+      <c r="AC11" s="30">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="30">
+        <v>0</v>
+      </c>
       <c r="AE11" s="8"/>
       <c r="AF11" s="8"/>
       <c r="AG11" s="8"/>
@@ -13288,15 +13319,16 @@
       <c r="BJ11" s="8"/>
       <c r="BK11" s="8"/>
       <c r="BL11" s="8"/>
-    </row>
-    <row r="12" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="BM11" s="8"/>
+    </row>
+    <row r="12" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
-        <v>185</v>
-      </c>
-      <c r="B12" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="B12" s="29"/>
+      <c r="C12" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
@@ -13330,14 +13362,12 @@
       <c r="AH12" s="8"/>
       <c r="AI12" s="8"/>
       <c r="AJ12" s="8"/>
-      <c r="AK12" s="8">
-        <v>1</v>
-      </c>
+      <c r="AK12" s="8"/>
       <c r="AL12" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM12" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN12" s="8">
         <v>1</v>
@@ -13354,7 +13384,9 @@
       <c r="AR12" s="8">
         <v>1</v>
       </c>
-      <c r="AS12" s="8"/>
+      <c r="AS12" s="8">
+        <v>1</v>
+      </c>
       <c r="AT12" s="8"/>
       <c r="AU12" s="8"/>
       <c r="AV12" s="8"/>
@@ -13374,15 +13406,18 @@
       <c r="BJ12" s="8"/>
       <c r="BK12" s="8"/>
       <c r="BL12" s="8"/>
-    </row>
-    <row r="13" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="BM12" s="8"/>
+    </row>
+    <row r="13" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
-        <v>185</v>
-      </c>
-      <c r="B13" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="B13" s="29">
+        <v>47087859</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
@@ -13416,23 +13451,21 @@
       <c r="AH13" s="8"/>
       <c r="AI13" s="8"/>
       <c r="AJ13" s="8"/>
-      <c r="AK13" s="8">
-        <v>1</v>
-      </c>
+      <c r="AK13" s="8"/>
       <c r="AL13" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM13" s="8">
-        <v>1</v>
-      </c>
-      <c r="AN13" s="8">
+        <v>0</v>
+      </c>
+      <c r="AN13" s="30">
         <v>1</v>
       </c>
       <c r="AO13" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP13" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ13" s="8">
         <v>1</v>
@@ -13440,7 +13473,9 @@
       <c r="AR13" s="8">
         <v>1</v>
       </c>
-      <c r="AS13" s="8"/>
+      <c r="AS13" s="8">
+        <v>1</v>
+      </c>
       <c r="AT13" s="8"/>
       <c r="AU13" s="8"/>
       <c r="AV13" s="8"/>
@@ -13460,15 +13495,18 @@
       <c r="BJ13" s="8"/>
       <c r="BK13" s="8"/>
       <c r="BL13" s="8"/>
-    </row>
-    <row r="14" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="BM13" s="8"/>
+    </row>
+    <row r="14" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
-        <v>185</v>
-      </c>
-      <c r="B14" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="B14" s="29">
+        <v>17683338</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="C14" s="8"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
@@ -13502,14 +13540,12 @@
       <c r="AH14" s="8"/>
       <c r="AI14" s="8"/>
       <c r="AJ14" s="8"/>
-      <c r="AK14" s="8">
-        <v>0</v>
-      </c>
+      <c r="AK14" s="8"/>
       <c r="AL14" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM14" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN14" s="8">
         <v>0</v>
@@ -13518,15 +13554,17 @@
         <v>0</v>
       </c>
       <c r="AP14" s="8">
-        <v>1</v>
-      </c>
-      <c r="AQ14" s="8">
+        <v>0</v>
+      </c>
+      <c r="AQ14" s="30">
         <v>1</v>
       </c>
       <c r="AR14" s="8">
-        <v>0</v>
-      </c>
-      <c r="AS14" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="AS14" s="8">
+        <v>0</v>
+      </c>
       <c r="AT14" s="8"/>
       <c r="AU14" s="8"/>
       <c r="AV14" s="8"/>
@@ -13546,15 +13584,18 @@
       <c r="BJ14" s="8"/>
       <c r="BK14" s="8"/>
       <c r="BL14" s="8"/>
-    </row>
-    <row r="15" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="BM14" s="8"/>
+    </row>
+    <row r="15" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
-        <v>185</v>
-      </c>
-      <c r="B15" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="B15" s="29">
+        <v>16406103</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
@@ -13588,14 +13629,12 @@
       <c r="AH15" s="8"/>
       <c r="AI15" s="8"/>
       <c r="AJ15" s="8"/>
-      <c r="AK15" s="8">
-        <v>0</v>
-      </c>
+      <c r="AK15" s="8"/>
       <c r="AL15" s="8">
-        <v>1</v>
-      </c>
-      <c r="AM15" s="8">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AM15" s="30">
+        <v>1</v>
       </c>
       <c r="AN15" s="8">
         <v>0</v>
@@ -13612,7 +13651,9 @@
       <c r="AR15" s="8">
         <v>0</v>
       </c>
-      <c r="AS15" s="8"/>
+      <c r="AS15" s="8">
+        <v>0</v>
+      </c>
       <c r="AT15" s="8"/>
       <c r="AU15" s="8"/>
       <c r="AV15" s="8"/>
@@ -13632,15 +13673,16 @@
       <c r="BJ15" s="8"/>
       <c r="BK15" s="8"/>
       <c r="BL15" s="8"/>
-    </row>
-    <row r="16" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="BM15" s="8"/>
+    </row>
+    <row r="16" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
-        <v>185</v>
-      </c>
-      <c r="B16" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="B16" s="29"/>
+      <c r="C16" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
@@ -13674,23 +13716,21 @@
       <c r="AH16" s="8"/>
       <c r="AI16" s="8"/>
       <c r="AJ16" s="8"/>
-      <c r="AK16" s="8">
-        <v>0</v>
-      </c>
+      <c r="AK16" s="8"/>
       <c r="AL16" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM16" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN16" s="8">
         <v>0</v>
       </c>
       <c r="AO16" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP16" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ16" s="8">
         <v>0</v>
@@ -13698,7 +13738,9 @@
       <c r="AR16" s="8">
         <v>0</v>
       </c>
-      <c r="AS16" s="8"/>
+      <c r="AS16" s="8">
+        <v>0</v>
+      </c>
       <c r="AT16" s="8"/>
       <c r="AU16" s="8"/>
       <c r="AV16" s="8"/>
@@ -13718,15 +13760,18 @@
       <c r="BJ16" s="8"/>
       <c r="BK16" s="8"/>
       <c r="BL16" s="8"/>
-    </row>
-    <row r="17" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="BM16" s="8"/>
+    </row>
+    <row r="17" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
+        <v>199</v>
+      </c>
+      <c r="B17" s="29">
+        <v>47914077</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
@@ -13760,9 +13805,7 @@
       <c r="AH17" s="8"/>
       <c r="AI17" s="8"/>
       <c r="AJ17" s="8"/>
-      <c r="AK17" s="8">
-        <v>0</v>
-      </c>
+      <c r="AK17" s="8"/>
       <c r="AL17" s="8">
         <v>0</v>
       </c>
@@ -13784,7 +13827,9 @@
       <c r="AR17" s="8">
         <v>0</v>
       </c>
-      <c r="AS17" s="8"/>
+      <c r="AS17" s="8">
+        <v>0</v>
+      </c>
       <c r="AT17" s="8"/>
       <c r="AU17" s="8"/>
       <c r="AV17" s="8"/>
@@ -13804,15 +13849,18 @@
       <c r="BJ17" s="8"/>
       <c r="BK17" s="8"/>
       <c r="BL17" s="8"/>
-    </row>
-    <row r="18" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="BM17" s="8"/>
+    </row>
+    <row r="18" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="B18" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B18" s="29">
+        <v>12569927</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="C18" s="8"/>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
@@ -13854,20 +13902,18 @@
       <c r="AP18" s="8"/>
       <c r="AQ18" s="8"/>
       <c r="AR18" s="8"/>
-      <c r="AS18" s="8">
-        <v>0</v>
-      </c>
+      <c r="AS18" s="8"/>
       <c r="AT18" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU18" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV18" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW18" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX18" s="8">
         <v>0</v>
@@ -13876,16 +13922,16 @@
         <v>0</v>
       </c>
       <c r="AZ18" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA18" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB18" s="8">
         <v>0</v>
       </c>
       <c r="BC18" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="8">
         <v>0</v>
@@ -13900,21 +13946,26 @@
         <v>0</v>
       </c>
       <c r="BH18" s="8">
-        <v>1</v>
-      </c>
-      <c r="BI18" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="BI18" s="30">
+        <v>1</v>
+      </c>
       <c r="BJ18" s="8"/>
       <c r="BK18" s="8"/>
       <c r="BL18" s="8"/>
-    </row>
-    <row r="19" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="BM18" s="8"/>
+    </row>
+    <row r="19" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="B19" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B19" s="29">
+        <v>16195733</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="C19" s="8"/>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
@@ -13956,17 +14007,15 @@
       <c r="AP19" s="8"/>
       <c r="AQ19" s="8"/>
       <c r="AR19" s="8"/>
-      <c r="AS19" s="8">
-        <v>1</v>
-      </c>
+      <c r="AS19" s="8"/>
       <c r="AT19" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU19" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV19" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW19" s="8">
         <v>0</v>
@@ -13975,10 +14024,10 @@
         <v>0</v>
       </c>
       <c r="AY19" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ19" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA19" s="8">
         <v>0</v>
@@ -13987,36 +14036,41 @@
         <v>0</v>
       </c>
       <c r="BC19" s="8">
-        <v>1</v>
-      </c>
-      <c r="BD19" s="8">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="BD19" s="30">
+        <v>1</v>
       </c>
       <c r="BE19" s="8">
         <v>0</v>
       </c>
       <c r="BF19" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG19" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH19" s="8">
         <v>0</v>
       </c>
-      <c r="BI19" s="8"/>
+      <c r="BI19" s="8">
+        <v>0</v>
+      </c>
       <c r="BJ19" s="8"/>
       <c r="BK19" s="8"/>
       <c r="BL19" s="8"/>
-    </row>
-    <row r="20" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="BM19" s="8"/>
+    </row>
+    <row r="20" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A20" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="B20" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B20" s="29">
+        <v>26783789</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="C20" s="8"/>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
@@ -14058,17 +14112,15 @@
       <c r="AP20" s="8"/>
       <c r="AQ20" s="8"/>
       <c r="AR20" s="8"/>
-      <c r="AS20" s="8">
-        <v>0</v>
-      </c>
+      <c r="AS20" s="8"/>
       <c r="AT20" s="8">
-        <v>1</v>
-      </c>
-      <c r="AU20" s="8">
+        <v>0</v>
+      </c>
+      <c r="AU20" s="30">
         <v>1</v>
       </c>
       <c r="AV20" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW20" s="8">
         <v>0</v>
@@ -14077,10 +14129,10 @@
         <v>0</v>
       </c>
       <c r="AY20" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ20" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA20" s="8">
         <v>0</v>
@@ -14089,36 +14141,41 @@
         <v>0</v>
       </c>
       <c r="BC20" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE20" s="8">
         <v>0</v>
       </c>
       <c r="BF20" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG20" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH20" s="8">
         <v>0</v>
       </c>
-      <c r="BI20" s="8"/>
+      <c r="BI20" s="8">
+        <v>0</v>
+      </c>
       <c r="BJ20" s="8"/>
       <c r="BK20" s="8"/>
       <c r="BL20" s="8"/>
-    </row>
-    <row r="21" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="BM20" s="8"/>
+    </row>
+    <row r="21" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A21" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="C21" s="8"/>
+        <v>200</v>
+      </c>
+      <c r="B21" s="29">
+        <v>17276626</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>191</v>
+      </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
@@ -14160,9 +14217,7 @@
       <c r="AP21" s="8"/>
       <c r="AQ21" s="8"/>
       <c r="AR21" s="8"/>
-      <c r="AS21" s="8">
-        <v>0</v>
-      </c>
+      <c r="AS21" s="8"/>
       <c r="AT21" s="8">
         <v>0</v>
       </c>
@@ -14173,10 +14228,10 @@
         <v>0</v>
       </c>
       <c r="AW21" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX21" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY21" s="8">
         <v>0</v>
@@ -14185,19 +14240,19 @@
         <v>0</v>
       </c>
       <c r="BA21" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB21" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC21" s="8">
         <v>0</v>
       </c>
       <c r="BD21" s="8">
-        <v>1</v>
-      </c>
-      <c r="BE21" s="8">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="BE21" s="30">
+        <v>1</v>
       </c>
       <c r="BF21" s="8">
         <v>0</v>
@@ -14208,19 +14263,24 @@
       <c r="BH21" s="8">
         <v>0</v>
       </c>
-      <c r="BI21" s="8"/>
+      <c r="BI21" s="8">
+        <v>0</v>
+      </c>
       <c r="BJ21" s="8"/>
       <c r="BK21" s="8"/>
       <c r="BL21" s="8"/>
-    </row>
-    <row r="22" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="BM21" s="8"/>
+    </row>
+    <row r="22" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A22" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="C22" s="8"/>
+        <v>200</v>
+      </c>
+      <c r="B22" s="29">
+        <v>55184785</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>185</v>
+      </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
@@ -14262,9 +14322,7 @@
       <c r="AP22" s="8"/>
       <c r="AQ22" s="8"/>
       <c r="AR22" s="8"/>
-      <c r="AS22" s="8">
-        <v>0</v>
-      </c>
+      <c r="AS22" s="8"/>
       <c r="AT22" s="8">
         <v>0</v>
       </c>
@@ -14278,10 +14336,10 @@
         <v>0</v>
       </c>
       <c r="AX22" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ22" s="8">
         <v>0</v>
@@ -14290,19 +14348,19 @@
         <v>0</v>
       </c>
       <c r="BB22" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC22" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD22" s="8">
         <v>0</v>
       </c>
       <c r="BE22" s="8">
-        <v>1</v>
-      </c>
-      <c r="BF22" s="8">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="BF22" s="30">
+        <v>1</v>
       </c>
       <c r="BG22" s="8">
         <v>0</v>
@@ -14310,19 +14368,24 @@
       <c r="BH22" s="8">
         <v>0</v>
       </c>
-      <c r="BI22" s="8"/>
+      <c r="BI22" s="8">
+        <v>0</v>
+      </c>
       <c r="BJ22" s="8"/>
       <c r="BK22" s="8"/>
       <c r="BL22" s="8"/>
-    </row>
-    <row r="23" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="BM22" s="8"/>
+    </row>
+    <row r="23" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="B23" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B23" s="29">
+        <v>47694944</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="C23" s="8"/>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
@@ -14364,9 +14427,7 @@
       <c r="AP23" s="8"/>
       <c r="AQ23" s="8"/>
       <c r="AR23" s="8"/>
-      <c r="AS23" s="8">
-        <v>0</v>
-      </c>
+      <c r="AS23" s="8"/>
       <c r="AT23" s="8">
         <v>0</v>
       </c>
@@ -14412,19 +14473,24 @@
       <c r="BH23" s="8">
         <v>0</v>
       </c>
-      <c r="BI23" s="8"/>
+      <c r="BI23" s="8">
+        <v>0</v>
+      </c>
       <c r="BJ23" s="8"/>
       <c r="BK23" s="8"/>
       <c r="BL23" s="8"/>
-    </row>
-    <row r="24" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="BM23" s="8"/>
+    </row>
+    <row r="24" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
-        <v>197</v>
-      </c>
-      <c r="B24" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="B24" s="29">
+        <v>47703548</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="C24" s="8"/>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
@@ -14482,23 +14548,26 @@
       <c r="BF24" s="8"/>
       <c r="BG24" s="8"/>
       <c r="BH24" s="8"/>
-      <c r="BI24" s="8">
-        <v>1</v>
-      </c>
+      <c r="BI24" s="8"/>
       <c r="BJ24" s="8">
-        <v>0</v>
-      </c>
-      <c r="BK24" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="BK24" s="8">
+        <v>0</v>
+      </c>
       <c r="BL24" s="8"/>
-    </row>
-    <row r="25" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="BM24" s="8"/>
+    </row>
+    <row r="25" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A25" s="29" t="s">
-        <v>197</v>
-      </c>
-      <c r="B25" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="B25" s="29">
+        <v>16883950</v>
+      </c>
+      <c r="C25" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="C25" s="8"/>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
@@ -14556,23 +14625,26 @@
       <c r="BF25" s="8"/>
       <c r="BG25" s="8"/>
       <c r="BH25" s="8"/>
-      <c r="BI25" s="8">
-        <v>0</v>
-      </c>
+      <c r="BI25" s="8"/>
       <c r="BJ25" s="8">
-        <v>1</v>
-      </c>
-      <c r="BK25" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="BK25" s="8">
+        <v>1</v>
+      </c>
       <c r="BL25" s="8"/>
-    </row>
-    <row r="26" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="BM25" s="8"/>
+    </row>
+    <row r="26" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A26" s="29" t="s">
-        <v>197</v>
-      </c>
-      <c r="B26" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="B26" s="29">
+        <v>47694944</v>
+      </c>
+      <c r="C26" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="C26" s="8"/>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
@@ -14630,23 +14702,24 @@
       <c r="BF26" s="8"/>
       <c r="BG26" s="8"/>
       <c r="BH26" s="8"/>
-      <c r="BI26" s="8">
-        <v>0</v>
-      </c>
+      <c r="BI26" s="8"/>
       <c r="BJ26" s="8">
         <v>0</v>
       </c>
-      <c r="BK26" s="8"/>
+      <c r="BK26" s="8">
+        <v>0</v>
+      </c>
       <c r="BL26" s="8"/>
-    </row>
-    <row r="27" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="BM26" s="8"/>
+    </row>
+    <row r="27" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A27" s="29" t="s">
-        <v>191</v>
-      </c>
-      <c r="B27" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B27" s="29"/>
+      <c r="C27" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="C27" s="8"/>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
@@ -14679,16 +14752,16 @@
       <c r="AG27" s="8"/>
       <c r="AH27" s="8"/>
       <c r="AI27" s="8"/>
-      <c r="AJ27" s="8">
-        <v>1</v>
-      </c>
+      <c r="AJ27" s="8"/>
       <c r="AK27" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL27" s="8">
         <v>0</v>
       </c>
-      <c r="AM27" s="8"/>
+      <c r="AM27" s="8">
+        <v>0</v>
+      </c>
       <c r="AN27" s="8"/>
       <c r="AO27" s="8"/>
       <c r="AP27" s="8"/>
@@ -14714,15 +14787,18 @@
       <c r="BJ27" s="8"/>
       <c r="BK27" s="8"/>
       <c r="BL27" s="8"/>
-    </row>
-    <row r="28" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="BM27" s="8"/>
+    </row>
+    <row r="28" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A28" s="29" t="s">
-        <v>191</v>
-      </c>
-      <c r="B28" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B28" s="29">
+        <v>17429965</v>
+      </c>
+      <c r="C28" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="C28" s="8"/>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
@@ -14755,16 +14831,16 @@
       <c r="AG28" s="8"/>
       <c r="AH28" s="8"/>
       <c r="AI28" s="8"/>
-      <c r="AJ28" s="8">
-        <v>0</v>
-      </c>
+      <c r="AJ28" s="8"/>
       <c r="AK28" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL28" s="8">
-        <v>0</v>
-      </c>
-      <c r="AM28" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="AM28" s="8">
+        <v>0</v>
+      </c>
       <c r="AN28" s="8"/>
       <c r="AO28" s="8"/>
       <c r="AP28" s="8"/>
@@ -14790,15 +14866,18 @@
       <c r="BJ28" s="8"/>
       <c r="BK28" s="8"/>
       <c r="BL28" s="8"/>
-    </row>
-    <row r="29" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="BM28" s="8"/>
+    </row>
+    <row r="29" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A29" s="29" t="s">
-        <v>191</v>
-      </c>
-      <c r="B29" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B29" s="29">
+        <v>16406103</v>
+      </c>
+      <c r="C29" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="C29" s="8"/>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
@@ -14831,16 +14910,16 @@
       <c r="AG29" s="8"/>
       <c r="AH29" s="8"/>
       <c r="AI29" s="8"/>
-      <c r="AJ29" s="8">
-        <v>0</v>
-      </c>
+      <c r="AJ29" s="8"/>
       <c r="AK29" s="8">
         <v>0</v>
       </c>
       <c r="AL29" s="8">
-        <v>1</v>
-      </c>
-      <c r="AM29" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="AM29" s="8">
+        <v>1</v>
+      </c>
       <c r="AN29" s="8"/>
       <c r="AO29" s="8"/>
       <c r="AP29" s="8"/>
@@ -14866,15 +14945,18 @@
       <c r="BJ29" s="8"/>
       <c r="BK29" s="8"/>
       <c r="BL29" s="8"/>
-    </row>
-    <row r="30" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="BM29" s="8"/>
+    </row>
+    <row r="30" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A30" s="29" t="s">
-        <v>191</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="C30" s="8"/>
+        <v>190</v>
+      </c>
+      <c r="B30" s="29">
+        <v>47694944</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>185</v>
+      </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
@@ -14907,16 +14989,16 @@
       <c r="AG30" s="8"/>
       <c r="AH30" s="8"/>
       <c r="AI30" s="8"/>
-      <c r="AJ30" s="8">
-        <v>0</v>
-      </c>
+      <c r="AJ30" s="8"/>
       <c r="AK30" s="8">
         <v>0</v>
       </c>
       <c r="AL30" s="8">
         <v>0</v>
       </c>
-      <c r="AM30" s="8"/>
+      <c r="AM30" s="8">
+        <v>0</v>
+      </c>
       <c r="AN30" s="8"/>
       <c r="AO30" s="8"/>
       <c r="AP30" s="8"/>
@@ -14942,15 +15024,16 @@
       <c r="BJ30" s="8"/>
       <c r="BK30" s="8"/>
       <c r="BL30" s="8"/>
-    </row>
-    <row r="31" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="BM30" s="8"/>
+    </row>
+    <row r="31" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A31" s="29" t="s">
-        <v>187</v>
-      </c>
-      <c r="B31" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="B31" s="29"/>
+      <c r="C31" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="C31" s="8"/>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
@@ -14986,16 +15069,16 @@
       <c r="AJ31" s="8"/>
       <c r="AK31" s="8"/>
       <c r="AL31" s="8"/>
-      <c r="AM31" s="8">
-        <v>1</v>
-      </c>
+      <c r="AM31" s="8"/>
       <c r="AN31" s="8">
         <v>1</v>
       </c>
       <c r="AO31" s="8">
         <v>1</v>
       </c>
-      <c r="AP31" s="8"/>
+      <c r="AP31" s="8">
+        <v>1</v>
+      </c>
       <c r="AQ31" s="8"/>
       <c r="AR31" s="8"/>
       <c r="AS31" s="8"/>
@@ -15018,15 +15101,18 @@
       <c r="BJ31" s="8"/>
       <c r="BK31" s="8"/>
       <c r="BL31" s="8"/>
-    </row>
-    <row r="32" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="BM31" s="8"/>
+    </row>
+    <row r="32" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A32" s="29" t="s">
-        <v>187</v>
-      </c>
-      <c r="B32" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="B32" s="29">
+        <v>26955732</v>
+      </c>
+      <c r="C32" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="C32" s="8"/>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
@@ -15062,16 +15148,16 @@
       <c r="AJ32" s="8"/>
       <c r="AK32" s="8"/>
       <c r="AL32" s="8"/>
-      <c r="AM32" s="8">
-        <v>0</v>
-      </c>
-      <c r="AN32" s="8">
-        <v>1</v>
-      </c>
-      <c r="AO32" s="8">
-        <v>1</v>
-      </c>
-      <c r="AP32" s="8"/>
+      <c r="AM32" s="8"/>
+      <c r="AN32" s="30">
+        <v>1</v>
+      </c>
+      <c r="AO32" s="30">
+        <v>1</v>
+      </c>
+      <c r="AP32" s="8">
+        <v>0</v>
+      </c>
       <c r="AQ32" s="8"/>
       <c r="AR32" s="8"/>
       <c r="AS32" s="8"/>
@@ -15094,15 +15180,18 @@
       <c r="BJ32" s="8"/>
       <c r="BK32" s="8"/>
       <c r="BL32" s="8"/>
-    </row>
-    <row r="33" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="BM32" s="8"/>
+    </row>
+    <row r="33" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A33" s="29" t="s">
-        <v>187</v>
-      </c>
-      <c r="B33" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="B33" s="29">
+        <v>27437212</v>
+      </c>
+      <c r="C33" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="C33" s="8"/>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
@@ -15138,16 +15227,16 @@
       <c r="AJ33" s="8"/>
       <c r="AK33" s="8"/>
       <c r="AL33" s="8"/>
-      <c r="AM33" s="8">
-        <v>0</v>
-      </c>
+      <c r="AM33" s="8"/>
       <c r="AN33" s="8">
         <v>0</v>
       </c>
-      <c r="AO33" s="8">
-        <v>1</v>
-      </c>
-      <c r="AP33" s="8"/>
+      <c r="AO33" s="30">
+        <v>1</v>
+      </c>
+      <c r="AP33" s="8">
+        <v>0</v>
+      </c>
       <c r="AQ33" s="8"/>
       <c r="AR33" s="8"/>
       <c r="AS33" s="8"/>
@@ -15170,15 +15259,18 @@
       <c r="BJ33" s="8"/>
       <c r="BK33" s="8"/>
       <c r="BL33" s="8"/>
-    </row>
-    <row r="34" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="BM33" s="8"/>
+    </row>
+    <row r="34" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A34" s="29" t="s">
-        <v>187</v>
-      </c>
-      <c r="B34" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="B34" s="29">
+        <v>47087859</v>
+      </c>
+      <c r="C34" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="C34" s="8"/>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
@@ -15214,16 +15306,16 @@
       <c r="AJ34" s="8"/>
       <c r="AK34" s="8"/>
       <c r="AL34" s="8"/>
-      <c r="AM34" s="8">
-        <v>0</v>
-      </c>
-      <c r="AN34" s="8">
+      <c r="AM34" s="8"/>
+      <c r="AN34" s="30">
         <v>1</v>
       </c>
       <c r="AO34" s="8">
         <v>0</v>
       </c>
-      <c r="AP34" s="8"/>
+      <c r="AP34" s="8">
+        <v>0</v>
+      </c>
       <c r="AQ34" s="8"/>
       <c r="AR34" s="8"/>
       <c r="AS34" s="8"/>
@@ -15246,15 +15338,18 @@
       <c r="BJ34" s="8"/>
       <c r="BK34" s="8"/>
       <c r="BL34" s="8"/>
-    </row>
-    <row r="35" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="BM34" s="8"/>
+    </row>
+    <row r="35" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A35" s="29" t="s">
-        <v>187</v>
-      </c>
-      <c r="B35" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="C35" s="8"/>
+      <c r="B35" s="29">
+        <v>47694944</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>185</v>
+      </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
@@ -15290,16 +15385,16 @@
       <c r="AJ35" s="8"/>
       <c r="AK35" s="8"/>
       <c r="AL35" s="8"/>
-      <c r="AM35" s="8">
-        <v>0</v>
-      </c>
+      <c r="AM35" s="8"/>
       <c r="AN35" s="8">
         <v>0</v>
       </c>
       <c r="AO35" s="8">
         <v>0</v>
       </c>
-      <c r="AP35" s="8"/>
+      <c r="AP35" s="8">
+        <v>0</v>
+      </c>
       <c r="AQ35" s="8"/>
       <c r="AR35" s="8"/>
       <c r="AS35" s="8"/>
@@ -15322,15 +15417,18 @@
       <c r="BJ35" s="8"/>
       <c r="BK35" s="8"/>
       <c r="BL35" s="8"/>
-    </row>
-    <row r="36" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="BM35" s="8"/>
+    </row>
+    <row r="36" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A36" s="29" t="s">
-        <v>198</v>
-      </c>
-      <c r="B36" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="B36" s="27">
+        <v>47087859</v>
+      </c>
+      <c r="C36" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="C36" s="8"/>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
@@ -15366,10 +15464,10 @@
       <c r="AJ36" s="8"/>
       <c r="AK36" s="8"/>
       <c r="AL36" s="8"/>
-      <c r="AM36" s="8">
-        <v>1</v>
-      </c>
-      <c r="AN36" s="8"/>
+      <c r="AM36" s="8"/>
+      <c r="AN36" s="30">
+        <v>1</v>
+      </c>
       <c r="AO36" s="8"/>
       <c r="AP36" s="8"/>
       <c r="AQ36" s="8"/>
@@ -15394,15 +15492,18 @@
       <c r="BJ36" s="8"/>
       <c r="BK36" s="8"/>
       <c r="BL36" s="8"/>
-    </row>
-    <row r="37" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="BM36" s="8"/>
+    </row>
+    <row r="37" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A37" s="29" t="s">
-        <v>198</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="C37" s="8"/>
+        <v>195</v>
+      </c>
+      <c r="B37" s="29">
+        <v>41608241</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>185</v>
+      </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
@@ -15438,10 +15539,10 @@
       <c r="AJ37" s="8"/>
       <c r="AK37" s="8"/>
       <c r="AL37" s="8"/>
-      <c r="AM37" s="8">
-        <v>0</v>
-      </c>
-      <c r="AN37" s="8"/>
+      <c r="AM37" s="8"/>
+      <c r="AN37" s="8">
+        <v>0</v>
+      </c>
       <c r="AO37" s="8"/>
       <c r="AP37" s="8"/>
       <c r="AQ37" s="8"/>
@@ -15466,15 +15567,18 @@
       <c r="BJ37" s="8"/>
       <c r="BK37" s="8"/>
       <c r="BL37" s="8"/>
-    </row>
-    <row r="38" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="BM37" s="8"/>
+    </row>
+    <row r="38" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A38" s="29" t="s">
-        <v>199</v>
-      </c>
-      <c r="B38" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B38" s="29">
+        <v>47138547</v>
+      </c>
+      <c r="C38" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="C38" s="8"/>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
@@ -15511,10 +15615,10 @@
       <c r="AK38" s="8"/>
       <c r="AL38" s="8"/>
       <c r="AM38" s="8"/>
-      <c r="AN38" s="8">
-        <v>1</v>
-      </c>
-      <c r="AO38" s="8"/>
+      <c r="AN38" s="8"/>
+      <c r="AO38" s="30">
+        <v>1</v>
+      </c>
       <c r="AP38" s="8"/>
       <c r="AQ38" s="8"/>
       <c r="AR38" s="8"/>
@@ -15538,15 +15642,18 @@
       <c r="BJ38" s="8"/>
       <c r="BK38" s="8"/>
       <c r="BL38" s="8"/>
-    </row>
-    <row r="39" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="BM38" s="8"/>
+    </row>
+    <row r="39" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A39" s="29" t="s">
-        <v>199</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="C39" s="8"/>
+        <v>196</v>
+      </c>
+      <c r="B39" s="29">
+        <v>17429965</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>185</v>
+      </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
@@ -15583,10 +15690,10 @@
       <c r="AK39" s="8"/>
       <c r="AL39" s="8"/>
       <c r="AM39" s="8"/>
-      <c r="AN39" s="8">
-        <v>0</v>
-      </c>
-      <c r="AO39" s="8"/>
+      <c r="AN39" s="8"/>
+      <c r="AO39" s="8">
+        <v>0</v>
+      </c>
       <c r="AP39" s="8"/>
       <c r="AQ39" s="8"/>
       <c r="AR39" s="8"/>
@@ -15610,15 +15717,16 @@
       <c r="BJ39" s="8"/>
       <c r="BK39" s="8"/>
       <c r="BL39" s="8"/>
-    </row>
-    <row r="40" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="BM39" s="8"/>
+    </row>
+    <row r="40" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A40" s="29" t="s">
-        <v>200</v>
-      </c>
-      <c r="B40" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="B40" s="29"/>
+      <c r="C40" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="C40" s="8"/>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
@@ -15656,10 +15764,10 @@
       <c r="AL40" s="8"/>
       <c r="AM40" s="8"/>
       <c r="AN40" s="8"/>
-      <c r="AO40" s="8">
-        <v>1</v>
-      </c>
-      <c r="AP40" s="8"/>
+      <c r="AO40" s="8"/>
+      <c r="AP40" s="8">
+        <v>1</v>
+      </c>
       <c r="AQ40" s="8"/>
       <c r="AR40" s="8"/>
       <c r="AS40" s="8"/>
@@ -15682,15 +15790,18 @@
       <c r="BJ40" s="8"/>
       <c r="BK40" s="8"/>
       <c r="BL40" s="8"/>
-    </row>
-    <row r="41" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="BM40" s="8"/>
+    </row>
+    <row r="41" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A41" s="29" t="s">
-        <v>200</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="C41" s="8"/>
+        <v>197</v>
+      </c>
+      <c r="B41" s="29">
+        <v>70168229</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>185</v>
+      </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
@@ -15728,10 +15839,10 @@
       <c r="AL41" s="8"/>
       <c r="AM41" s="8"/>
       <c r="AN41" s="8"/>
-      <c r="AO41" s="8">
-        <v>0</v>
-      </c>
-      <c r="AP41" s="8"/>
+      <c r="AO41" s="8"/>
+      <c r="AP41" s="8">
+        <v>0</v>
+      </c>
       <c r="AQ41" s="8"/>
       <c r="AR41" s="8"/>
       <c r="AS41" s="8"/>
@@ -15754,15 +15865,18 @@
       <c r="BJ41" s="8"/>
       <c r="BK41" s="8"/>
       <c r="BL41" s="8"/>
-    </row>
-    <row r="42" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="BM41" s="8"/>
+    </row>
+    <row r="42" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A42" s="29" t="s">
-        <v>188</v>
-      </c>
-      <c r="B42" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B42" s="29">
+        <v>16376544</v>
+      </c>
+      <c r="C42" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="C42" s="8"/>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
@@ -15801,10 +15915,10 @@
       <c r="AM42" s="8"/>
       <c r="AN42" s="8"/>
       <c r="AO42" s="8"/>
-      <c r="AP42" s="8">
-        <v>1</v>
-      </c>
-      <c r="AQ42" s="8"/>
+      <c r="AP42" s="8"/>
+      <c r="AQ42" s="30">
+        <v>1</v>
+      </c>
       <c r="AR42" s="8"/>
       <c r="AS42" s="8"/>
       <c r="AT42" s="8"/>
@@ -15826,15 +15940,18 @@
       <c r="BJ42" s="8"/>
       <c r="BK42" s="8"/>
       <c r="BL42" s="8"/>
-    </row>
-    <row r="43" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="BM42" s="8"/>
+    </row>
+    <row r="43" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A43" s="29" t="s">
-        <v>188</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="C43" s="8"/>
+        <v>187</v>
+      </c>
+      <c r="B43" s="29">
+        <v>41608241</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>185</v>
+      </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
@@ -15873,10 +15990,10 @@
       <c r="AM43" s="8"/>
       <c r="AN43" s="8"/>
       <c r="AO43" s="8"/>
-      <c r="AP43" s="8">
-        <v>0</v>
-      </c>
-      <c r="AQ43" s="8"/>
+      <c r="AP43" s="8"/>
+      <c r="AQ43" s="8">
+        <v>0</v>
+      </c>
       <c r="AR43" s="8"/>
       <c r="AS43" s="8"/>
       <c r="AT43" s="8"/>
@@ -15898,15 +16015,18 @@
       <c r="BJ43" s="8"/>
       <c r="BK43" s="8"/>
       <c r="BL43" s="8"/>
-    </row>
-    <row r="44" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="BM43" s="8"/>
+    </row>
+    <row r="44" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A44" s="29" t="s">
-        <v>189</v>
-      </c>
-      <c r="B44" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B44" s="29">
+        <v>85922798</v>
+      </c>
+      <c r="C44" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="C44" s="8"/>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
@@ -15946,10 +16066,10 @@
       <c r="AN44" s="8"/>
       <c r="AO44" s="8"/>
       <c r="AP44" s="8"/>
-      <c r="AQ44" s="8">
-        <v>1</v>
-      </c>
-      <c r="AR44" s="8"/>
+      <c r="AQ44" s="8"/>
+      <c r="AR44" s="30">
+        <v>1</v>
+      </c>
       <c r="AS44" s="8"/>
       <c r="AT44" s="8"/>
       <c r="AU44" s="8"/>
@@ -15970,15 +16090,18 @@
       <c r="BJ44" s="8"/>
       <c r="BK44" s="8"/>
       <c r="BL44" s="8"/>
-    </row>
-    <row r="45" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="BM44" s="8"/>
+    </row>
+    <row r="45" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A45" s="29" t="s">
-        <v>189</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="C45" s="8"/>
+        <v>188</v>
+      </c>
+      <c r="B45" s="29">
+        <v>17683338</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>185</v>
+      </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
@@ -16018,10 +16141,10 @@
       <c r="AN45" s="8"/>
       <c r="AO45" s="8"/>
       <c r="AP45" s="8"/>
-      <c r="AQ45" s="8">
-        <v>0</v>
-      </c>
-      <c r="AR45" s="8"/>
+      <c r="AQ45" s="8"/>
+      <c r="AR45" s="8">
+        <v>0</v>
+      </c>
       <c r="AS45" s="8"/>
       <c r="AT45" s="8"/>
       <c r="AU45" s="8"/>
@@ -16042,15 +16165,18 @@
       <c r="BJ45" s="8"/>
       <c r="BK45" s="8"/>
       <c r="BL45" s="8"/>
-    </row>
-    <row r="46" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="BM45" s="8"/>
+    </row>
+    <row r="46" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A46" s="29" t="s">
-        <v>190</v>
-      </c>
-      <c r="B46" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="B46" s="29">
+        <v>28483094</v>
+      </c>
+      <c r="C46" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="C46" s="8"/>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
@@ -16091,10 +16217,10 @@
       <c r="AO46" s="8"/>
       <c r="AP46" s="8"/>
       <c r="AQ46" s="8"/>
-      <c r="AR46" s="8">
-        <v>1</v>
-      </c>
-      <c r="AS46" s="8"/>
+      <c r="AR46" s="8"/>
+      <c r="AS46" s="30">
+        <v>1</v>
+      </c>
       <c r="AT46" s="8"/>
       <c r="AU46" s="8"/>
       <c r="AV46" s="8"/>
@@ -16114,15 +16240,18 @@
       <c r="BJ46" s="8"/>
       <c r="BK46" s="8"/>
       <c r="BL46" s="8"/>
-    </row>
-    <row r="47" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="BM46" s="8"/>
+    </row>
+    <row r="47" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A47" s="29" t="s">
-        <v>190</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="C47" s="8"/>
+        <v>189</v>
+      </c>
+      <c r="B47" s="29">
+        <v>85922798</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>185</v>
+      </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
@@ -16163,10 +16292,10 @@
       <c r="AO47" s="8"/>
       <c r="AP47" s="8"/>
       <c r="AQ47" s="8"/>
-      <c r="AR47" s="8">
-        <v>0</v>
-      </c>
-      <c r="AS47" s="8"/>
+      <c r="AR47" s="8"/>
+      <c r="AS47" s="8">
+        <v>0</v>
+      </c>
       <c r="AT47" s="8"/>
       <c r="AU47" s="8"/>
       <c r="AV47" s="8"/>
@@ -16186,9 +16315,11 @@
       <c r="BJ47" s="8"/>
       <c r="BK47" s="8"/>
       <c r="BL47" s="8"/>
+      <c r="BM47" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -16203,9 +16334,9 @@
       <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -16336,7 +16467,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A2" s="23">
         <v>56164236</v>
       </c>
@@ -16467,7 +16598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A3" s="23">
         <v>56200741</v>
       </c>
@@ -16598,7 +16729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A4" s="23">
         <v>46493451</v>
       </c>
@@ -16729,7 +16860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A5" s="23">
         <v>69380267</v>
       </c>
@@ -16860,7 +16991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A6" s="23">
         <v>1096498</v>
       </c>
@@ -16991,7 +17122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A7" s="23">
         <v>51426635</v>
       </c>
@@ -17122,7 +17253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A8" s="23">
         <v>46944197</v>
       </c>
@@ -17253,7 +17384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A9" s="23">
         <v>28795409</v>
       </c>
@@ -17384,7 +17515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A10" s="23">
         <v>47571290</v>
       </c>
@@ -17515,7 +17646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A11" s="23">
         <v>11413968</v>
       </c>
@@ -17646,7 +17777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A12" s="23">
         <v>4344010</v>
       </c>
@@ -17777,7 +17908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A13" s="23">
         <v>74542559</v>
       </c>
@@ -17908,7 +18039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A14" s="23">
         <v>46934027</v>
       </c>
@@ -18039,7 +18170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A15" s="23">
         <v>75006472</v>
       </c>
@@ -18170,7 +18301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A16" s="23">
         <v>66951485</v>
       </c>
@@ -18301,7 +18432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A17" s="23">
         <v>28108866</v>
       </c>
@@ -18432,7 +18563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A18" s="23">
         <v>17519585</v>
       </c>
@@ -18563,7 +18694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A19" s="23">
         <v>68917819</v>
       </c>
@@ -18694,7 +18825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A20" s="23">
         <v>48382038</v>
       </c>
@@ -18825,7 +18956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A21" s="23">
         <v>73710974</v>
       </c>
@@ -18956,7 +19087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A22" s="23">
         <v>55165266</v>
       </c>
@@ -19087,7 +19218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A23" s="23">
         <v>42492903</v>
       </c>
@@ -19218,7 +19349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A24" s="23">
         <v>47124308</v>
       </c>
@@ -19349,7 +19480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A25" s="23">
         <v>90797565</v>
       </c>
@@ -19480,7 +19611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A26" s="23">
         <v>15164879</v>
       </c>
@@ -19611,7 +19742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A27" s="23">
         <v>46413030</v>
       </c>
@@ -19742,7 +19873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A28" s="23">
         <v>91345613</v>
       </c>
@@ -19873,7 +20004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A29" s="23">
         <v>64188683</v>
       </c>
@@ -20004,7 +20135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A30" s="23">
         <v>73117537</v>
       </c>
@@ -20135,7 +20266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A31" s="23">
         <v>13279902</v>
       </c>
@@ -20266,7 +20397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A32" s="23">
         <v>84792928</v>
       </c>
@@ -20397,7 +20528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A33" s="23">
         <v>17390759</v>
       </c>
@@ -20528,7 +20659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A34" s="23">
         <v>64014417</v>
       </c>
@@ -20659,7 +20790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A35" s="23">
         <v>85910106</v>
       </c>
@@ -20790,7 +20921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A36" s="23">
         <v>79435129</v>
       </c>
@@ -20937,12 +21068,12 @@
       <selection pane="bottomRight" activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.109375" style="3"/>
+    <col min="1" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -21124,7 +21255,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="2" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A2" s="23">
         <v>47124308</v>
       </c>
@@ -21306,7 +21437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A3" s="23">
         <v>4344010</v>
       </c>
@@ -21488,7 +21619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A4" s="23">
         <v>46493451</v>
       </c>
@@ -21670,7 +21801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A5" s="23">
         <v>13279902</v>
       </c>
@@ -21852,7 +21983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A6" s="23">
         <v>28108866</v>
       </c>
@@ -22034,7 +22165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A7" s="23">
         <v>85910106</v>
       </c>
@@ -22216,7 +22347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A8" s="23">
         <v>17519585</v>
       </c>
@@ -22398,7 +22529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A9" s="23">
         <v>46934027</v>
       </c>
@@ -22580,7 +22711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A10" s="23">
         <v>64014417</v>
       </c>
@@ -22762,7 +22893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A11" s="23">
         <v>51426635</v>
       </c>
@@ -22944,7 +23075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A12" s="23">
         <v>11413968</v>
       </c>
@@ -23126,7 +23257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A13" s="23">
         <v>84792928</v>
       </c>
@@ -23308,7 +23439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A14" s="23">
         <v>56200741</v>
       </c>
@@ -23490,7 +23621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A15" s="23">
         <v>48382038</v>
       </c>
@@ -23672,7 +23803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A16" s="23">
         <v>91345613</v>
       </c>
@@ -23854,7 +23985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A17" s="23">
         <v>69380267</v>
       </c>
@@ -24036,7 +24167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A18" s="23">
         <v>73710974</v>
       </c>
@@ -24218,7 +24349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A19" s="23">
         <v>68917819</v>
       </c>
@@ -24400,7 +24531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A20" s="23">
         <v>66951485</v>
       </c>
@@ -24582,7 +24713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A21" s="23">
         <v>64188683</v>
       </c>
@@ -24764,7 +24895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A22" s="23">
         <v>79435129</v>
       </c>
@@ -24946,7 +25077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A23" s="23">
         <v>1096498</v>
       </c>
@@ -25128,7 +25259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A24" s="23">
         <v>73117537</v>
       </c>
@@ -25310,7 +25441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A25" s="23">
         <v>55165266</v>
       </c>
@@ -25492,7 +25623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A26" s="23">
         <v>15164879</v>
       </c>
@@ -25674,7 +25805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A27" s="23">
         <v>75006472</v>
       </c>
@@ -25856,7 +25987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A28" s="23">
         <v>46413030</v>
       </c>
@@ -26038,7 +26169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A29" s="23">
         <v>90797565</v>
       </c>
@@ -26220,7 +26351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A30" s="23">
         <v>46944197</v>
       </c>
@@ -26402,7 +26533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A31" s="23">
         <v>74542559</v>
       </c>
@@ -26584,7 +26715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A32" s="23">
         <v>17390759</v>
       </c>
@@ -26766,7 +26897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A33" s="23">
         <v>56164236</v>
       </c>
@@ -26948,7 +27079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A34" s="23">
         <v>28795409</v>
       </c>
@@ -27130,7 +27261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A35" s="23">
         <v>42492903</v>
       </c>
@@ -27312,7 +27443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A36" s="23">
         <v>47571290</v>
       </c>

--- a/earlywarning-pom/Document/test/SME RETAIL/test_BR_SME_Retail.xlsx
+++ b/earlywarning-pom/Document/test/SME RETAIL/test_BR_SME_Retail.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1299" uniqueCount="208">
   <si>
     <t>SNDG</t>
   </si>
@@ -629,6 +629,24 @@
   <si>
     <t>semaforo_Preammortamenti</t>
   </si>
+  <si>
+    <t>2 o 7</t>
+  </si>
+  <si>
+    <t>tutte zero</t>
+  </si>
+  <si>
+    <t>2 o 34 o 35</t>
+  </si>
+  <si>
+    <t>15 o 34 o 35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">br sufficienti </t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
 </sst>
 </file>
 
@@ -12058,13 +12076,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:BM47"/>
+  <dimension ref="A2:BN47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="AM33" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="BH3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AS46" sqref="AS46"/>
+      <selection pane="bottomRight" activeCell="BN6" sqref="BN6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12073,9 +12091,10 @@
     <col min="2" max="2" width="29.5703125" style="27" customWidth="1"/>
     <col min="3" max="3" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="39" width="8.85546875" customWidth="1"/>
+    <col min="66" max="66" width="29.5703125" style="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
         <v>181</v>
       </c>
@@ -12271,8 +12290,11 @@
       <c r="BM2" s="28" t="s">
         <v>193</v>
       </c>
+      <c r="BN2" s="2" t="s">
+        <v>206</v>
+      </c>
     </row>
-    <row r="3" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>182</v>
       </c>
@@ -12406,10 +12428,17 @@
       <c r="BI3" s="8"/>
       <c r="BJ3" s="8"/>
       <c r="BK3" s="8"/>
-      <c r="BL3" s="8"/>
-      <c r="BM3" s="8"/>
+      <c r="BL3" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="BM3" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="BN3" s="29" t="s">
+        <v>202</v>
+      </c>
     </row>
-    <row r="4" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>182</v>
       </c>
@@ -12543,10 +12572,17 @@
       <c r="BI4" s="8"/>
       <c r="BJ4" s="8"/>
       <c r="BK4" s="8"/>
-      <c r="BL4" s="8"/>
-      <c r="BM4" s="8"/>
+      <c r="BL4" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="BM4" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="BN4" s="29">
+        <v>12</v>
+      </c>
     </row>
-    <row r="5" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>182</v>
       </c>
@@ -12678,10 +12714,11 @@
       <c r="BI5" s="8"/>
       <c r="BJ5" s="8"/>
       <c r="BK5" s="8"/>
-      <c r="BL5" s="8"/>
+      <c r="BL5" s="5"/>
       <c r="BM5" s="8"/>
+      <c r="BN5" s="29"/>
     </row>
-    <row r="6" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>182</v>
       </c>
@@ -12815,10 +12852,17 @@
       <c r="BI6" s="8"/>
       <c r="BJ6" s="8"/>
       <c r="BK6" s="8"/>
-      <c r="BL6" s="8"/>
-      <c r="BM6" s="8"/>
+      <c r="BL6" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="BM6" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="BN6" s="29" t="s">
+        <v>204</v>
+      </c>
     </row>
-    <row r="7" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>182</v>
       </c>
@@ -12952,10 +12996,17 @@
       <c r="BI7" s="8"/>
       <c r="BJ7" s="8"/>
       <c r="BK7" s="8"/>
-      <c r="BL7" s="8"/>
-      <c r="BM7" s="8"/>
+      <c r="BL7" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="BM7" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="BN7" s="29" t="s">
+        <v>205</v>
+      </c>
     </row>
-    <row r="8" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>182</v>
       </c>
@@ -13089,10 +13140,17 @@
       <c r="BI8" s="8"/>
       <c r="BJ8" s="8"/>
       <c r="BK8" s="8"/>
-      <c r="BL8" s="8"/>
-      <c r="BM8" s="8"/>
+      <c r="BL8" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="BM8" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="BN8" s="29" t="s">
+        <v>203</v>
+      </c>
     </row>
-    <row r="9" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>194</v>
       </c>
@@ -13164,10 +13222,11 @@
       <c r="BI9" s="8"/>
       <c r="BJ9" s="8"/>
       <c r="BK9" s="8"/>
-      <c r="BL9" s="8"/>
+      <c r="BL9" s="5"/>
       <c r="BM9" s="8"/>
+      <c r="BN9" s="29"/>
     </row>
-    <row r="10" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>194</v>
       </c>
@@ -13241,10 +13300,17 @@
       <c r="BI10" s="8"/>
       <c r="BJ10" s="8"/>
       <c r="BK10" s="8"/>
-      <c r="BL10" s="8"/>
-      <c r="BM10" s="8"/>
+      <c r="BL10" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="BM10" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="BN10" s="29">
+        <v>529</v>
+      </c>
     </row>
-    <row r="11" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
         <v>194</v>
       </c>
@@ -13318,10 +13384,17 @@
       <c r="BI11" s="8"/>
       <c r="BJ11" s="8"/>
       <c r="BK11" s="8"/>
-      <c r="BL11" s="8"/>
-      <c r="BM11" s="8"/>
+      <c r="BL11" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="BM11" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="BN11" s="29" t="s">
+        <v>203</v>
+      </c>
     </row>
-    <row r="12" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
         <v>199</v>
       </c>
@@ -13405,10 +13478,11 @@
       <c r="BI12" s="8"/>
       <c r="BJ12" s="8"/>
       <c r="BK12" s="8"/>
-      <c r="BL12" s="8"/>
+      <c r="BL12" s="5"/>
       <c r="BM12" s="8"/>
+      <c r="BN12" s="29"/>
     </row>
-    <row r="13" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
         <v>199</v>
       </c>
@@ -13494,10 +13568,17 @@
       <c r="BI13" s="8"/>
       <c r="BJ13" s="8"/>
       <c r="BK13" s="8"/>
-      <c r="BL13" s="8"/>
-      <c r="BM13" s="8"/>
+      <c r="BL13" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="BM13" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="BN13" s="29">
+        <v>160</v>
+      </c>
     </row>
-    <row r="14" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
         <v>199</v>
       </c>
@@ -13583,10 +13664,17 @@
       <c r="BI14" s="8"/>
       <c r="BJ14" s="8"/>
       <c r="BK14" s="8"/>
-      <c r="BL14" s="8"/>
-      <c r="BM14" s="8"/>
+      <c r="BL14" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="BM14" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="BN14" s="29">
+        <v>163</v>
+      </c>
     </row>
-    <row r="15" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
         <v>199</v>
       </c>
@@ -13672,10 +13760,17 @@
       <c r="BI15" s="8"/>
       <c r="BJ15" s="8"/>
       <c r="BK15" s="8"/>
-      <c r="BL15" s="8"/>
-      <c r="BM15" s="8"/>
+      <c r="BL15" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="BM15" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="BN15" s="29">
+        <v>118</v>
+      </c>
     </row>
-    <row r="16" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>199</v>
       </c>
@@ -13759,10 +13854,11 @@
       <c r="BI16" s="8"/>
       <c r="BJ16" s="8"/>
       <c r="BK16" s="8"/>
-      <c r="BL16" s="8"/>
+      <c r="BL16" s="5"/>
       <c r="BM16" s="8"/>
+      <c r="BN16" s="29"/>
     </row>
-    <row r="17" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>199</v>
       </c>
@@ -13848,10 +13944,17 @@
       <c r="BI17" s="8"/>
       <c r="BJ17" s="8"/>
       <c r="BK17" s="8"/>
-      <c r="BL17" s="8"/>
-      <c r="BM17" s="8"/>
+      <c r="BL17" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="BM17" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="BN17" s="29" t="s">
+        <v>203</v>
+      </c>
     </row>
-    <row r="18" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
         <v>200</v>
       </c>
@@ -13953,10 +14056,17 @@
       </c>
       <c r="BJ18" s="8"/>
       <c r="BK18" s="8"/>
-      <c r="BL18" s="8"/>
-      <c r="BM18" s="8"/>
+      <c r="BL18" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="BM18" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="BN18" s="29">
+        <v>112</v>
+      </c>
     </row>
-    <row r="19" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
         <v>200</v>
       </c>
@@ -14058,10 +14168,17 @@
       </c>
       <c r="BJ19" s="8"/>
       <c r="BK19" s="8"/>
-      <c r="BL19" s="8"/>
-      <c r="BM19" s="8"/>
+      <c r="BL19" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="BM19" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="BN19" s="29">
+        <v>109</v>
+      </c>
     </row>
-    <row r="20" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A20" s="29" t="s">
         <v>200</v>
       </c>
@@ -14163,10 +14280,17 @@
       </c>
       <c r="BJ20" s="8"/>
       <c r="BK20" s="8"/>
-      <c r="BL20" s="8"/>
-      <c r="BM20" s="8"/>
+      <c r="BL20" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="BM20" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="BN20" s="29">
+        <v>108</v>
+      </c>
     </row>
-    <row r="21" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A21" s="29" t="s">
         <v>200</v>
       </c>
@@ -14268,10 +14392,17 @@
       </c>
       <c r="BJ21" s="8"/>
       <c r="BK21" s="8"/>
-      <c r="BL21" s="8"/>
-      <c r="BM21" s="8"/>
+      <c r="BL21" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="BM21" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="BN21" s="29">
+        <v>509</v>
+      </c>
     </row>
-    <row r="22" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A22" s="29" t="s">
         <v>200</v>
       </c>
@@ -14373,10 +14504,17 @@
       </c>
       <c r="BJ22" s="8"/>
       <c r="BK22" s="8"/>
-      <c r="BL22" s="8"/>
-      <c r="BM22" s="8"/>
+      <c r="BL22" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="BM22" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="BN22" s="29">
+        <v>128</v>
+      </c>
     </row>
-    <row r="23" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
         <v>200</v>
       </c>
@@ -14478,10 +14616,17 @@
       </c>
       <c r="BJ23" s="8"/>
       <c r="BK23" s="8"/>
-      <c r="BL23" s="8"/>
-      <c r="BM23" s="8"/>
+      <c r="BL23" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="BM23" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="BN23" s="29" t="s">
+        <v>203</v>
+      </c>
     </row>
-    <row r="24" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
         <v>201</v>
       </c>
@@ -14549,16 +14694,23 @@
       <c r="BG24" s="8"/>
       <c r="BH24" s="8"/>
       <c r="BI24" s="8"/>
-      <c r="BJ24" s="8">
+      <c r="BJ24" s="30">
         <v>1</v>
       </c>
       <c r="BK24" s="8">
         <v>0</v>
       </c>
-      <c r="BL24" s="8"/>
-      <c r="BM24" s="8"/>
+      <c r="BL24" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="BM24" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="BN24" s="29">
+        <v>114</v>
+      </c>
     </row>
-    <row r="25" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A25" s="29" t="s">
         <v>201</v>
       </c>
@@ -14629,13 +14781,20 @@
       <c r="BJ25" s="8">
         <v>0</v>
       </c>
-      <c r="BK25" s="8">
-        <v>1</v>
-      </c>
-      <c r="BL25" s="8"/>
-      <c r="BM25" s="8"/>
+      <c r="BK25" s="30">
+        <v>1</v>
+      </c>
+      <c r="BL25" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="BM25" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="BN25" s="29">
+        <v>113</v>
+      </c>
     </row>
-    <row r="26" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A26" s="29" t="s">
         <v>201</v>
       </c>
@@ -14709,10 +14868,17 @@
       <c r="BK26" s="8">
         <v>0</v>
       </c>
-      <c r="BL26" s="8"/>
-      <c r="BM26" s="8"/>
+      <c r="BL26" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="BM26" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="BN26" s="29" t="s">
+        <v>203</v>
+      </c>
     </row>
-    <row r="27" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A27" s="29" t="s">
         <v>190</v>
       </c>
@@ -14786,10 +14952,11 @@
       <c r="BI27" s="8"/>
       <c r="BJ27" s="8"/>
       <c r="BK27" s="8"/>
-      <c r="BL27" s="8"/>
+      <c r="BL27" s="5"/>
       <c r="BM27" s="8"/>
+      <c r="BN27" s="29"/>
     </row>
-    <row r="28" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A28" s="29" t="s">
         <v>190</v>
       </c>
@@ -14835,7 +15002,7 @@
       <c r="AK28" s="8">
         <v>0</v>
       </c>
-      <c r="AL28" s="8">
+      <c r="AL28" s="30">
         <v>1</v>
       </c>
       <c r="AM28" s="8">
@@ -14865,10 +15032,17 @@
       <c r="BI28" s="8"/>
       <c r="BJ28" s="8"/>
       <c r="BK28" s="8"/>
-      <c r="BL28" s="8"/>
-      <c r="BM28" s="8"/>
+      <c r="BL28" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="BM28" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="BN28" s="29">
+        <v>117</v>
+      </c>
     </row>
-    <row r="29" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A29" s="29" t="s">
         <v>190</v>
       </c>
@@ -14917,7 +15091,7 @@
       <c r="AL29" s="8">
         <v>0</v>
       </c>
-      <c r="AM29" s="8">
+      <c r="AM29" s="30">
         <v>1</v>
       </c>
       <c r="AN29" s="8"/>
@@ -14944,10 +15118,17 @@
       <c r="BI29" s="8"/>
       <c r="BJ29" s="8"/>
       <c r="BK29" s="8"/>
-      <c r="BL29" s="8"/>
-      <c r="BM29" s="8"/>
+      <c r="BL29" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="BM29" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="BN29" s="29">
+        <v>118</v>
+      </c>
     </row>
-    <row r="30" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A30" s="29" t="s">
         <v>190</v>
       </c>
@@ -15023,10 +15204,17 @@
       <c r="BI30" s="8"/>
       <c r="BJ30" s="8"/>
       <c r="BK30" s="8"/>
-      <c r="BL30" s="8"/>
-      <c r="BM30" s="8"/>
+      <c r="BL30" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="BM30" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="BN30" s="29" t="s">
+        <v>203</v>
+      </c>
     </row>
-    <row r="31" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A31" s="29" t="s">
         <v>186</v>
       </c>
@@ -15100,10 +15288,11 @@
       <c r="BI31" s="8"/>
       <c r="BJ31" s="8"/>
       <c r="BK31" s="8"/>
-      <c r="BL31" s="8"/>
+      <c r="BL31" s="5"/>
       <c r="BM31" s="8"/>
+      <c r="BN31" s="29"/>
     </row>
-    <row r="32" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A32" s="29" t="s">
         <v>186</v>
       </c>
@@ -15179,10 +15368,17 @@
       <c r="BI32" s="8"/>
       <c r="BJ32" s="8"/>
       <c r="BK32" s="8"/>
-      <c r="BL32" s="8"/>
-      <c r="BM32" s="8"/>
+      <c r="BL32" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="BM32" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="BN32" s="29">
+        <v>161</v>
+      </c>
     </row>
-    <row r="33" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A33" s="29" t="s">
         <v>186</v>
       </c>
@@ -15258,10 +15454,17 @@
       <c r="BI33" s="8"/>
       <c r="BJ33" s="8"/>
       <c r="BK33" s="8"/>
-      <c r="BL33" s="8"/>
-      <c r="BM33" s="8"/>
+      <c r="BL33" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="BM33" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="BN33" s="29">
+        <v>161</v>
+      </c>
     </row>
-    <row r="34" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A34" s="29" t="s">
         <v>186</v>
       </c>
@@ -15337,10 +15540,17 @@
       <c r="BI34" s="8"/>
       <c r="BJ34" s="8"/>
       <c r="BK34" s="8"/>
-      <c r="BL34" s="8"/>
-      <c r="BM34" s="8"/>
+      <c r="BL34" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="BM34" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="BN34" s="29">
+        <v>160</v>
+      </c>
     </row>
-    <row r="35" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A35" s="29" t="s">
         <v>186</v>
       </c>
@@ -15416,10 +15626,17 @@
       <c r="BI35" s="8"/>
       <c r="BJ35" s="8"/>
       <c r="BK35" s="8"/>
-      <c r="BL35" s="8"/>
-      <c r="BM35" s="8"/>
+      <c r="BL35" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="BM35" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="BN35" s="29" t="s">
+        <v>203</v>
+      </c>
     </row>
-    <row r="36" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A36" s="29" t="s">
         <v>195</v>
       </c>
@@ -15491,10 +15708,17 @@
       <c r="BI36" s="8"/>
       <c r="BJ36" s="8"/>
       <c r="BK36" s="8"/>
-      <c r="BL36" s="8"/>
-      <c r="BM36" s="8"/>
+      <c r="BL36" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="BM36" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="BN36" s="27">
+        <v>160</v>
+      </c>
     </row>
-    <row r="37" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A37" s="29" t="s">
         <v>195</v>
       </c>
@@ -15566,10 +15790,17 @@
       <c r="BI37" s="8"/>
       <c r="BJ37" s="8"/>
       <c r="BK37" s="8"/>
-      <c r="BL37" s="8"/>
-      <c r="BM37" s="8"/>
+      <c r="BL37" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="BM37" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="BN37" s="29" t="s">
+        <v>203</v>
+      </c>
     </row>
-    <row r="38" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A38" s="29" t="s">
         <v>196</v>
       </c>
@@ -15641,10 +15872,17 @@
       <c r="BI38" s="8"/>
       <c r="BJ38" s="8"/>
       <c r="BK38" s="8"/>
-      <c r="BL38" s="8"/>
-      <c r="BM38" s="8"/>
+      <c r="BL38" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="BM38" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="BN38" s="29">
+        <v>161</v>
+      </c>
     </row>
-    <row r="39" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A39" s="29" t="s">
         <v>196</v>
       </c>
@@ -15716,10 +15954,17 @@
       <c r="BI39" s="8"/>
       <c r="BJ39" s="8"/>
       <c r="BK39" s="8"/>
-      <c r="BL39" s="8"/>
-      <c r="BM39" s="8"/>
+      <c r="BL39" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="BM39" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="BN39" s="29" t="s">
+        <v>203</v>
+      </c>
     </row>
-    <row r="40" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A40" s="29" t="s">
         <v>197</v>
       </c>
@@ -15789,10 +16034,11 @@
       <c r="BI40" s="8"/>
       <c r="BJ40" s="8"/>
       <c r="BK40" s="8"/>
-      <c r="BL40" s="8"/>
+      <c r="BL40" s="5"/>
       <c r="BM40" s="8"/>
+      <c r="BN40" s="29"/>
     </row>
-    <row r="41" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A41" s="29" t="s">
         <v>197</v>
       </c>
@@ -15864,10 +16110,15 @@
       <c r="BI41" s="8"/>
       <c r="BJ41" s="8"/>
       <c r="BK41" s="8"/>
-      <c r="BL41" s="8"/>
-      <c r="BM41" s="8"/>
+      <c r="BL41" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="BM41" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="BN41" s="29"/>
     </row>
-    <row r="42" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A42" s="29" t="s">
         <v>187</v>
       </c>
@@ -15939,10 +16190,17 @@
       <c r="BI42" s="8"/>
       <c r="BJ42" s="8"/>
       <c r="BK42" s="8"/>
-      <c r="BL42" s="8"/>
-      <c r="BM42" s="8"/>
+      <c r="BL42" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="BM42" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="BN42" s="29">
+        <v>163</v>
+      </c>
     </row>
-    <row r="43" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A43" s="29" t="s">
         <v>187</v>
       </c>
@@ -16014,10 +16272,17 @@
       <c r="BI43" s="8"/>
       <c r="BJ43" s="8"/>
       <c r="BK43" s="8"/>
-      <c r="BL43" s="8"/>
-      <c r="BM43" s="8"/>
+      <c r="BL43" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="BM43" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="BN43" s="29" t="s">
+        <v>203</v>
+      </c>
     </row>
-    <row r="44" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A44" s="29" t="s">
         <v>188</v>
       </c>
@@ -16089,10 +16354,17 @@
       <c r="BI44" s="8"/>
       <c r="BJ44" s="8"/>
       <c r="BK44" s="8"/>
-      <c r="BL44" s="8"/>
-      <c r="BM44" s="8"/>
+      <c r="BL44" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="BM44" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="BN44" s="29">
+        <v>146</v>
+      </c>
     </row>
-    <row r="45" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A45" s="29" t="s">
         <v>188</v>
       </c>
@@ -16164,10 +16436,17 @@
       <c r="BI45" s="8"/>
       <c r="BJ45" s="8"/>
       <c r="BK45" s="8"/>
-      <c r="BL45" s="8"/>
-      <c r="BM45" s="8"/>
+      <c r="BL45" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="BM45" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="BN45" s="29" t="s">
+        <v>203</v>
+      </c>
     </row>
-    <row r="46" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A46" s="29" t="s">
         <v>189</v>
       </c>
@@ -16239,10 +16518,17 @@
       <c r="BI46" s="8"/>
       <c r="BJ46" s="8"/>
       <c r="BK46" s="8"/>
-      <c r="BL46" s="8"/>
-      <c r="BM46" s="8"/>
+      <c r="BL46" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="BM46" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="BN46" s="29">
+        <v>148</v>
+      </c>
     </row>
-    <row r="47" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A47" s="29" t="s">
         <v>189</v>
       </c>
@@ -16314,8 +16600,15 @@
       <c r="BI47" s="8"/>
       <c r="BJ47" s="8"/>
       <c r="BK47" s="8"/>
-      <c r="BL47" s="8"/>
-      <c r="BM47" s="8"/>
+      <c r="BL47" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="BM47" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="BN47" s="29" t="s">
+        <v>203</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
